--- a/analysis/dashilar.xlsx
+++ b/analysis/dashilar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Box Sync\Danil Working\SZC\_data collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Documents\GitHub\IL-POC\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="weibo_dashilar_withCounts" localSheetId="0">Sheet1!$B$1:$T$120</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="605">
   <si>
     <t>address</t>
   </si>
@@ -986,10 +986,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>铁树斜街44号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杨梅竹斜街31号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1362,10 +1358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内观堂旧书店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weibo count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1457,16 +1449,7 @@
     <t>大栅栏街道弓字胡同10号</t>
   </si>
   <si>
-    <t>内观堂Bookstore</t>
-  </si>
-  <si>
-    <t>书店</t>
-  </si>
-  <si>
     <t>虎坊桥</t>
-  </si>
-  <si>
-    <t>铁树斜街胡同</t>
   </si>
   <si>
     <t>采瓷坊工艺品商行</t>
@@ -2000,6 +1983,9 @@
   </si>
   <si>
     <t>前门西大街甲10号近宣武门东大街-全聚德展览馆北侧-和平门邮政支局西北侧</t>
+  </si>
+  <si>
+    <t>combined_count</t>
   </si>
 </sst>
 </file>
@@ -2055,7 +2041,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2074,12 +2060,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2325,7 +2305,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2347,7 +2327,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="233">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2864,16 +2843,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U204"/>
+  <dimension ref="A1:V203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I164" workbookViewId="0">
-      <selection activeCell="R200" sqref="R200"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="5" width="23.140625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="23.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.140625" style="1" customWidth="1"/>
@@ -2882,41 +2862,44 @@
     <col min="11" max="11" width="16.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="18" style="1" customWidth="1"/>
     <col min="13" max="13" width="19.42578125" style="2" customWidth="1"/>
-    <col min="14" max="19" width="12.140625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="12.140625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="12" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11" style="2" customWidth="1"/>
     <col min="20" max="20" width="13.5703125" style="1" customWidth="1"/>
     <col min="21" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>284</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="H1" t="s">
         <v>599</v>
-      </c>
-      <c r="H1" t="s">
-        <v>604</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="L1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>301</v>
@@ -2933,20 +2916,23 @@
       <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>601</v>
+      <c r="R1" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>596</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="U1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+        <v>402</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2963,7 +2949,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
@@ -2986,8 +2972,12 @@
       <c r="U2" s="1">
         <v>9258</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" s="1">
+        <f>T2+U2</f>
+        <v>14110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3001,7 +2991,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>8</v>
@@ -3024,8 +3014,12 @@
       <c r="U3" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" s="1">
+        <f t="shared" ref="V3:V66" si="0">T3+U3</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3056,8 +3050,12 @@
       <c r="T4" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" s="1">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3068,7 +3066,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>13</v>
@@ -3088,8 +3086,12 @@
       <c r="T5" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3100,7 +3102,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>16</v>
@@ -3120,8 +3122,12 @@
       <c r="T6" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3135,7 +3141,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>18</v>
@@ -3158,8 +3164,12 @@
       <c r="U7" s="1">
         <v>303</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" s="1">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3187,8 +3197,12 @@
       <c r="T8" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3202,7 +3216,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>22</v>
@@ -3225,8 +3239,12 @@
       <c r="U9" s="1">
         <v>2459</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" s="1">
+        <f t="shared" si="0"/>
+        <v>5061</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3254,8 +3272,12 @@
       <c r="T10" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10" s="1">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3269,7 +3291,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>26</v>
@@ -3292,8 +3314,12 @@
       <c r="U11" s="1">
         <v>410</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11" s="1">
+        <f t="shared" si="0"/>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3324,8 +3350,12 @@
       <c r="T12" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3339,7 +3369,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>283</v>
@@ -3362,8 +3392,12 @@
       <c r="U13">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3377,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>32</v>
@@ -3400,8 +3434,12 @@
       <c r="U14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3415,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>34</v>
@@ -3438,8 +3476,12 @@
       <c r="U15">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3453,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>36</v>
@@ -3476,8 +3518,12 @@
       <c r="U16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3491,7 +3537,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>38</v>
@@ -3514,8 +3560,12 @@
       <c r="U17">
         <v>296</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17" s="1">
+        <f t="shared" si="0"/>
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3526,7 +3576,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>40</v>
@@ -3546,8 +3596,12 @@
       <c r="T18" s="1">
         <v>365</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18" s="1">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3558,7 +3612,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>42</v>
@@ -3578,8 +3632,12 @@
       <c r="T19" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19" s="1">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3593,7 +3651,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>44</v>
@@ -3616,8 +3674,12 @@
       <c r="U20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3648,8 +3710,12 @@
       <c r="T21" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3666,7 +3732,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>49</v>
@@ -3689,8 +3755,12 @@
       <c r="U22">
         <v>361</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="V22" s="1">
+        <f t="shared" si="0"/>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3718,8 +3788,12 @@
       <c r="T23" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3750,8 +3824,12 @@
       <c r="T24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="V24" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3782,8 +3860,12 @@
       <c r="T25" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="V25" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3794,7 +3876,7 @@
         <v>5</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>59</v>
@@ -3814,8 +3896,12 @@
       <c r="T26" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="V26" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3846,8 +3932,12 @@
       <c r="T27" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="V27" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3878,8 +3968,12 @@
       <c r="T28" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="V28" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3907,8 +4001,12 @@
       <c r="T29" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="V29" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3936,8 +4034,12 @@
       <c r="T30" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="V30" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3968,8 +4070,12 @@
       <c r="T31" s="1">
         <v>11493</v>
       </c>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="V31" s="1">
+        <f t="shared" si="0"/>
+        <v>11493</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4000,8 +4106,12 @@
       <c r="T32" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="V32" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4032,8 +4142,12 @@
       <c r="T33" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="V33" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4047,7 +4161,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>79</v>
@@ -4070,8 +4184,12 @@
       <c r="U34">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="V34" s="1">
+        <f t="shared" si="0"/>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4085,7 +4203,7 @@
         <v>4</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>81</v>
@@ -4108,8 +4226,12 @@
       <c r="U35">
         <v>99</v>
       </c>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="V35" s="1">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4140,8 +4262,12 @@
       <c r="T36" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:21">
+      <c r="V36" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4155,7 +4281,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>86</v>
@@ -4178,8 +4304,12 @@
       <c r="U37">
         <v>357</v>
       </c>
-    </row>
-    <row r="38" spans="1:21">
+      <c r="V37" s="1">
+        <f t="shared" si="0"/>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4190,7 +4320,7 @@
         <v>2</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>88</v>
@@ -4213,8 +4343,12 @@
       <c r="U38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:21">
+      <c r="V38" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4234,19 +4368,19 @@
         <v>90</v>
       </c>
       <c r="H39" t="s">
+        <v>403</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="J39" t="s">
         <v>405</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="J39" t="s">
-        <v>407</v>
-      </c>
       <c r="K39" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L39" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N39" s="1">
         <v>39.895980000000002</v>
@@ -4266,8 +4400,12 @@
       <c r="U39">
         <v>486</v>
       </c>
-    </row>
-    <row r="40" spans="1:21">
+      <c r="V39" s="1">
+        <f t="shared" si="0"/>
+        <v>627</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4281,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>92</v>
@@ -4304,8 +4442,12 @@
       <c r="U40">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" spans="1:21">
+      <c r="V40" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4319,10 +4461,10 @@
         <v>3</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H41" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>94</v>
@@ -4331,10 +4473,10 @@
         <v>94</v>
       </c>
       <c r="K41" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="L41" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N41" s="1">
         <v>39.89528</v>
@@ -4354,8 +4496,12 @@
       <c r="U41">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:21">
+      <c r="V41" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4369,7 +4515,7 @@
         <v>4</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>96</v>
@@ -4392,8 +4538,12 @@
       <c r="U42">
         <v>81</v>
       </c>
-    </row>
-    <row r="43" spans="1:21">
+      <c r="V42" s="1">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4407,22 +4557,22 @@
         <v>4</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H43" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J43" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K43" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L43" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N43" s="1">
         <v>39.895589999999899</v>
@@ -4442,8 +4592,12 @@
       <c r="U43">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:21">
+      <c r="V43" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4474,8 +4628,12 @@
       <c r="T44" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:21">
+      <c r="V44" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4506,8 +4664,12 @@
       <c r="T45" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="46" spans="1:21">
+      <c r="V45" s="1">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4521,7 +4683,7 @@
         <v>4</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>107</v>
@@ -4544,8 +4706,12 @@
       <c r="U46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:21">
+      <c r="V46" s="1">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4576,8 +4742,12 @@
       <c r="T47" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="1:21">
+      <c r="V47" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4591,7 +4761,7 @@
         <v>2</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>112</v>
@@ -4614,8 +4784,12 @@
       <c r="U48">
         <v>583</v>
       </c>
-    </row>
-    <row r="49" spans="1:21">
+      <c r="V48" s="1">
+        <f t="shared" si="0"/>
+        <v>597</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4652,8 +4826,12 @@
       <c r="U49">
         <v>976</v>
       </c>
-    </row>
-    <row r="50" spans="1:21">
+      <c r="V49" s="1">
+        <f t="shared" si="0"/>
+        <v>997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4690,8 +4868,12 @@
       <c r="U50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:21">
+      <c r="V50" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4722,8 +4904,12 @@
       <c r="T51" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:21">
+      <c r="V51" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4754,8 +4940,12 @@
       <c r="T52" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:21">
+      <c r="V52" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4769,7 +4959,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>126</v>
@@ -4792,8 +4982,12 @@
       <c r="U53">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" spans="1:21">
+      <c r="V53" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4804,7 +4998,7 @@
         <v>4</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>128</v>
@@ -4824,8 +5018,12 @@
       <c r="T54" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:21">
+      <c r="V54" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4856,8 +5054,12 @@
       <c r="T55" s="1">
         <v>2062</v>
       </c>
-    </row>
-    <row r="56" spans="1:21">
+      <c r="V55" s="1">
+        <f t="shared" si="0"/>
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4888,8 +5090,12 @@
       <c r="T56" s="1">
         <v>767</v>
       </c>
-    </row>
-    <row r="57" spans="1:21">
+      <c r="V56" s="1">
+        <f t="shared" si="0"/>
+        <v>767</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4903,22 +5109,22 @@
         <v>2</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H57" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>136</v>
       </c>
       <c r="J57" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="K57" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="L57" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="N57" s="1">
         <v>39.894779999999898</v>
@@ -4938,8 +5144,12 @@
       <c r="U57">
         <v>517</v>
       </c>
-    </row>
-    <row r="58" spans="1:21">
+      <c r="V57" s="1">
+        <f t="shared" si="0"/>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4953,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>138</v>
@@ -4976,8 +5186,12 @@
       <c r="U58">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:21">
+      <c r="V58" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4991,7 +5205,7 @@
         <v>140</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="N59" s="1">
         <v>39.892519999999898</v>
@@ -5008,8 +5222,12 @@
       <c r="T59" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="60" spans="1:21">
+      <c r="V59" s="1">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5046,8 +5264,12 @@
       <c r="U60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:21">
+      <c r="V60" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5061,7 +5283,7 @@
         <v>2</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>145</v>
@@ -5084,8 +5306,12 @@
       <c r="U61">
         <v>33</v>
       </c>
-    </row>
-    <row r="62" spans="1:21">
+      <c r="V61" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5099,22 +5325,22 @@
         <v>4</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H62" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>147</v>
       </c>
       <c r="J62" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="K62" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L62" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="N62" s="1">
         <v>39.893300000000004</v>
@@ -5134,8 +5360,12 @@
       <c r="U62">
         <v>57</v>
       </c>
-    </row>
-    <row r="63" spans="1:21">
+      <c r="V62" s="1">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5146,7 +5376,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>149</v>
@@ -5166,8 +5396,12 @@
       <c r="T63" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:21">
+      <c r="V63" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5181,22 +5415,22 @@
         <v>2</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H64" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J64" t="s">
+        <v>422</v>
+      </c>
+      <c r="K64" t="s">
         <v>424</v>
       </c>
-      <c r="K64" t="s">
-        <v>426</v>
-      </c>
       <c r="L64" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N64" s="1">
         <v>39.894880000000001</v>
@@ -5216,8 +5450,12 @@
       <c r="U64">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:21">
+      <c r="V64" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5228,7 +5466,7 @@
         <v>2</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>153</v>
@@ -5248,8 +5486,12 @@
       <c r="T65" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:21">
+      <c r="V65" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5260,7 +5502,7 @@
         <v>5</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N66" s="1">
         <v>39.893889999999899</v>
@@ -5277,8 +5519,12 @@
       <c r="T66" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:21">
+      <c r="V66" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5309,8 +5555,12 @@
       <c r="T67" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="68" spans="1:21">
+      <c r="V67" s="1">
+        <f t="shared" ref="V67:V130" si="1">T67+U67</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5327,7 +5577,7 @@
         <v>4</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>159</v>
@@ -5350,8 +5600,12 @@
       <c r="U68">
         <v>58</v>
       </c>
-    </row>
-    <row r="69" spans="1:21">
+      <c r="V68" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5365,22 +5619,22 @@
         <v>4</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H69" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>161</v>
       </c>
       <c r="J69" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K69" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L69" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="N69" s="1">
         <v>39.894880000000001</v>
@@ -5400,8 +5654,12 @@
       <c r="U69">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:21">
+      <c r="V69" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5415,7 +5673,7 @@
         <v>3</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>164</v>
@@ -5438,8 +5696,12 @@
       <c r="U70">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:21">
+      <c r="V70" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5453,7 +5715,7 @@
         <v>2</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>166</v>
@@ -5476,8 +5738,12 @@
       <c r="U71">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:21">
+      <c r="V71" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5488,7 +5754,7 @@
         <v>6</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>168</v>
@@ -5508,8 +5774,12 @@
       <c r="T72" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:21">
+      <c r="V72" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5540,8 +5810,12 @@
       <c r="T73" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="74" spans="1:21">
+      <c r="V73" s="1">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5555,22 +5829,22 @@
         <v>2</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H74" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>173</v>
       </c>
       <c r="J74" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K74" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L74" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N74" s="1">
         <v>39.894877352999899</v>
@@ -5590,8 +5864,12 @@
       <c r="U74">
         <v>117</v>
       </c>
-    </row>
-    <row r="75" spans="1:21">
+      <c r="V74" s="1">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5605,22 +5883,22 @@
         <v>2</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H75" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>175</v>
       </c>
       <c r="J75" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="K75" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="L75" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N75" s="1">
         <v>39.895150000000001</v>
@@ -5640,8 +5918,12 @@
       <c r="U75">
         <v>64</v>
       </c>
-    </row>
-    <row r="76" spans="1:21">
+      <c r="V75" s="1">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5672,8 +5954,12 @@
       <c r="T76" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="77" spans="1:21">
+      <c r="V76" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5687,22 +5973,22 @@
         <v>2</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H77" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>180</v>
       </c>
       <c r="J77" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K77" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="L77" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N77" s="1">
         <v>39.894770000000001</v>
@@ -5722,8 +6008,12 @@
       <c r="U77">
         <v>44</v>
       </c>
-    </row>
-    <row r="78" spans="1:21">
+      <c r="V77" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5740,7 +6030,7 @@
         <v>4</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>182</v>
@@ -5763,8 +6053,12 @@
       <c r="U78">
         <v>110</v>
       </c>
-    </row>
-    <row r="79" spans="1:21">
+      <c r="V78" s="1">
+        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5778,10 +6072,10 @@
         <v>2</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H79" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>184</v>
@@ -5790,10 +6084,10 @@
         <v>184</v>
       </c>
       <c r="K79" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L79" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N79" s="1">
         <v>39.895400000000002</v>
@@ -5813,8 +6107,12 @@
       <c r="U79">
         <v>22</v>
       </c>
-    </row>
-    <row r="80" spans="1:21">
+      <c r="V79" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5828,22 +6126,22 @@
         <v>2</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H80" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>186</v>
       </c>
       <c r="J80" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="K80" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L80" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M80" s="2">
         <v>72</v>
@@ -5866,8 +6164,12 @@
       <c r="U80">
         <v>59</v>
       </c>
-    </row>
-    <row r="81" spans="1:21">
+      <c r="V80" s="1">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5881,22 +6183,22 @@
         <v>4</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>188</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L81" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N81" s="1">
         <v>39.894989000000002</v>
@@ -5916,8 +6218,12 @@
       <c r="U81" s="10">
         <v>59</v>
       </c>
-    </row>
-    <row r="82" spans="1:21">
+      <c r="V81" s="1">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5931,7 +6237,7 @@
         <v>2</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>190</v>
@@ -5954,8 +6260,12 @@
       <c r="U82">
         <v>59</v>
       </c>
-    </row>
-    <row r="83" spans="1:21">
+      <c r="V82" s="1">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5983,8 +6293,12 @@
       <c r="T83" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:21">
+      <c r="V83" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5998,7 +6312,7 @@
         <v>4</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>195</v>
@@ -6021,8 +6335,12 @@
       <c r="U84">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:21">
+      <c r="V84" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6036,7 +6354,7 @@
         <v>2</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>197</v>
@@ -6059,8 +6377,12 @@
       <c r="U85">
         <v>924</v>
       </c>
-    </row>
-    <row r="86" spans="1:21">
+      <c r="V85" s="1">
+        <f t="shared" si="1"/>
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6074,7 +6396,7 @@
         <v>4</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>199</v>
@@ -6097,8 +6419,12 @@
       <c r="U86">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:21">
+      <c r="V86" s="1">
+        <f t="shared" si="1"/>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6112,7 +6438,7 @@
         <v>2</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>201</v>
@@ -6135,8 +6461,12 @@
       <c r="U87">
         <v>80</v>
       </c>
-    </row>
-    <row r="88" spans="1:21">
+      <c r="V87" s="1">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6147,7 +6477,7 @@
         <v>2</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>203</v>
@@ -6167,8 +6497,12 @@
       <c r="T88" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="1:21">
+      <c r="V88" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6199,8 +6533,12 @@
       <c r="T89" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="90" spans="1:21">
+      <c r="V89" s="1">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6214,7 +6552,7 @@
         <v>2</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>208</v>
@@ -6237,8 +6575,12 @@
       <c r="U90">
         <v>150</v>
       </c>
-    </row>
-    <row r="91" spans="1:21">
+      <c r="V90" s="1">
+        <f t="shared" si="1"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6252,7 +6594,7 @@
         <v>4</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>210</v>
@@ -6275,8 +6617,12 @@
       <c r="U91">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:21">
+      <c r="V91" s="1">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6307,8 +6653,12 @@
       <c r="T92" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="93" spans="1:21">
+      <c r="V92" s="1">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6322,7 +6672,7 @@
         <v>4</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>215</v>
@@ -6345,8 +6695,12 @@
       <c r="U93">
         <v>89</v>
       </c>
-    </row>
-    <row r="94" spans="1:21">
+      <c r="V93" s="1">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6360,7 +6714,7 @@
         <v>2</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>217</v>
@@ -6380,8 +6734,12 @@
       <c r="T94" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="1:21">
+      <c r="V94" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6395,7 +6753,7 @@
         <v>2</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>219</v>
@@ -6418,8 +6776,12 @@
       <c r="U95">
         <v>2322</v>
       </c>
-    </row>
-    <row r="96" spans="1:21">
+      <c r="V95" s="1">
+        <f t="shared" si="1"/>
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6433,7 +6795,7 @@
         <v>3</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>221</v>
@@ -6456,8 +6818,12 @@
       <c r="U96">
         <v>184</v>
       </c>
-    </row>
-    <row r="97" spans="1:21">
+      <c r="V96" s="1">
+        <f t="shared" si="1"/>
+        <v>717</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6488,8 +6854,12 @@
       <c r="T97" s="1">
         <v>246</v>
       </c>
-    </row>
-    <row r="98" spans="1:21">
+      <c r="V97" s="1">
+        <f t="shared" si="1"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6520,8 +6890,12 @@
       <c r="T98" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:21">
+      <c r="V98" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6552,8 +6926,12 @@
       <c r="T99" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="100" spans="1:21">
+      <c r="V99" s="1">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6567,7 +6945,7 @@
         <v>2</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>233</v>
@@ -6590,8 +6968,12 @@
       <c r="U100">
         <v>141</v>
       </c>
-    </row>
-    <row r="101" spans="1:21">
+      <c r="V100" s="1">
+        <f t="shared" si="1"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6605,7 +6987,7 @@
         <v>4</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>235</v>
@@ -6628,8 +7010,12 @@
       <c r="U101">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="1:21">
+      <c r="V101" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6646,7 +7032,7 @@
         <v>2</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>237</v>
@@ -6669,8 +7055,12 @@
       <c r="U102">
         <v>2095</v>
       </c>
-    </row>
-    <row r="103" spans="1:21">
+      <c r="V102" s="1">
+        <f t="shared" si="1"/>
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6684,7 +7074,7 @@
         <v>4</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>239</v>
@@ -6707,8 +7097,12 @@
       <c r="U103">
         <v>127</v>
       </c>
-    </row>
-    <row r="104" spans="1:21">
+      <c r="V103" s="1">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6722,7 +7116,7 @@
         <v>2</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>242</v>
@@ -6745,8 +7139,12 @@
       <c r="U104">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:21">
+      <c r="V104" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6774,8 +7172,12 @@
       <c r="T105" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="106" spans="1:21">
+      <c r="V105" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6789,7 +7191,7 @@
         <v>4</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>246</v>
@@ -6812,8 +7214,12 @@
       <c r="U106">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:21">
+      <c r="V106" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6824,7 +7230,7 @@
         <v>0</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>248</v>
@@ -6844,8 +7250,12 @@
       <c r="T107" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="108" spans="1:21">
+      <c r="V107" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6859,10 +7269,10 @@
         <v>2</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="N108" s="1">
         <v>39.899794132731003</v>
@@ -6882,8 +7292,12 @@
       <c r="U108">
         <v>183</v>
       </c>
-    </row>
-    <row r="109" spans="1:21">
+      <c r="V108" s="1">
+        <f t="shared" si="1"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6897,22 +7311,22 @@
         <v>2</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H109" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>251</v>
       </c>
       <c r="J109" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="K109" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="L109" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N109" s="1">
         <v>39.899464000000002</v>
@@ -6932,8 +7346,12 @@
       <c r="U109">
         <v>4936</v>
       </c>
-    </row>
-    <row r="110" spans="1:21">
+      <c r="V109" s="1">
+        <f t="shared" si="1"/>
+        <v>4952</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6947,7 +7365,7 @@
         <v>2</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>253</v>
@@ -6970,8 +7388,12 @@
       <c r="U110">
         <v>217</v>
       </c>
-    </row>
-    <row r="111" spans="1:21">
+      <c r="V110" s="1">
+        <f t="shared" si="1"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -7002,8 +7424,12 @@
       <c r="T111" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="112" spans="1:21">
+      <c r="V111" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -7017,22 +7443,22 @@
         <v>2</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H112" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>259</v>
       </c>
       <c r="J112" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K112" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L112" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N112" s="1">
         <v>39.895879999999899</v>
@@ -7052,8 +7478,12 @@
       <c r="U112">
         <v>1269</v>
       </c>
-    </row>
-    <row r="113" spans="1:21">
+      <c r="V112" s="1">
+        <f t="shared" si="1"/>
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -7067,7 +7497,7 @@
         <v>261</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="N113" s="1">
         <v>39.896450238588002</v>
@@ -7084,8 +7514,12 @@
       <c r="T113" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="114" spans="1:21">
+      <c r="V113" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -7099,7 +7533,7 @@
         <v>2</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>263</v>
@@ -7122,8 +7556,12 @@
       <c r="U114">
         <v>338</v>
       </c>
-    </row>
-    <row r="115" spans="1:21">
+      <c r="V114" s="1">
+        <f t="shared" si="1"/>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -7137,22 +7575,22 @@
         <v>2</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H115" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>265</v>
       </c>
       <c r="J115" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="K115" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="L115" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N115" s="1">
         <v>39.893602000000001</v>
@@ -7172,8 +7610,12 @@
       <c r="U115">
         <v>4936</v>
       </c>
-    </row>
-    <row r="116" spans="1:21">
+      <c r="V115" s="1">
+        <f t="shared" si="1"/>
+        <v>4947</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -7187,22 +7629,22 @@
         <v>2</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H116" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>303</v>
       </c>
       <c r="J116" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="K116" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L116" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="M116" s="2">
         <v>58</v>
@@ -7225,8 +7667,12 @@
       <c r="U116">
         <v>265</v>
       </c>
-    </row>
-    <row r="117" spans="1:21">
+      <c r="V116" s="1">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -7240,22 +7686,22 @@
         <v>2</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H117" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>268</v>
       </c>
       <c r="J117" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="K117" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="L117" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N117" s="1">
         <v>39.893000000000001</v>
@@ -7275,8 +7721,12 @@
       <c r="U117">
         <v>41</v>
       </c>
-    </row>
-    <row r="118" spans="1:21">
+      <c r="V117" s="1">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -7287,7 +7737,7 @@
         <v>2</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>270</v>
@@ -7307,8 +7757,12 @@
       <c r="T118" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="119" spans="1:21">
+      <c r="V118" s="1">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -7322,22 +7776,22 @@
         <v>4</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H119" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>272</v>
       </c>
       <c r="J119" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="K119" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L119" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N119" s="1">
         <v>39.895235999999898</v>
@@ -7357,8 +7811,12 @@
       <c r="U119">
         <v>99</v>
       </c>
-    </row>
-    <row r="120" spans="1:21">
+      <c r="V119" s="1">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -7372,22 +7830,22 @@
         <v>4</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H120" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>274</v>
       </c>
       <c r="J120" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="K120" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L120" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N120" s="1">
         <v>39.894849999999899</v>
@@ -7407,8 +7865,12 @@
       <c r="U120">
         <v>38</v>
       </c>
-    </row>
-    <row r="121" spans="1:21">
+      <c r="V120" s="1">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7419,7 +7881,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I121" s="7" t="s">
         <v>295</v>
@@ -7428,18 +7890,26 @@
         <v>68</v>
       </c>
       <c r="P121" s="1">
-        <v>39.8978928569</v>
+        <v>39.893930200600003</v>
       </c>
       <c r="Q121" s="1">
-        <v>116.378824111</v>
-      </c>
-      <c r="R121" s="11"/>
-      <c r="S121" s="11"/>
+        <v>116.38140746800001</v>
+      </c>
+      <c r="R121" s="2">
+        <v>39.901608000000003</v>
+      </c>
+      <c r="S121" s="2">
+        <v>116.394054</v>
+      </c>
       <c r="U121">
         <v>15</v>
       </c>
-    </row>
-    <row r="122" spans="1:21">
+      <c r="V121" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7450,7 +7920,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I122" s="6" t="s">
         <v>285</v>
@@ -7459,18 +7929,26 @@
         <v>29</v>
       </c>
       <c r="P122" s="1">
-        <v>39.8982623059999</v>
+        <v>39.894773058200002</v>
       </c>
       <c r="Q122" s="1">
-        <v>116.379573452</v>
-      </c>
-      <c r="R122" s="11"/>
-      <c r="S122" s="11"/>
+        <v>116.38765905299999</v>
+      </c>
+      <c r="R122" s="2">
+        <v>39.902507</v>
+      </c>
+      <c r="S122" s="2">
+        <v>116.40029</v>
+      </c>
       <c r="U122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:21">
+      <c r="V122" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7481,7 +7959,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I123" s="7" t="s">
         <v>296</v>
@@ -7490,18 +7968,26 @@
         <v>69</v>
       </c>
       <c r="P123" s="1">
-        <v>39.898824387300003</v>
+        <v>39.894715039300003</v>
       </c>
       <c r="Q123" s="1">
-        <v>116.379421502</v>
-      </c>
-      <c r="R123" s="11"/>
-      <c r="S123" s="11"/>
+        <v>116.38734448300001</v>
+      </c>
+      <c r="R123" s="2">
+        <v>39.902447000000002</v>
+      </c>
+      <c r="S123" s="2">
+        <v>116.399976</v>
+      </c>
       <c r="U123">
         <v>7</v>
       </c>
-    </row>
-    <row r="124" spans="1:21">
+      <c r="V123" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7512,39 +7998,47 @@
         <v>1</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H124" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I124" s="7" t="s">
         <v>290</v>
       </c>
       <c r="J124" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K124" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="L124" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M124" s="7">
         <v>31</v>
       </c>
       <c r="P124" s="1">
-        <v>39.897943163199898</v>
+        <v>39.894715039300003</v>
       </c>
       <c r="Q124" s="1">
-        <v>116.37840446</v>
-      </c>
-      <c r="R124" s="11"/>
-      <c r="S124" s="11"/>
+        <v>116.38734448300001</v>
+      </c>
+      <c r="R124" s="2">
+        <v>39.902447000000002</v>
+      </c>
+      <c r="S124" s="2">
+        <v>116.399976</v>
+      </c>
       <c r="U124">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:21">
+      <c r="V124" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7555,7 +8049,7 @@
         <v>1</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I125" s="7" t="s">
         <v>291</v>
@@ -7564,18 +8058,26 @@
         <v>33</v>
       </c>
       <c r="P125" s="1">
-        <v>39.897863159400003</v>
+        <v>39.894460486100002</v>
       </c>
       <c r="Q125" s="1">
-        <v>116.37841446100001</v>
-      </c>
-      <c r="R125" s="11"/>
-      <c r="S125" s="11"/>
+        <v>116.386822346</v>
+      </c>
+      <c r="R125" s="2">
+        <v>39.902189</v>
+      </c>
+      <c r="S125" s="2">
+        <v>116.399455</v>
+      </c>
       <c r="U125">
         <v>7</v>
       </c>
-    </row>
-    <row r="126" spans="1:21">
+      <c r="V125" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7586,24 +8088,32 @@
         <v>1</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I126" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P126" s="1">
-        <v>39.898731580300002</v>
+        <v>39.8946726896</v>
       </c>
       <c r="Q126" s="1">
-        <v>116.38061258800001</v>
-      </c>
-      <c r="R126" s="11"/>
-      <c r="S126" s="11"/>
+        <v>116.387243274</v>
+      </c>
+      <c r="R126" s="2">
+        <v>39.902403999999997</v>
+      </c>
+      <c r="S126" s="2">
+        <v>116.39987499999999</v>
+      </c>
       <c r="U126">
         <v>34</v>
       </c>
-    </row>
-    <row r="127" spans="1:21">
+      <c r="V126" s="1">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7614,39 +8124,47 @@
         <v>1</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H127" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I127" s="7" t="s">
         <v>297</v>
       </c>
       <c r="J127" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="K127" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="L127" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M127" s="5">
         <v>70</v>
       </c>
       <c r="P127" s="1">
-        <v>39.89896976</v>
+        <v>39.894591780100001</v>
       </c>
       <c r="Q127" s="1">
-        <v>116.383640521</v>
-      </c>
-      <c r="R127" s="11"/>
-      <c r="S127" s="11"/>
+        <v>116.38692965200001</v>
+      </c>
+      <c r="R127" s="2">
+        <v>39.902321000000001</v>
+      </c>
+      <c r="S127" s="2">
+        <v>116.399562</v>
+      </c>
       <c r="U127">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:21">
+      <c r="V127" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7660,36 +8178,44 @@
         <v>286</v>
       </c>
       <c r="H128" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I128" s="7" t="s">
         <v>292</v>
       </c>
       <c r="J128" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K128" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L128" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M128" s="7">
         <v>36</v>
       </c>
       <c r="P128" s="1">
-        <v>39.898338167699897</v>
+        <v>39.8942352372</v>
       </c>
       <c r="Q128" s="1">
-        <v>116.387118839</v>
-      </c>
-      <c r="R128" s="11"/>
-      <c r="S128" s="11"/>
+        <v>116.38642941800001</v>
+      </c>
+      <c r="R128" s="2">
+        <v>39.901961</v>
+      </c>
+      <c r="S128" s="2">
+        <v>116.399063</v>
+      </c>
       <c r="U128">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="1:21">
+      <c r="V128" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7700,7 +8226,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I129" s="7" t="s">
         <v>293</v>
@@ -7709,18 +8235,26 @@
         <v>38</v>
       </c>
       <c r="P129" s="1">
-        <v>39.898878011900003</v>
+        <v>39.894243723599999</v>
       </c>
       <c r="Q129" s="1">
-        <v>116.387458632</v>
-      </c>
-      <c r="R129" s="11"/>
-      <c r="S129" s="11"/>
+        <v>116.386230035</v>
+      </c>
+      <c r="R129" s="2">
+        <v>39.901967999999997</v>
+      </c>
+      <c r="S129" s="2">
+        <v>116.398864</v>
+      </c>
       <c r="U129">
         <v>10</v>
       </c>
-    </row>
-    <row r="130" spans="1:21">
+      <c r="V129" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7731,36 +8265,44 @@
         <v>1</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H130" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I130" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J130" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="K130" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L130" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P130" s="1">
-        <v>39.8986389258</v>
+        <v>39.894195431100002</v>
       </c>
       <c r="Q130" s="1">
-        <v>116.38532963</v>
-      </c>
-      <c r="R130" s="11"/>
-      <c r="S130" s="11"/>
+        <v>116.386134805</v>
+      </c>
+      <c r="R130" s="2">
+        <v>39.901918999999999</v>
+      </c>
+      <c r="S130" s="2">
+        <v>116.398769</v>
+      </c>
       <c r="U130">
         <v>38</v>
       </c>
-    </row>
-    <row r="131" spans="1:21">
+      <c r="V130" s="1">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7771,24 +8313,32 @@
         <v>1</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I131" s="7" t="s">
         <v>302</v>
       </c>
       <c r="P131" s="1">
-        <v>39.898168168300003</v>
+        <v>39.8941620298</v>
       </c>
       <c r="Q131" s="1">
-        <v>116.387136854</v>
-      </c>
-      <c r="R131" s="11"/>
-      <c r="S131" s="11"/>
+        <v>116.38592635400001</v>
+      </c>
+      <c r="R131" s="2">
+        <v>39.901884000000003</v>
+      </c>
+      <c r="S131" s="2">
+        <v>116.398561</v>
+      </c>
       <c r="U131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:21">
+      <c r="V131" s="1">
+        <f t="shared" ref="V131:V192" si="2">T131+U131</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7799,39 +8349,47 @@
         <v>2</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H132" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I132" s="6" t="s">
         <v>294</v>
       </c>
       <c r="J132" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K132" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L132" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M132" s="7">
         <v>57</v>
       </c>
       <c r="P132" s="1">
-        <v>39.8982982693</v>
+        <v>39.894115169000003</v>
       </c>
       <c r="Q132" s="1">
-        <v>116.386868949999</v>
-      </c>
-      <c r="R132" s="11"/>
-      <c r="S132" s="11"/>
+        <v>116.385780012</v>
+      </c>
+      <c r="R132" s="2">
+        <v>39.901836000000003</v>
+      </c>
+      <c r="S132" s="2">
+        <v>116.398415</v>
+      </c>
       <c r="U132">
         <v>217</v>
       </c>
-    </row>
-    <row r="133" spans="1:21">
+      <c r="V132" s="1">
+        <f t="shared" si="2"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7845,36 +8403,44 @@
         <v>287</v>
       </c>
       <c r="H133" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="I133" s="6" t="s">
         <v>298</v>
       </c>
       <c r="J133" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="K133" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L133" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M133" s="5">
         <v>71</v>
       </c>
       <c r="P133" s="1">
-        <v>39.898338171600003</v>
+        <v>39.894202873799998</v>
       </c>
       <c r="Q133" s="1">
-        <v>116.387108844</v>
-      </c>
-      <c r="R133" s="11"/>
-      <c r="S133" s="11"/>
+        <v>116.383677156</v>
+      </c>
+      <c r="R133" s="2">
+        <v>39.901904999999999</v>
+      </c>
+      <c r="S133" s="2">
+        <v>116.396317</v>
+      </c>
       <c r="U133">
         <v>24</v>
       </c>
-    </row>
-    <row r="134" spans="1:21">
+      <c r="V133" s="1">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7894,18 +8460,26 @@
         <v>74</v>
       </c>
       <c r="P134" s="1">
-        <v>39.898358673899899</v>
+        <v>39.896682614600003</v>
       </c>
       <c r="Q134" s="1">
-        <v>116.385909379</v>
-      </c>
-      <c r="R134" s="11"/>
-      <c r="S134" s="11"/>
+        <v>116.382792884</v>
+      </c>
+      <c r="R134" s="2">
+        <v>39.904375000000002</v>
+      </c>
+      <c r="S134" s="2">
+        <v>116.395433</v>
+      </c>
       <c r="U134">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:21">
+      <c r="V134" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7916,7 +8490,7 @@
         <v>3</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I135" s="9" t="s">
         <v>300</v>
@@ -7925,18 +8499,26 @@
         <v>75</v>
       </c>
       <c r="P135" s="1">
-        <v>39.898287828599898</v>
+        <v>39.897740364299999</v>
       </c>
       <c r="Q135" s="1">
-        <v>116.38802848900001</v>
-      </c>
-      <c r="R135" s="11"/>
-      <c r="S135" s="11"/>
+        <v>116.383633062</v>
+      </c>
+      <c r="R135" s="2">
+        <v>39.905441000000003</v>
+      </c>
+      <c r="S135" s="2">
+        <v>116.39627</v>
+      </c>
       <c r="U135">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="1:21">
+      <c r="V135" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7947,2020 +8529,2436 @@
         <v>2</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H136" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I136" s="9" t="s">
         <v>289</v>
       </c>
       <c r="J136" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K136" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L136" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M136" s="9">
         <v>78</v>
       </c>
       <c r="P136" s="1">
-        <v>39.897412191800001</v>
+        <v>39.896093453799999</v>
       </c>
       <c r="Q136" s="1">
-        <v>116.379793385</v>
-      </c>
-      <c r="R136" s="11"/>
-      <c r="S136" s="11"/>
+        <v>116.387988698</v>
+      </c>
+      <c r="R136" s="2">
+        <v>39.903829000000002</v>
+      </c>
+      <c r="S136" s="2">
+        <v>116.40061799999999</v>
+      </c>
       <c r="U136">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="1:21">
+      <c r="V136" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D137" s="1">
-        <v>5248677</v>
+        <v>32674382</v>
       </c>
       <c r="F137" s="1">
+        <v>2</v>
+      </c>
+      <c r="G137" t="s">
+        <v>467</v>
+      </c>
+      <c r="J137" t="s">
+        <v>468</v>
+      </c>
+      <c r="K137" t="s">
+        <v>412</v>
+      </c>
+      <c r="L137" t="s">
+        <v>400</v>
+      </c>
+      <c r="P137" s="1">
+        <v>39.893032070300002</v>
+      </c>
+      <c r="Q137" s="1">
+        <v>116.38538426300001</v>
+      </c>
+      <c r="R137" s="2">
+        <v>39.900750000000002</v>
+      </c>
+      <c r="S137" s="2">
+        <v>116.398021</v>
+      </c>
+      <c r="U137">
+        <v>21</v>
+      </c>
+      <c r="V137" s="1">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="D138" s="1">
+        <v>14920981</v>
+      </c>
+      <c r="F138" s="1">
         <v>1</v>
       </c>
-      <c r="G137" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="H137" t="s">
-        <v>429</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="J137" t="s">
-        <v>432</v>
-      </c>
-      <c r="K137" t="s">
-        <v>430</v>
-      </c>
-      <c r="L137" t="s">
-        <v>431</v>
-      </c>
-      <c r="P137" s="1">
-        <v>39.8965430639999</v>
-      </c>
-      <c r="Q137" s="1">
-        <v>116.378624450999</v>
-      </c>
-      <c r="R137" s="11"/>
-      <c r="S137" s="11"/>
-      <c r="U137">
+      <c r="G138" t="s">
+        <v>469</v>
+      </c>
+      <c r="J138" t="s">
+        <v>471</v>
+      </c>
+      <c r="K138" t="s">
+        <v>470</v>
+      </c>
+      <c r="L138" t="s">
+        <v>400</v>
+      </c>
+      <c r="P138" s="1">
+        <v>39.894226721800003</v>
+      </c>
+      <c r="Q138" s="1">
+        <v>116.387687638</v>
+      </c>
+      <c r="R138" s="2">
+        <v>39.901961</v>
+      </c>
+      <c r="S138" s="2">
+        <v>116.400319</v>
+      </c>
+      <c r="U138">
+        <v>7</v>
+      </c>
+      <c r="V138" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="D139" s="1">
+        <v>21286168</v>
+      </c>
+      <c r="F139" s="1">
+        <v>2</v>
+      </c>
+      <c r="G139" t="s">
+        <v>472</v>
+      </c>
+      <c r="J139" t="s">
+        <v>473</v>
+      </c>
+      <c r="K139" t="s">
+        <v>456</v>
+      </c>
+      <c r="L139" t="s">
+        <v>400</v>
+      </c>
+      <c r="P139" s="1">
+        <v>39.893464437299997</v>
+      </c>
+      <c r="Q139" s="1">
+        <v>116.38584861</v>
+      </c>
+      <c r="R139" s="2">
+        <v>39.901186000000003</v>
+      </c>
+      <c r="S139" s="2">
+        <v>116.398484</v>
+      </c>
+      <c r="U139">
+        <v>59</v>
+      </c>
+      <c r="V139" s="1">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="D140" s="1">
+        <v>22510934</v>
+      </c>
+      <c r="F140" s="1">
+        <v>1</v>
+      </c>
+      <c r="G140" t="s">
+        <v>589</v>
+      </c>
+      <c r="J140" t="s">
+        <v>475</v>
+      </c>
+      <c r="K140" t="s">
+        <v>474</v>
+      </c>
+      <c r="L140" t="s">
+        <v>400</v>
+      </c>
+      <c r="P140" s="1">
+        <v>39.8935794012</v>
+      </c>
+      <c r="Q140" s="1">
+        <v>116.38391324</v>
+      </c>
+      <c r="R140" s="2">
+        <v>39.901283999999997</v>
+      </c>
+      <c r="S140" s="2">
+        <v>116.396553</v>
+      </c>
+      <c r="U140">
         <v>10</v>
       </c>
-    </row>
-    <row r="138" spans="1:21">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="D138" s="1">
-        <v>32674382</v>
-      </c>
-      <c r="F138" s="1">
+      <c r="V140" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="D141" s="1">
+        <v>2888878</v>
+      </c>
+      <c r="F141" s="1">
         <v>2</v>
       </c>
-      <c r="G138" t="s">
-        <v>472</v>
-      </c>
-      <c r="J138" t="s">
-        <v>473</v>
-      </c>
-      <c r="K138" t="s">
-        <v>414</v>
-      </c>
-      <c r="L138" t="s">
-        <v>402</v>
-      </c>
-      <c r="P138" s="1">
-        <v>39.897552806999897</v>
-      </c>
-      <c r="Q138" s="1">
-        <v>116.37891408</v>
-      </c>
-      <c r="R138" s="11"/>
-      <c r="S138" s="11"/>
-      <c r="U138">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="139" spans="1:21">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="D139" s="1">
-        <v>14920981</v>
-      </c>
-      <c r="F139" s="1">
+      <c r="G141" t="s">
+        <v>476</v>
+      </c>
+      <c r="J141" t="s">
+        <v>477</v>
+      </c>
+      <c r="K141" t="s">
+        <v>412</v>
+      </c>
+      <c r="L141" t="s">
+        <v>400</v>
+      </c>
+      <c r="P141" s="1">
+        <v>39.893294845100002</v>
+      </c>
+      <c r="Q141" s="1">
+        <v>116.385420559</v>
+      </c>
+      <c r="R141" s="2">
+        <v>39.901012999999999</v>
+      </c>
+      <c r="S141" s="2">
+        <v>116.39805699999999</v>
+      </c>
+      <c r="U141">
+        <v>168</v>
+      </c>
+      <c r="V141" s="1">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="D142" s="1">
+        <v>14879472</v>
+      </c>
+      <c r="F142" s="1">
+        <v>4</v>
+      </c>
+      <c r="G142" t="s">
+        <v>478</v>
+      </c>
+      <c r="J142" t="s">
+        <v>479</v>
+      </c>
+      <c r="K142" t="s">
+        <v>454</v>
+      </c>
+      <c r="L142" t="s">
+        <v>400</v>
+      </c>
+      <c r="P142" s="1">
+        <v>39.893578383600001</v>
+      </c>
+      <c r="Q142" s="1">
+        <v>116.38624951600001</v>
+      </c>
+      <c r="R142" s="2">
+        <v>39.901302999999999</v>
+      </c>
+      <c r="S142" s="2">
+        <v>116.398884</v>
+      </c>
+      <c r="U142">
+        <v>35</v>
+      </c>
+      <c r="V142" s="1">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="D143" s="1">
+        <v>17837011</v>
+      </c>
+      <c r="F143" s="1">
         <v>1</v>
       </c>
-      <c r="G139" t="s">
-        <v>474</v>
-      </c>
-      <c r="J139" t="s">
-        <v>476</v>
-      </c>
-      <c r="K139" t="s">
-        <v>475</v>
-      </c>
-      <c r="L139" t="s">
-        <v>402</v>
-      </c>
-      <c r="P139" s="1">
-        <v>39.897951288199899</v>
-      </c>
-      <c r="Q139" s="1">
-        <v>116.378236603</v>
-      </c>
-      <c r="R139" s="11"/>
-      <c r="S139" s="11"/>
-      <c r="U139">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="140" spans="1:21">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="D140" s="1">
-        <v>21286168</v>
-      </c>
-      <c r="F140" s="1">
-        <v>2</v>
-      </c>
-      <c r="G140" t="s">
-        <v>477</v>
-      </c>
-      <c r="J140" t="s">
-        <v>478</v>
-      </c>
-      <c r="K140" t="s">
-        <v>461</v>
-      </c>
-      <c r="L140" t="s">
-        <v>402</v>
-      </c>
-      <c r="P140" s="1">
-        <v>39.897556389999899</v>
-      </c>
-      <c r="Q140" s="1">
-        <v>116.378916606999</v>
-      </c>
-      <c r="R140" s="11"/>
-      <c r="S140" s="11"/>
-      <c r="U140">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="141" spans="1:21">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="D141" s="1">
-        <v>22510934</v>
-      </c>
-      <c r="F141" s="1">
-        <v>1</v>
-      </c>
-      <c r="G141" t="s">
-        <v>594</v>
-      </c>
-      <c r="J141" t="s">
+      <c r="G143" t="s">
         <v>480</v>
       </c>
-      <c r="K141" t="s">
-        <v>479</v>
-      </c>
-      <c r="L141" t="s">
-        <v>402</v>
-      </c>
-      <c r="P141" s="1">
-        <v>39.897730091600003</v>
-      </c>
-      <c r="Q141" s="1">
-        <v>116.37991824700001</v>
-      </c>
-      <c r="R141" s="11"/>
-      <c r="S141" s="11"/>
-      <c r="U141">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:21">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="D142" s="1">
-        <v>2888878</v>
-      </c>
-      <c r="F142" s="1">
-        <v>2</v>
-      </c>
-      <c r="G142" t="s">
+      <c r="J143" t="s">
+        <v>482</v>
+      </c>
+      <c r="K143" t="s">
         <v>481</v>
       </c>
-      <c r="J142" t="s">
-        <v>482</v>
-      </c>
-      <c r="K142" t="s">
-        <v>414</v>
-      </c>
-      <c r="L142" t="s">
-        <v>402</v>
-      </c>
-      <c r="P142" s="1">
-        <v>39.897791942600001</v>
-      </c>
-      <c r="Q142" s="1">
-        <v>116.38013307200001</v>
-      </c>
-      <c r="R142" s="11"/>
-      <c r="S142" s="11"/>
-      <c r="U142">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="143" spans="1:21">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="D143" s="1">
-        <v>14879472</v>
-      </c>
-      <c r="F143" s="1">
+      <c r="L143" t="s">
+        <v>400</v>
+      </c>
+      <c r="P143" s="1">
+        <v>39.8935811168</v>
+      </c>
+      <c r="Q143" s="1">
+        <v>116.386838638</v>
+      </c>
+      <c r="R143" s="2">
+        <v>39.901310000000002</v>
+      </c>
+      <c r="S143" s="2">
+        <v>116.399472</v>
+      </c>
+      <c r="U143">
         <v>4</v>
       </c>
-      <c r="G143" t="s">
+      <c r="V143" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="D144" s="1">
+        <v>18555325</v>
+      </c>
+      <c r="F144" s="1">
+        <v>4</v>
+      </c>
+      <c r="G144" t="s">
         <v>483</v>
       </c>
-      <c r="J143" t="s">
+      <c r="J144" t="s">
         <v>484</v>
       </c>
-      <c r="K143" t="s">
-        <v>459</v>
-      </c>
-      <c r="L143" t="s">
-        <v>402</v>
-      </c>
-      <c r="P143" s="1">
-        <v>39.895993111000003</v>
-      </c>
-      <c r="Q143" s="1">
-        <v>116.378594546</v>
-      </c>
-      <c r="R143" s="11"/>
-      <c r="S143" s="11"/>
-      <c r="U143">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="144" spans="1:21">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="D144" s="1">
-        <v>17837011</v>
-      </c>
-      <c r="F144" s="1">
-        <v>1</v>
-      </c>
-      <c r="G144" t="s">
-        <v>485</v>
-      </c>
-      <c r="J144" t="s">
-        <v>487</v>
-      </c>
       <c r="K144" t="s">
-        <v>486</v>
+        <v>420</v>
       </c>
       <c r="L144" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P144" s="1">
-        <v>39.894046987400003</v>
+        <v>39.893112525200003</v>
       </c>
       <c r="Q144" s="1">
-        <v>116.37888555000001</v>
-      </c>
-      <c r="R144" s="11"/>
-      <c r="S144" s="11"/>
+        <v>116.38569900500001</v>
+      </c>
+      <c r="R144" s="2">
+        <v>39.900832999999999</v>
+      </c>
+      <c r="S144" s="2">
+        <v>116.398335</v>
+      </c>
       <c r="U144">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:21">
+      <c r="V144" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22">
       <c r="A145" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D145" s="1">
-        <v>18555325</v>
+        <v>5206443</v>
       </c>
       <c r="F145" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G145" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J145" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="K145" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="L145" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P145" s="1">
-        <v>39.896597726300001</v>
+        <v>39.8931789978</v>
       </c>
       <c r="Q145" s="1">
-        <v>116.379086059</v>
-      </c>
-      <c r="R145" s="11"/>
-      <c r="S145" s="11"/>
+        <v>116.385159887</v>
+      </c>
+      <c r="R145" s="2">
+        <v>39.900894999999998</v>
+      </c>
+      <c r="S145" s="2">
+        <v>116.397797</v>
+      </c>
       <c r="U145">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:21">
+        <v>13</v>
+      </c>
+      <c r="V145" s="1">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22">
       <c r="A146" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D146" s="1">
-        <v>5206443</v>
+        <v>21785061</v>
       </c>
       <c r="F146" s="1">
         <v>2</v>
       </c>
       <c r="G146" t="s">
+        <v>487</v>
+      </c>
+      <c r="J146" t="s">
+        <v>488</v>
+      </c>
+      <c r="K146" t="s">
+        <v>412</v>
+      </c>
+      <c r="L146" t="s">
+        <v>400</v>
+      </c>
+      <c r="P146" s="1">
+        <v>39.894112652300002</v>
+      </c>
+      <c r="Q146" s="1">
+        <v>116.388199331</v>
+      </c>
+      <c r="R146" s="2">
+        <v>39.901850000000003</v>
+      </c>
+      <c r="S146" s="2">
+        <v>116.40083</v>
+      </c>
+      <c r="U146">
+        <v>66</v>
+      </c>
+      <c r="V146" s="1">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="D147" s="1">
+        <v>4284608</v>
+      </c>
+      <c r="F147" s="1">
+        <v>4</v>
+      </c>
+      <c r="G147" t="s">
+        <v>489</v>
+      </c>
+      <c r="J147" t="s">
         <v>490</v>
       </c>
-      <c r="J146" t="s">
+      <c r="K147" t="s">
+        <v>420</v>
+      </c>
+      <c r="L147" t="s">
+        <v>400</v>
+      </c>
+      <c r="P147" s="1">
+        <v>39.894253292599998</v>
+      </c>
+      <c r="Q147" s="1">
+        <v>116.38775877400001</v>
+      </c>
+      <c r="R147" s="2">
+        <v>39.901988000000003</v>
+      </c>
+      <c r="S147" s="2">
+        <v>116.40039</v>
+      </c>
+      <c r="U147">
+        <v>12</v>
+      </c>
+      <c r="V147" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="D148" s="1">
+        <v>32862989</v>
+      </c>
+      <c r="F148" s="1">
+        <v>2</v>
+      </c>
+      <c r="G148" t="s">
         <v>491</v>
       </c>
-      <c r="K146" t="s">
-        <v>414</v>
-      </c>
-      <c r="L146" t="s">
-        <v>402</v>
-      </c>
-      <c r="P146" s="1">
-        <v>39.8950924986</v>
-      </c>
-      <c r="Q146" s="1">
-        <v>116.379503911</v>
-      </c>
-      <c r="R146" s="11"/>
-      <c r="S146" s="11"/>
-      <c r="U146">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="1:21">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="D147" s="1">
-        <v>21785061</v>
-      </c>
-      <c r="F147" s="1">
-        <v>2</v>
-      </c>
-      <c r="G147" t="s">
+      <c r="J148" t="s">
         <v>492</v>
       </c>
-      <c r="J147" t="s">
-        <v>493</v>
-      </c>
-      <c r="K147" t="s">
-        <v>414</v>
-      </c>
-      <c r="L147" t="s">
-        <v>402</v>
-      </c>
-      <c r="P147" s="1">
-        <v>39.895289836700002</v>
-      </c>
-      <c r="Q147" s="1">
-        <v>116.379015284</v>
-      </c>
-      <c r="R147" s="11"/>
-      <c r="S147" s="11"/>
-      <c r="U147">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="148" spans="1:21">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="D148" s="1">
-        <v>4284608</v>
-      </c>
-      <c r="F148" s="1">
-        <v>4</v>
-      </c>
-      <c r="G148" t="s">
-        <v>494</v>
-      </c>
-      <c r="J148" t="s">
-        <v>495</v>
-      </c>
       <c r="K148" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="L148" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="P148" s="1">
-        <v>39.894662539199899</v>
+        <v>39.891242753900002</v>
       </c>
       <c r="Q148" s="1">
-        <v>116.379473989999</v>
-      </c>
-      <c r="R148" s="11"/>
-      <c r="S148" s="11"/>
+        <v>116.383502272</v>
+      </c>
+      <c r="R148" s="2">
+        <v>39.898944</v>
+      </c>
+      <c r="S148" s="2">
+        <v>116.396145</v>
+      </c>
       <c r="U148">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="149" spans="1:21">
+        <v>3</v>
+      </c>
+      <c r="V148" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22">
       <c r="A149" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D149" s="1">
-        <v>32862989</v>
+        <v>19575067</v>
       </c>
       <c r="F149" s="1">
         <v>2</v>
       </c>
       <c r="G149" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="J149" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="K149" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="L149" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="P149" s="1">
-        <v>39.895082882899899</v>
+        <v>39.8935809285</v>
       </c>
       <c r="Q149" s="1">
-        <v>116.378964353</v>
-      </c>
-      <c r="R149" s="11"/>
-      <c r="S149" s="11"/>
+        <v>116.386865687</v>
+      </c>
+      <c r="R149" s="2">
+        <v>39.901310000000002</v>
+      </c>
+      <c r="S149" s="2">
+        <v>116.39949900000001</v>
+      </c>
       <c r="U149">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:21">
+        <v>5</v>
+      </c>
+      <c r="V149" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22">
       <c r="A150" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D150" s="1">
-        <v>19575067</v>
+        <v>17659665</v>
       </c>
       <c r="F150" s="1">
         <v>2</v>
       </c>
       <c r="G150" t="s">
+        <v>494</v>
+      </c>
+      <c r="J150" t="s">
+        <v>495</v>
+      </c>
+      <c r="K150" t="s">
+        <v>481</v>
+      </c>
+      <c r="L150" t="s">
+        <v>400</v>
+      </c>
+      <c r="P150" s="1">
+        <v>39.893221264200001</v>
+      </c>
+      <c r="Q150" s="1">
+        <v>116.385989698</v>
+      </c>
+      <c r="R150" s="2">
+        <v>39.900944000000003</v>
+      </c>
+      <c r="S150" s="2">
+        <v>116.398625</v>
+      </c>
+      <c r="U150">
+        <v>2</v>
+      </c>
+      <c r="V150" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="D151" s="1">
+        <v>32572946</v>
+      </c>
+      <c r="F151" s="1">
+        <v>1</v>
+      </c>
+      <c r="G151" t="s">
+        <v>496</v>
+      </c>
+      <c r="J151" t="s">
+        <v>497</v>
+      </c>
+      <c r="K151" t="s">
+        <v>470</v>
+      </c>
+      <c r="L151" t="s">
+        <v>400</v>
+      </c>
+      <c r="P151" s="1">
+        <v>39.893292825400003</v>
+      </c>
+      <c r="Q151" s="1">
+        <v>116.38566808900001</v>
+      </c>
+      <c r="R151" s="2">
+        <v>39.901012999999999</v>
+      </c>
+      <c r="S151" s="2">
+        <v>116.398304</v>
+      </c>
+      <c r="U151">
+        <v>5</v>
+      </c>
+      <c r="V151" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="D152" s="1">
+        <v>3619885</v>
+      </c>
+      <c r="F152" s="1">
+        <v>4</v>
+      </c>
+      <c r="G152" t="s">
         <v>498</v>
       </c>
-      <c r="J150" t="s">
-        <v>487</v>
-      </c>
-      <c r="K150" t="s">
-        <v>426</v>
-      </c>
-      <c r="L150" t="s">
-        <v>402</v>
-      </c>
-      <c r="P150" s="1">
-        <v>39.895593952900001</v>
-      </c>
-      <c r="Q150" s="1">
-        <v>116.383565996</v>
-      </c>
-      <c r="R150" s="11"/>
-      <c r="S150" s="11"/>
-      <c r="U150">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:21">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="D151" s="1">
-        <v>17659665</v>
-      </c>
-      <c r="F151" s="1">
+      <c r="J152" t="s">
+        <v>499</v>
+      </c>
+      <c r="K152" t="s">
+        <v>420</v>
+      </c>
+      <c r="L152" t="s">
+        <v>400</v>
+      </c>
+      <c r="P152" s="1">
+        <v>39.893863613800001</v>
+      </c>
+      <c r="Q152" s="1">
+        <v>116.385228611</v>
+      </c>
+      <c r="R152" s="2">
+        <v>39.901580000000003</v>
+      </c>
+      <c r="S152" s="2">
+        <v>116.397865</v>
+      </c>
+      <c r="U152">
+        <v>25</v>
+      </c>
+      <c r="V152" s="1">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="D153" s="1">
+        <v>16825884</v>
+      </c>
+      <c r="F153" s="1">
         <v>2</v>
       </c>
-      <c r="G151" t="s">
-        <v>499</v>
-      </c>
-      <c r="J151" t="s">
+      <c r="G153" t="s">
         <v>500</v>
       </c>
-      <c r="K151" t="s">
-        <v>486</v>
-      </c>
-      <c r="L151" t="s">
-        <v>402</v>
-      </c>
-      <c r="P151" s="1">
-        <v>39.894439574099898</v>
-      </c>
-      <c r="Q151" s="1">
-        <v>116.384390666</v>
-      </c>
-      <c r="R151" s="11"/>
-      <c r="S151" s="11"/>
-      <c r="U151">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:21">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="D152" s="1">
-        <v>32572946</v>
-      </c>
-      <c r="F152" s="1">
-        <v>1</v>
-      </c>
-      <c r="G152" t="s">
+      <c r="J153" t="s">
+        <v>502</v>
+      </c>
+      <c r="K153" t="s">
         <v>501</v>
       </c>
-      <c r="J152" t="s">
-        <v>502</v>
-      </c>
-      <c r="K152" t="s">
-        <v>475</v>
-      </c>
-      <c r="L152" t="s">
-        <v>402</v>
-      </c>
-      <c r="P152" s="1">
-        <v>39.893960921199898</v>
-      </c>
-      <c r="Q152" s="1">
-        <v>116.38200220500001</v>
-      </c>
-      <c r="R152" s="11"/>
-      <c r="S152" s="11"/>
-      <c r="U152">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:21">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="D153" s="1">
-        <v>3619885</v>
-      </c>
-      <c r="F153" s="1">
-        <v>4</v>
-      </c>
-      <c r="G153" t="s">
-        <v>503</v>
-      </c>
-      <c r="J153" t="s">
-        <v>504</v>
-      </c>
-      <c r="K153" t="s">
-        <v>422</v>
-      </c>
       <c r="L153" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="P153" s="1">
-        <v>39.8952280066</v>
+        <v>39.892277239599998</v>
       </c>
       <c r="Q153" s="1">
-        <v>116.38791892</v>
-      </c>
-      <c r="R153" s="11"/>
-      <c r="S153" s="11"/>
+        <v>116.383891111</v>
+      </c>
+      <c r="R153" s="2">
+        <v>39.899982000000001</v>
+      </c>
+      <c r="S153" s="2">
+        <v>116.39653199999999</v>
+      </c>
       <c r="U153">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="154" spans="1:21">
+        <v>9</v>
+      </c>
+      <c r="V153" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22">
       <c r="A154" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D154" s="1">
-        <v>16825884</v>
+        <v>21159377</v>
       </c>
       <c r="F154" s="1">
         <v>2</v>
       </c>
       <c r="G154" t="s">
+        <v>503</v>
+      </c>
+      <c r="J154" t="s">
         <v>505</v>
       </c>
-      <c r="J154" t="s">
+      <c r="K154" t="s">
+        <v>504</v>
+      </c>
+      <c r="L154" t="s">
+        <v>400</v>
+      </c>
+      <c r="P154" s="1">
+        <v>39.894313863199997</v>
+      </c>
+      <c r="Q154" s="1">
+        <v>116.3860828</v>
+      </c>
+      <c r="R154" s="2">
+        <v>39.902037</v>
+      </c>
+      <c r="S154" s="2">
+        <v>116.398717</v>
+      </c>
+      <c r="U154">
+        <v>2</v>
+      </c>
+      <c r="V154" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="D155" s="1">
+        <v>13771513</v>
+      </c>
+      <c r="F155" s="1">
+        <v>4</v>
+      </c>
+      <c r="G155" t="s">
+        <v>506</v>
+      </c>
+      <c r="J155" t="s">
         <v>507</v>
       </c>
-      <c r="K154" t="s">
-        <v>506</v>
-      </c>
-      <c r="L154" t="s">
-        <v>423</v>
-      </c>
-      <c r="P154" s="1">
-        <v>39.897548195399899</v>
-      </c>
-      <c r="Q154" s="1">
-        <v>116.387138932</v>
-      </c>
-      <c r="R154" s="11"/>
-      <c r="S154" s="11"/>
-      <c r="U154">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="155" spans="1:21">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="D155" s="1">
-        <v>21159377</v>
-      </c>
-      <c r="F155" s="1">
-        <v>2</v>
-      </c>
-      <c r="G155" t="s">
-        <v>508</v>
-      </c>
-      <c r="J155" t="s">
-        <v>510</v>
-      </c>
       <c r="K155" t="s">
-        <v>509</v>
+        <v>420</v>
       </c>
       <c r="L155" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P155" s="1">
-        <v>39.897498162399899</v>
+        <v>39.889885337999999</v>
       </c>
       <c r="Q155" s="1">
-        <v>116.387228901</v>
-      </c>
-      <c r="R155" s="11"/>
-      <c r="S155" s="11"/>
+        <v>116.384341335</v>
+      </c>
+      <c r="R155" s="2">
+        <v>39.897595000000003</v>
+      </c>
+      <c r="S155" s="2">
+        <v>116.39698300000001</v>
+      </c>
       <c r="U155">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:21">
+        <v>1</v>
+      </c>
+      <c r="V155" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22">
       <c r="A156" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D156" s="1">
-        <v>13771513</v>
+        <v>3623794</v>
       </c>
       <c r="F156" s="1">
         <v>4</v>
       </c>
       <c r="G156" t="s">
+        <v>508</v>
+      </c>
+      <c r="J156" t="s">
+        <v>497</v>
+      </c>
+      <c r="K156" t="s">
+        <v>420</v>
+      </c>
+      <c r="L156" t="s">
+        <v>400</v>
+      </c>
+      <c r="P156" s="1">
+        <v>39.892982096600001</v>
+      </c>
+      <c r="Q156" s="1">
+        <v>116.386399314</v>
+      </c>
+      <c r="R156" s="2">
+        <v>39.900708000000002</v>
+      </c>
+      <c r="S156" s="2">
+        <v>116.399034</v>
+      </c>
+      <c r="U156">
+        <v>2</v>
+      </c>
+      <c r="V156" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" s="2" customFormat="1">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="D157" s="2">
+        <v>24901752</v>
+      </c>
+      <c r="E157">
+        <v>24399519</v>
+      </c>
+      <c r="F157" s="2">
+        <v>2</v>
+      </c>
+      <c r="G157" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="J157" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="J156" t="s">
+      <c r="K157" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="L157" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="P157" s="1">
+        <v>39.896889379800001</v>
+      </c>
+      <c r="Q157" s="1">
+        <v>116.382916405</v>
+      </c>
+      <c r="R157" s="2">
+        <v>39.904583000000002</v>
+      </c>
+      <c r="S157" s="2">
+        <v>116.395556</v>
+      </c>
+      <c r="U157" s="10">
+        <v>2</v>
+      </c>
+      <c r="V157" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="D158" s="1">
+        <v>19492960</v>
+      </c>
+      <c r="F158" s="1">
+        <v>2</v>
+      </c>
+      <c r="G158" t="s">
         <v>512</v>
       </c>
-      <c r="K156" t="s">
-        <v>422</v>
-      </c>
-      <c r="L156" t="s">
-        <v>402</v>
-      </c>
-      <c r="P156" s="1">
-        <v>39.898337333599898</v>
-      </c>
-      <c r="Q156" s="1">
-        <v>116.389547984</v>
-      </c>
-      <c r="R156" s="11"/>
-      <c r="S156" s="11"/>
-      <c r="U156">
+      <c r="J158" t="s">
+        <v>514</v>
+      </c>
+      <c r="K158" t="s">
+        <v>513</v>
+      </c>
+      <c r="L158" t="s">
+        <v>400</v>
+      </c>
+      <c r="P158" s="1">
+        <v>39.8943831944</v>
+      </c>
+      <c r="Q158" s="1">
+        <v>116.388118439</v>
+      </c>
+      <c r="R158" s="2">
+        <v>39.902119999999996</v>
+      </c>
+      <c r="S158" s="2">
+        <v>116.400749</v>
+      </c>
+      <c r="U158">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:21">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="D157" s="1">
-        <v>3623794</v>
-      </c>
-      <c r="F157" s="1">
-        <v>4</v>
-      </c>
-      <c r="G157" t="s">
-        <v>513</v>
-      </c>
-      <c r="J157" t="s">
-        <v>502</v>
-      </c>
-      <c r="K157" t="s">
-        <v>422</v>
-      </c>
-      <c r="L157" t="s">
-        <v>402</v>
-      </c>
-      <c r="P157" s="1">
-        <v>39.898007524999898</v>
-      </c>
-      <c r="Q157" s="1">
-        <v>116.388968202</v>
-      </c>
-      <c r="R157" s="11"/>
-      <c r="S157" s="11"/>
-      <c r="U157">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:21" s="2" customFormat="1">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="D158" s="2">
-        <v>24901752</v>
-      </c>
-      <c r="E158">
-        <v>24399519</v>
-      </c>
-      <c r="F158" s="2">
-        <v>2</v>
-      </c>
-      <c r="G158" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="J158" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="K158" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="L158" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="P158" s="1">
-        <v>39.894578581700003</v>
-      </c>
-      <c r="Q158" s="1">
-        <v>116.386520577</v>
-      </c>
-      <c r="R158" s="11"/>
-      <c r="S158" s="11"/>
-      <c r="U158" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:21">
+      <c r="V158" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22">
       <c r="A159" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D159" s="1">
-        <v>19492960</v>
+        <v>2898766</v>
       </c>
       <c r="F159" s="1">
         <v>2</v>
       </c>
       <c r="G159" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J159" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="K159" t="s">
-        <v>518</v>
+        <v>456</v>
       </c>
       <c r="L159" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="P159" s="1">
-        <v>39.894367942999899</v>
+        <v>39.892969729000001</v>
       </c>
       <c r="Q159" s="1">
-        <v>116.388208922999</v>
-      </c>
-      <c r="R159" s="11"/>
-      <c r="S159" s="11"/>
+        <v>116.385423296</v>
+      </c>
+      <c r="R159" s="2">
+        <v>39.900688000000002</v>
+      </c>
+      <c r="S159" s="2">
+        <v>116.39806</v>
+      </c>
       <c r="U159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:21">
+        <v>33</v>
+      </c>
+      <c r="V159" s="1">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22">
       <c r="A160" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D160" s="1">
-        <v>2898766</v>
+        <v>5401552</v>
       </c>
       <c r="F160" s="1">
         <v>2</v>
       </c>
       <c r="G160" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J160" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="K160" t="s">
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="L160" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="P160" s="1">
-        <v>39.893878342800001</v>
+        <v>39.893156874500001</v>
       </c>
       <c r="Q160" s="1">
-        <v>116.38718937900001</v>
-      </c>
-      <c r="R160" s="11"/>
-      <c r="S160" s="11"/>
+        <v>116.385292163</v>
+      </c>
+      <c r="R160" s="2">
+        <v>39.900874000000002</v>
+      </c>
+      <c r="S160" s="2">
+        <v>116.397929</v>
+      </c>
       <c r="U160">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="161" spans="1:21">
+        <v>2</v>
+      </c>
+      <c r="V160" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22">
       <c r="A161" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D161" s="1">
-        <v>5401552</v>
+        <v>20896153</v>
       </c>
       <c r="F161" s="1">
         <v>2</v>
       </c>
       <c r="G161" t="s">
+        <v>519</v>
+      </c>
+      <c r="J161" t="s">
+        <v>520</v>
+      </c>
+      <c r="K161" t="s">
+        <v>412</v>
+      </c>
+      <c r="L161" t="s">
+        <v>400</v>
+      </c>
+      <c r="P161" s="1">
+        <v>39.890443335400001</v>
+      </c>
+      <c r="Q161" s="1">
+        <v>116.38457733600001</v>
+      </c>
+      <c r="R161" s="2">
+        <v>39.898155000000003</v>
+      </c>
+      <c r="S161" s="2">
+        <v>116.397218</v>
+      </c>
+      <c r="U161">
+        <v>1</v>
+      </c>
+      <c r="V161" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="D162" s="1">
+        <v>11255768</v>
+      </c>
+      <c r="F162" s="1">
+        <v>4</v>
+      </c>
+      <c r="G162" t="s">
         <v>522</v>
       </c>
-      <c r="J161" t="s">
+      <c r="J162" t="s">
+        <v>463</v>
+      </c>
+      <c r="K162" t="s">
         <v>523</v>
       </c>
-      <c r="K161" t="s">
-        <v>506</v>
-      </c>
-      <c r="L161" t="s">
-        <v>402</v>
-      </c>
-      <c r="P161" s="1">
-        <v>39.894657964799897</v>
-      </c>
-      <c r="Q161" s="1">
-        <v>116.388108922</v>
-      </c>
-      <c r="R161" s="11"/>
-      <c r="S161" s="11"/>
-      <c r="U161">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:21">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="D162" s="1">
-        <v>20896153</v>
-      </c>
-      <c r="F162" s="1">
-        <v>2</v>
-      </c>
-      <c r="G162" t="s">
-        <v>524</v>
-      </c>
-      <c r="J162" t="s">
-        <v>525</v>
-      </c>
-      <c r="K162" t="s">
-        <v>414</v>
-      </c>
       <c r="L162" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P162" s="1">
-        <v>39.894188156799899</v>
+        <v>39.893343009200002</v>
       </c>
       <c r="Q162" s="1">
-        <v>116.387639159</v>
-      </c>
-      <c r="R162" s="11"/>
-      <c r="S162" s="11"/>
+        <v>116.386290401</v>
+      </c>
+      <c r="R162" s="2">
+        <v>39.901068000000002</v>
+      </c>
+      <c r="S162" s="2">
+        <v>116.39892500000001</v>
+      </c>
       <c r="U162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:21">
+      <c r="V162" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22">
       <c r="A163" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D163" s="1">
-        <v>11255768</v>
+        <v>21070080</v>
       </c>
       <c r="F163" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G163" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="J163" t="s">
-        <v>468</v>
+        <v>526</v>
       </c>
       <c r="K163" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="L163" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P163" s="1">
-        <v>39.894735350799898</v>
+        <v>39.892350886099997</v>
       </c>
       <c r="Q163" s="1">
-        <v>116.38706931900001</v>
-      </c>
-      <c r="R163" s="11"/>
-      <c r="S163" s="11"/>
+        <v>116.384140798</v>
+      </c>
+      <c r="R163" s="2">
+        <v>39.900058000000001</v>
+      </c>
+      <c r="S163" s="2">
+        <v>116.396781</v>
+      </c>
       <c r="U163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:21">
+      <c r="V163" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22">
       <c r="A164" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D164" s="1">
-        <v>21070080</v>
+        <v>21341798</v>
       </c>
       <c r="F164" s="1">
         <v>2</v>
       </c>
       <c r="G164" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="J164" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="K164" t="s">
-        <v>530</v>
+        <v>481</v>
       </c>
       <c r="L164" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P164" s="1">
-        <v>39.8930231589</v>
+        <v>39.893156874500001</v>
       </c>
       <c r="Q164" s="1">
-        <v>116.378714823</v>
-      </c>
-      <c r="R164" s="11"/>
-      <c r="S164" s="11"/>
+        <v>116.385292163</v>
+      </c>
+      <c r="R164" s="2">
+        <v>39.900874000000002</v>
+      </c>
+      <c r="S164" s="2">
+        <v>116.397929</v>
+      </c>
       <c r="U164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="V164" s="1">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22">
       <c r="A165" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D165" s="1">
-        <v>21341798</v>
+        <v>9077520</v>
       </c>
       <c r="F165" s="1">
         <v>2</v>
       </c>
       <c r="G165" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="J165" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="K165" t="s">
-        <v>486</v>
+        <v>412</v>
       </c>
       <c r="L165" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P165" s="1">
-        <v>39.892632451300003</v>
+        <v>39.894997846300001</v>
       </c>
       <c r="Q165" s="1">
-        <v>116.37973404100001</v>
-      </c>
-      <c r="R165" s="11"/>
-      <c r="S165" s="11"/>
+        <v>116.388389356</v>
+      </c>
+      <c r="R165" s="2">
+        <v>39.902735999999997</v>
+      </c>
+      <c r="S165" s="2">
+        <v>116.40101900000001</v>
+      </c>
       <c r="U165">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="166" spans="1:21">
+        <v>110</v>
+      </c>
+      <c r="V165" s="1">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22">
       <c r="A166" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D166" s="1">
-        <v>9077520</v>
+        <v>24090758</v>
       </c>
       <c r="F166" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G166" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J166" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K166" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="L166" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P166" s="1">
-        <v>39.893733031499899</v>
+        <v>39.893743147599999</v>
       </c>
       <c r="Q166" s="1">
-        <v>116.378844624</v>
-      </c>
-      <c r="R166" s="11"/>
-      <c r="S166" s="11"/>
+        <v>116.386559253</v>
+      </c>
+      <c r="R166" s="2">
+        <v>39.901470000000003</v>
+      </c>
+      <c r="S166" s="2">
+        <v>116.399193</v>
+      </c>
       <c r="U166">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="167" spans="1:21">
+        <v>36</v>
+      </c>
+      <c r="V166" s="1">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22">
       <c r="A167" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D167" s="1">
-        <v>24090758</v>
+        <v>8026976</v>
       </c>
       <c r="F167" s="1">
         <v>4</v>
       </c>
       <c r="G167" t="s">
+        <v>532</v>
+      </c>
+      <c r="J167" t="s">
+        <v>533</v>
+      </c>
+      <c r="K167" t="s">
+        <v>420</v>
+      </c>
+      <c r="L167" t="s">
+        <v>400</v>
+      </c>
+      <c r="P167" s="1">
+        <v>39.8927354327</v>
+      </c>
+      <c r="Q167" s="1">
+        <v>116.386079479</v>
+      </c>
+      <c r="R167" s="2">
+        <v>39.900458999999998</v>
+      </c>
+      <c r="S167" s="2">
+        <v>116.398715</v>
+      </c>
+      <c r="U167">
+        <v>3</v>
+      </c>
+      <c r="V167" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="D168" s="1">
+        <v>6039890</v>
+      </c>
+      <c r="F168" s="1">
+        <v>1</v>
+      </c>
+      <c r="G168" t="s">
+        <v>534</v>
+      </c>
+      <c r="J168" t="s">
         <v>535</v>
       </c>
-      <c r="J167" t="s">
+      <c r="K168" t="s">
+        <v>417</v>
+      </c>
+      <c r="L168" t="s">
+        <v>400</v>
+      </c>
+      <c r="P168" s="1">
+        <v>39.894308641099997</v>
+      </c>
+      <c r="Q168" s="1">
+        <v>116.387868994</v>
+      </c>
+      <c r="R168" s="2">
+        <v>39.902043999999997</v>
+      </c>
+      <c r="S168" s="2">
+        <v>116.40049999999999</v>
+      </c>
+      <c r="U168">
+        <v>1</v>
+      </c>
+      <c r="V168" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="D169" s="1">
+        <v>23644588</v>
+      </c>
+      <c r="F169" s="1">
+        <v>2</v>
+      </c>
+      <c r="G169" t="s">
         <v>536</v>
       </c>
-      <c r="K167" t="s">
-        <v>459</v>
-      </c>
-      <c r="L167" t="s">
-        <v>402</v>
-      </c>
-      <c r="P167" s="1">
-        <v>39.8921031138999</v>
-      </c>
-      <c r="Q167" s="1">
-        <v>116.37883484</v>
-      </c>
-      <c r="R167" s="11"/>
-      <c r="S167" s="11"/>
-      <c r="U167">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="168" spans="1:21">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="D168" s="1">
-        <v>8026976</v>
-      </c>
-      <c r="F168" s="1">
+      <c r="J169" t="s">
+        <v>537</v>
+      </c>
+      <c r="K169" t="s">
+        <v>440</v>
+      </c>
+      <c r="L169" t="s">
+        <v>427</v>
+      </c>
+      <c r="P169" s="1">
+        <v>39.888831453000002</v>
+      </c>
+      <c r="Q169" s="1">
+        <v>116.38377211300001</v>
+      </c>
+      <c r="R169" s="2">
+        <v>39.896535999999998</v>
+      </c>
+      <c r="S169" s="2">
+        <v>116.396416</v>
+      </c>
+      <c r="U169">
         <v>4</v>
       </c>
-      <c r="G168" t="s">
-        <v>537</v>
-      </c>
-      <c r="J168" t="s">
-        <v>538</v>
-      </c>
-      <c r="K168" t="s">
-        <v>422</v>
-      </c>
-      <c r="L168" t="s">
-        <v>402</v>
-      </c>
-      <c r="P168" s="1">
-        <v>39.892864192300003</v>
-      </c>
-      <c r="Q168" s="1">
-        <v>116.378871192999</v>
-      </c>
-      <c r="R168" s="11"/>
-      <c r="S168" s="11"/>
-      <c r="U168">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:21">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="D169" s="1">
-        <v>6039890</v>
-      </c>
-      <c r="F169" s="1">
-        <v>1</v>
-      </c>
-      <c r="G169" t="s">
-        <v>539</v>
-      </c>
-      <c r="J169" t="s">
-        <v>540</v>
-      </c>
-      <c r="K169" t="s">
-        <v>419</v>
-      </c>
-      <c r="L169" t="s">
-        <v>402</v>
-      </c>
-      <c r="P169" s="1">
-        <v>39.893782656900001</v>
-      </c>
-      <c r="Q169" s="1">
-        <v>116.379364190999</v>
-      </c>
-      <c r="R169" s="11"/>
-      <c r="S169" s="11"/>
-      <c r="U169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:21">
+      <c r="V169" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22">
       <c r="A170" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D170" s="1">
-        <v>23644588</v>
+        <v>19423695</v>
       </c>
       <c r="F170" s="1">
         <v>2</v>
       </c>
       <c r="G170" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J170" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="K170" t="s">
-        <v>445</v>
-      </c>
-      <c r="L170" t="s">
-        <v>431</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="L170"/>
       <c r="P170" s="1">
-        <v>39.8928931429</v>
+        <v>39.8940632714</v>
       </c>
       <c r="Q170" s="1">
-        <v>116.378744815</v>
-      </c>
-      <c r="R170" s="11"/>
-      <c r="S170" s="11"/>
+        <v>116.387279823</v>
+      </c>
+      <c r="R170" s="2">
+        <v>39.901795</v>
+      </c>
+      <c r="S170" s="2">
+        <v>116.399912</v>
+      </c>
       <c r="U170">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:21">
+      <c r="V170" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22">
       <c r="A171" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D171" s="1">
-        <v>19423695</v>
+        <v>5476763</v>
       </c>
       <c r="F171" s="1">
         <v>2</v>
       </c>
       <c r="G171" t="s">
+        <v>541</v>
+      </c>
+      <c r="J171" t="s">
+        <v>184</v>
+      </c>
+      <c r="K171" t="s">
+        <v>412</v>
+      </c>
+      <c r="L171" t="s">
+        <v>400</v>
+      </c>
+      <c r="P171" s="1">
+        <v>39.892929834299999</v>
+      </c>
+      <c r="Q171" s="1">
+        <v>116.385170706</v>
+      </c>
+      <c r="R171" s="2">
+        <v>39.900646000000002</v>
+      </c>
+      <c r="S171" s="2">
+        <v>116.397808</v>
+      </c>
+      <c r="U171">
+        <v>7</v>
+      </c>
+      <c r="V171" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="D172" s="1">
+        <v>6612404</v>
+      </c>
+      <c r="F172" s="1">
+        <v>4</v>
+      </c>
+      <c r="G172" t="s">
+        <v>542</v>
+      </c>
+      <c r="J172" t="s">
         <v>543</v>
       </c>
-      <c r="J171" t="s">
-        <v>545</v>
-      </c>
-      <c r="K171" t="s">
-        <v>544</v>
-      </c>
-      <c r="L171"/>
-      <c r="P171" s="1">
-        <v>39.892903135200001</v>
-      </c>
-      <c r="Q171" s="1">
-        <v>116.378754805</v>
-      </c>
-      <c r="R171" s="11"/>
-      <c r="S171" s="11"/>
-      <c r="U171">
+      <c r="K172" t="s">
+        <v>420</v>
+      </c>
+      <c r="L172" t="s">
+        <v>400</v>
+      </c>
+      <c r="P172" s="1">
+        <v>39.892428750599997</v>
+      </c>
+      <c r="Q172" s="1">
+        <v>116.386424909</v>
+      </c>
+      <c r="R172" s="2">
+        <v>39.900154999999998</v>
+      </c>
+      <c r="S172" s="2">
+        <v>116.39906000000001</v>
+      </c>
+      <c r="U172">
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="1:21">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="D172" s="1">
-        <v>5476763</v>
-      </c>
-      <c r="F172" s="1">
-        <v>2</v>
-      </c>
-      <c r="G172" t="s">
-        <v>546</v>
-      </c>
-      <c r="J172" t="s">
-        <v>184</v>
-      </c>
-      <c r="K172" t="s">
-        <v>414</v>
-      </c>
-      <c r="L172" t="s">
-        <v>402</v>
-      </c>
-      <c r="P172" s="1">
-        <v>39.8939120313999</v>
-      </c>
-      <c r="Q172" s="1">
-        <v>116.380263466</v>
-      </c>
-      <c r="R172" s="11"/>
-      <c r="S172" s="11"/>
-      <c r="U172">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" spans="1:21">
+      <c r="V172" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22">
       <c r="A173" s="1">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D173" s="1">
-        <v>6612404</v>
+        <v>6039873</v>
       </c>
       <c r="F173" s="1">
         <v>4</v>
       </c>
       <c r="G173" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="J173" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K173" t="s">
-        <v>422</v>
+        <v>545</v>
       </c>
       <c r="L173" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P173" s="1">
-        <v>39.892872812199897</v>
+        <v>39.893976842199997</v>
       </c>
       <c r="Q173" s="1">
-        <v>116.379204437</v>
-      </c>
-      <c r="R173" s="11"/>
-      <c r="S173" s="11"/>
+        <v>116.387819638</v>
+      </c>
+      <c r="R173" s="2">
+        <v>39.901712000000003</v>
+      </c>
+      <c r="S173" s="2">
+        <v>116.400451</v>
+      </c>
       <c r="U173">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:21">
+        <v>1</v>
+      </c>
+      <c r="V173" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22">
       <c r="A174" s="1">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D174" s="1">
-        <v>6039873</v>
+        <v>24107065</v>
       </c>
       <c r="F174" s="1">
         <v>4</v>
       </c>
       <c r="G174" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="J174" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K174" t="s">
-        <v>550</v>
+        <v>420</v>
       </c>
       <c r="L174" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P174" s="1">
-        <v>39.8912898212999</v>
+        <v>39.892925015199999</v>
       </c>
       <c r="Q174" s="1">
-        <v>116.38419118</v>
-      </c>
-      <c r="R174" s="11"/>
-      <c r="S174" s="11"/>
+        <v>116.384917126</v>
+      </c>
+      <c r="R174" s="2">
+        <v>39.900638999999998</v>
+      </c>
+      <c r="S174" s="2">
+        <v>116.397555</v>
+      </c>
       <c r="U174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:21">
+        <v>3</v>
+      </c>
+      <c r="V174" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22">
       <c r="A175" s="1">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D175" s="1">
-        <v>24107065</v>
+        <v>48189058</v>
       </c>
       <c r="F175" s="1">
         <v>4</v>
       </c>
       <c r="G175" t="s">
+        <v>549</v>
+      </c>
+      <c r="J175" t="s">
+        <v>551</v>
+      </c>
+      <c r="K175" t="s">
+        <v>550</v>
+      </c>
+      <c r="L175" t="s">
+        <v>521</v>
+      </c>
+      <c r="P175" s="1">
+        <v>39.894362530999999</v>
+      </c>
+      <c r="Q175" s="1">
+        <v>116.388059332</v>
+      </c>
+      <c r="R175" s="2">
+        <v>39.902099</v>
+      </c>
+      <c r="S175" s="2">
+        <v>116.40069</v>
+      </c>
+      <c r="U175">
+        <v>1</v>
+      </c>
+      <c r="V175" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="D176" s="1">
+        <v>5476771</v>
+      </c>
+      <c r="F176" s="1">
+        <v>2</v>
+      </c>
+      <c r="G176" t="s">
         <v>552</v>
       </c>
-      <c r="J175" t="s">
+      <c r="J176" t="s">
         <v>553</v>
       </c>
-      <c r="K175" t="s">
-        <v>422</v>
-      </c>
-      <c r="L175" t="s">
-        <v>402</v>
-      </c>
-      <c r="P175" s="1">
-        <v>39.893787493600001</v>
-      </c>
-      <c r="Q175" s="1">
-        <v>116.38230774</v>
-      </c>
-      <c r="R175" s="11"/>
-      <c r="S175" s="11"/>
-      <c r="U175">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:21">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="D176" s="1">
-        <v>48189058</v>
-      </c>
-      <c r="F176" s="1">
-        <v>4</v>
-      </c>
-      <c r="G176" t="s">
-        <v>554</v>
-      </c>
-      <c r="J176" t="s">
-        <v>556</v>
-      </c>
       <c r="K176" t="s">
-        <v>555</v>
+        <v>412</v>
       </c>
       <c r="L176" t="s">
-        <v>526</v>
+        <v>400</v>
       </c>
       <c r="P176" s="1">
-        <v>39.893378873700001</v>
+        <v>39.892804230800003</v>
       </c>
       <c r="Q176" s="1">
-        <v>116.385969985</v>
-      </c>
-      <c r="R176" s="11"/>
-      <c r="S176" s="11"/>
+        <v>116.38455116900001</v>
+      </c>
+      <c r="R176" s="2">
+        <v>39.900514999999999</v>
+      </c>
+      <c r="S176" s="2">
+        <v>116.39718999999999</v>
+      </c>
       <c r="U176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:21">
+      <c r="V176" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22">
       <c r="A177" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D177" s="1">
-        <v>5476771</v>
+        <v>3623797</v>
       </c>
       <c r="F177" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G177" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="J177" t="s">
-        <v>558</v>
+        <v>531</v>
       </c>
       <c r="K177" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="L177" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P177" s="1">
-        <v>39.8937904484999</v>
+        <v>39.8937491493</v>
       </c>
       <c r="Q177" s="1">
-        <v>116.382821687</v>
-      </c>
-      <c r="R177" s="11"/>
-      <c r="S177" s="11"/>
+        <v>116.38655925800001</v>
+      </c>
+      <c r="R177" s="2">
+        <v>39.901476000000002</v>
+      </c>
+      <c r="S177" s="2">
+        <v>116.399193</v>
+      </c>
       <c r="U177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:21">
+      <c r="V177" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22">
       <c r="A178" s="1">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D178" s="1">
-        <v>3623797</v>
+        <v>6039904</v>
       </c>
       <c r="F178" s="1">
+        <v>1</v>
+      </c>
+      <c r="G178" t="s">
+        <v>555</v>
+      </c>
+      <c r="J178" t="s">
+        <v>556</v>
+      </c>
+      <c r="K178" t="s">
+        <v>470</v>
+      </c>
+      <c r="L178" t="s">
+        <v>400</v>
+      </c>
+      <c r="P178" s="1">
+        <v>39.8943083415</v>
+      </c>
+      <c r="Q178" s="1">
+        <v>116.387919072</v>
+      </c>
+      <c r="R178" s="2">
+        <v>39.902043999999997</v>
+      </c>
+      <c r="S178" s="2">
+        <v>116.40055</v>
+      </c>
+      <c r="U178">
+        <v>2</v>
+      </c>
+      <c r="V178" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="D179" s="1">
+        <v>21945416</v>
+      </c>
+      <c r="F179" s="1">
+        <v>2</v>
+      </c>
+      <c r="G179" t="s">
+        <v>557</v>
+      </c>
+      <c r="J179" t="s">
+        <v>559</v>
+      </c>
+      <c r="K179" t="s">
+        <v>443</v>
+      </c>
+      <c r="L179" t="s">
+        <v>558</v>
+      </c>
+      <c r="P179" s="1">
+        <v>39.893083086300003</v>
+      </c>
+      <c r="Q179" s="1">
+        <v>116.385029514</v>
+      </c>
+      <c r="R179" s="2">
+        <v>39.900798000000002</v>
+      </c>
+      <c r="S179" s="2">
+        <v>116.397667</v>
+      </c>
+      <c r="U179">
+        <v>25</v>
+      </c>
+      <c r="V179" s="1">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="D180" s="1">
+        <v>9041551</v>
+      </c>
+      <c r="F180" s="1">
         <v>4</v>
       </c>
-      <c r="G178" t="s">
-        <v>559</v>
-      </c>
-      <c r="J178" t="s">
-        <v>536</v>
-      </c>
-      <c r="K178" t="s">
-        <v>422</v>
-      </c>
-      <c r="L178" t="s">
-        <v>402</v>
-      </c>
-      <c r="P178" s="1">
-        <v>39.891120422299899</v>
-      </c>
-      <c r="Q178" s="1">
-        <v>116.38308686000001</v>
-      </c>
-      <c r="R178" s="11"/>
-      <c r="S178" s="11"/>
-      <c r="U178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:21">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="D179" s="1">
-        <v>6039904</v>
-      </c>
-      <c r="F179" s="1">
-        <v>1</v>
-      </c>
-      <c r="G179" t="s">
+      <c r="G180" t="s">
         <v>560</v>
       </c>
-      <c r="J179" t="s">
+      <c r="J180" t="s">
+        <v>562</v>
+      </c>
+      <c r="K180" t="s">
         <v>561</v>
       </c>
-      <c r="K179" t="s">
-        <v>475</v>
-      </c>
-      <c r="L179" t="s">
-        <v>402</v>
-      </c>
-      <c r="P179" s="1">
-        <v>39.893820441400003</v>
-      </c>
-      <c r="Q179" s="1">
-        <v>116.382831677</v>
-      </c>
-      <c r="R179" s="11"/>
-      <c r="S179" s="11"/>
-      <c r="U179">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:21">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-      <c r="D180" s="1">
-        <v>21945416</v>
-      </c>
-      <c r="F180" s="1">
-        <v>2</v>
-      </c>
-      <c r="G180" t="s">
-        <v>562</v>
-      </c>
-      <c r="J180" t="s">
-        <v>564</v>
-      </c>
-      <c r="K180" t="s">
-        <v>448</v>
-      </c>
       <c r="L180" t="s">
-        <v>563</v>
+        <v>400</v>
       </c>
       <c r="P180" s="1">
-        <v>39.892959292800001</v>
+        <v>39.893328499100001</v>
       </c>
       <c r="Q180" s="1">
-        <v>116.385100472</v>
-      </c>
-      <c r="R180" s="11"/>
-      <c r="S180" s="11"/>
+        <v>116.385463681</v>
+      </c>
+      <c r="R180" s="2">
+        <v>39.901046999999998</v>
+      </c>
+      <c r="S180" s="2">
+        <v>116.3981</v>
+      </c>
       <c r="U180">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="181" spans="1:21">
+        <v>60</v>
+      </c>
+      <c r="V180" s="1">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22">
       <c r="A181" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D181" s="1">
-        <v>9041551</v>
+        <v>6612375</v>
       </c>
       <c r="F181" s="1">
         <v>4</v>
       </c>
       <c r="G181" t="s">
+        <v>563</v>
+      </c>
+      <c r="J181" t="s">
+        <v>564</v>
+      </c>
+      <c r="K181" t="s">
+        <v>420</v>
+      </c>
+      <c r="L181" t="s">
+        <v>400</v>
+      </c>
+      <c r="P181" s="1">
+        <v>39.892339518299998</v>
+      </c>
+      <c r="Q181" s="1">
+        <v>116.387319461</v>
+      </c>
+      <c r="R181" s="2">
+        <v>39.900072000000002</v>
+      </c>
+      <c r="S181" s="2">
+        <v>116.399953</v>
+      </c>
+      <c r="U181">
+        <v>5</v>
+      </c>
+      <c r="V181" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="D182" s="1">
+        <v>6039864</v>
+      </c>
+      <c r="F182" s="1">
+        <v>1</v>
+      </c>
+      <c r="G182" t="s">
         <v>565</v>
       </c>
-      <c r="J181" t="s">
+      <c r="J182" t="s">
+        <v>566</v>
+      </c>
+      <c r="K182" t="s">
+        <v>417</v>
+      </c>
+      <c r="L182" t="s">
+        <v>400</v>
+      </c>
+      <c r="P182" s="1">
+        <v>39.894077144100002</v>
+      </c>
+      <c r="Q182" s="1">
+        <v>116.387299869</v>
+      </c>
+      <c r="R182" s="2">
+        <v>39.901809</v>
+      </c>
+      <c r="S182" s="2">
+        <v>116.39993200000001</v>
+      </c>
+      <c r="U182">
+        <v>1</v>
+      </c>
+      <c r="V182" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="D183" s="1">
+        <v>17134142</v>
+      </c>
+      <c r="F183" s="1">
+        <v>4</v>
+      </c>
+      <c r="G183" t="s">
         <v>567</v>
       </c>
-      <c r="K181" t="s">
-        <v>566</v>
-      </c>
-      <c r="L181" t="s">
-        <v>402</v>
-      </c>
-      <c r="P181" s="1">
-        <v>39.891901341000001</v>
-      </c>
-      <c r="Q181" s="1">
-        <v>116.381472833</v>
-      </c>
-      <c r="R181" s="11"/>
-      <c r="S181" s="11"/>
-      <c r="U181">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="182" spans="1:21">
-      <c r="A182" s="1">
-        <v>180</v>
-      </c>
-      <c r="D182" s="1">
-        <v>6612375</v>
-      </c>
-      <c r="F182" s="1">
-        <v>4</v>
-      </c>
-      <c r="G182" t="s">
+      <c r="J183" t="s">
+        <v>569</v>
+      </c>
+      <c r="K183" t="s">
         <v>568</v>
       </c>
-      <c r="J182" t="s">
-        <v>569</v>
-      </c>
-      <c r="K182" t="s">
-        <v>422</v>
-      </c>
-      <c r="L182" t="s">
-        <v>402</v>
-      </c>
-      <c r="P182" s="1">
-        <v>39.893840736000001</v>
-      </c>
-      <c r="Q182" s="1">
-        <v>116.38232200500001</v>
-      </c>
-      <c r="R182" s="11"/>
-      <c r="S182" s="11"/>
-      <c r="U182">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:21">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
-      <c r="D183" s="1">
-        <v>6039864</v>
-      </c>
-      <c r="F183" s="1">
-        <v>1</v>
-      </c>
-      <c r="G183" t="s">
+      <c r="L183" t="s">
+        <v>447</v>
+      </c>
+      <c r="P183" s="1">
+        <v>39.893235112900001</v>
+      </c>
+      <c r="Q183" s="1">
+        <v>116.386009751</v>
+      </c>
+      <c r="R183" s="2">
+        <v>39.900958000000003</v>
+      </c>
+      <c r="S183" s="2">
+        <v>116.398645</v>
+      </c>
+      <c r="U183">
+        <v>2</v>
+      </c>
+      <c r="V183" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="D184" s="1">
+        <v>24630342</v>
+      </c>
+      <c r="F184" s="1">
+        <v>2</v>
+      </c>
+      <c r="G184" t="s">
         <v>570</v>
       </c>
-      <c r="J183" t="s">
+      <c r="J184" t="s">
         <v>571</v>
       </c>
-      <c r="K183" t="s">
-        <v>419</v>
-      </c>
-      <c r="L183" t="s">
-        <v>402</v>
-      </c>
-      <c r="P183" s="1">
-        <v>39.8934788076999</v>
-      </c>
-      <c r="Q183" s="1">
-        <v>116.386109906</v>
-      </c>
-      <c r="R183" s="11"/>
-      <c r="S183" s="11"/>
-      <c r="U183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:21">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
-      <c r="D184" s="1">
-        <v>17134142</v>
-      </c>
-      <c r="F184" s="1">
-        <v>4</v>
-      </c>
-      <c r="G184" t="s">
-        <v>572</v>
-      </c>
-      <c r="J184" t="s">
-        <v>574</v>
-      </c>
       <c r="K184" t="s">
-        <v>573</v>
+        <v>412</v>
       </c>
       <c r="L184" t="s">
-        <v>452</v>
+        <v>400</v>
       </c>
       <c r="P184" s="1">
-        <v>39.892439783500002</v>
+        <v>39.894056599199999</v>
       </c>
       <c r="Q184" s="1">
-        <v>116.38416105</v>
-      </c>
-      <c r="R184" s="11"/>
-      <c r="S184" s="11"/>
+        <v>116.38722973100001</v>
+      </c>
+      <c r="R184" s="2">
+        <v>39.901788000000003</v>
+      </c>
+      <c r="S184" s="2">
+        <v>116.399862</v>
+      </c>
       <c r="U184">
         <v>2</v>
       </c>
-    </row>
-    <row r="185" spans="1:21">
+      <c r="V184" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22">
       <c r="A185" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D185" s="1">
-        <v>24630342</v>
+        <v>21159211</v>
       </c>
       <c r="F185" s="1">
+        <v>1</v>
+      </c>
+      <c r="G185" t="s">
+        <v>572</v>
+      </c>
+      <c r="J185" t="s">
+        <v>574</v>
+      </c>
+      <c r="K185" t="s">
+        <v>573</v>
+      </c>
+      <c r="L185" t="s">
+        <v>521</v>
+      </c>
+      <c r="P185" s="1">
+        <v>39.894501620699998</v>
+      </c>
+      <c r="Q185" s="1">
+        <v>116.38724613399999</v>
+      </c>
+      <c r="R185" s="2">
+        <v>39.902233000000003</v>
+      </c>
+      <c r="S185" s="2">
+        <v>116.399878</v>
+      </c>
+      <c r="U185">
+        <v>1</v>
+      </c>
+      <c r="V185" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="D186" s="1">
+        <v>3623803</v>
+      </c>
+      <c r="F186" s="1">
+        <v>4</v>
+      </c>
+      <c r="G186" t="s">
+        <v>575</v>
+      </c>
+      <c r="J186" t="s">
+        <v>576</v>
+      </c>
+      <c r="K186" t="s">
+        <v>420</v>
+      </c>
+      <c r="L186" t="s">
+        <v>400</v>
+      </c>
+      <c r="P186" s="1">
+        <v>39.894003314099997</v>
+      </c>
+      <c r="Q186" s="1">
+        <v>116.387908799</v>
+      </c>
+      <c r="R186" s="2">
+        <v>39.901738999999999</v>
+      </c>
+      <c r="S186" s="2">
+        <v>116.40054000000001</v>
+      </c>
+      <c r="U186">
         <v>2</v>
       </c>
-      <c r="G185" t="s">
-        <v>575</v>
-      </c>
-      <c r="J185" t="s">
-        <v>576</v>
-      </c>
-      <c r="K185" t="s">
-        <v>414</v>
-      </c>
-      <c r="L185" t="s">
-        <v>402</v>
-      </c>
-      <c r="P185" s="1">
-        <v>39.892491183700002</v>
-      </c>
-      <c r="Q185" s="1">
-        <v>116.381682611</v>
-      </c>
-      <c r="R185" s="11"/>
-      <c r="S185" s="11"/>
-      <c r="U185">
+      <c r="V186" s="1">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:21">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
-      <c r="D186" s="1">
-        <v>21159211</v>
-      </c>
-      <c r="F186" s="1">
-        <v>1</v>
-      </c>
-      <c r="G186" t="s">
+    <row r="187" spans="1:22">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="D187" s="1">
+        <v>19630202</v>
+      </c>
+      <c r="F187" s="1">
+        <v>2</v>
+      </c>
+      <c r="G187" t="s">
         <v>577</v>
       </c>
-      <c r="J186" t="s">
-        <v>579</v>
-      </c>
-      <c r="K186" t="s">
+      <c r="J187" t="s">
         <v>578</v>
       </c>
-      <c r="L186" t="s">
-        <v>526</v>
-      </c>
-      <c r="P186" s="1">
-        <v>39.893096198400002</v>
-      </c>
-      <c r="Q186" s="1">
-        <v>116.383325461</v>
-      </c>
-      <c r="R186" s="11"/>
-      <c r="S186" s="11"/>
-      <c r="U186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:21">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
-      <c r="D187" s="1">
-        <v>3623803</v>
-      </c>
-      <c r="F187" s="1">
-        <v>4</v>
-      </c>
-      <c r="G187" t="s">
-        <v>580</v>
-      </c>
-      <c r="J187" t="s">
-        <v>581</v>
-      </c>
       <c r="K187" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L187" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P187" s="1">
-        <v>39.892574551899898</v>
+        <v>39.8930928905</v>
       </c>
       <c r="Q187" s="1">
-        <v>116.382738895</v>
-      </c>
-      <c r="R187" s="11"/>
-      <c r="S187" s="11"/>
+        <v>116.385529628</v>
+      </c>
+      <c r="R187" s="2">
+        <v>39.900812000000002</v>
+      </c>
+      <c r="S187" s="2">
+        <v>116.398166</v>
+      </c>
       <c r="U187">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:21">
+        <v>155</v>
+      </c>
+      <c r="V187" s="1">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22">
       <c r="A188" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D188" s="1">
-        <v>19630202</v>
+        <v>18575829</v>
       </c>
       <c r="F188" s="1">
         <v>2</v>
       </c>
       <c r="G188" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J188" t="s">
-        <v>583</v>
+        <v>468</v>
       </c>
       <c r="K188" t="s">
-        <v>426</v>
+        <v>513</v>
       </c>
       <c r="L188" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P188" s="1">
-        <v>39.8934788076999</v>
+        <v>39.893032070300002</v>
       </c>
       <c r="Q188" s="1">
-        <v>116.386109906</v>
-      </c>
-      <c r="R188" s="11"/>
-      <c r="S188" s="11"/>
+        <v>116.38538426300001</v>
+      </c>
+      <c r="R188" s="2">
+        <v>39.900750000000002</v>
+      </c>
+      <c r="S188" s="2">
+        <v>116.398021</v>
+      </c>
       <c r="U188">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="189" spans="1:21">
+        <v>83</v>
+      </c>
+      <c r="V188" s="1">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22">
       <c r="A189" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D189" s="1">
-        <v>18575829</v>
+        <v>4682426</v>
       </c>
       <c r="F189" s="1">
         <v>2</v>
       </c>
       <c r="G189" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="J189" t="s">
-        <v>473</v>
+        <v>581</v>
       </c>
       <c r="K189" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="L189" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P189" s="1">
-        <v>39.8917564013</v>
+        <v>39.893912351899999</v>
       </c>
       <c r="Q189" s="1">
-        <v>116.38245983</v>
-      </c>
-      <c r="R189" s="11"/>
-      <c r="S189" s="11"/>
+        <v>116.38696314000001</v>
+      </c>
+      <c r="R189" s="2">
+        <v>39.901642000000002</v>
+      </c>
+      <c r="S189" s="2">
+        <v>116.399596</v>
+      </c>
       <c r="U189">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="190" spans="1:21">
+        <v>8</v>
+      </c>
+      <c r="V189" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22">
       <c r="A190" s="1">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D190" s="1">
-        <v>4682426</v>
+        <v>24324925</v>
       </c>
       <c r="F190" s="1">
         <v>2</v>
       </c>
       <c r="G190" t="s">
+        <v>582</v>
+      </c>
+      <c r="J190" t="s">
+        <v>583</v>
+      </c>
+      <c r="K190" t="s">
+        <v>504</v>
+      </c>
+      <c r="L190" t="s">
+        <v>400</v>
+      </c>
+      <c r="P190" s="1">
+        <v>39.8943831944</v>
+      </c>
+      <c r="Q190" s="1">
+        <v>116.388118439</v>
+      </c>
+      <c r="R190" s="2">
+        <v>39.902119999999996</v>
+      </c>
+      <c r="S190" s="2">
+        <v>116.400749</v>
+      </c>
+      <c r="U190">
+        <v>20</v>
+      </c>
+      <c r="V190" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="D191" s="1">
+        <v>24016570</v>
+      </c>
+      <c r="F191" s="1">
+        <v>4</v>
+      </c>
+      <c r="G191" t="s">
+        <v>584</v>
+      </c>
+      <c r="J191" t="s">
+        <v>586</v>
+      </c>
+      <c r="K191" t="s">
         <v>585</v>
       </c>
-      <c r="J190" t="s">
-        <v>586</v>
-      </c>
-      <c r="K190" t="s">
-        <v>518</v>
-      </c>
-      <c r="L190" t="s">
-        <v>402</v>
-      </c>
-      <c r="P190" s="1">
-        <v>39.892869481300004</v>
-      </c>
-      <c r="Q190" s="1">
-        <v>116.384720685</v>
-      </c>
-      <c r="R190" s="11"/>
-      <c r="S190" s="11"/>
-      <c r="U190">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="191" spans="1:21">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
-      <c r="D191" s="1">
-        <v>24324925</v>
-      </c>
-      <c r="F191" s="1">
-        <v>2</v>
-      </c>
-      <c r="G191" t="s">
-        <v>587</v>
-      </c>
-      <c r="J191" t="s">
-        <v>588</v>
-      </c>
-      <c r="K191" t="s">
-        <v>509</v>
-      </c>
       <c r="L191" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="P191" s="1">
-        <v>39.8920485173999</v>
+        <v>39.890979048799998</v>
       </c>
       <c r="Q191" s="1">
-        <v>116.382841896</v>
-      </c>
-      <c r="R191" s="11"/>
-      <c r="S191" s="11"/>
+        <v>116.380198175</v>
+      </c>
+      <c r="R191" s="2">
+        <v>39.898643</v>
+      </c>
+      <c r="S191" s="2">
+        <v>116.39285099999999</v>
+      </c>
       <c r="U191">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="192" spans="1:21">
+        <v>1</v>
+      </c>
+      <c r="V191" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22">
       <c r="A192" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D192" s="1">
-        <v>24016570</v>
+        <v>3611311</v>
       </c>
       <c r="F192" s="1">
         <v>4</v>
       </c>
       <c r="G192" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J192" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="K192" t="s">
-        <v>590</v>
+        <v>523</v>
       </c>
       <c r="L192" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="P192" s="1">
-        <v>39.893470640799897</v>
+        <v>39.896607996199997</v>
       </c>
       <c r="Q192" s="1">
-        <v>116.386500727</v>
-      </c>
-      <c r="R192" s="11"/>
-      <c r="S192" s="11"/>
+        <v>116.386558687</v>
+      </c>
+      <c r="R192" s="2">
+        <v>39.904333999999999</v>
+      </c>
+      <c r="S192" s="2">
+        <v>116.39919</v>
+      </c>
       <c r="U192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:21">
-      <c r="A193" s="1">
-        <v>191</v>
-      </c>
-      <c r="D193" s="1">
-        <v>3611311</v>
-      </c>
-      <c r="F193" s="1">
-        <v>4</v>
-      </c>
-      <c r="G193" t="s">
-        <v>592</v>
-      </c>
-      <c r="J193" t="s">
-        <v>593</v>
-      </c>
-      <c r="K193" t="s">
-        <v>528</v>
-      </c>
-      <c r="L193" t="s">
-        <v>402</v>
-      </c>
-      <c r="P193" s="1">
-        <v>39.893475495899899</v>
-      </c>
-      <c r="Q193" s="1">
-        <v>116.387765019</v>
-      </c>
-      <c r="R193" s="11"/>
-      <c r="S193" s="11"/>
-      <c r="U193">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="1:21">
+      <c r="V192" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
       <c r="A197" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="198" spans="1:21">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="199" spans="1:21">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
       <c r="A199" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="200" spans="1:21">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
       <c r="A200" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="201" spans="1:21">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="202" spans="1:21">
-      <c r="A202" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="203" spans="1:21">
-      <c r="A203" s="3" t="s">
+    <row r="202" spans="1:1">
+      <c r="A202" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="204" spans="1:21">
-      <c r="A204" s="4" t="s">
+    <row r="203" spans="1:1">
+      <c r="A203" s="4" t="s">
         <v>279</v>
       </c>
     </row>

--- a/analysis/dashilar.xlsx
+++ b/analysis/dashilar.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="552">
   <si>
     <t>address</t>
   </si>
@@ -745,35 +745,6 @@
   </si>
   <si>
     <t>东城区大栅栏西街56号</t>
-  </si>
-  <si>
-    <t>1 - retail</t>
-  </si>
-  <si>
-    <t>2 - f&amp;b</t>
-  </si>
-  <si>
-    <t>6 - general region (Dashilar, hutongs, etc)</t>
-  </si>
-  <si>
-    <t>0 - outside the region</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 - attractions (historic sites, museums)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 - specific place (bus stop, metro, schools, residential compound etc)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 - other business (hotel,cinema,banks etc)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>西城区前门西大街正阳市场3号楼</t>
@@ -1815,15 +1786,9 @@
     <t>dianping_tag_2</t>
   </si>
   <si>
-    <t>dianping_addr</t>
-  </si>
-  <si>
     <t>weibo_poiid</t>
   </si>
   <si>
-    <t>weibo_title</t>
-  </si>
-  <si>
     <t>lat_BD</t>
   </si>
   <si>
@@ -1836,9 +1801,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>dianping_title</t>
-  </si>
-  <si>
     <t>北京市 39# Yangmeizhu xiejie-Beijing</t>
   </si>
   <si>
@@ -1849,6 +1811,15 @@
   </si>
   <si>
     <t>category</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>alternate title</t>
+  </si>
+  <si>
+    <t>alternate address</t>
   </si>
 </sst>
 </file>
@@ -1904,24 +1875,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2168,12 +2127,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2706,10 +2663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V188"/>
+  <dimension ref="A1:V193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2735,37 +2692,37 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="H1" t="s">
-        <v>555</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
-        <v>548</v>
+      <c r="J1" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="K1" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="L1" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>1</v>
@@ -2780,19 +2737,19 @@
         <v>4</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="U1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -2812,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
@@ -2854,7 +2811,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>8</v>
@@ -2893,7 +2850,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>10</v>
@@ -2929,7 +2886,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>13</v>
@@ -2968,7 +2925,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>15</v>
@@ -3043,7 +3000,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>19</v>
@@ -3118,7 +3075,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>23</v>
@@ -3160,10 +3117,10 @@
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="N11" s="1">
         <v>39.899700000000003</v>
@@ -3202,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>26</v>
@@ -3244,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>28</v>
@@ -3286,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>30</v>
@@ -3328,7 +3285,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>32</v>
@@ -3367,7 +3324,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>34</v>
@@ -3403,7 +3360,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>36</v>
@@ -3442,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>38</v>
@@ -3523,7 +3480,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>43</v>
@@ -3631,7 +3588,7 @@
         <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>50</v>
@@ -3880,7 +3837,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>67</v>
@@ -3922,7 +3879,7 @@
         <v>4</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>69</v>
@@ -3964,7 +3921,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>71</v>
@@ -4003,7 +3960,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>73</v>
@@ -4051,19 +4008,19 @@
         <v>75</v>
       </c>
       <c r="H34" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="J34" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="K34" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="L34" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="N34" s="1">
         <v>39.895980000000002</v>
@@ -4102,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>77</v>
@@ -4144,10 +4101,10 @@
         <v>3</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H36" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>79</v>
@@ -4156,10 +4113,10 @@
         <v>79</v>
       </c>
       <c r="K36" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="L36" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="N36" s="1">
         <v>39.89528</v>
@@ -4198,7 +4155,7 @@
         <v>4</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>81</v>
@@ -4240,22 +4197,22 @@
         <v>4</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="H38" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>84</v>
       </c>
       <c r="J38" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="K38" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="L38" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="N38" s="1">
         <v>39.895589999999899</v>
@@ -4294,7 +4251,7 @@
         <v>4</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>86</v>
@@ -4372,7 +4329,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>91</v>
@@ -4570,7 +4527,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>105</v>
@@ -4609,7 +4566,7 @@
         <v>4</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>107</v>
@@ -4720,22 +4677,22 @@
         <v>2</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="H50" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>115</v>
       </c>
       <c r="J50" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="K50" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="L50" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="N50" s="1">
         <v>39.894779999999898</v>
@@ -4774,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>117</v>
@@ -4858,7 +4815,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>122</v>
@@ -4900,22 +4857,22 @@
         <v>4</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H54" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>124</v>
       </c>
       <c r="J54" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="K54" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L54" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="N54" s="1">
         <v>39.893300000000004</v>
@@ -4951,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>126</v>
@@ -4990,22 +4947,22 @@
         <v>2</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="H56" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>128</v>
       </c>
       <c r="J56" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="K56" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="L56" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="N56" s="1">
         <v>39.894880000000001</v>
@@ -5041,7 +4998,7 @@
         <v>2</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>130</v>
@@ -5077,7 +5034,7 @@
         <v>5</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="N58" s="1">
         <v>39.893889999999899</v>
@@ -5116,7 +5073,7 @@
         <v>4</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>133</v>
@@ -5158,22 +5115,22 @@
         <v>4</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="H60" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>135</v>
       </c>
       <c r="J60" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="K60" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L60" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="N60" s="1">
         <v>39.894880000000001</v>
@@ -5212,7 +5169,7 @@
         <v>3</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>138</v>
@@ -5254,7 +5211,7 @@
         <v>2</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>140</v>
@@ -5293,7 +5250,7 @@
         <v>6</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>142</v>
@@ -5332,22 +5289,22 @@
         <v>2</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="H64" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J64" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="K64" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="L64" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="N64" s="1">
         <v>39.894877352999899</v>
@@ -5386,22 +5343,22 @@
         <v>2</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H65" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>146</v>
       </c>
       <c r="J65" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="K65" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="L65" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="N65" s="1">
         <v>39.895150000000001</v>
@@ -5440,22 +5397,22 @@
         <v>2</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H66" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>148</v>
       </c>
       <c r="J66" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="K66" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="L66" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="N66" s="1">
         <v>39.894770000000001</v>
@@ -5497,7 +5454,7 @@
         <v>4</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>150</v>
@@ -5539,10 +5496,10 @@
         <v>2</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H68" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>152</v>
@@ -5551,10 +5508,10 @@
         <v>152</v>
       </c>
       <c r="K68" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L68" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="N68" s="1">
         <v>39.895400000000002</v>
@@ -5593,22 +5550,22 @@
         <v>2</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H69" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>154</v>
       </c>
       <c r="J69" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="K69" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L69" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="M69" s="2">
         <v>72</v>
@@ -5650,22 +5607,22 @@
         <v>4</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>393</v>
+        <v>303</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>385</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J70" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="K70" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="L70" s="10" t="s">
-        <v>356</v>
+      <c r="J70" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>348</v>
       </c>
       <c r="N70" s="1">
         <v>39.894989000000002</v>
@@ -5682,7 +5639,7 @@
       <c r="T70" s="1">
         <v>162</v>
       </c>
-      <c r="U70" s="10">
+      <c r="U70" s="8">
         <v>59</v>
       </c>
       <c r="V70" s="1">
@@ -5704,7 +5661,7 @@
         <v>2</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>158</v>
@@ -5779,7 +5736,7 @@
         <v>4</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>163</v>
@@ -5821,7 +5778,7 @@
         <v>2</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>165</v>
@@ -5863,7 +5820,7 @@
         <v>4</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>167</v>
@@ -5905,7 +5862,7 @@
         <v>2</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>169</v>
@@ -5944,7 +5901,7 @@
         <v>2</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>171</v>
@@ -6019,7 +5976,7 @@
         <v>2</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>176</v>
@@ -6061,7 +6018,7 @@
         <v>4</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>178</v>
@@ -6139,7 +6096,7 @@
         <v>4</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>183</v>
@@ -6181,7 +6138,7 @@
         <v>2</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>185</v>
@@ -6220,7 +6177,7 @@
         <v>2</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>187</v>
@@ -6262,7 +6219,7 @@
         <v>3</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>189</v>
@@ -6376,7 +6333,7 @@
         <v>2</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>198</v>
@@ -6418,7 +6375,7 @@
         <v>4</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>200</v>
@@ -6463,7 +6420,7 @@
         <v>2</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>202</v>
@@ -6505,7 +6462,7 @@
         <v>4</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>204</v>
@@ -6547,7 +6504,7 @@
         <v>2</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>207</v>
@@ -6622,7 +6579,7 @@
         <v>4</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>211</v>
@@ -6664,10 +6621,10 @@
         <v>2</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="N95" s="1">
         <v>39.899794132731003</v>
@@ -6706,22 +6663,22 @@
         <v>2</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H96" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>214</v>
       </c>
       <c r="J96" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="K96" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="L96" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="N96" s="1">
         <v>39.899464000000002</v>
@@ -6760,7 +6717,7 @@
         <v>2</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>216</v>
@@ -6802,22 +6759,22 @@
         <v>2</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H98" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>219</v>
       </c>
       <c r="J98" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="K98" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="L98" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="N98" s="1">
         <v>39.895879999999899</v>
@@ -6856,7 +6813,7 @@
         <v>2</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>221</v>
@@ -6898,22 +6855,22 @@
         <v>2</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="H100" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>223</v>
       </c>
       <c r="J100" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="K100" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="L100" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="N100" s="1">
         <v>39.893602000000001</v>
@@ -6952,22 +6909,22 @@
         <v>2</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H101" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="J101" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="K101" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="L101" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="M101" s="2">
         <v>58</v>
@@ -7009,22 +6966,22 @@
         <v>2</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="H102" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>226</v>
       </c>
       <c r="J102" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="K102" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="L102" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="N102" s="1">
         <v>39.893000000000001</v>
@@ -7060,7 +7017,7 @@
         <v>2</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>228</v>
@@ -7099,22 +7056,22 @@
         <v>4</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="H104" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>230</v>
       </c>
       <c r="J104" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="K104" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L104" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="N104" s="1">
         <v>39.895235999999898</v>
@@ -7153,22 +7110,22 @@
         <v>4</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H105" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>232</v>
       </c>
       <c r="J105" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="K105" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L105" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="N105" s="1">
         <v>39.894849999999899</v>
@@ -7203,13 +7160,13 @@
       <c r="F106" s="1">
         <v>1</v>
       </c>
-      <c r="G106" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="I106" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="M106" s="6">
+      <c r="G106" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="M106" s="4">
         <v>68</v>
       </c>
       <c r="P106" s="1">
@@ -7242,13 +7199,13 @@
       <c r="F107" s="1">
         <v>1</v>
       </c>
-      <c r="G107" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="I107" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="M107" s="7">
+      <c r="G107" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="M107" s="5">
         <v>29</v>
       </c>
       <c r="P107" s="1">
@@ -7281,13 +7238,13 @@
       <c r="F108" s="1">
         <v>1</v>
       </c>
-      <c r="G108" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="I108" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M108" s="7">
+      <c r="G108" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="M108" s="5">
         <v>69</v>
       </c>
       <c r="P108" s="1">
@@ -7320,25 +7277,25 @@
       <c r="F109" s="1">
         <v>1</v>
       </c>
-      <c r="G109" s="8" t="s">
-        <v>343</v>
+      <c r="G109" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="H109" t="s">
-        <v>372</v>
-      </c>
-      <c r="I109" s="7" t="s">
-        <v>247</v>
+        <v>364</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="J109" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="K109" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="L109" t="s">
-        <v>356</v>
-      </c>
-      <c r="M109" s="7">
+        <v>348</v>
+      </c>
+      <c r="M109" s="5">
         <v>31</v>
       </c>
       <c r="P109" s="1">
@@ -7371,13 +7328,13 @@
       <c r="F110" s="1">
         <v>1</v>
       </c>
-      <c r="G110" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="I110" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="M110" s="7">
+      <c r="G110" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="M110" s="5">
         <v>33</v>
       </c>
       <c r="P110" s="1">
@@ -7410,11 +7367,11 @@
       <c r="F111" s="1">
         <v>1</v>
       </c>
-      <c r="G111" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I111" s="7" t="s">
-        <v>261</v>
+      <c r="G111" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="P111" s="1">
         <v>39.8946726896</v>
@@ -7446,25 +7403,25 @@
       <c r="F112" s="1">
         <v>1</v>
       </c>
-      <c r="G112" s="5" t="s">
-        <v>346</v>
+      <c r="G112" s="3" t="s">
+        <v>338</v>
       </c>
       <c r="H112" t="s">
-        <v>384</v>
-      </c>
-      <c r="I112" s="7" t="s">
-        <v>254</v>
+        <v>376</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="J112" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="K112" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="L112" t="s">
-        <v>356</v>
-      </c>
-      <c r="M112" s="5">
+        <v>348</v>
+      </c>
+      <c r="M112" s="3">
         <v>70</v>
       </c>
       <c r="P112" s="1">
@@ -7497,25 +7454,25 @@
       <c r="F113" s="1">
         <v>1</v>
       </c>
-      <c r="G113" s="5" t="s">
-        <v>243</v>
+      <c r="G113" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="H113" t="s">
-        <v>354</v>
-      </c>
-      <c r="I113" s="7" t="s">
-        <v>249</v>
+        <v>346</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="J113" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="K113" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="L113" t="s">
-        <v>356</v>
-      </c>
-      <c r="M113" s="7">
+        <v>348</v>
+      </c>
+      <c r="M113" s="5">
         <v>36</v>
       </c>
       <c r="P113" s="1">
@@ -7548,13 +7505,13 @@
       <c r="F114" s="1">
         <v>1</v>
       </c>
-      <c r="G114" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="I114" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="M114" s="7">
+      <c r="G114" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M114" s="5">
         <v>38</v>
       </c>
       <c r="P114" s="1">
@@ -7587,23 +7544,23 @@
       <c r="F115" s="1">
         <v>1</v>
       </c>
-      <c r="G115" s="9" t="s">
+      <c r="G115" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H115" t="s">
+        <v>381</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="J115" t="s">
+        <v>382</v>
+      </c>
+      <c r="K115" t="s">
+        <v>352</v>
+      </c>
+      <c r="L115" t="s">
         <v>348</v>
-      </c>
-      <c r="H115" t="s">
-        <v>389</v>
-      </c>
-      <c r="I115" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="J115" t="s">
-        <v>390</v>
-      </c>
-      <c r="K115" t="s">
-        <v>360</v>
-      </c>
-      <c r="L115" t="s">
-        <v>356</v>
       </c>
       <c r="P115" s="1">
         <v>39.894195431100002</v>
@@ -7635,11 +7592,11 @@
       <c r="F116" s="1">
         <v>1</v>
       </c>
-      <c r="G116" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="I116" s="7" t="s">
-        <v>259</v>
+      <c r="G116" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="P116" s="1">
         <v>39.8941620298</v>
@@ -7671,25 +7628,25 @@
       <c r="F117" s="1">
         <v>2</v>
       </c>
-      <c r="G117" s="9" t="s">
-        <v>350</v>
+      <c r="G117" s="7" t="s">
+        <v>342</v>
       </c>
       <c r="H117" t="s">
-        <v>370</v>
-      </c>
-      <c r="I117" s="6" t="s">
-        <v>251</v>
+        <v>362</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="J117" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="K117" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="L117" t="s">
-        <v>356</v>
-      </c>
-      <c r="M117" s="7">
+        <v>348</v>
+      </c>
+      <c r="M117" s="5">
         <v>57</v>
       </c>
       <c r="P117" s="1">
@@ -7722,25 +7679,25 @@
       <c r="F118" s="1">
         <v>2</v>
       </c>
-      <c r="G118" s="5" t="s">
-        <v>244</v>
+      <c r="G118" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="H118" t="s">
-        <v>405</v>
-      </c>
-      <c r="I118" s="6" t="s">
-        <v>255</v>
+        <v>397</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="J118" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="K118" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="L118" t="s">
-        <v>356</v>
-      </c>
-      <c r="M118" s="5">
+        <v>348</v>
+      </c>
+      <c r="M118" s="3">
         <v>71</v>
       </c>
       <c r="P118" s="1">
@@ -7773,13 +7730,13 @@
       <c r="F119" s="1">
         <v>3</v>
       </c>
-      <c r="G119" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="I119" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="M119" s="7">
+      <c r="G119" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="M119" s="5">
         <v>74</v>
       </c>
       <c r="P119" s="1">
@@ -7812,13 +7769,13 @@
       <c r="F120" s="1">
         <v>3</v>
       </c>
-      <c r="G120" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="I120" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="M120" s="6">
+      <c r="G120" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M120" s="4">
         <v>75</v>
       </c>
       <c r="P120" s="1">
@@ -7851,25 +7808,25 @@
       <c r="F121" s="1">
         <v>2</v>
       </c>
-      <c r="G121" s="9" t="s">
+      <c r="G121" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H121" t="s">
+        <v>373</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="J121" t="s">
+        <v>374</v>
+      </c>
+      <c r="K121" t="s">
         <v>352</v>
       </c>
-      <c r="H121" t="s">
-        <v>381</v>
-      </c>
-      <c r="I121" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="J121" t="s">
-        <v>382</v>
-      </c>
-      <c r="K121" t="s">
-        <v>360</v>
-      </c>
       <c r="L121" t="s">
-        <v>356</v>
-      </c>
-      <c r="M121" s="9">
+        <v>348</v>
+      </c>
+      <c r="M121" s="7">
         <v>78</v>
       </c>
       <c r="P121" s="1">
@@ -7903,16 +7860,16 @@
         <v>2</v>
       </c>
       <c r="G122" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="J122" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="K122" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="L122" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P122" s="1">
         <v>39.893032070300002</v>
@@ -7945,16 +7902,16 @@
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="J123" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="K123" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="L123" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P123" s="1">
         <v>39.894226721800003</v>
@@ -7987,16 +7944,16 @@
         <v>2</v>
       </c>
       <c r="G124" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="J124" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="K124" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="L124" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P124" s="1">
         <v>39.893464437299997</v>
@@ -8029,16 +7986,16 @@
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="J125" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="K125" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="L125" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P125" s="1">
         <v>39.8935794012</v>
@@ -8071,16 +8028,16 @@
         <v>2</v>
       </c>
       <c r="G126" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="J126" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K126" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="L126" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P126" s="1">
         <v>39.893294845100002</v>
@@ -8113,16 +8070,16 @@
         <v>4</v>
       </c>
       <c r="G127" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="J127" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="K127" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="L127" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P127" s="1">
         <v>39.893578383600001</v>
@@ -8155,16 +8112,16 @@
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="J128" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="K128" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="L128" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P128" s="1">
         <v>39.8935811168</v>
@@ -8197,16 +8154,16 @@
         <v>4</v>
       </c>
       <c r="G129" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="J129" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="K129" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L129" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P129" s="1">
         <v>39.893112525200003</v>
@@ -8239,16 +8196,16 @@
         <v>2</v>
       </c>
       <c r="G130" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="J130" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="K130" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="L130" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P130" s="1">
         <v>39.8931789978</v>
@@ -8281,16 +8238,16 @@
         <v>2</v>
       </c>
       <c r="G131" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="J131" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="K131" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="L131" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P131" s="1">
         <v>39.894112652300002</v>
@@ -8323,16 +8280,16 @@
         <v>4</v>
       </c>
       <c r="G132" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="J132" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="K132" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L132" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P132" s="1">
         <v>39.894253292599998</v>
@@ -8365,16 +8322,16 @@
         <v>2</v>
       </c>
       <c r="G133" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="J133" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="K133" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="L133" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P133" s="1">
         <v>39.891242753900002</v>
@@ -8407,16 +8364,16 @@
         <v>2</v>
       </c>
       <c r="G134" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="J134" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="K134" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="L134" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P134" s="1">
         <v>39.8935809285</v>
@@ -8449,16 +8406,16 @@
         <v>2</v>
       </c>
       <c r="G135" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="J135" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="K135" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="L135" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P135" s="1">
         <v>39.893221264200001</v>
@@ -8491,16 +8448,16 @@
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="J136" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="K136" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="L136" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P136" s="1">
         <v>39.893292825400003</v>
@@ -8533,16 +8490,16 @@
         <v>4</v>
       </c>
       <c r="G137" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="J137" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="K137" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L137" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P137" s="1">
         <v>39.893863613800001</v>
@@ -8575,16 +8532,16 @@
         <v>2</v>
       </c>
       <c r="G138" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="J138" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="K138" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="L138" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="P138" s="1">
         <v>39.892277239599998</v>
@@ -8617,16 +8574,16 @@
         <v>2</v>
       </c>
       <c r="G139" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="J139" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="K139" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="L139" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P139" s="1">
         <v>39.894313863199997</v>
@@ -8659,16 +8616,16 @@
         <v>4</v>
       </c>
       <c r="G140" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="J140" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="K140" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L140" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P140" s="1">
         <v>39.889885337999999</v>
@@ -8701,16 +8658,16 @@
         <v>4</v>
       </c>
       <c r="G141" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="J141" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="K141" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L141" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P141" s="1">
         <v>39.892982096600001</v>
@@ -8745,17 +8702,17 @@
       <c r="F142" s="2">
         <v>2</v>
       </c>
-      <c r="G142" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="J142" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="K142" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="L142" s="10" t="s">
-        <v>466</v>
+      <c r="G142" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="J142" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="K142" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="L142" s="8" t="s">
+        <v>458</v>
       </c>
       <c r="P142" s="1">
         <v>39.896889379800001</v>
@@ -8769,7 +8726,7 @@
       <c r="S142" s="2">
         <v>116.395556</v>
       </c>
-      <c r="U142" s="10">
+      <c r="U142" s="8">
         <v>2</v>
       </c>
       <c r="V142" s="1">
@@ -8788,16 +8745,16 @@
         <v>2</v>
       </c>
       <c r="G143" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="J143" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="K143" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="L143" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P143" s="1">
         <v>39.8943831944</v>
@@ -8830,16 +8787,16 @@
         <v>2</v>
       </c>
       <c r="G144" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="J144" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="K144" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="L144" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="P144" s="1">
         <v>39.892969729000001</v>
@@ -8872,16 +8829,16 @@
         <v>2</v>
       </c>
       <c r="G145" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="J145" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="K145" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="L145" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P145" s="1">
         <v>39.893156874500001</v>
@@ -8914,16 +8871,16 @@
         <v>2</v>
       </c>
       <c r="G146" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="J146" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="K146" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="L146" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P146" s="1">
         <v>39.890443335400001</v>
@@ -8956,16 +8913,16 @@
         <v>4</v>
       </c>
       <c r="G147" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="J147" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="K147" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="L147" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P147" s="1">
         <v>39.893343009200002</v>
@@ -8998,16 +8955,16 @@
         <v>2</v>
       </c>
       <c r="G148" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="J148" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="K148" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="L148" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P148" s="1">
         <v>39.892350886099997</v>
@@ -9040,16 +8997,16 @@
         <v>2</v>
       </c>
       <c r="G149" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J149" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="K149" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="L149" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P149" s="1">
         <v>39.893156874500001</v>
@@ -9082,16 +9039,16 @@
         <v>2</v>
       </c>
       <c r="G150" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="J150" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="K150" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="L150" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P150" s="1">
         <v>39.894997846300001</v>
@@ -9124,16 +9081,16 @@
         <v>4</v>
       </c>
       <c r="G151" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="J151" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="K151" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="L151" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P151" s="1">
         <v>39.893743147599999</v>
@@ -9166,16 +9123,16 @@
         <v>4</v>
       </c>
       <c r="G152" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="J152" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="K152" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L152" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P152" s="1">
         <v>39.8927354327</v>
@@ -9208,16 +9165,16 @@
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="J153" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="K153" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="L153" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P153" s="1">
         <v>39.894308641099997</v>
@@ -9250,16 +9207,16 @@
         <v>2</v>
       </c>
       <c r="G154" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="J154" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="K154" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="L154" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P154" s="1">
         <v>39.888831453000002</v>
@@ -9292,13 +9249,13 @@
         <v>2</v>
       </c>
       <c r="G155" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="J155" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="K155" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="L155"/>
       <c r="P155" s="1">
@@ -9332,16 +9289,16 @@
         <v>2</v>
       </c>
       <c r="G156" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="J156" t="s">
         <v>152</v>
       </c>
       <c r="K156" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="L156" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P156" s="1">
         <v>39.892929834299999</v>
@@ -9374,16 +9331,16 @@
         <v>4</v>
       </c>
       <c r="G157" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="J157" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="K157" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L157" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P157" s="1">
         <v>39.892428750599997</v>
@@ -9416,16 +9373,16 @@
         <v>4</v>
       </c>
       <c r="G158" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="J158" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="K158" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="L158" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P158" s="1">
         <v>39.893976842199997</v>
@@ -9458,16 +9415,16 @@
         <v>4</v>
       </c>
       <c r="G159" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="J159" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="K159" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L159" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P159" s="1">
         <v>39.892925015199999</v>
@@ -9500,16 +9457,16 @@
         <v>4</v>
       </c>
       <c r="G160" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="J160" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="K160" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="L160" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="P160" s="1">
         <v>39.894362530999999</v>
@@ -9542,16 +9499,16 @@
         <v>2</v>
       </c>
       <c r="G161" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="J161" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="K161" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="L161" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P161" s="1">
         <v>39.892804230800003</v>
@@ -9584,16 +9541,16 @@
         <v>4</v>
       </c>
       <c r="G162" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="J162" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="K162" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L162" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P162" s="1">
         <v>39.8937491493</v>
@@ -9626,16 +9583,16 @@
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="J163" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="K163" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="L163" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P163" s="1">
         <v>39.8943083415</v>
@@ -9668,16 +9625,16 @@
         <v>2</v>
       </c>
       <c r="G164" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="J164" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="K164" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="L164" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="P164" s="1">
         <v>39.893083086300003</v>
@@ -9710,16 +9667,16 @@
         <v>4</v>
       </c>
       <c r="G165" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="J165" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="K165" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="L165" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P165" s="1">
         <v>39.893328499100001</v>
@@ -9752,16 +9709,16 @@
         <v>4</v>
       </c>
       <c r="G166" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="J166" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="K166" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L166" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P166" s="1">
         <v>39.892339518299998</v>
@@ -9794,16 +9751,16 @@
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="J167" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="K167" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="L167" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P167" s="1">
         <v>39.894077144100002</v>
@@ -9836,16 +9793,16 @@
         <v>4</v>
       </c>
       <c r="G168" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="J168" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="K168" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="L168" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="P168" s="1">
         <v>39.893235112900001</v>
@@ -9878,16 +9835,16 @@
         <v>2</v>
       </c>
       <c r="G169" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="J169" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="K169" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="L169" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P169" s="1">
         <v>39.894056599199999</v>
@@ -9920,16 +9877,16 @@
         <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="J170" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="K170" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="L170" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="P170" s="1">
         <v>39.894501620699998</v>
@@ -9962,16 +9919,16 @@
         <v>4</v>
       </c>
       <c r="G171" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="J171" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="K171" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L171" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P171" s="1">
         <v>39.894003314099997</v>
@@ -10004,16 +9961,16 @@
         <v>2</v>
       </c>
       <c r="G172" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="J172" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="K172" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="L172" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P172" s="1">
         <v>39.8930928905</v>
@@ -10046,16 +10003,16 @@
         <v>2</v>
       </c>
       <c r="G173" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="J173" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="K173" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="L173" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P173" s="1">
         <v>39.893032070300002</v>
@@ -10088,16 +10045,16 @@
         <v>2</v>
       </c>
       <c r="G174" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="J174" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="K174" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="L174" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P174" s="1">
         <v>39.893912351899999</v>
@@ -10130,16 +10087,16 @@
         <v>2</v>
       </c>
       <c r="G175" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="J175" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="K175" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="L175" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P175" s="1">
         <v>39.8943831944</v>
@@ -10172,16 +10129,16 @@
         <v>4</v>
       </c>
       <c r="G176" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J176" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="K176" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="L176" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P176" s="1">
         <v>39.890979048799998</v>
@@ -10214,16 +10171,16 @@
         <v>4</v>
       </c>
       <c r="G177" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="J177" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="K177" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="L177" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P177" s="1">
         <v>39.896607996199997</v>
@@ -10245,45 +10202,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:22">
-      <c r="A181" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
     <row r="182" spans="1:22">
-      <c r="A182" s="1" t="s">
-        <v>234</v>
-      </c>
+      <c r="A182" s="2"/>
     </row>
     <row r="183" spans="1:22">
-      <c r="A183" s="1" t="s">
-        <v>238</v>
-      </c>
+      <c r="A183" s="2"/>
     </row>
     <row r="184" spans="1:22">
-      <c r="A184" s="1" t="s">
-        <v>240</v>
-      </c>
+      <c r="A184" s="2"/>
     </row>
     <row r="185" spans="1:22">
-      <c r="A185" s="1" t="s">
-        <v>239</v>
-      </c>
+      <c r="A185" s="2"/>
     </row>
     <row r="186" spans="1:22">
-      <c r="A186" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="A186" s="2"/>
     </row>
     <row r="187" spans="1:22">
-      <c r="A187" s="3" t="s">
-        <v>236</v>
-      </c>
+      <c r="A187" s="2"/>
     </row>
     <row r="188" spans="1:22">
-      <c r="A188" s="4" t="s">
-        <v>237</v>
-      </c>
+      <c r="A188" s="2"/>
+    </row>
+    <row r="189" spans="1:22">
+      <c r="A189" s="2"/>
+    </row>
+    <row r="190" spans="1:22">
+      <c r="A190" s="2"/>
+    </row>
+    <row r="191" spans="1:22">
+      <c r="A191" s="2"/>
+    </row>
+    <row r="192" spans="1:22">
+      <c r="A192" s="2"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/analysis/dashilar.xlsx
+++ b/analysis/dashilar.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="weibo_dashilar_withCounts" localSheetId="0">Sheet1!$B$1:$T$105</definedName>
+    <definedName name="weibo_dashilar_withCounts" localSheetId="0">Sheet1!$B$1:$T$104</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="549">
   <si>
     <t>address</t>
   </si>
@@ -217,15 +217,6 @@
   </si>
   <si>
     <t>厂甸电话局客服管理室</t>
-  </si>
-  <si>
-    <t>B2094654D66DA7FE4999</t>
-  </si>
-  <si>
-    <t>虎坊桥小区</t>
-  </si>
-  <si>
-    <t>宣武区广安门虎坊桥</t>
   </si>
   <si>
     <t>B2094654D36EAAFE4299</t>
@@ -2663,10 +2654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V193"/>
+  <dimension ref="A1:V192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2692,37 +2683,37 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>543</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="L1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>1</v>
@@ -2737,19 +2728,19 @@
         <v>4</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="U1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -2769,7 +2760,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
@@ -2811,7 +2802,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>8</v>
@@ -2835,7 +2826,7 @@
         <v>69</v>
       </c>
       <c r="V3" s="1">
-        <f t="shared" ref="V3:V58" si="0">T3+U3</f>
+        <f t="shared" ref="V3:V57" si="0">T3+U3</f>
         <v>106</v>
       </c>
     </row>
@@ -2850,7 +2841,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>10</v>
@@ -2886,7 +2877,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>13</v>
@@ -2925,7 +2916,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>15</v>
@@ -3000,7 +2991,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>19</v>
@@ -3075,7 +3066,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>23</v>
@@ -3117,10 +3108,10 @@
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N11" s="1">
         <v>39.899700000000003</v>
@@ -3159,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>26</v>
@@ -3201,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>28</v>
@@ -3243,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>30</v>
@@ -3285,7 +3276,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>32</v>
@@ -3324,7 +3315,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>34</v>
@@ -3360,7 +3351,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>36</v>
@@ -3399,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>38</v>
@@ -3471,7 +3462,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D20" s="1">
         <v>9034934</v>
@@ -3480,7 +3471,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>43</v>
@@ -3588,7 +3579,7 @@
         <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>50</v>
@@ -3723,7 +3714,7 @@
         <v>57</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>58</v>
@@ -3732,23 +3723,23 @@
         <v>59</v>
       </c>
       <c r="N27" s="1">
-        <v>39.8969939999999</v>
+        <v>39.89584</v>
       </c>
       <c r="O27" s="1">
-        <v>116.389805</v>
+        <v>116.39063</v>
       </c>
       <c r="P27" s="1">
-        <v>39.895593952900001</v>
+        <v>39.894439574099898</v>
       </c>
       <c r="Q27" s="1">
-        <v>116.383565996</v>
+        <v>116.384390666</v>
       </c>
       <c r="T27" s="1">
-        <v>11493</v>
+        <v>10</v>
       </c>
       <c r="V27" s="1">
         <f t="shared" si="0"/>
-        <v>11493</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -3759,7 +3750,7 @@
         <v>60</v>
       </c>
       <c r="F28" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>61</v>
@@ -3768,23 +3759,23 @@
         <v>62</v>
       </c>
       <c r="N28" s="1">
-        <v>39.89584</v>
+        <v>39.895359999999897</v>
       </c>
       <c r="O28" s="1">
-        <v>116.39063</v>
+        <v>116.38824</v>
       </c>
       <c r="P28" s="1">
-        <v>39.894439574099898</v>
+        <v>39.893960921199898</v>
       </c>
       <c r="Q28" s="1">
-        <v>116.384390666</v>
+        <v>116.38200220500001</v>
       </c>
       <c r="T28" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="V28" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -3794,33 +3785,39 @@
       <c r="B29" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="D29" s="1">
+        <v>21812221</v>
+      </c>
       <c r="F29" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="N29" s="1">
-        <v>39.895359999999897</v>
+        <v>39.896630000000002</v>
       </c>
       <c r="O29" s="1">
-        <v>116.38824</v>
+        <v>116.39416</v>
       </c>
       <c r="P29" s="1">
-        <v>39.893960921199898</v>
+        <v>39.8952280066</v>
       </c>
       <c r="Q29" s="1">
-        <v>116.38200220500001</v>
+        <v>116.38791892</v>
       </c>
       <c r="T29" s="1">
-        <v>14</v>
+        <v>402</v>
+      </c>
+      <c r="U29">
+        <v>41</v>
       </c>
       <c r="V29" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -3828,41 +3825,41 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2288158</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="1">
-        <v>21812221</v>
-      </c>
-      <c r="F30" s="1">
-        <v>2</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="N30" s="1">
-        <v>39.896630000000002</v>
+        <v>39.8989499999999</v>
       </c>
       <c r="O30" s="1">
-        <v>116.39416</v>
+        <v>116.393379999999</v>
       </c>
       <c r="P30" s="1">
-        <v>39.8952280066</v>
+        <v>39.897548195399899</v>
       </c>
       <c r="Q30" s="1">
-        <v>116.38791892</v>
+        <v>116.387138932</v>
       </c>
       <c r="T30" s="1">
-        <v>402</v>
+        <v>42</v>
       </c>
       <c r="U30">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="V30" s="1">
         <f t="shared" si="0"/>
-        <v>443</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -3870,41 +3867,41 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="1">
+        <v>512388</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="1">
-        <v>2288158</v>
-      </c>
-      <c r="F31" s="1">
-        <v>4</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="N31" s="1">
-        <v>39.8989499999999</v>
+        <v>39.899740000000001</v>
       </c>
       <c r="O31" s="1">
-        <v>116.393379999999</v>
+        <v>116.39579000000001</v>
       </c>
       <c r="P31" s="1">
-        <v>39.897548195399899</v>
+        <v>39.898337333599898</v>
       </c>
       <c r="Q31" s="1">
-        <v>116.387138932</v>
+        <v>116.389547984</v>
       </c>
       <c r="T31" s="1">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="U31">
-        <v>99</v>
+        <v>357</v>
       </c>
       <c r="V31" s="1">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -3912,41 +3909,38 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="1">
-        <v>512388</v>
+        <v>69</v>
       </c>
       <c r="F32" s="1">
         <v>2</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N32" s="1">
-        <v>39.899740000000001</v>
+        <v>39.899410000000003</v>
       </c>
       <c r="O32" s="1">
-        <v>116.39579000000001</v>
+        <v>116.39521000000001</v>
       </c>
       <c r="P32" s="1">
-        <v>39.898337333599898</v>
+        <v>39.898007524999898</v>
       </c>
       <c r="Q32" s="1">
-        <v>116.389547984</v>
+        <v>116.388968202</v>
       </c>
       <c r="T32" s="1">
-        <v>34</v>
-      </c>
-      <c r="U32">
-        <v>357</v>
+        <v>3</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0</v>
       </c>
       <c r="V32" s="1">
         <f t="shared" si="0"/>
-        <v>391</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -3954,38 +3948,56 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="1">
+        <v>14703864</v>
       </c>
       <c r="F33" s="1">
         <v>2</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>275</v>
+        <v>72</v>
+      </c>
+      <c r="H33" t="s">
+        <v>348</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>73</v>
+        <v>542</v>
+      </c>
+      <c r="J33" t="s">
+        <v>350</v>
+      </c>
+      <c r="K33" t="s">
+        <v>349</v>
+      </c>
+      <c r="L33" t="s">
+        <v>345</v>
       </c>
       <c r="N33" s="1">
-        <v>39.899410000000003</v>
+        <v>39.895980000000002</v>
       </c>
       <c r="O33" s="1">
-        <v>116.39521000000001</v>
+        <v>116.392760999999</v>
       </c>
       <c r="P33" s="1">
-        <v>39.898007524999898</v>
+        <v>39.894578581700003</v>
       </c>
       <c r="Q33" s="1">
-        <v>116.388968202</v>
+        <v>116.386520577</v>
       </c>
       <c r="T33" s="1">
-        <v>3</v>
-      </c>
-      <c r="U33" s="1">
-        <v>0</v>
+        <v>141</v>
+      </c>
+      <c r="U33">
+        <v>486</v>
       </c>
       <c r="V33" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>627</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -3993,56 +4005,41 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2997307</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="1">
-        <v>14703864</v>
-      </c>
-      <c r="F34" s="1">
-        <v>2</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" t="s">
-        <v>351</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="J34" t="s">
-        <v>353</v>
-      </c>
-      <c r="K34" t="s">
-        <v>352</v>
-      </c>
-      <c r="L34" t="s">
-        <v>348</v>
-      </c>
       <c r="N34" s="1">
-        <v>39.895980000000002</v>
+        <v>39.895769999999899</v>
       </c>
       <c r="O34" s="1">
-        <v>116.392760999999</v>
+        <v>116.39445000000001</v>
       </c>
       <c r="P34" s="1">
-        <v>39.894578581700003</v>
+        <v>39.894367942999899</v>
       </c>
       <c r="Q34" s="1">
-        <v>116.386520577</v>
+        <v>116.388208922999</v>
       </c>
       <c r="T34" s="1">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="U34">
-        <v>486</v>
+        <v>32</v>
       </c>
       <c r="V34" s="1">
         <f t="shared" si="0"/>
-        <v>627</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -4050,41 +4047,53 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5171450</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H35" t="s">
+        <v>403</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="1">
-        <v>2997307</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>77</v>
+      <c r="J35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K35" t="s">
+        <v>399</v>
+      </c>
+      <c r="L35" t="s">
+        <v>345</v>
       </c>
       <c r="N35" s="1">
-        <v>39.895769999999899</v>
+        <v>39.89528</v>
       </c>
       <c r="O35" s="1">
-        <v>116.39445000000001</v>
+        <v>116.39343</v>
       </c>
       <c r="P35" s="1">
-        <v>39.894367942999899</v>
+        <v>39.893878342800001</v>
       </c>
       <c r="Q35" s="1">
-        <v>116.388208922999</v>
+        <v>116.38718937900001</v>
       </c>
       <c r="T35" s="1">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="U35">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="V35" s="1">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -4092,53 +4101,41 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3193375</v>
+      </c>
+      <c r="F36" s="1">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="1">
-        <v>5171450</v>
-      </c>
-      <c r="F36" s="1">
-        <v>3</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H36" t="s">
-        <v>406</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J36" t="s">
-        <v>79</v>
-      </c>
-      <c r="K36" t="s">
-        <v>402</v>
-      </c>
-      <c r="L36" t="s">
-        <v>348</v>
-      </c>
       <c r="N36" s="1">
-        <v>39.89528</v>
+        <v>39.896059999999899</v>
       </c>
       <c r="O36" s="1">
-        <v>116.39343</v>
+        <v>116.39435</v>
       </c>
       <c r="P36" s="1">
-        <v>39.893878342800001</v>
+        <v>39.894657964799897</v>
       </c>
       <c r="Q36" s="1">
-        <v>116.38718937900001</v>
+        <v>116.388108922</v>
       </c>
       <c r="T36" s="1">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="U36">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="V36" s="1">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -4149,38 +4146,50 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>3193375</v>
+        <v>4178762</v>
       </c>
       <c r="F37" s="1">
         <v>4</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
+      </c>
+      <c r="H37" t="s">
+        <v>387</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="J37" t="s">
+        <v>389</v>
+      </c>
+      <c r="K37" t="s">
+        <v>388</v>
+      </c>
+      <c r="L37" t="s">
+        <v>345</v>
+      </c>
       <c r="N37" s="1">
-        <v>39.896059999999899</v>
+        <v>39.895589999999899</v>
       </c>
       <c r="O37" s="1">
-        <v>116.39435</v>
+        <v>116.39388</v>
       </c>
       <c r="P37" s="1">
-        <v>39.894657964799897</v>
+        <v>39.894188156799899</v>
       </c>
       <c r="Q37" s="1">
-        <v>116.388108922</v>
+        <v>116.387639159</v>
       </c>
       <c r="T37" s="1">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="U37">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="V37" s="1">
         <f t="shared" si="0"/>
-        <v>127</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -4188,53 +4197,41 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44848665</v>
+      </c>
+      <c r="F38" s="2">
+        <v>4</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="1">
-        <v>4178762</v>
-      </c>
-      <c r="F38" s="1">
-        <v>4</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="H38" t="s">
-        <v>390</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J38" t="s">
-        <v>392</v>
-      </c>
-      <c r="K38" t="s">
-        <v>391</v>
-      </c>
-      <c r="L38" t="s">
-        <v>348</v>
-      </c>
       <c r="N38" s="1">
-        <v>39.895589999999899</v>
+        <v>39.894030000000001</v>
       </c>
       <c r="O38" s="1">
-        <v>116.39388</v>
+        <v>116.38597</v>
       </c>
       <c r="P38" s="1">
-        <v>39.894188156799899</v>
+        <v>39.892632451300003</v>
       </c>
       <c r="Q38" s="1">
-        <v>116.387639159</v>
+        <v>116.37973404100001</v>
       </c>
       <c r="T38" s="1">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="U38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V38" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -4242,41 +4239,35 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="1">
-        <v>44848665</v>
-      </c>
-      <c r="F39" s="2">
-        <v>4</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="1" t="s">
         <v>86</v>
       </c>
       <c r="N39" s="1">
-        <v>39.894030000000001</v>
+        <v>39.895130000000002</v>
       </c>
       <c r="O39" s="1">
-        <v>116.38597</v>
+        <v>116.38508</v>
       </c>
       <c r="P39" s="1">
-        <v>39.892632451300003</v>
+        <v>39.893733031499899</v>
       </c>
       <c r="Q39" s="1">
-        <v>116.37973404100001</v>
+        <v>116.378844624</v>
       </c>
       <c r="T39" s="1">
-        <v>104</v>
-      </c>
-      <c r="U39">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="V39" s="1">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -4286,33 +4277,39 @@
       <c r="B40" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="D40" s="1">
+        <v>2001760</v>
+      </c>
       <c r="F40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="N40" s="1">
-        <v>39.895130000000002</v>
+        <v>39.893500000000003</v>
       </c>
       <c r="O40" s="1">
-        <v>116.38508</v>
+        <v>116.38507</v>
       </c>
       <c r="P40" s="1">
-        <v>39.893733031499899</v>
+        <v>39.8921031138999</v>
       </c>
       <c r="Q40" s="1">
-        <v>116.378844624</v>
+        <v>116.37883484</v>
       </c>
       <c r="T40" s="1">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="U40">
+        <v>583</v>
       </c>
       <c r="V40" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>597</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -4320,41 +4317,41 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="1">
+        <v>512641</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D41" s="1">
-        <v>2001760</v>
-      </c>
-      <c r="F41" s="1">
-        <v>2</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>91</v>
       </c>
       <c r="N41" s="1">
-        <v>39.893500000000003</v>
+        <v>39.894261139999898</v>
       </c>
       <c r="O41" s="1">
-        <v>116.38507</v>
+        <v>116.38510648</v>
       </c>
       <c r="P41" s="1">
-        <v>39.8921031138999</v>
+        <v>39.892864192300003</v>
       </c>
       <c r="Q41" s="1">
-        <v>116.37883484</v>
+        <v>116.378871192999</v>
       </c>
       <c r="T41" s="1">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="U41">
-        <v>583</v>
+        <v>976</v>
       </c>
       <c r="V41" s="1">
         <f t="shared" si="0"/>
-        <v>597</v>
+        <v>997</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -4365,9 +4362,9 @@
         <v>92</v>
       </c>
       <c r="D42" s="1">
-        <v>512641</v>
-      </c>
-      <c r="F42" s="2">
+        <v>4201901</v>
+      </c>
+      <c r="F42" s="1">
         <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -4377,26 +4374,26 @@
         <v>94</v>
       </c>
       <c r="N42" s="1">
-        <v>39.894261139999898</v>
+        <v>39.895180000000003</v>
       </c>
       <c r="O42" s="1">
-        <v>116.38510648</v>
+        <v>116.3856</v>
       </c>
       <c r="P42" s="1">
-        <v>39.892864192300003</v>
+        <v>39.893782656900001</v>
       </c>
       <c r="Q42" s="1">
-        <v>116.378871192999</v>
+        <v>116.379364190999</v>
       </c>
       <c r="T42" s="1">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="U42">
-        <v>976</v>
+        <v>1</v>
       </c>
       <c r="V42" s="1">
         <f t="shared" si="0"/>
-        <v>997</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -4406,11 +4403,8 @@
       <c r="B43" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="1">
-        <v>4201901</v>
-      </c>
       <c r="F43" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>96</v>
@@ -4419,26 +4413,23 @@
         <v>97</v>
       </c>
       <c r="N43" s="1">
-        <v>39.895180000000003</v>
+        <v>39.894289999999899</v>
       </c>
       <c r="O43" s="1">
-        <v>116.3856</v>
+        <v>116.38498</v>
       </c>
       <c r="P43" s="1">
-        <v>39.893782656900001</v>
+        <v>39.8928931429</v>
       </c>
       <c r="Q43" s="1">
-        <v>116.379364190999</v>
+        <v>116.378744815</v>
       </c>
       <c r="T43" s="1">
-        <v>4</v>
-      </c>
-      <c r="U43">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V43" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -4458,23 +4449,23 @@
         <v>100</v>
       </c>
       <c r="N44" s="1">
-        <v>39.894289999999899</v>
+        <v>39.894300000000001</v>
       </c>
       <c r="O44" s="1">
-        <v>116.38498</v>
+        <v>116.38499</v>
       </c>
       <c r="P44" s="1">
-        <v>39.8928931429</v>
+        <v>39.892903135200001</v>
       </c>
       <c r="Q44" s="1">
-        <v>116.378744815</v>
+        <v>116.378754805</v>
       </c>
       <c r="T44" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V44" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -4484,33 +4475,39 @@
       <c r="B45" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="D45" s="1">
+        <v>4275899</v>
+      </c>
       <c r="F45" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="N45" s="1">
-        <v>39.894300000000001</v>
+        <v>39.895310000000002</v>
       </c>
       <c r="O45" s="1">
-        <v>116.38499</v>
+        <v>116.3865</v>
       </c>
       <c r="P45" s="1">
-        <v>39.892903135200001</v>
+        <v>39.8939120313999</v>
       </c>
       <c r="Q45" s="1">
-        <v>116.378754805</v>
+        <v>116.380263466</v>
       </c>
       <c r="T45" s="1">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="U45">
+        <v>14</v>
       </c>
       <c r="V45" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -4518,41 +4515,35 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" s="1">
+        <v>4</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="1">
-        <v>4275899</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="N46" s="1">
-        <v>39.895310000000002</v>
+        <v>39.894269999999899</v>
       </c>
       <c r="O46" s="1">
-        <v>116.3865</v>
+        <v>116.38544</v>
       </c>
       <c r="P46" s="1">
-        <v>39.8939120313999</v>
+        <v>39.892872812199897</v>
       </c>
       <c r="Q46" s="1">
-        <v>116.380263466</v>
+        <v>116.379204437</v>
       </c>
       <c r="T46" s="1">
-        <v>6</v>
-      </c>
-      <c r="U46">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="V46" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -4560,35 +4551,35 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="1">
+        <v>6</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="F47" s="1">
-        <v>4</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>107</v>
       </c>
       <c r="N47" s="1">
-        <v>39.894269999999899</v>
+        <v>39.892690000000002</v>
       </c>
       <c r="O47" s="1">
-        <v>116.38544</v>
+        <v>116.390429999999</v>
       </c>
       <c r="P47" s="1">
-        <v>39.892872812199897</v>
+        <v>39.8912898212999</v>
       </c>
       <c r="Q47" s="1">
-        <v>116.379204437</v>
+        <v>116.38419118</v>
       </c>
       <c r="T47" s="1">
-        <v>8</v>
+        <v>2062</v>
       </c>
       <c r="V47" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -4608,23 +4599,23 @@
         <v>110</v>
       </c>
       <c r="N48" s="1">
-        <v>39.892690000000002</v>
+        <v>39.895186746699899</v>
       </c>
       <c r="O48" s="1">
-        <v>116.390429999999</v>
+        <v>116.388545718</v>
       </c>
       <c r="P48" s="1">
-        <v>39.8912898212999</v>
+        <v>39.893787493600001</v>
       </c>
       <c r="Q48" s="1">
-        <v>116.38419118</v>
+        <v>116.38230774</v>
       </c>
       <c r="T48" s="1">
-        <v>2062</v>
+        <v>767</v>
       </c>
       <c r="V48" s="1">
         <f t="shared" si="0"/>
-        <v>2062</v>
+        <v>767</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -4634,33 +4625,51 @@
       <c r="B49" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="D49" s="1">
+        <v>516180</v>
+      </c>
       <c r="F49" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H49" t="s">
+        <v>390</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>113</v>
+      <c r="J49" t="s">
+        <v>393</v>
+      </c>
+      <c r="K49" t="s">
+        <v>391</v>
+      </c>
+      <c r="L49" t="s">
+        <v>392</v>
       </c>
       <c r="N49" s="1">
-        <v>39.895186746699899</v>
+        <v>39.894779999999898</v>
       </c>
       <c r="O49" s="1">
-        <v>116.388545718</v>
+        <v>116.39221000000001</v>
       </c>
       <c r="P49" s="1">
-        <v>39.893787493600001</v>
+        <v>39.893378873700001</v>
       </c>
       <c r="Q49" s="1">
-        <v>116.38230774</v>
+        <v>116.385969985</v>
       </c>
       <c r="T49" s="1">
-        <v>767</v>
+        <v>141</v>
+      </c>
+      <c r="U49">
+        <v>517</v>
       </c>
       <c r="V49" s="1">
         <f t="shared" si="0"/>
-        <v>767</v>
+        <v>658</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -4668,53 +4677,41 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3990118</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D50" s="1">
-        <v>516180</v>
-      </c>
-      <c r="F50" s="1">
-        <v>2</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H50" t="s">
-        <v>393</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J50" t="s">
-        <v>396</v>
-      </c>
-      <c r="K50" t="s">
-        <v>394</v>
-      </c>
-      <c r="L50" t="s">
-        <v>395</v>
-      </c>
       <c r="N50" s="1">
-        <v>39.894779999999898</v>
+        <v>39.8951899999999</v>
       </c>
       <c r="O50" s="1">
-        <v>116.39221000000001</v>
+        <v>116.38906</v>
       </c>
       <c r="P50" s="1">
-        <v>39.893378873700001</v>
+        <v>39.8937904484999</v>
       </c>
       <c r="Q50" s="1">
-        <v>116.385969985</v>
+        <v>116.382821687</v>
       </c>
       <c r="T50" s="1">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="U50">
-        <v>517</v>
+        <v>16</v>
       </c>
       <c r="V50" s="1">
         <f t="shared" si="0"/>
-        <v>658</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -4722,41 +4719,41 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>3990118</v>
+        <v>11253538</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>285</v>
+        <v>116</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>117</v>
       </c>
       <c r="N51" s="1">
-        <v>39.8951899999999</v>
+        <v>39.895220000000002</v>
       </c>
       <c r="O51" s="1">
-        <v>116.38906</v>
+        <v>116.38907</v>
       </c>
       <c r="P51" s="1">
-        <v>39.8937904484999</v>
+        <v>39.893820441400003</v>
       </c>
       <c r="Q51" s="1">
-        <v>116.382821687</v>
+        <v>116.382831677</v>
       </c>
       <c r="T51" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="U51">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="V51" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -4767,38 +4764,38 @@
         <v>118</v>
       </c>
       <c r="D52" s="1">
-        <v>11253538</v>
+        <v>2898766</v>
       </c>
       <c r="F52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="N52" s="1">
-        <v>39.895220000000002</v>
+        <v>39.894359999999899</v>
       </c>
       <c r="O52" s="1">
-        <v>116.38907</v>
+        <v>116.39134</v>
       </c>
       <c r="P52" s="1">
-        <v>39.893820441400003</v>
+        <v>39.892959292800001</v>
       </c>
       <c r="Q52" s="1">
-        <v>116.382831677</v>
+        <v>116.385100472</v>
       </c>
       <c r="T52" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="U52">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="V52" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4806,41 +4803,53 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2288272</v>
+      </c>
+      <c r="F53" s="1">
+        <v>4</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H53" t="s">
+        <v>396</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D53" s="1">
-        <v>2898766</v>
-      </c>
-      <c r="F53" s="1">
-        <v>2</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>122</v>
+      <c r="J53" t="s">
+        <v>397</v>
+      </c>
+      <c r="K53" t="s">
+        <v>365</v>
+      </c>
+      <c r="L53" t="s">
+        <v>366</v>
       </c>
       <c r="N53" s="1">
-        <v>39.894359999999899</v>
+        <v>39.893300000000004</v>
       </c>
       <c r="O53" s="1">
-        <v>116.39134</v>
+        <v>116.38771</v>
       </c>
       <c r="P53" s="1">
-        <v>39.892959292800001</v>
+        <v>39.891901341000001</v>
       </c>
       <c r="Q53" s="1">
-        <v>116.385100472</v>
+        <v>116.381472833</v>
       </c>
       <c r="T53" s="1">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="U53">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="V53" s="1">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -4848,53 +4857,35 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D54" s="1">
-        <v>2288272</v>
-      </c>
-      <c r="F54" s="1">
-        <v>4</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H54" t="s">
-        <v>399</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J54" t="s">
-        <v>400</v>
-      </c>
-      <c r="K54" t="s">
-        <v>368</v>
-      </c>
-      <c r="L54" t="s">
-        <v>369</v>
-      </c>
       <c r="N54" s="1">
-        <v>39.893300000000004</v>
+        <v>39.895240000000001</v>
       </c>
       <c r="O54" s="1">
-        <v>116.38771</v>
+        <v>116.38856</v>
       </c>
       <c r="P54" s="1">
-        <v>39.891901341000001</v>
+        <v>39.893840736000001</v>
       </c>
       <c r="Q54" s="1">
-        <v>116.381472833</v>
+        <v>116.38232200500001</v>
       </c>
       <c r="T54" s="1">
-        <v>31</v>
-      </c>
-      <c r="U54">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="V54" s="1">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -4902,35 +4893,53 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2968930</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H55" t="s">
+        <v>368</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F55" s="1">
-        <v>1</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>126</v>
+      <c r="J55" t="s">
+        <v>367</v>
+      </c>
+      <c r="K55" t="s">
+        <v>369</v>
+      </c>
+      <c r="L55" t="s">
+        <v>345</v>
       </c>
       <c r="N55" s="1">
-        <v>39.895240000000001</v>
+        <v>39.894880000000001</v>
       </c>
       <c r="O55" s="1">
-        <v>116.38856</v>
+        <v>116.392349999999</v>
       </c>
       <c r="P55" s="1">
-        <v>39.893840736000001</v>
+        <v>39.8934788076999</v>
       </c>
       <c r="Q55" s="1">
-        <v>116.38232200500001</v>
+        <v>116.386109906</v>
       </c>
       <c r="T55" s="1">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="U55">
+        <v>7</v>
       </c>
       <c r="V55" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -4938,53 +4947,35 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" s="1">
-        <v>2968930</v>
+        <v>126</v>
       </c>
       <c r="F56" s="1">
         <v>2</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H56" t="s">
-        <v>371</v>
+        <v>287</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J56" t="s">
-        <v>370</v>
-      </c>
-      <c r="K56" t="s">
-        <v>372</v>
-      </c>
-      <c r="L56" t="s">
-        <v>348</v>
+        <v>127</v>
       </c>
       <c r="N56" s="1">
-        <v>39.894880000000001</v>
+        <v>39.893839999999898</v>
       </c>
       <c r="O56" s="1">
-        <v>116.392349999999</v>
+        <v>116.3904</v>
       </c>
       <c r="P56" s="1">
-        <v>39.8934788076999</v>
+        <v>39.892439783500002</v>
       </c>
       <c r="Q56" s="1">
-        <v>116.386109906</v>
+        <v>116.38416105</v>
       </c>
       <c r="T56" s="1">
-        <v>49</v>
-      </c>
-      <c r="U56">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V56" s="1">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -4992,35 +4983,32 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F57" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>130</v>
+        <v>288</v>
       </c>
       <c r="N57" s="1">
-        <v>39.893839999999898</v>
+        <v>39.893889999999899</v>
       </c>
       <c r="O57" s="1">
-        <v>116.3904</v>
+        <v>116.387919999999</v>
       </c>
       <c r="P57" s="1">
-        <v>39.892439783500002</v>
+        <v>39.892491183700002</v>
       </c>
       <c r="Q57" s="1">
-        <v>116.38416105</v>
+        <v>116.381682611</v>
       </c>
       <c r="T57" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V57" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -5028,32 +5016,44 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="1">
+        <v>11556074</v>
       </c>
       <c r="F58" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="N58" s="1">
-        <v>39.893889999999899</v>
+        <v>39.893974</v>
       </c>
       <c r="O58" s="1">
-        <v>116.387919999999</v>
+        <v>116.388977</v>
       </c>
       <c r="P58" s="1">
-        <v>39.892491183700002</v>
+        <v>39.892574551899898</v>
       </c>
       <c r="Q58" s="1">
-        <v>116.381682611</v>
+        <v>116.382738895</v>
       </c>
       <c r="T58" s="1">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="U58">
+        <v>58</v>
       </c>
       <c r="V58" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" ref="V58:V114" si="1">T58+U58</f>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -5061,44 +5061,53 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D59" s="1">
-        <v>11556074</v>
+        <v>2287774</v>
       </c>
       <c r="F59" s="1">
         <v>4</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
+      </c>
+      <c r="H59" t="s">
+        <v>364</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="J59" t="s">
+        <v>367</v>
+      </c>
+      <c r="K59" t="s">
+        <v>365</v>
+      </c>
+      <c r="L59" t="s">
+        <v>366</v>
       </c>
       <c r="N59" s="1">
-        <v>39.893974</v>
+        <v>39.894880000000001</v>
       </c>
       <c r="O59" s="1">
-        <v>116.388977</v>
+        <v>116.392349999999</v>
       </c>
       <c r="P59" s="1">
-        <v>39.892574551899898</v>
+        <v>39.8934788076999</v>
       </c>
       <c r="Q59" s="1">
-        <v>116.382738895</v>
+        <v>116.386109906</v>
       </c>
       <c r="T59" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="U59">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="V59" s="1">
-        <f t="shared" ref="V59:V115" si="1">T59+U59</f>
-        <v>76</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -5109,50 +5118,38 @@
         <v>134</v>
       </c>
       <c r="D60" s="1">
-        <v>2287774</v>
+        <v>4096526</v>
       </c>
       <c r="F60" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="H60" t="s">
-        <v>367</v>
+        <v>291</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J60" t="s">
-        <v>370</v>
-      </c>
-      <c r="K60" t="s">
-        <v>368</v>
-      </c>
-      <c r="L60" t="s">
-        <v>369</v>
-      </c>
       <c r="N60" s="1">
-        <v>39.894880000000001</v>
+        <v>39.893155649999898</v>
       </c>
       <c r="O60" s="1">
-        <v>116.392349999999</v>
+        <v>116.38869765</v>
       </c>
       <c r="P60" s="1">
-        <v>39.8934788076999</v>
+        <v>39.8917564013</v>
       </c>
       <c r="Q60" s="1">
-        <v>116.386109906</v>
+        <v>116.38245983</v>
       </c>
       <c r="T60" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V60" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -5160,41 +5157,41 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2725756</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D61" s="1">
-        <v>4096526</v>
-      </c>
-      <c r="F61" s="1">
-        <v>3</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="N61" s="1">
-        <v>39.893155649999898</v>
+        <v>39.894269999999899</v>
       </c>
       <c r="O61" s="1">
-        <v>116.38869765</v>
+        <v>116.39096000000001</v>
       </c>
       <c r="P61" s="1">
-        <v>39.8917564013</v>
+        <v>39.892869481300004</v>
       </c>
       <c r="Q61" s="1">
-        <v>116.38245983</v>
+        <v>116.384720685</v>
       </c>
       <c r="T61" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V61" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -5202,41 +5199,35 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F62" s="1">
+        <v>6</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D62" s="1">
-        <v>2725756</v>
-      </c>
-      <c r="F62" s="1">
-        <v>2</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="N62" s="1">
-        <v>39.894269999999899</v>
+        <v>39.8934479999999</v>
       </c>
       <c r="O62" s="1">
-        <v>116.39096000000001</v>
+        <v>116.38908000000001</v>
       </c>
       <c r="P62" s="1">
-        <v>39.892869481300004</v>
+        <v>39.8920485173999</v>
       </c>
       <c r="Q62" s="1">
-        <v>116.384720685</v>
+        <v>116.382841896</v>
       </c>
       <c r="T62" s="1">
-        <v>8</v>
-      </c>
-      <c r="U62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V62" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -5244,35 +5235,53 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="1">
+        <v>5211031</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H63" t="s">
+        <v>356</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F63" s="1">
-        <v>6</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>142</v>
+      <c r="J63" t="s">
+        <v>358</v>
+      </c>
+      <c r="K63" t="s">
+        <v>357</v>
+      </c>
+      <c r="L63" t="s">
+        <v>345</v>
       </c>
       <c r="N63" s="1">
-        <v>39.8934479999999</v>
+        <v>39.894877352999899</v>
       </c>
       <c r="O63" s="1">
-        <v>116.38908000000001</v>
+        <v>116.394005818</v>
       </c>
       <c r="P63" s="1">
-        <v>39.8920485173999</v>
+        <v>39.893475495899899</v>
       </c>
       <c r="Q63" s="1">
-        <v>116.382841896</v>
+        <v>116.387765019</v>
       </c>
       <c r="T63" s="1">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="U63">
+        <v>117</v>
       </c>
       <c r="V63" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -5280,53 +5289,53 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D64" s="1">
-        <v>5211031</v>
+        <v>2199664</v>
       </c>
       <c r="F64" s="1">
         <v>2</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H64" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J64" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="K64" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="L64" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N64" s="1">
-        <v>39.894877352999899</v>
+        <v>39.895150000000001</v>
       </c>
       <c r="O64" s="1">
-        <v>116.394005818</v>
+        <v>116.39291</v>
       </c>
       <c r="P64" s="1">
-        <v>39.893475495899899</v>
+        <v>39.8937485577</v>
       </c>
       <c r="Q64" s="1">
-        <v>116.387765019</v>
+        <v>116.386669617</v>
       </c>
       <c r="T64" s="1">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="U64">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="V64" s="1">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -5334,53 +5343,53 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D65" s="1">
-        <v>2199664</v>
+        <v>4016185</v>
       </c>
       <c r="F65" s="1">
         <v>2</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H65" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J65" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="K65" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="L65" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N65" s="1">
-        <v>39.895150000000001</v>
+        <v>39.894770000000001</v>
       </c>
       <c r="O65" s="1">
-        <v>116.39291</v>
+        <v>116.39446</v>
       </c>
       <c r="P65" s="1">
-        <v>39.8937485577</v>
+        <v>39.893367985399898</v>
       </c>
       <c r="Q65" s="1">
-        <v>116.386669617</v>
+        <v>116.38821904700001</v>
       </c>
       <c r="T65" s="1">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="U65">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="V65" s="1">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -5388,53 +5397,44 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2227558</v>
+      </c>
+      <c r="F66" s="1">
+        <v>4</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D66" s="1">
-        <v>4016185</v>
-      </c>
-      <c r="F66" s="1">
-        <v>2</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="H66" t="s">
-        <v>401</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J66" t="s">
-        <v>403</v>
-      </c>
-      <c r="K66" t="s">
-        <v>402</v>
-      </c>
-      <c r="L66" t="s">
-        <v>348</v>
-      </c>
       <c r="N66" s="1">
-        <v>39.894770000000001</v>
+        <v>39.892389999999899</v>
       </c>
       <c r="O66" s="1">
-        <v>116.39446</v>
+        <v>116.39214</v>
       </c>
       <c r="P66" s="1">
-        <v>39.893367985399898</v>
+        <v>39.890989015300001</v>
       </c>
       <c r="Q66" s="1">
-        <v>116.38821904700001</v>
+        <v>116.385900322</v>
       </c>
       <c r="T66" s="1">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="U66">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="V66" s="1">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -5442,44 +5442,53 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" s="1">
+        <v>5394067</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H67" t="s">
+        <v>354</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D67" s="1">
-        <v>2227558</v>
-      </c>
-      <c r="F67" s="1">
-        <v>4</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>150</v>
+      <c r="J67" t="s">
+        <v>149</v>
+      </c>
+      <c r="K67" t="s">
+        <v>355</v>
+      </c>
+      <c r="L67" t="s">
+        <v>345</v>
       </c>
       <c r="N67" s="1">
-        <v>39.892389999999899</v>
+        <v>39.895400000000002</v>
       </c>
       <c r="O67" s="1">
-        <v>116.39214</v>
+        <v>116.39400000000001</v>
       </c>
       <c r="P67" s="1">
-        <v>39.890989015300001</v>
+        <v>39.893998121099898</v>
       </c>
       <c r="Q67" s="1">
-        <v>116.385900322</v>
+        <v>116.387759137</v>
       </c>
       <c r="T67" s="1">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="U67">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="V67" s="1">
         <f t="shared" si="1"/>
-        <v>215</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:22">
@@ -5487,53 +5496,56 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D68" s="1">
-        <v>5394067</v>
+        <v>2672239</v>
       </c>
       <c r="F68" s="1">
         <v>2</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H68" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J68" t="s">
-        <v>152</v>
+        <v>381</v>
       </c>
       <c r="K68" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L68" t="s">
-        <v>348</v>
+        <v>345</v>
+      </c>
+      <c r="M68" s="2">
+        <v>72</v>
       </c>
       <c r="N68" s="1">
-        <v>39.895400000000002</v>
+        <v>39.895240000000001</v>
       </c>
       <c r="O68" s="1">
-        <v>116.39400000000001</v>
+        <v>116.39324000000001</v>
       </c>
       <c r="P68" s="1">
-        <v>39.893998121099898</v>
+        <v>39.893838419700003</v>
       </c>
       <c r="Q68" s="1">
-        <v>116.387759137</v>
+        <v>116.386999463</v>
       </c>
       <c r="T68" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U68">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="V68" s="1">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -5541,56 +5553,53 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69" s="1">
+        <v>5146143</v>
+      </c>
+      <c r="F69" s="1">
+        <v>4</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D69" s="1">
-        <v>2672239</v>
-      </c>
-      <c r="F69" s="1">
-        <v>2</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="J69" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J69" t="s">
-        <v>384</v>
-      </c>
-      <c r="K69" t="s">
-        <v>358</v>
-      </c>
-      <c r="L69" t="s">
-        <v>348</v>
-      </c>
-      <c r="M69" s="2">
-        <v>72</v>
+      <c r="K69" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>345</v>
       </c>
       <c r="N69" s="1">
-        <v>39.895240000000001</v>
+        <v>39.894989000000002</v>
       </c>
       <c r="O69" s="1">
-        <v>116.39324000000001</v>
+        <v>116.393013</v>
       </c>
       <c r="P69" s="1">
-        <v>39.893838419700003</v>
+        <v>39.893587522799898</v>
       </c>
       <c r="Q69" s="1">
-        <v>116.386999463</v>
+        <v>116.386772592</v>
       </c>
       <c r="T69" s="1">
-        <v>5</v>
-      </c>
-      <c r="U69">
+        <v>162</v>
+      </c>
+      <c r="U69" s="8">
         <v>59</v>
       </c>
       <c r="V69" s="1">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:22">
@@ -5598,53 +5607,41 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" s="1">
+        <v>5342143</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D70" s="1">
-        <v>5146143</v>
-      </c>
-      <c r="F70" s="1">
-        <v>4</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J70" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="K70" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="L70" s="8" t="s">
-        <v>348</v>
-      </c>
       <c r="N70" s="1">
-        <v>39.894989000000002</v>
+        <v>39.894393112000003</v>
       </c>
       <c r="O70" s="1">
-        <v>116.393013</v>
+        <v>116.39453236</v>
       </c>
       <c r="P70" s="1">
-        <v>39.893587522799898</v>
+        <v>39.892991089699898</v>
       </c>
       <c r="Q70" s="1">
-        <v>116.386772592</v>
+        <v>116.38829142900001</v>
       </c>
       <c r="T70" s="1">
-        <v>162</v>
-      </c>
-      <c r="U70" s="8">
+        <v>63</v>
+      </c>
+      <c r="U70">
         <v>59</v>
       </c>
       <c r="V70" s="1">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:22">
@@ -5652,41 +5649,32 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F71" s="1">
+        <v>6</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D71" s="1">
-        <v>5342143</v>
-      </c>
-      <c r="F71" s="1">
-        <v>2</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="N71" s="1">
-        <v>39.894393112000003</v>
+        <v>39.894219999999898</v>
       </c>
       <c r="O71" s="1">
-        <v>116.39453236</v>
+        <v>116.39454000000001</v>
       </c>
       <c r="P71" s="1">
-        <v>39.892991089699898</v>
+        <v>39.892817983100002</v>
       </c>
       <c r="Q71" s="1">
-        <v>116.38829142900001</v>
+        <v>116.388299088</v>
       </c>
       <c r="T71" s="1">
-        <v>63</v>
-      </c>
-      <c r="U71">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="V71" s="1">
         <f t="shared" si="1"/>
-        <v>122</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -5696,26 +5684,35 @@
       <c r="B72" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="D72" s="1">
+        <v>3621970</v>
+      </c>
       <c r="F72" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G72" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>160</v>
       </c>
       <c r="N72" s="1">
-        <v>39.894219999999898</v>
+        <v>39.8929499999999</v>
       </c>
       <c r="O72" s="1">
-        <v>116.39454000000001</v>
+        <v>116.39363</v>
       </c>
       <c r="P72" s="1">
-        <v>39.892817983100002</v>
+        <v>39.891548372800003</v>
       </c>
       <c r="Q72" s="1">
-        <v>116.388299088</v>
+        <v>116.387389594</v>
       </c>
       <c r="T72" s="1">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="U72">
+        <v>4</v>
       </c>
       <c r="V72" s="1">
         <f t="shared" si="1"/>
@@ -5727,41 +5724,41 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" s="1">
+        <v>580316</v>
+      </c>
+      <c r="F73" s="1">
+        <v>2</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D73" s="1">
-        <v>3621970</v>
-      </c>
-      <c r="F73" s="1">
-        <v>4</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="N73" s="1">
-        <v>39.8929499999999</v>
+        <v>39.890430000000002</v>
       </c>
       <c r="O73" s="1">
-        <v>116.39363</v>
+        <v>116.38473</v>
       </c>
       <c r="P73" s="1">
-        <v>39.891548372800003</v>
+        <v>39.889033506099899</v>
       </c>
       <c r="Q73" s="1">
-        <v>116.387389594</v>
+        <v>116.378495517</v>
       </c>
       <c r="T73" s="1">
-        <v>3</v>
+        <v>225</v>
       </c>
       <c r="U73">
-        <v>4</v>
+        <v>924</v>
       </c>
       <c r="V73" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -5769,41 +5766,41 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D74" s="1">
+        <v>9007979</v>
+      </c>
+      <c r="F74" s="1">
+        <v>4</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D74" s="1">
-        <v>580316</v>
-      </c>
-      <c r="F74" s="1">
-        <v>2</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="N74" s="1">
-        <v>39.890430000000002</v>
+        <v>39.892069999999897</v>
       </c>
       <c r="O74" s="1">
-        <v>116.38473</v>
+        <v>116.38706000000001</v>
       </c>
       <c r="P74" s="1">
-        <v>39.889033506099899</v>
+        <v>39.890671811600001</v>
       </c>
       <c r="Q74" s="1">
-        <v>116.378495517</v>
+        <v>116.380823459</v>
       </c>
       <c r="T74" s="1">
-        <v>225</v>
+        <v>411</v>
       </c>
       <c r="U74">
-        <v>924</v>
+        <v>4</v>
       </c>
       <c r="V74" s="1">
         <f t="shared" si="1"/>
-        <v>1149</v>
+        <v>415</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -5811,41 +5808,41 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D75" s="1">
+        <v>3457540</v>
+      </c>
+      <c r="F75" s="1">
+        <v>2</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D75" s="1">
-        <v>9007979</v>
-      </c>
-      <c r="F75" s="1">
-        <v>4</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="N75" s="1">
-        <v>39.892069999999897</v>
+        <v>39.891739999999899</v>
       </c>
       <c r="O75" s="1">
-        <v>116.38706000000001</v>
+        <v>116.38561</v>
       </c>
       <c r="P75" s="1">
-        <v>39.890671811600001</v>
+        <v>39.890342809000003</v>
       </c>
       <c r="Q75" s="1">
-        <v>116.380823459</v>
+        <v>116.379374621</v>
       </c>
       <c r="T75" s="1">
-        <v>411</v>
+        <v>13</v>
       </c>
       <c r="U75">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="V75" s="1">
         <f t="shared" si="1"/>
-        <v>415</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -5853,41 +5850,35 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D76" s="1">
-        <v>3457540</v>
+        <v>167</v>
       </c>
       <c r="F76" s="1">
         <v>2</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N76" s="1">
-        <v>39.891739999999899</v>
+        <v>39.891559600000001</v>
       </c>
       <c r="O76" s="1">
-        <v>116.38561</v>
+        <v>116.38494110000001</v>
       </c>
       <c r="P76" s="1">
-        <v>39.890342809000003</v>
+        <v>39.890162898</v>
       </c>
       <c r="Q76" s="1">
-        <v>116.379374621</v>
+        <v>116.378706295</v>
       </c>
       <c r="T76" s="1">
         <v>13</v>
       </c>
-      <c r="U76">
-        <v>80</v>
-      </c>
       <c r="V76" s="1">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:22">
@@ -5895,35 +5886,35 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F77" s="1">
+        <v>4</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="F77" s="1">
-        <v>2</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>171</v>
       </c>
       <c r="N77" s="1">
-        <v>39.891559600000001</v>
+        <v>39.8908233639999</v>
       </c>
       <c r="O77" s="1">
-        <v>116.38494110000001</v>
+        <v>116.38493346999999</v>
       </c>
       <c r="P77" s="1">
-        <v>39.890162898</v>
+        <v>39.889426702000002</v>
       </c>
       <c r="Q77" s="1">
-        <v>116.378706295</v>
+        <v>116.378698765</v>
       </c>
       <c r="T77" s="1">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="V77" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:22">
@@ -5933,33 +5924,39 @@
       <c r="B78" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="D78" s="1">
+        <v>4717729</v>
+      </c>
       <c r="F78" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G78" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I78" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I78" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="N78" s="1">
-        <v>39.8908233639999</v>
+        <v>39.891193000000001</v>
       </c>
       <c r="O78" s="1">
-        <v>116.38493346999999</v>
+        <v>116.386990999999</v>
       </c>
       <c r="P78" s="1">
-        <v>39.889426702000002</v>
+        <v>39.889794897400002</v>
       </c>
       <c r="Q78" s="1">
-        <v>116.378698765</v>
+        <v>116.380754620999</v>
       </c>
       <c r="T78" s="1">
-        <v>56</v>
+        <v>28</v>
+      </c>
+      <c r="U78">
+        <v>150</v>
       </c>
       <c r="V78" s="1">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:22">
@@ -5967,41 +5964,41 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2722456</v>
+      </c>
+      <c r="F79" s="1">
+        <v>4</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D79" s="1">
-        <v>4717729</v>
-      </c>
-      <c r="F79" s="1">
-        <v>2</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="N79" s="1">
-        <v>39.891193000000001</v>
+        <v>39.891219999999898</v>
       </c>
       <c r="O79" s="1">
-        <v>116.386990999999</v>
+        <v>116.38641</v>
       </c>
       <c r="P79" s="1">
-        <v>39.889794897400002</v>
+        <v>39.889822281299899</v>
       </c>
       <c r="Q79" s="1">
-        <v>116.380754620999</v>
+        <v>116.380174056</v>
       </c>
       <c r="T79" s="1">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="U79">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="V79" s="1">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -6009,41 +6006,35 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F80" s="1">
+        <v>5</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D80" s="1">
-        <v>2722456</v>
-      </c>
-      <c r="F80" s="1">
-        <v>4</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>178</v>
       </c>
       <c r="N80" s="1">
-        <v>39.891219999999898</v>
+        <v>39.890059999999899</v>
       </c>
       <c r="O80" s="1">
-        <v>116.38641</v>
+        <v>116.38687</v>
       </c>
       <c r="P80" s="1">
-        <v>39.889822281299899</v>
+        <v>39.888662029599899</v>
       </c>
       <c r="Q80" s="1">
-        <v>116.380174056</v>
+        <v>116.380633855</v>
       </c>
       <c r="T80" s="1">
-        <v>15</v>
-      </c>
-      <c r="U80">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="V80" s="1">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:22">
@@ -6053,33 +6044,39 @@
       <c r="B81" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="D81" s="1">
+        <v>2288095</v>
+      </c>
       <c r="F81" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G81" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I81" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I81" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="N81" s="1">
-        <v>39.890059999999899</v>
+        <v>39.892150000000001</v>
       </c>
       <c r="O81" s="1">
-        <v>116.38687</v>
+        <v>116.38697000000001</v>
       </c>
       <c r="P81" s="1">
-        <v>39.888662029599899</v>
+        <v>39.890751866400002</v>
       </c>
       <c r="Q81" s="1">
-        <v>116.380633855</v>
+        <v>116.380733515</v>
       </c>
       <c r="T81" s="1">
-        <v>146</v>
+        <v>39</v>
+      </c>
+      <c r="U81">
+        <v>89</v>
       </c>
       <c r="V81" s="1">
         <f t="shared" si="1"/>
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:22">
@@ -6087,41 +6084,38 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F82" s="1">
+        <v>2</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I82" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D82" s="1">
-        <v>2288095</v>
-      </c>
-      <c r="F82" s="1">
-        <v>4</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="N82" s="1">
-        <v>39.892150000000001</v>
+        <v>39.889690000000002</v>
       </c>
       <c r="O82" s="1">
-        <v>116.38697000000001</v>
+        <v>116.38628</v>
       </c>
       <c r="P82" s="1">
-        <v>39.890751866400002</v>
+        <v>39.888292441200001</v>
       </c>
       <c r="Q82" s="1">
-        <v>116.380733515</v>
+        <v>116.380044351</v>
       </c>
       <c r="T82" s="1">
-        <v>39</v>
-      </c>
-      <c r="U82">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="V82" s="1">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:22">
@@ -6129,38 +6123,41 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
+      </c>
+      <c r="D83" s="1">
+        <v>508439</v>
       </c>
       <c r="F83" s="1">
         <v>2</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N83" s="1">
-        <v>39.889690000000002</v>
+        <v>39.8896599999999</v>
       </c>
       <c r="O83" s="1">
-        <v>116.38628</v>
+        <v>116.3875</v>
       </c>
       <c r="P83" s="1">
-        <v>39.888292441200001</v>
+        <v>39.888261642700002</v>
       </c>
       <c r="Q83" s="1">
-        <v>116.380044351</v>
+        <v>116.38126344600001</v>
       </c>
       <c r="T83" s="1">
-        <v>11</v>
+        <v>458</v>
+      </c>
+      <c r="U83">
+        <v>2322</v>
       </c>
       <c r="V83" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="84" spans="1:22">
@@ -6168,41 +6165,41 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1769026</v>
+      </c>
+      <c r="F84" s="1">
+        <v>3</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I84" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D84" s="1">
-        <v>508439</v>
-      </c>
-      <c r="F84" s="1">
-        <v>2</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="N84" s="1">
-        <v>39.8896599999999</v>
+        <v>39.889879999999899</v>
       </c>
       <c r="O84" s="1">
-        <v>116.3875</v>
+        <v>116.387649999999</v>
       </c>
       <c r="P84" s="1">
-        <v>39.888261642700002</v>
+        <v>39.888481538100002</v>
       </c>
       <c r="Q84" s="1">
-        <v>116.38126344600001</v>
+        <v>116.381413311</v>
       </c>
       <c r="T84" s="1">
-        <v>458</v>
+        <v>533</v>
       </c>
       <c r="U84">
-        <v>2322</v>
+        <v>184</v>
       </c>
       <c r="V84" s="1">
         <f t="shared" si="1"/>
-        <v>2780</v>
+        <v>717</v>
       </c>
     </row>
     <row r="85" spans="1:22">
@@ -6212,39 +6209,33 @@
       <c r="B85" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D85" s="1">
-        <v>1769026</v>
-      </c>
       <c r="F85" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>315</v>
+        <v>189</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N85" s="1">
-        <v>39.889879999999899</v>
+        <v>39.891441423000003</v>
       </c>
       <c r="O85" s="1">
-        <v>116.387649999999</v>
+        <v>116.38988981</v>
       </c>
       <c r="P85" s="1">
-        <v>39.888481538100002</v>
+        <v>39.890041586199899</v>
       </c>
       <c r="Q85" s="1">
-        <v>116.381413311</v>
+        <v>116.38365146300001</v>
       </c>
       <c r="T85" s="1">
-        <v>533</v>
-      </c>
-      <c r="U85">
-        <v>184</v>
+        <v>246</v>
       </c>
       <c r="V85" s="1">
         <f t="shared" si="1"/>
-        <v>717</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" spans="1:22">
@@ -6255,7 +6246,7 @@
         <v>191</v>
       </c>
       <c r="F86" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>192</v>
@@ -6264,23 +6255,23 @@
         <v>193</v>
       </c>
       <c r="N86" s="1">
-        <v>39.891441423000003</v>
+        <v>39.891080000000002</v>
       </c>
       <c r="O86" s="1">
-        <v>116.38988981</v>
+        <v>116.38907</v>
       </c>
       <c r="P86" s="1">
-        <v>39.890041586199899</v>
+        <v>39.889680633300003</v>
       </c>
       <c r="Q86" s="1">
-        <v>116.38365146300001</v>
+        <v>116.382832204</v>
       </c>
       <c r="T86" s="1">
-        <v>246</v>
+        <v>5</v>
       </c>
       <c r="V86" s="1">
         <f t="shared" si="1"/>
-        <v>246</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:22">
@@ -6290,33 +6281,39 @@
       <c r="B87" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="D87" s="1">
+        <v>6421791</v>
+      </c>
       <c r="F87" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G87" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I87" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="N87" s="1">
-        <v>39.891080000000002</v>
+        <v>39.890098000000002</v>
       </c>
       <c r="O87" s="1">
-        <v>116.38907</v>
+        <v>116.387930999999</v>
       </c>
       <c r="P87" s="1">
-        <v>39.889680633300003</v>
+        <v>39.888699353500002</v>
       </c>
       <c r="Q87" s="1">
-        <v>116.382832204</v>
+        <v>116.381694087</v>
       </c>
       <c r="T87" s="1">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="U87">
+        <v>141</v>
       </c>
       <c r="V87" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:22">
@@ -6324,41 +6321,41 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D88" s="1">
+        <v>3619450</v>
+      </c>
+      <c r="F88" s="1">
+        <v>4</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I88" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D88" s="1">
-        <v>6421791</v>
-      </c>
-      <c r="F88" s="1">
-        <v>2</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="N88" s="1">
-        <v>39.890098000000002</v>
+        <v>39.892299999999899</v>
       </c>
       <c r="O88" s="1">
-        <v>116.387930999999</v>
+        <v>116.39093</v>
       </c>
       <c r="P88" s="1">
-        <v>39.888699353500002</v>
+        <v>39.890899587299899</v>
       </c>
       <c r="Q88" s="1">
-        <v>116.381694087</v>
+        <v>116.384690952</v>
       </c>
       <c r="T88" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="U88">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="V88" s="1">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:22">
@@ -6366,41 +6363,44 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D89" s="1">
+        <v>508632</v>
+      </c>
+      <c r="F89" s="1">
+        <v>2</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I89" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D89" s="1">
-        <v>3619450</v>
-      </c>
-      <c r="F89" s="1">
-        <v>4</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="N89" s="1">
-        <v>39.892299999999899</v>
+        <v>39.89067</v>
       </c>
       <c r="O89" s="1">
-        <v>116.39093</v>
+        <v>116.39478</v>
       </c>
       <c r="P89" s="1">
-        <v>39.890899587299899</v>
+        <v>39.889268066600003</v>
       </c>
       <c r="Q89" s="1">
-        <v>116.384690952</v>
+        <v>116.388539456999</v>
       </c>
       <c r="T89" s="1">
-        <v>3</v>
+        <v>931</v>
       </c>
       <c r="U89">
-        <v>11</v>
+        <v>2095</v>
       </c>
       <c r="V89" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="90" spans="1:22">
@@ -6408,44 +6408,41 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D90" s="1">
+        <v>3158185</v>
+      </c>
+      <c r="F90" s="1">
+        <v>4</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D90" s="1">
-        <v>508632</v>
-      </c>
-      <c r="F90" s="1">
-        <v>2</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="N90" s="1">
-        <v>39.89067</v>
+        <v>39.890270000000001</v>
       </c>
       <c r="O90" s="1">
-        <v>116.39478</v>
+        <v>116.39221000000001</v>
       </c>
       <c r="P90" s="1">
-        <v>39.889268066600003</v>
+        <v>39.888869083300001</v>
       </c>
       <c r="Q90" s="1">
-        <v>116.388539456999</v>
+        <v>116.385970559</v>
       </c>
       <c r="T90" s="1">
-        <v>931</v>
+        <v>98</v>
       </c>
       <c r="U90">
-        <v>2095</v>
+        <v>127</v>
       </c>
       <c r="V90" s="1">
         <f t="shared" si="1"/>
-        <v>3026</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:22">
@@ -6456,38 +6453,38 @@
         <v>203</v>
       </c>
       <c r="D91" s="1">
-        <v>3158185</v>
+        <v>5428331</v>
       </c>
       <c r="F91" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>204</v>
       </c>
       <c r="N91" s="1">
-        <v>39.890270000000001</v>
+        <v>39.890540000000001</v>
       </c>
       <c r="O91" s="1">
-        <v>116.39221000000001</v>
+        <v>116.3934</v>
       </c>
       <c r="P91" s="1">
-        <v>39.888869083300001</v>
+        <v>39.8891385744</v>
       </c>
       <c r="Q91" s="1">
-        <v>116.385970559</v>
+        <v>116.387159995</v>
       </c>
       <c r="T91" s="1">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="U91">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="V91" s="1">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:22">
@@ -6495,41 +6492,32 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F92" s="1">
+        <v>6</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D92" s="1">
-        <v>5428331</v>
-      </c>
-      <c r="F92" s="1">
-        <v>2</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="N92" s="1">
-        <v>39.890540000000001</v>
+        <v>39.891199999999898</v>
       </c>
       <c r="O92" s="1">
-        <v>116.3934</v>
+        <v>116.39503000000001</v>
       </c>
       <c r="P92" s="1">
-        <v>39.8891385744</v>
+        <v>39.8897979593999</v>
       </c>
       <c r="Q92" s="1">
-        <v>116.387159995</v>
+        <v>116.38878930600001</v>
       </c>
       <c r="T92" s="1">
-        <v>4</v>
-      </c>
-      <c r="U92">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="V92" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:22">
@@ -6537,32 +6525,41 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D93" s="1">
+        <v>4128215</v>
+      </c>
+      <c r="F93" s="1">
+        <v>4</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I93" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F93" s="1">
-        <v>6</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="N93" s="1">
-        <v>39.891199999999898</v>
+        <v>39.890349999999899</v>
       </c>
       <c r="O93" s="1">
-        <v>116.39503000000001</v>
+        <v>116.39261</v>
       </c>
       <c r="P93" s="1">
-        <v>39.8897979593999</v>
+        <v>39.8889489062</v>
       </c>
       <c r="Q93" s="1">
-        <v>116.38878930600001</v>
+        <v>116.386370363</v>
       </c>
       <c r="T93" s="1">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="U93">
+        <v>3</v>
       </c>
       <c r="V93" s="1">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:22">
@@ -6570,41 +6567,41 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D94" s="1">
-        <v>4128215</v>
+        <v>5643123</v>
       </c>
       <c r="F94" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>211</v>
+        <v>543</v>
       </c>
       <c r="N94" s="1">
-        <v>39.890349999999899</v>
+        <v>39.899794132731003</v>
       </c>
       <c r="O94" s="1">
-        <v>116.39261</v>
+        <v>116.390361785889</v>
       </c>
       <c r="P94" s="1">
-        <v>39.8889489062</v>
+        <v>39.898393664700002</v>
       </c>
       <c r="Q94" s="1">
-        <v>116.386370363</v>
+        <v>116.3841221</v>
       </c>
       <c r="T94" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U94">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="V94" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:22">
@@ -6612,41 +6609,53 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D95" s="1">
-        <v>5643123</v>
+        <v>3546289</v>
       </c>
       <c r="F95" s="1">
         <v>2</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
+      </c>
+      <c r="H95" t="s">
+        <v>323</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>546</v>
+        <v>211</v>
+      </c>
+      <c r="J95" t="s">
+        <v>402</v>
+      </c>
+      <c r="K95" t="s">
+        <v>401</v>
+      </c>
+      <c r="L95" t="s">
+        <v>345</v>
       </c>
       <c r="N95" s="1">
-        <v>39.899794132731003</v>
+        <v>39.899464000000002</v>
       </c>
       <c r="O95" s="1">
-        <v>116.390361785889</v>
+        <v>116.390339</v>
       </c>
       <c r="P95" s="1">
-        <v>39.898393664700002</v>
+        <v>39.898063558600001</v>
       </c>
       <c r="Q95" s="1">
-        <v>116.3841221</v>
+        <v>116.384099369</v>
       </c>
       <c r="T95" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="U95">
-        <v>183</v>
+        <v>4936</v>
       </c>
       <c r="V95" s="1">
         <f t="shared" si="1"/>
-        <v>188</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="96" spans="1:22">
@@ -6654,53 +6663,41 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D96" s="1">
-        <v>3546289</v>
+        <v>2604658</v>
       </c>
       <c r="F96" s="1">
         <v>2</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H96" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J96" t="s">
-        <v>405</v>
-      </c>
-      <c r="K96" t="s">
-        <v>404</v>
-      </c>
-      <c r="L96" t="s">
-        <v>348</v>
+        <v>213</v>
       </c>
       <c r="N96" s="1">
-        <v>39.899464000000002</v>
+        <v>39.899696800000001</v>
       </c>
       <c r="O96" s="1">
-        <v>116.390339</v>
+        <v>116.3947656</v>
       </c>
       <c r="P96" s="1">
-        <v>39.898063558600001</v>
+        <v>39.898294456999899</v>
       </c>
       <c r="Q96" s="1">
-        <v>116.384099369</v>
+        <v>116.388523912</v>
       </c>
       <c r="T96" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="U96">
-        <v>4936</v>
+        <v>217</v>
       </c>
       <c r="V96" s="1">
         <f t="shared" si="1"/>
-        <v>4952</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:22">
@@ -6711,38 +6708,50 @@
         <v>215</v>
       </c>
       <c r="D97" s="1">
-        <v>2604658</v>
+        <v>14753184</v>
       </c>
       <c r="F97" s="1">
         <v>2</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
+      </c>
+      <c r="H97" t="s">
+        <v>351</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="J97" t="s">
+        <v>353</v>
+      </c>
+      <c r="K97" t="s">
+        <v>352</v>
+      </c>
+      <c r="L97" t="s">
+        <v>345</v>
+      </c>
       <c r="N97" s="1">
-        <v>39.899696800000001</v>
+        <v>39.895879999999899</v>
       </c>
       <c r="O97" s="1">
-        <v>116.3947656</v>
+        <v>116.39339</v>
       </c>
       <c r="P97" s="1">
-        <v>39.898294456999899</v>
+        <v>39.894478331000002</v>
       </c>
       <c r="Q97" s="1">
-        <v>116.388523912</v>
+        <v>116.387149319</v>
       </c>
       <c r="T97" s="1">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="U97">
-        <v>217</v>
+        <v>1269</v>
       </c>
       <c r="V97" s="1">
         <f t="shared" si="1"/>
-        <v>243</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="98" spans="1:22">
@@ -6750,53 +6759,41 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D98" s="1">
-        <v>14753184</v>
+        <v>21944666</v>
       </c>
       <c r="F98" s="1">
         <v>2</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H98" t="s">
-        <v>354</v>
+        <v>411</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="J98" t="s">
-        <v>356</v>
-      </c>
-      <c r="K98" t="s">
-        <v>355</v>
-      </c>
-      <c r="L98" t="s">
-        <v>348</v>
+        <v>218</v>
       </c>
       <c r="N98" s="1">
-        <v>39.895879999999899</v>
+        <v>39.894910000000003</v>
       </c>
       <c r="O98" s="1">
-        <v>116.39339</v>
+        <v>116.38949</v>
       </c>
       <c r="P98" s="1">
-        <v>39.894478331000002</v>
+        <v>39.8935102202</v>
       </c>
       <c r="Q98" s="1">
-        <v>116.387149319</v>
+        <v>116.383251453</v>
       </c>
       <c r="T98" s="1">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="U98">
-        <v>1269</v>
+        <v>338</v>
       </c>
       <c r="V98" s="1">
         <f t="shared" si="1"/>
-        <v>1327</v>
+        <v>388</v>
       </c>
     </row>
     <row r="99" spans="1:22">
@@ -6804,41 +6801,53 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D99" s="1">
-        <v>21944666</v>
+        <v>3546289</v>
       </c>
       <c r="F99" s="1">
         <v>2</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>414</v>
+        <v>323</v>
+      </c>
+      <c r="H99" t="s">
+        <v>323</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
+      </c>
+      <c r="J99" t="s">
+        <v>402</v>
+      </c>
+      <c r="K99" t="s">
+        <v>401</v>
+      </c>
+      <c r="L99" t="s">
+        <v>345</v>
       </c>
       <c r="N99" s="1">
-        <v>39.894910000000003</v>
+        <v>39.893602000000001</v>
       </c>
       <c r="O99" s="1">
-        <v>116.38949</v>
+        <v>116.390615</v>
       </c>
       <c r="P99" s="1">
-        <v>39.8935102202</v>
+        <v>39.892201684600003</v>
       </c>
       <c r="Q99" s="1">
-        <v>116.383251453</v>
+        <v>116.38437596</v>
       </c>
       <c r="T99" s="1">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="U99">
-        <v>338</v>
+        <v>4936</v>
       </c>
       <c r="V99" s="1">
         <f t="shared" si="1"/>
-        <v>388</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="100" spans="1:22">
@@ -6846,53 +6855,56 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D100" s="1">
-        <v>3546289</v>
+        <v>17676938</v>
       </c>
       <c r="F100" s="1">
         <v>2</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H100" t="s">
-        <v>326</v>
+        <v>376</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="J100" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="K100" t="s">
-        <v>404</v>
+        <v>349</v>
       </c>
       <c r="L100" t="s">
-        <v>348</v>
+        <v>366</v>
+      </c>
+      <c r="M100" s="2">
+        <v>58</v>
       </c>
       <c r="N100" s="1">
-        <v>39.893602000000001</v>
+        <v>39.8934</v>
       </c>
       <c r="O100" s="1">
-        <v>116.390615</v>
+        <v>116.38909</v>
       </c>
       <c r="P100" s="1">
-        <v>39.892201684600003</v>
+        <v>39.892000513900001</v>
       </c>
       <c r="Q100" s="1">
-        <v>116.38437596</v>
+        <v>116.38285189600001</v>
       </c>
       <c r="T100" s="1">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="U100">
-        <v>4936</v>
+        <v>265</v>
       </c>
       <c r="V100" s="1">
         <f t="shared" si="1"/>
-        <v>4947</v>
+        <v>315</v>
       </c>
     </row>
     <row r="101" spans="1:22">
@@ -6900,56 +6912,53 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D101" s="1">
-        <v>17676938</v>
+        <v>5616524</v>
       </c>
       <c r="F101" s="1">
         <v>2</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H101" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="J101" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="K101" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
       <c r="L101" t="s">
-        <v>369</v>
-      </c>
-      <c r="M101" s="2">
-        <v>58</v>
+        <v>345</v>
       </c>
       <c r="N101" s="1">
-        <v>39.8934</v>
+        <v>39.893000000000001</v>
       </c>
       <c r="O101" s="1">
-        <v>116.38909</v>
+        <v>116.38800000000001</v>
       </c>
       <c r="P101" s="1">
-        <v>39.892000513900001</v>
+        <v>39.891601175799899</v>
       </c>
       <c r="Q101" s="1">
-        <v>116.38285189600001</v>
+        <v>116.381762669</v>
       </c>
       <c r="T101" s="1">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="U101">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="V101" s="1">
         <f t="shared" si="1"/>
-        <v>315</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:22">
@@ -6957,53 +6966,35 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D102" s="1">
-        <v>5616524</v>
+        <v>224</v>
       </c>
       <c r="F102" s="1">
         <v>2</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H102" t="s">
-        <v>407</v>
+        <v>326</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="J102" t="s">
-        <v>409</v>
-      </c>
-      <c r="K102" t="s">
-        <v>408</v>
-      </c>
-      <c r="L102" t="s">
-        <v>348</v>
+        <v>225</v>
       </c>
       <c r="N102" s="1">
-        <v>39.893000000000001</v>
+        <v>39.892806999999898</v>
       </c>
       <c r="O102" s="1">
-        <v>116.38800000000001</v>
+        <v>116.390007</v>
       </c>
       <c r="P102" s="1">
-        <v>39.891601175799899</v>
+        <v>39.891407037100002</v>
       </c>
       <c r="Q102" s="1">
-        <v>116.381762669</v>
+        <v>116.38376841</v>
       </c>
       <c r="T102" s="1">
-        <v>7</v>
-      </c>
-      <c r="U102">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V102" s="1">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="1:22">
@@ -7011,35 +7002,53 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D103" s="1">
+        <v>3621343</v>
+      </c>
+      <c r="F103" s="1">
+        <v>4</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H103" t="s">
+        <v>409</v>
+      </c>
+      <c r="I103" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F103" s="1">
-        <v>2</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>228</v>
+      <c r="J103" t="s">
+        <v>410</v>
+      </c>
+      <c r="K103" t="s">
+        <v>365</v>
+      </c>
+      <c r="L103" t="s">
+        <v>345</v>
       </c>
       <c r="N103" s="1">
-        <v>39.892806999999898</v>
+        <v>39.895235999999898</v>
       </c>
       <c r="O103" s="1">
-        <v>116.390007</v>
+        <v>116.393455</v>
       </c>
       <c r="P103" s="1">
-        <v>39.891407037100002</v>
+        <v>39.893834335000001</v>
       </c>
       <c r="Q103" s="1">
-        <v>116.38376841</v>
+        <v>116.387214374</v>
       </c>
       <c r="T103" s="1">
-        <v>77</v>
+        <v>7</v>
+      </c>
+      <c r="U103">
+        <v>99</v>
       </c>
       <c r="V103" s="1">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:22">
@@ -7047,107 +7056,92 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D104" s="1">
-        <v>3621343</v>
+        <v>4284669</v>
       </c>
       <c r="F104" s="1">
         <v>4</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H104" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J104" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K104" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L104" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N104" s="1">
-        <v>39.895235999999898</v>
+        <v>39.894849999999899</v>
       </c>
       <c r="O104" s="1">
-        <v>116.393455</v>
+        <v>116.3927</v>
       </c>
       <c r="P104" s="1">
-        <v>39.893834335000001</v>
+        <v>39.893448659100002</v>
       </c>
       <c r="Q104" s="1">
-        <v>116.387214374</v>
+        <v>116.386459749</v>
       </c>
       <c r="T104" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U104">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="V104" s="1">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="1:22">
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="D105" s="1">
-        <v>4284669</v>
+        <v>8023148</v>
       </c>
       <c r="F105" s="1">
-        <v>4</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="H105" t="s">
-        <v>410</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="J105" t="s">
-        <v>411</v>
-      </c>
-      <c r="K105" t="s">
-        <v>368</v>
-      </c>
-      <c r="L105" t="s">
-        <v>348</v>
-      </c>
-      <c r="N105" s="1">
-        <v>39.894849999999899</v>
-      </c>
-      <c r="O105" s="1">
-        <v>116.3927</v>
+        <v>1</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="M105" s="4">
+        <v>68</v>
       </c>
       <c r="P105" s="1">
-        <v>39.893448659100002</v>
+        <v>39.893930200600003</v>
       </c>
       <c r="Q105" s="1">
-        <v>116.386459749</v>
-      </c>
-      <c r="T105" s="1">
-        <v>4</v>
+        <v>116.38140746800001</v>
+      </c>
+      <c r="R105" s="2">
+        <v>39.901608000000003</v>
+      </c>
+      <c r="S105" s="2">
+        <v>116.394054</v>
       </c>
       <c r="U105">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="V105" s="1">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:22">
@@ -7155,38 +7149,38 @@
         <v>104</v>
       </c>
       <c r="D106" s="1">
-        <v>8023148</v>
+        <v>23043789</v>
       </c>
       <c r="F106" s="1">
         <v>1</v>
       </c>
-      <c r="G106" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="I106" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="M106" s="4">
-        <v>68</v>
+      <c r="G106" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="M106" s="5">
+        <v>29</v>
       </c>
       <c r="P106" s="1">
-        <v>39.893930200600003</v>
+        <v>39.894773058200002</v>
       </c>
       <c r="Q106" s="1">
-        <v>116.38140746800001</v>
+        <v>116.38765905299999</v>
       </c>
       <c r="R106" s="2">
-        <v>39.901608000000003</v>
+        <v>39.902507</v>
       </c>
       <c r="S106" s="2">
-        <v>116.394054</v>
+        <v>116.40029</v>
       </c>
       <c r="U106">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="V106" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:22">
@@ -7194,38 +7188,38 @@
         <v>105</v>
       </c>
       <c r="D107" s="1">
-        <v>23043789</v>
+        <v>18363790</v>
       </c>
       <c r="F107" s="1">
         <v>1</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>234</v>
+        <v>331</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="M107" s="5">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="P107" s="1">
-        <v>39.894773058200002</v>
+        <v>39.894715039300003</v>
       </c>
       <c r="Q107" s="1">
-        <v>116.38765905299999</v>
+        <v>116.38734448300001</v>
       </c>
       <c r="R107" s="2">
-        <v>39.902507</v>
+        <v>39.902447000000002</v>
       </c>
       <c r="S107" s="2">
-        <v>116.40029</v>
+        <v>116.399976</v>
       </c>
       <c r="U107">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V107" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:22">
@@ -7233,19 +7227,31 @@
         <v>106</v>
       </c>
       <c r="D108" s="1">
-        <v>18363790</v>
+        <v>23965480</v>
       </c>
       <c r="F108" s="1">
         <v>1</v>
       </c>
-      <c r="G108" s="3" t="s">
-        <v>334</v>
+      <c r="G108" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H108" t="s">
+        <v>361</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>245</v>
+        <v>236</v>
+      </c>
+      <c r="J108" t="s">
+        <v>363</v>
+      </c>
+      <c r="K108" t="s">
+        <v>362</v>
+      </c>
+      <c r="L108" t="s">
+        <v>345</v>
       </c>
       <c r="M108" s="5">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="P108" s="1">
         <v>39.894715039300003</v>
@@ -7260,11 +7266,11 @@
         <v>116.399976</v>
       </c>
       <c r="U108">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V108" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:22">
@@ -7272,50 +7278,38 @@
         <v>107</v>
       </c>
       <c r="D109" s="1">
-        <v>23965480</v>
+        <v>21967048</v>
       </c>
       <c r="F109" s="1">
         <v>1</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="H109" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="J109" t="s">
-        <v>366</v>
-      </c>
-      <c r="K109" t="s">
-        <v>365</v>
-      </c>
-      <c r="L109" t="s">
-        <v>348</v>
+        <v>237</v>
       </c>
       <c r="M109" s="5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P109" s="1">
-        <v>39.894715039300003</v>
+        <v>39.894460486100002</v>
       </c>
       <c r="Q109" s="1">
-        <v>116.38734448300001</v>
+        <v>116.386822346</v>
       </c>
       <c r="R109" s="2">
-        <v>39.902447000000002</v>
+        <v>39.902189</v>
       </c>
       <c r="S109" s="2">
-        <v>116.399976</v>
+        <v>116.399455</v>
       </c>
       <c r="U109">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V109" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:22">
@@ -7323,38 +7317,35 @@
         <v>108</v>
       </c>
       <c r="D110" s="1">
-        <v>21967048</v>
+        <v>20647425</v>
       </c>
       <c r="F110" s="1">
         <v>1</v>
       </c>
-      <c r="G110" s="6" t="s">
-        <v>336</v>
+      <c r="G110" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="M110" s="5">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="P110" s="1">
-        <v>39.894460486100002</v>
+        <v>39.8946726896</v>
       </c>
       <c r="Q110" s="1">
-        <v>116.386822346</v>
+        <v>116.387243274</v>
       </c>
       <c r="R110" s="2">
-        <v>39.902189</v>
+        <v>39.902403999999997</v>
       </c>
       <c r="S110" s="2">
-        <v>116.399455</v>
+        <v>116.39987499999999</v>
       </c>
       <c r="U110">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="V110" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" spans="1:22">
@@ -7362,35 +7353,50 @@
         <v>109</v>
       </c>
       <c r="D111" s="1">
-        <v>20647425</v>
+        <v>8869873</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
       </c>
-      <c r="G111" s="7" t="s">
-        <v>337</v>
+      <c r="G111" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="H111" t="s">
+        <v>373</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>253</v>
+        <v>243</v>
+      </c>
+      <c r="J111" t="s">
+        <v>375</v>
+      </c>
+      <c r="K111" t="s">
+        <v>374</v>
+      </c>
+      <c r="L111" t="s">
+        <v>345</v>
+      </c>
+      <c r="M111" s="3">
+        <v>70</v>
       </c>
       <c r="P111" s="1">
-        <v>39.8946726896</v>
+        <v>39.894591780100001</v>
       </c>
       <c r="Q111" s="1">
-        <v>116.387243274</v>
+        <v>116.38692965200001</v>
       </c>
       <c r="R111" s="2">
-        <v>39.902403999999997</v>
+        <v>39.902321000000001</v>
       </c>
       <c r="S111" s="2">
-        <v>116.39987499999999</v>
+        <v>116.399562</v>
       </c>
       <c r="U111">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="V111" s="1">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:22">
@@ -7398,50 +7404,50 @@
         <v>110</v>
       </c>
       <c r="D112" s="1">
-        <v>8869873</v>
+        <v>17763346</v>
       </c>
       <c r="F112" s="1">
         <v>1</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>338</v>
+        <v>232</v>
       </c>
       <c r="H112" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="J112" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="K112" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="L112" t="s">
-        <v>348</v>
-      </c>
-      <c r="M112" s="3">
-        <v>70</v>
+        <v>345</v>
+      </c>
+      <c r="M112" s="5">
+        <v>36</v>
       </c>
       <c r="P112" s="1">
-        <v>39.894591780100001</v>
+        <v>39.8942352372</v>
       </c>
       <c r="Q112" s="1">
-        <v>116.38692965200001</v>
+        <v>116.38642941800001</v>
       </c>
       <c r="R112" s="2">
-        <v>39.902321000000001</v>
+        <v>39.901961</v>
       </c>
       <c r="S112" s="2">
-        <v>116.399562</v>
+        <v>116.399063</v>
       </c>
       <c r="U112">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V112" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:22">
@@ -7449,50 +7455,38 @@
         <v>111</v>
       </c>
       <c r="D113" s="1">
-        <v>17763346</v>
+        <v>6433272</v>
       </c>
       <c r="F113" s="1">
         <v>1</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="H113" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="J113" t="s">
-        <v>349</v>
-      </c>
-      <c r="K113" t="s">
-        <v>347</v>
-      </c>
-      <c r="L113" t="s">
-        <v>348</v>
+        <v>239</v>
       </c>
       <c r="M113" s="5">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P113" s="1">
-        <v>39.8942352372</v>
+        <v>39.894243723599999</v>
       </c>
       <c r="Q113" s="1">
-        <v>116.38642941800001</v>
+        <v>116.386230035</v>
       </c>
       <c r="R113" s="2">
-        <v>39.901961</v>
+        <v>39.901967999999997</v>
       </c>
       <c r="S113" s="2">
-        <v>116.399063</v>
+        <v>116.398864</v>
       </c>
       <c r="U113">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V113" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:22">
@@ -7500,38 +7494,47 @@
         <v>112</v>
       </c>
       <c r="D114" s="1">
-        <v>6433272</v>
+        <v>11253076</v>
       </c>
       <c r="F114" s="1">
         <v>1</v>
       </c>
-      <c r="G114" s="3" t="s">
-        <v>339</v>
+      <c r="G114" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H114" t="s">
+        <v>378</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="M114" s="5">
+        <v>251</v>
+      </c>
+      <c r="J114" t="s">
+        <v>379</v>
+      </c>
+      <c r="K114" t="s">
+        <v>349</v>
+      </c>
+      <c r="L114" t="s">
+        <v>345</v>
+      </c>
+      <c r="P114" s="1">
+        <v>39.894195431100002</v>
+      </c>
+      <c r="Q114" s="1">
+        <v>116.386134805</v>
+      </c>
+      <c r="R114" s="2">
+        <v>39.901918999999999</v>
+      </c>
+      <c r="S114" s="2">
+        <v>116.398769</v>
+      </c>
+      <c r="U114">
         <v>38</v>
-      </c>
-      <c r="P114" s="1">
-        <v>39.894243723599999</v>
-      </c>
-      <c r="Q114" s="1">
-        <v>116.386230035</v>
-      </c>
-      <c r="R114" s="2">
-        <v>39.901967999999997</v>
-      </c>
-      <c r="S114" s="2">
-        <v>116.398864</v>
-      </c>
-      <c r="U114">
-        <v>10</v>
       </c>
       <c r="V114" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:22">
@@ -7539,47 +7542,35 @@
         <v>113</v>
       </c>
       <c r="D115" s="1">
-        <v>11253076</v>
+        <v>18691370</v>
       </c>
       <c r="F115" s="1">
         <v>1</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="H115" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="J115" t="s">
-        <v>382</v>
-      </c>
-      <c r="K115" t="s">
-        <v>352</v>
-      </c>
-      <c r="L115" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="P115" s="1">
-        <v>39.894195431100002</v>
+        <v>39.8941620298</v>
       </c>
       <c r="Q115" s="1">
-        <v>116.386134805</v>
+        <v>116.38592635400001</v>
       </c>
       <c r="R115" s="2">
-        <v>39.901918999999999</v>
+        <v>39.901884000000003</v>
       </c>
       <c r="S115" s="2">
-        <v>116.398769</v>
+        <v>116.398561</v>
       </c>
       <c r="U115">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="V115" s="1">
-        <f t="shared" si="1"/>
-        <v>38</v>
+        <f t="shared" ref="V115:V176" si="2">T115+U115</f>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:22">
@@ -7587,35 +7578,50 @@
         <v>114</v>
       </c>
       <c r="D116" s="1">
-        <v>18691370</v>
+        <v>21665778</v>
       </c>
       <c r="F116" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>251</v>
+        <v>339</v>
+      </c>
+      <c r="H116" t="s">
+        <v>359</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J116" t="s">
+        <v>360</v>
+      </c>
+      <c r="K116" t="s">
+        <v>349</v>
+      </c>
+      <c r="L116" t="s">
+        <v>345</v>
+      </c>
+      <c r="M116" s="5">
+        <v>57</v>
       </c>
       <c r="P116" s="1">
-        <v>39.8941620298</v>
+        <v>39.894115169000003</v>
       </c>
       <c r="Q116" s="1">
-        <v>116.38592635400001</v>
+        <v>116.385780012</v>
       </c>
       <c r="R116" s="2">
-        <v>39.901884000000003</v>
+        <v>39.901836000000003</v>
       </c>
       <c r="S116" s="2">
-        <v>116.398561</v>
+        <v>116.398415</v>
       </c>
       <c r="U116">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="V116" s="1">
-        <f t="shared" ref="V116:V177" si="2">T116+U116</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>217</v>
       </c>
     </row>
     <row r="117" spans="1:22">
@@ -7623,50 +7629,50 @@
         <v>115</v>
       </c>
       <c r="D117" s="1">
-        <v>21665778</v>
+        <v>27231893</v>
       </c>
       <c r="F117" s="1">
         <v>2</v>
       </c>
-      <c r="G117" s="7" t="s">
-        <v>342</v>
+      <c r="G117" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="H117" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J117" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="K117" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L117" t="s">
-        <v>348</v>
-      </c>
-      <c r="M117" s="5">
-        <v>57</v>
+        <v>345</v>
+      </c>
+      <c r="M117" s="3">
+        <v>71</v>
       </c>
       <c r="P117" s="1">
-        <v>39.894115169000003</v>
+        <v>39.894202873799998</v>
       </c>
       <c r="Q117" s="1">
-        <v>116.385780012</v>
+        <v>116.383677156</v>
       </c>
       <c r="R117" s="2">
-        <v>39.901836000000003</v>
+        <v>39.901904999999999</v>
       </c>
       <c r="S117" s="2">
-        <v>116.398415</v>
+        <v>116.396317</v>
       </c>
       <c r="U117">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="V117" s="1">
         <f t="shared" si="2"/>
-        <v>217</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:22">
@@ -7674,50 +7680,38 @@
         <v>116</v>
       </c>
       <c r="D118" s="1">
-        <v>27231893</v>
+        <v>9314910</v>
       </c>
       <c r="F118" s="1">
-        <v>2</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H118" t="s">
-        <v>397</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="J118" t="s">
-        <v>398</v>
-      </c>
-      <c r="K118" t="s">
-        <v>352</v>
-      </c>
-      <c r="L118" t="s">
-        <v>348</v>
-      </c>
-      <c r="M118" s="3">
-        <v>71</v>
+        <v>3</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="M118" s="5">
+        <v>74</v>
       </c>
       <c r="P118" s="1">
-        <v>39.894202873799998</v>
+        <v>39.896682614600003</v>
       </c>
       <c r="Q118" s="1">
-        <v>116.383677156</v>
+        <v>116.382792884</v>
       </c>
       <c r="R118" s="2">
-        <v>39.901904999999999</v>
+        <v>39.904375000000002</v>
       </c>
       <c r="S118" s="2">
-        <v>116.396317</v>
+        <v>116.395433</v>
       </c>
       <c r="U118">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="V118" s="1">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:22">
@@ -7725,38 +7719,38 @@
         <v>117</v>
       </c>
       <c r="D119" s="1">
-        <v>9314910</v>
+        <v>20731576</v>
       </c>
       <c r="F119" s="1">
         <v>3</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="I119" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="M119" s="5">
-        <v>74</v>
+        <v>340</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M119" s="4">
+        <v>75</v>
       </c>
       <c r="P119" s="1">
-        <v>39.896682614600003</v>
+        <v>39.897740364299999</v>
       </c>
       <c r="Q119" s="1">
-        <v>116.382792884</v>
+        <v>116.383633062</v>
       </c>
       <c r="R119" s="2">
-        <v>39.904375000000002</v>
+        <v>39.905441000000003</v>
       </c>
       <c r="S119" s="2">
-        <v>116.395433</v>
+        <v>116.39627</v>
       </c>
       <c r="U119">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V119" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:22">
@@ -7764,38 +7758,50 @@
         <v>118</v>
       </c>
       <c r="D120" s="1">
-        <v>20731576</v>
+        <v>56777920</v>
       </c>
       <c r="F120" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
+      </c>
+      <c r="H120" t="s">
+        <v>370</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M120" s="4">
-        <v>75</v>
+        <v>235</v>
+      </c>
+      <c r="J120" t="s">
+        <v>371</v>
+      </c>
+      <c r="K120" t="s">
+        <v>349</v>
+      </c>
+      <c r="L120" t="s">
+        <v>345</v>
+      </c>
+      <c r="M120" s="7">
+        <v>78</v>
       </c>
       <c r="P120" s="1">
-        <v>39.897740364299999</v>
+        <v>39.896093453799999</v>
       </c>
       <c r="Q120" s="1">
-        <v>116.383633062</v>
+        <v>116.387988698</v>
       </c>
       <c r="R120" s="2">
-        <v>39.905441000000003</v>
+        <v>39.903829000000002</v>
       </c>
       <c r="S120" s="2">
-        <v>116.39627</v>
+        <v>116.40061799999999</v>
       </c>
       <c r="U120">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V120" s="1">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:22">
@@ -7803,50 +7809,41 @@
         <v>119</v>
       </c>
       <c r="D121" s="1">
-        <v>56777920</v>
+        <v>32674382</v>
       </c>
       <c r="F121" s="1">
         <v>2</v>
       </c>
-      <c r="G121" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="H121" t="s">
-        <v>373</v>
-      </c>
-      <c r="I121" s="7" t="s">
-        <v>238</v>
+      <c r="G121" t="s">
+        <v>412</v>
       </c>
       <c r="J121" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="K121" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="L121" t="s">
-        <v>348</v>
-      </c>
-      <c r="M121" s="7">
-        <v>78</v>
+        <v>345</v>
       </c>
       <c r="P121" s="1">
-        <v>39.896093453799999</v>
+        <v>39.893032070300002</v>
       </c>
       <c r="Q121" s="1">
-        <v>116.387988698</v>
+        <v>116.38538426300001</v>
       </c>
       <c r="R121" s="2">
-        <v>39.903829000000002</v>
+        <v>39.900750000000002</v>
       </c>
       <c r="S121" s="2">
-        <v>116.40061799999999</v>
+        <v>116.398021</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="V121" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="1:22">
@@ -7854,41 +7851,41 @@
         <v>120</v>
       </c>
       <c r="D122" s="1">
-        <v>32674382</v>
+        <v>14920981</v>
       </c>
       <c r="F122" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J122" t="s">
         <v>416</v>
       </c>
       <c r="K122" t="s">
-        <v>360</v>
+        <v>415</v>
       </c>
       <c r="L122" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P122" s="1">
-        <v>39.893032070300002</v>
+        <v>39.894226721800003</v>
       </c>
       <c r="Q122" s="1">
-        <v>116.38538426300001</v>
+        <v>116.387687638</v>
       </c>
       <c r="R122" s="2">
-        <v>39.900750000000002</v>
+        <v>39.901961</v>
       </c>
       <c r="S122" s="2">
-        <v>116.398021</v>
+        <v>116.400319</v>
       </c>
       <c r="U122">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="V122" s="1">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:22">
@@ -7896,41 +7893,41 @@
         <v>121</v>
       </c>
       <c r="D123" s="1">
-        <v>14920981</v>
+        <v>21286168</v>
       </c>
       <c r="F123" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G123" t="s">
         <v>417</v>
       </c>
       <c r="J123" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K123" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="L123" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P123" s="1">
-        <v>39.894226721800003</v>
+        <v>39.893464437299997</v>
       </c>
       <c r="Q123" s="1">
-        <v>116.387687638</v>
+        <v>116.38584861</v>
       </c>
       <c r="R123" s="2">
-        <v>39.901961</v>
+        <v>39.901186000000003</v>
       </c>
       <c r="S123" s="2">
-        <v>116.400319</v>
+        <v>116.398484</v>
       </c>
       <c r="U123">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="V123" s="1">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:22">
@@ -7938,41 +7935,41 @@
         <v>122</v>
       </c>
       <c r="D124" s="1">
-        <v>21286168</v>
+        <v>22510934</v>
       </c>
       <c r="F124" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G124" t="s">
+        <v>534</v>
+      </c>
+      <c r="J124" t="s">
         <v>420</v>
       </c>
-      <c r="J124" t="s">
-        <v>421</v>
-      </c>
       <c r="K124" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="L124" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P124" s="1">
-        <v>39.893464437299997</v>
+        <v>39.8935794012</v>
       </c>
       <c r="Q124" s="1">
-        <v>116.38584861</v>
+        <v>116.38391324</v>
       </c>
       <c r="R124" s="2">
-        <v>39.901186000000003</v>
+        <v>39.901283999999997</v>
       </c>
       <c r="S124" s="2">
-        <v>116.398484</v>
+        <v>116.396553</v>
       </c>
       <c r="U124">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="V124" s="1">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:22">
@@ -7980,41 +7977,41 @@
         <v>123</v>
       </c>
       <c r="D125" s="1">
-        <v>22510934</v>
+        <v>2888878</v>
       </c>
       <c r="F125" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G125" t="s">
-        <v>537</v>
+        <v>421</v>
       </c>
       <c r="J125" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K125" t="s">
-        <v>422</v>
+        <v>357</v>
       </c>
       <c r="L125" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P125" s="1">
-        <v>39.8935794012</v>
+        <v>39.893294845100002</v>
       </c>
       <c r="Q125" s="1">
-        <v>116.38391324</v>
+        <v>116.385420559</v>
       </c>
       <c r="R125" s="2">
-        <v>39.901283999999997</v>
+        <v>39.901012999999999</v>
       </c>
       <c r="S125" s="2">
-        <v>116.396553</v>
+        <v>116.39805699999999</v>
       </c>
       <c r="U125">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="V125" s="1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>168</v>
       </c>
     </row>
     <row r="126" spans="1:22">
@@ -8022,41 +8019,41 @@
         <v>124</v>
       </c>
       <c r="D126" s="1">
-        <v>2888878</v>
+        <v>14879472</v>
       </c>
       <c r="F126" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G126" t="s">
+        <v>423</v>
+      </c>
+      <c r="J126" t="s">
         <v>424</v>
       </c>
-      <c r="J126" t="s">
-        <v>425</v>
-      </c>
       <c r="K126" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="L126" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P126" s="1">
-        <v>39.893294845100002</v>
+        <v>39.893578383600001</v>
       </c>
       <c r="Q126" s="1">
-        <v>116.385420559</v>
+        <v>116.38624951600001</v>
       </c>
       <c r="R126" s="2">
-        <v>39.901012999999999</v>
+        <v>39.901302999999999</v>
       </c>
       <c r="S126" s="2">
-        <v>116.39805699999999</v>
+        <v>116.398884</v>
       </c>
       <c r="U126">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="V126" s="1">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" spans="1:22">
@@ -8064,41 +8061,41 @@
         <v>125</v>
       </c>
       <c r="D127" s="1">
-        <v>14879472</v>
+        <v>17837011</v>
       </c>
       <c r="F127" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J127" t="s">
         <v>427</v>
       </c>
       <c r="K127" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="L127" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P127" s="1">
-        <v>39.893578383600001</v>
+        <v>39.8935811168</v>
       </c>
       <c r="Q127" s="1">
-        <v>116.38624951600001</v>
+        <v>116.386838638</v>
       </c>
       <c r="R127" s="2">
-        <v>39.901302999999999</v>
+        <v>39.901310000000002</v>
       </c>
       <c r="S127" s="2">
-        <v>116.398884</v>
+        <v>116.399472</v>
       </c>
       <c r="U127">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="V127" s="1">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:22">
@@ -8106,34 +8103,34 @@
         <v>126</v>
       </c>
       <c r="D128" s="1">
-        <v>17837011</v>
+        <v>18555325</v>
       </c>
       <c r="F128" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G128" t="s">
         <v>428</v>
       </c>
       <c r="J128" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K128" t="s">
-        <v>429</v>
+        <v>365</v>
       </c>
       <c r="L128" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P128" s="1">
-        <v>39.8935811168</v>
+        <v>39.893112525200003</v>
       </c>
       <c r="Q128" s="1">
-        <v>116.386838638</v>
+        <v>116.38569900500001</v>
       </c>
       <c r="R128" s="2">
-        <v>39.901310000000002</v>
+        <v>39.900832999999999</v>
       </c>
       <c r="S128" s="2">
-        <v>116.399472</v>
+        <v>116.398335</v>
       </c>
       <c r="U128">
         <v>4</v>
@@ -8148,41 +8145,41 @@
         <v>127</v>
       </c>
       <c r="D129" s="1">
-        <v>18555325</v>
+        <v>5206443</v>
       </c>
       <c r="F129" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G129" t="s">
+        <v>430</v>
+      </c>
+      <c r="J129" t="s">
         <v>431</v>
       </c>
-      <c r="J129" t="s">
-        <v>432</v>
-      </c>
       <c r="K129" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="L129" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P129" s="1">
-        <v>39.893112525200003</v>
+        <v>39.8931789978</v>
       </c>
       <c r="Q129" s="1">
-        <v>116.38569900500001</v>
+        <v>116.385159887</v>
       </c>
       <c r="R129" s="2">
-        <v>39.900832999999999</v>
+        <v>39.900894999999998</v>
       </c>
       <c r="S129" s="2">
-        <v>116.398335</v>
+        <v>116.397797</v>
       </c>
       <c r="U129">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="V129" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:22">
@@ -8190,41 +8187,41 @@
         <v>128</v>
       </c>
       <c r="D130" s="1">
-        <v>5206443</v>
+        <v>21785061</v>
       </c>
       <c r="F130" s="1">
         <v>2</v>
       </c>
       <c r="G130" t="s">
+        <v>432</v>
+      </c>
+      <c r="J130" t="s">
         <v>433</v>
       </c>
-      <c r="J130" t="s">
-        <v>434</v>
-      </c>
       <c r="K130" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L130" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P130" s="1">
-        <v>39.8931789978</v>
+        <v>39.894112652300002</v>
       </c>
       <c r="Q130" s="1">
-        <v>116.385159887</v>
+        <v>116.388199331</v>
       </c>
       <c r="R130" s="2">
-        <v>39.900894999999998</v>
+        <v>39.901850000000003</v>
       </c>
       <c r="S130" s="2">
-        <v>116.397797</v>
+        <v>116.40083</v>
       </c>
       <c r="U130">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="V130" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="131" spans="1:22">
@@ -8232,41 +8229,41 @@
         <v>129</v>
       </c>
       <c r="D131" s="1">
-        <v>21785061</v>
+        <v>4284608</v>
       </c>
       <c r="F131" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G131" t="s">
+        <v>434</v>
+      </c>
+      <c r="J131" t="s">
         <v>435</v>
       </c>
-      <c r="J131" t="s">
-        <v>436</v>
-      </c>
       <c r="K131" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L131" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P131" s="1">
-        <v>39.894112652300002</v>
+        <v>39.894253292599998</v>
       </c>
       <c r="Q131" s="1">
-        <v>116.388199331</v>
+        <v>116.38775877400001</v>
       </c>
       <c r="R131" s="2">
-        <v>39.901850000000003</v>
+        <v>39.901988000000003</v>
       </c>
       <c r="S131" s="2">
-        <v>116.40083</v>
+        <v>116.40039</v>
       </c>
       <c r="U131">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="V131" s="1">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:22">
@@ -8274,41 +8271,41 @@
         <v>130</v>
       </c>
       <c r="D132" s="1">
-        <v>4284608</v>
+        <v>32862989</v>
       </c>
       <c r="F132" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G132" t="s">
+        <v>436</v>
+      </c>
+      <c r="J132" t="s">
         <v>437</v>
       </c>
-      <c r="J132" t="s">
-        <v>438</v>
-      </c>
       <c r="K132" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="L132" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="P132" s="1">
-        <v>39.894253292599998</v>
+        <v>39.891242753900002</v>
       </c>
       <c r="Q132" s="1">
-        <v>116.38775877400001</v>
+        <v>116.383502272</v>
       </c>
       <c r="R132" s="2">
-        <v>39.901988000000003</v>
+        <v>39.898944</v>
       </c>
       <c r="S132" s="2">
-        <v>116.40039</v>
+        <v>116.396145</v>
       </c>
       <c r="U132">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="V132" s="1">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:22">
@@ -8316,41 +8313,41 @@
         <v>131</v>
       </c>
       <c r="D133" s="1">
-        <v>32862989</v>
+        <v>19575067</v>
       </c>
       <c r="F133" s="1">
         <v>2</v>
       </c>
       <c r="G133" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J133" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="K133" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="L133" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="P133" s="1">
-        <v>39.891242753900002</v>
+        <v>39.8935809285</v>
       </c>
       <c r="Q133" s="1">
-        <v>116.383502272</v>
+        <v>116.386865687</v>
       </c>
       <c r="R133" s="2">
-        <v>39.898944</v>
+        <v>39.901310000000002</v>
       </c>
       <c r="S133" s="2">
-        <v>116.396145</v>
+        <v>116.39949900000001</v>
       </c>
       <c r="U133">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V133" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:22">
@@ -8358,41 +8355,41 @@
         <v>132</v>
       </c>
       <c r="D134" s="1">
-        <v>19575067</v>
+        <v>17659665</v>
       </c>
       <c r="F134" s="1">
         <v>2</v>
       </c>
       <c r="G134" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J134" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="K134" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="L134" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P134" s="1">
-        <v>39.8935809285</v>
+        <v>39.893221264200001</v>
       </c>
       <c r="Q134" s="1">
-        <v>116.386865687</v>
+        <v>116.385989698</v>
       </c>
       <c r="R134" s="2">
-        <v>39.901310000000002</v>
+        <v>39.900944000000003</v>
       </c>
       <c r="S134" s="2">
-        <v>116.39949900000001</v>
+        <v>116.398625</v>
       </c>
       <c r="U134">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V134" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:22">
@@ -8400,41 +8397,41 @@
         <v>133</v>
       </c>
       <c r="D135" s="1">
-        <v>17659665</v>
+        <v>32572946</v>
       </c>
       <c r="F135" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G135" t="s">
+        <v>441</v>
+      </c>
+      <c r="J135" t="s">
         <v>442</v>
       </c>
-      <c r="J135" t="s">
-        <v>443</v>
-      </c>
       <c r="K135" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="L135" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P135" s="1">
-        <v>39.893221264200001</v>
+        <v>39.893292825400003</v>
       </c>
       <c r="Q135" s="1">
-        <v>116.385989698</v>
+        <v>116.38566808900001</v>
       </c>
       <c r="R135" s="2">
-        <v>39.900944000000003</v>
+        <v>39.901012999999999</v>
       </c>
       <c r="S135" s="2">
-        <v>116.398625</v>
+        <v>116.398304</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V135" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:22">
@@ -8442,41 +8439,41 @@
         <v>134</v>
       </c>
       <c r="D136" s="1">
-        <v>32572946</v>
+        <v>3619885</v>
       </c>
       <c r="F136" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G136" t="s">
+        <v>443</v>
+      </c>
+      <c r="J136" t="s">
         <v>444</v>
       </c>
-      <c r="J136" t="s">
-        <v>445</v>
-      </c>
       <c r="K136" t="s">
-        <v>418</v>
+        <v>365</v>
       </c>
       <c r="L136" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P136" s="1">
-        <v>39.893292825400003</v>
+        <v>39.893863613800001</v>
       </c>
       <c r="Q136" s="1">
-        <v>116.38566808900001</v>
+        <v>116.385228611</v>
       </c>
       <c r="R136" s="2">
-        <v>39.901012999999999</v>
+        <v>39.901580000000003</v>
       </c>
       <c r="S136" s="2">
-        <v>116.398304</v>
+        <v>116.397865</v>
       </c>
       <c r="U136">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="V136" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="137" spans="1:22">
@@ -8484,41 +8481,41 @@
         <v>135</v>
       </c>
       <c r="D137" s="1">
-        <v>3619885</v>
+        <v>16825884</v>
       </c>
       <c r="F137" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G137" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J137" t="s">
         <v>447</v>
       </c>
       <c r="K137" t="s">
-        <v>368</v>
+        <v>446</v>
       </c>
       <c r="L137" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="P137" s="1">
-        <v>39.893863613800001</v>
+        <v>39.892277239599998</v>
       </c>
       <c r="Q137" s="1">
-        <v>116.385228611</v>
+        <v>116.383891111</v>
       </c>
       <c r="R137" s="2">
-        <v>39.901580000000003</v>
+        <v>39.899982000000001</v>
       </c>
       <c r="S137" s="2">
-        <v>116.397865</v>
+        <v>116.39653199999999</v>
       </c>
       <c r="U137">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="V137" s="1">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:22">
@@ -8526,7 +8523,7 @@
         <v>136</v>
       </c>
       <c r="D138" s="1">
-        <v>16825884</v>
+        <v>21159377</v>
       </c>
       <c r="F138" s="1">
         <v>2</v>
@@ -8541,26 +8538,26 @@
         <v>449</v>
       </c>
       <c r="L138" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="P138" s="1">
-        <v>39.892277239599998</v>
+        <v>39.894313863199997</v>
       </c>
       <c r="Q138" s="1">
-        <v>116.383891111</v>
+        <v>116.3860828</v>
       </c>
       <c r="R138" s="2">
-        <v>39.899982000000001</v>
+        <v>39.902037</v>
       </c>
       <c r="S138" s="2">
-        <v>116.39653199999999</v>
+        <v>116.398717</v>
       </c>
       <c r="U138">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="V138" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:22">
@@ -8568,41 +8565,41 @@
         <v>137</v>
       </c>
       <c r="D139" s="1">
-        <v>21159377</v>
+        <v>13771513</v>
       </c>
       <c r="F139" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G139" t="s">
         <v>451</v>
       </c>
       <c r="J139" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K139" t="s">
-        <v>452</v>
+        <v>365</v>
       </c>
       <c r="L139" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P139" s="1">
-        <v>39.894313863199997</v>
+        <v>39.889885337999999</v>
       </c>
       <c r="Q139" s="1">
-        <v>116.3860828</v>
+        <v>116.384341335</v>
       </c>
       <c r="R139" s="2">
-        <v>39.902037</v>
+        <v>39.897595000000003</v>
       </c>
       <c r="S139" s="2">
-        <v>116.398717</v>
+        <v>116.39698300000001</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V139" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:22">
@@ -8610,78 +8607,81 @@
         <v>138</v>
       </c>
       <c r="D140" s="1">
-        <v>13771513</v>
+        <v>3623794</v>
       </c>
       <c r="F140" s="1">
         <v>4</v>
       </c>
       <c r="G140" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J140" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="K140" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L140" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P140" s="1">
-        <v>39.889885337999999</v>
+        <v>39.892982096600001</v>
       </c>
       <c r="Q140" s="1">
-        <v>116.384341335</v>
+        <v>116.386399314</v>
       </c>
       <c r="R140" s="2">
-        <v>39.897595000000003</v>
+        <v>39.900708000000002</v>
       </c>
       <c r="S140" s="2">
-        <v>116.39698300000001</v>
+        <v>116.399034</v>
       </c>
       <c r="U140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V140" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" s="2" customFormat="1">
       <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="D141" s="1">
-        <v>3623794</v>
-      </c>
-      <c r="F141" s="1">
-        <v>4</v>
-      </c>
-      <c r="G141" t="s">
+      <c r="D141" s="2">
+        <v>24901752</v>
+      </c>
+      <c r="E141">
+        <v>24399519</v>
+      </c>
+      <c r="F141" s="2">
+        <v>2</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="J141" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="J141" t="s">
-        <v>445</v>
-      </c>
-      <c r="K141" t="s">
-        <v>368</v>
-      </c>
-      <c r="L141" t="s">
-        <v>348</v>
+      <c r="K141" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="L141" s="8" t="s">
+        <v>455</v>
       </c>
       <c r="P141" s="1">
-        <v>39.892982096600001</v>
+        <v>39.896889379800001</v>
       </c>
       <c r="Q141" s="1">
-        <v>116.386399314</v>
+        <v>116.382916405</v>
       </c>
       <c r="R141" s="2">
-        <v>39.900708000000002</v>
+        <v>39.904583000000002</v>
       </c>
       <c r="S141" s="2">
-        <v>116.399034</v>
-      </c>
-      <c r="U141">
+        <v>116.395556</v>
+      </c>
+      <c r="U141" s="8">
         <v>2</v>
       </c>
       <c r="V141" s="1">
@@ -8689,49 +8689,46 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:22" s="2" customFormat="1">
+    <row r="142" spans="1:22">
       <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="D142" s="2">
-        <v>24901752</v>
-      </c>
-      <c r="E142">
-        <v>24399519</v>
-      </c>
-      <c r="F142" s="2">
+      <c r="D142" s="1">
+        <v>19492960</v>
+      </c>
+      <c r="F142" s="1">
         <v>2</v>
       </c>
-      <c r="G142" s="8" t="s">
+      <c r="G142" t="s">
         <v>457</v>
       </c>
-      <c r="J142" s="8" t="s">
+      <c r="J142" t="s">
         <v>459</v>
       </c>
-      <c r="K142" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="L142" s="8" t="s">
+      <c r="K142" t="s">
         <v>458</v>
       </c>
+      <c r="L142" t="s">
+        <v>345</v>
+      </c>
       <c r="P142" s="1">
-        <v>39.896889379800001</v>
+        <v>39.8943831944</v>
       </c>
       <c r="Q142" s="1">
-        <v>116.382916405</v>
+        <v>116.388118439</v>
       </c>
       <c r="R142" s="2">
-        <v>39.904583000000002</v>
+        <v>39.902119999999996</v>
       </c>
       <c r="S142" s="2">
-        <v>116.395556</v>
-      </c>
-      <c r="U142" s="8">
-        <v>2</v>
+        <v>116.400749</v>
+      </c>
+      <c r="U142">
+        <v>1</v>
       </c>
       <c r="V142" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:22">
@@ -8739,7 +8736,7 @@
         <v>141</v>
       </c>
       <c r="D143" s="1">
-        <v>19492960</v>
+        <v>2898766</v>
       </c>
       <c r="F143" s="1">
         <v>2</v>
@@ -8748,32 +8745,32 @@
         <v>460</v>
       </c>
       <c r="J143" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K143" t="s">
-        <v>461</v>
+        <v>401</v>
       </c>
       <c r="L143" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="P143" s="1">
-        <v>39.8943831944</v>
+        <v>39.892969729000001</v>
       </c>
       <c r="Q143" s="1">
-        <v>116.388118439</v>
+        <v>116.385423296</v>
       </c>
       <c r="R143" s="2">
-        <v>39.902119999999996</v>
+        <v>39.900688000000002</v>
       </c>
       <c r="S143" s="2">
-        <v>116.400749</v>
+        <v>116.39806</v>
       </c>
       <c r="U143">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="V143" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="144" spans="1:22">
@@ -8781,41 +8778,41 @@
         <v>142</v>
       </c>
       <c r="D144" s="1">
-        <v>2898766</v>
+        <v>5401552</v>
       </c>
       <c r="F144" s="1">
         <v>2</v>
       </c>
       <c r="G144" t="s">
+        <v>462</v>
+      </c>
+      <c r="J144" t="s">
         <v>463</v>
       </c>
-      <c r="J144" t="s">
-        <v>464</v>
-      </c>
       <c r="K144" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="L144" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="P144" s="1">
-        <v>39.892969729000001</v>
+        <v>39.893156874500001</v>
       </c>
       <c r="Q144" s="1">
-        <v>116.385423296</v>
+        <v>116.385292163</v>
       </c>
       <c r="R144" s="2">
-        <v>39.900688000000002</v>
+        <v>39.900874000000002</v>
       </c>
       <c r="S144" s="2">
-        <v>116.39806</v>
+        <v>116.397929</v>
       </c>
       <c r="U144">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="V144" s="1">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:22">
@@ -8823,41 +8820,41 @@
         <v>143</v>
       </c>
       <c r="D145" s="1">
-        <v>5401552</v>
+        <v>20896153</v>
       </c>
       <c r="F145" s="1">
         <v>2</v>
       </c>
       <c r="G145" t="s">
+        <v>464</v>
+      </c>
+      <c r="J145" t="s">
         <v>465</v>
       </c>
-      <c r="J145" t="s">
-        <v>466</v>
-      </c>
       <c r="K145" t="s">
-        <v>449</v>
+        <v>357</v>
       </c>
       <c r="L145" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P145" s="1">
-        <v>39.893156874500001</v>
+        <v>39.890443335400001</v>
       </c>
       <c r="Q145" s="1">
-        <v>116.385292163</v>
+        <v>116.38457733600001</v>
       </c>
       <c r="R145" s="2">
-        <v>39.900874000000002</v>
+        <v>39.898155000000003</v>
       </c>
       <c r="S145" s="2">
-        <v>116.397929</v>
+        <v>116.397218</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V145" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:22">
@@ -8865,34 +8862,34 @@
         <v>144</v>
       </c>
       <c r="D146" s="1">
-        <v>20896153</v>
+        <v>11255768</v>
       </c>
       <c r="F146" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G146" t="s">
         <v>467</v>
       </c>
       <c r="J146" t="s">
+        <v>408</v>
+      </c>
+      <c r="K146" t="s">
         <v>468</v>
       </c>
-      <c r="K146" t="s">
-        <v>360</v>
-      </c>
       <c r="L146" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P146" s="1">
-        <v>39.890443335400001</v>
+        <v>39.893343009200002</v>
       </c>
       <c r="Q146" s="1">
-        <v>116.38457733600001</v>
+        <v>116.386290401</v>
       </c>
       <c r="R146" s="2">
-        <v>39.898155000000003</v>
+        <v>39.901068000000002</v>
       </c>
       <c r="S146" s="2">
-        <v>116.397218</v>
+        <v>116.39892500000001</v>
       </c>
       <c r="U146">
         <v>1</v>
@@ -8907,34 +8904,34 @@
         <v>145</v>
       </c>
       <c r="D147" s="1">
-        <v>11255768</v>
+        <v>21070080</v>
       </c>
       <c r="F147" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G147" t="s">
+        <v>469</v>
+      </c>
+      <c r="J147" t="s">
+        <v>471</v>
+      </c>
+      <c r="K147" t="s">
         <v>470</v>
       </c>
-      <c r="J147" t="s">
-        <v>411</v>
-      </c>
-      <c r="K147" t="s">
-        <v>471</v>
-      </c>
       <c r="L147" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P147" s="1">
-        <v>39.893343009200002</v>
+        <v>39.892350886099997</v>
       </c>
       <c r="Q147" s="1">
-        <v>116.386290401</v>
+        <v>116.384140798</v>
       </c>
       <c r="R147" s="2">
-        <v>39.901068000000002</v>
+        <v>39.900058000000001</v>
       </c>
       <c r="S147" s="2">
-        <v>116.39892500000001</v>
+        <v>116.396781</v>
       </c>
       <c r="U147">
         <v>1</v>
@@ -8949,7 +8946,7 @@
         <v>146</v>
       </c>
       <c r="D148" s="1">
-        <v>21070080</v>
+        <v>21341798</v>
       </c>
       <c r="F148" s="1">
         <v>2</v>
@@ -8958,32 +8955,32 @@
         <v>472</v>
       </c>
       <c r="J148" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="K148" t="s">
-        <v>473</v>
+        <v>426</v>
       </c>
       <c r="L148" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P148" s="1">
-        <v>39.892350886099997</v>
+        <v>39.893156874500001</v>
       </c>
       <c r="Q148" s="1">
-        <v>116.384140798</v>
+        <v>116.385292163</v>
       </c>
       <c r="R148" s="2">
-        <v>39.900058000000001</v>
+        <v>39.900874000000002</v>
       </c>
       <c r="S148" s="2">
-        <v>116.396781</v>
+        <v>116.397929</v>
       </c>
       <c r="U148">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="V148" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:22">
@@ -8991,41 +8988,41 @@
         <v>147</v>
       </c>
       <c r="D149" s="1">
-        <v>21341798</v>
+        <v>9077520</v>
       </c>
       <c r="F149" s="1">
         <v>2</v>
       </c>
       <c r="G149" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J149" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="K149" t="s">
-        <v>429</v>
+        <v>357</v>
       </c>
       <c r="L149" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P149" s="1">
-        <v>39.893156874500001</v>
+        <v>39.894997846300001</v>
       </c>
       <c r="Q149" s="1">
-        <v>116.385292163</v>
+        <v>116.388389356</v>
       </c>
       <c r="R149" s="2">
-        <v>39.900874000000002</v>
+        <v>39.902735999999997</v>
       </c>
       <c r="S149" s="2">
-        <v>116.397929</v>
+        <v>116.40101900000001</v>
       </c>
       <c r="U149">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="V149" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>110</v>
       </c>
     </row>
     <row r="150" spans="1:22">
@@ -9033,41 +9030,41 @@
         <v>148</v>
       </c>
       <c r="D150" s="1">
-        <v>9077520</v>
+        <v>24090758</v>
       </c>
       <c r="F150" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G150" t="s">
+        <v>475</v>
+      </c>
+      <c r="J150" t="s">
         <v>476</v>
       </c>
-      <c r="J150" t="s">
-        <v>477</v>
-      </c>
       <c r="K150" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="L150" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P150" s="1">
-        <v>39.894997846300001</v>
+        <v>39.893743147599999</v>
       </c>
       <c r="Q150" s="1">
-        <v>116.388389356</v>
+        <v>116.386559253</v>
       </c>
       <c r="R150" s="2">
-        <v>39.902735999999997</v>
+        <v>39.901470000000003</v>
       </c>
       <c r="S150" s="2">
-        <v>116.40101900000001</v>
+        <v>116.399193</v>
       </c>
       <c r="U150">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="V150" s="1">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:22">
@@ -9075,41 +9072,41 @@
         <v>149</v>
       </c>
       <c r="D151" s="1">
-        <v>24090758</v>
+        <v>8026976</v>
       </c>
       <c r="F151" s="1">
         <v>4</v>
       </c>
       <c r="G151" t="s">
+        <v>477</v>
+      </c>
+      <c r="J151" t="s">
         <v>478</v>
       </c>
-      <c r="J151" t="s">
-        <v>479</v>
-      </c>
       <c r="K151" t="s">
-        <v>402</v>
+        <v>365</v>
       </c>
       <c r="L151" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P151" s="1">
-        <v>39.893743147599999</v>
+        <v>39.8927354327</v>
       </c>
       <c r="Q151" s="1">
-        <v>116.386559253</v>
+        <v>116.386079479</v>
       </c>
       <c r="R151" s="2">
-        <v>39.901470000000003</v>
+        <v>39.900458999999998</v>
       </c>
       <c r="S151" s="2">
-        <v>116.399193</v>
+        <v>116.398715</v>
       </c>
       <c r="U151">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="V151" s="1">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:22">
@@ -9117,41 +9114,41 @@
         <v>150</v>
       </c>
       <c r="D152" s="1">
-        <v>8026976</v>
+        <v>6039890</v>
       </c>
       <c r="F152" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G152" t="s">
+        <v>479</v>
+      </c>
+      <c r="J152" t="s">
         <v>480</v>
       </c>
-      <c r="J152" t="s">
-        <v>481</v>
-      </c>
       <c r="K152" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L152" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P152" s="1">
-        <v>39.8927354327</v>
+        <v>39.894308641099997</v>
       </c>
       <c r="Q152" s="1">
-        <v>116.386079479</v>
+        <v>116.387868994</v>
       </c>
       <c r="R152" s="2">
-        <v>39.900458999999998</v>
+        <v>39.902043999999997</v>
       </c>
       <c r="S152" s="2">
-        <v>116.398715</v>
+        <v>116.40049999999999</v>
       </c>
       <c r="U152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V152" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:22">
@@ -9159,41 +9156,41 @@
         <v>151</v>
       </c>
       <c r="D153" s="1">
-        <v>6039890</v>
+        <v>23644588</v>
       </c>
       <c r="F153" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G153" t="s">
+        <v>481</v>
+      </c>
+      <c r="J153" t="s">
         <v>482</v>
       </c>
-      <c r="J153" t="s">
-        <v>483</v>
-      </c>
       <c r="K153" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="L153" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="P153" s="1">
-        <v>39.894308641099997</v>
+        <v>39.888831453000002</v>
       </c>
       <c r="Q153" s="1">
-        <v>116.387868994</v>
+        <v>116.38377211300001</v>
       </c>
       <c r="R153" s="2">
-        <v>39.902043999999997</v>
+        <v>39.896535999999998</v>
       </c>
       <c r="S153" s="2">
-        <v>116.40049999999999</v>
+        <v>116.396416</v>
       </c>
       <c r="U153">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V153" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:22">
@@ -9201,34 +9198,32 @@
         <v>152</v>
       </c>
       <c r="D154" s="1">
-        <v>23644588</v>
+        <v>19423695</v>
       </c>
       <c r="F154" s="1">
         <v>2</v>
       </c>
       <c r="G154" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J154" t="s">
         <v>485</v>
       </c>
       <c r="K154" t="s">
-        <v>388</v>
-      </c>
-      <c r="L154" t="s">
-        <v>375</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="L154"/>
       <c r="P154" s="1">
-        <v>39.888831453000002</v>
+        <v>39.8940632714</v>
       </c>
       <c r="Q154" s="1">
-        <v>116.38377211300001</v>
+        <v>116.387279823</v>
       </c>
       <c r="R154" s="2">
-        <v>39.896535999999998</v>
+        <v>39.901795</v>
       </c>
       <c r="S154" s="2">
-        <v>116.396416</v>
+        <v>116.399912</v>
       </c>
       <c r="U154">
         <v>4</v>
@@ -9243,7 +9238,7 @@
         <v>153</v>
       </c>
       <c r="D155" s="1">
-        <v>19423695</v>
+        <v>5476763</v>
       </c>
       <c r="F155" s="1">
         <v>2</v>
@@ -9252,30 +9247,32 @@
         <v>486</v>
       </c>
       <c r="J155" t="s">
-        <v>488</v>
+        <v>149</v>
       </c>
       <c r="K155" t="s">
-        <v>487</v>
-      </c>
-      <c r="L155"/>
+        <v>357</v>
+      </c>
+      <c r="L155" t="s">
+        <v>345</v>
+      </c>
       <c r="P155" s="1">
-        <v>39.8940632714</v>
+        <v>39.892929834299999</v>
       </c>
       <c r="Q155" s="1">
-        <v>116.387279823</v>
+        <v>116.385170706</v>
       </c>
       <c r="R155" s="2">
-        <v>39.901795</v>
+        <v>39.900646000000002</v>
       </c>
       <c r="S155" s="2">
-        <v>116.399912</v>
+        <v>116.397808</v>
       </c>
       <c r="U155">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V155" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:22">
@@ -9283,41 +9280,41 @@
         <v>154</v>
       </c>
       <c r="D156" s="1">
-        <v>5476763</v>
+        <v>6612404</v>
       </c>
       <c r="F156" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G156" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J156" t="s">
-        <v>152</v>
+        <v>488</v>
       </c>
       <c r="K156" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L156" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P156" s="1">
-        <v>39.892929834299999</v>
+        <v>39.892428750599997</v>
       </c>
       <c r="Q156" s="1">
-        <v>116.385170706</v>
+        <v>116.386424909</v>
       </c>
       <c r="R156" s="2">
-        <v>39.900646000000002</v>
+        <v>39.900154999999998</v>
       </c>
       <c r="S156" s="2">
-        <v>116.397808</v>
+        <v>116.39906000000001</v>
       </c>
       <c r="U156">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V156" s="1">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:22">
@@ -9325,41 +9322,41 @@
         <v>155</v>
       </c>
       <c r="D157" s="1">
-        <v>6612404</v>
+        <v>6039873</v>
       </c>
       <c r="F157" s="1">
         <v>4</v>
       </c>
       <c r="G157" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J157" t="s">
         <v>491</v>
       </c>
       <c r="K157" t="s">
-        <v>368</v>
+        <v>490</v>
       </c>
       <c r="L157" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P157" s="1">
-        <v>39.892428750599997</v>
+        <v>39.893976842199997</v>
       </c>
       <c r="Q157" s="1">
-        <v>116.386424909</v>
+        <v>116.387819638</v>
       </c>
       <c r="R157" s="2">
-        <v>39.900154999999998</v>
+        <v>39.901712000000003</v>
       </c>
       <c r="S157" s="2">
-        <v>116.39906000000001</v>
+        <v>116.400451</v>
       </c>
       <c r="U157">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V157" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:22">
@@ -9367,7 +9364,7 @@
         <v>156</v>
       </c>
       <c r="D158" s="1">
-        <v>6039873</v>
+        <v>24107065</v>
       </c>
       <c r="F158" s="1">
         <v>4</v>
@@ -9376,32 +9373,32 @@
         <v>492</v>
       </c>
       <c r="J158" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K158" t="s">
-        <v>493</v>
+        <v>365</v>
       </c>
       <c r="L158" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P158" s="1">
-        <v>39.893976842199997</v>
+        <v>39.892925015199999</v>
       </c>
       <c r="Q158" s="1">
-        <v>116.387819638</v>
+        <v>116.384917126</v>
       </c>
       <c r="R158" s="2">
-        <v>39.901712000000003</v>
+        <v>39.900638999999998</v>
       </c>
       <c r="S158" s="2">
-        <v>116.400451</v>
+        <v>116.397555</v>
       </c>
       <c r="U158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V158" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:22">
@@ -9409,41 +9406,41 @@
         <v>157</v>
       </c>
       <c r="D159" s="1">
-        <v>24107065</v>
+        <v>48189058</v>
       </c>
       <c r="F159" s="1">
         <v>4</v>
       </c>
       <c r="G159" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J159" t="s">
         <v>496</v>
       </c>
       <c r="K159" t="s">
-        <v>368</v>
+        <v>495</v>
       </c>
       <c r="L159" t="s">
-        <v>348</v>
+        <v>466</v>
       </c>
       <c r="P159" s="1">
-        <v>39.892925015199999</v>
+        <v>39.894362530999999</v>
       </c>
       <c r="Q159" s="1">
-        <v>116.384917126</v>
+        <v>116.388059332</v>
       </c>
       <c r="R159" s="2">
-        <v>39.900638999999998</v>
+        <v>39.902099</v>
       </c>
       <c r="S159" s="2">
-        <v>116.397555</v>
+        <v>116.40069</v>
       </c>
       <c r="U159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V159" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:22">
@@ -9451,34 +9448,34 @@
         <v>158</v>
       </c>
       <c r="D160" s="1">
-        <v>48189058</v>
+        <v>5476771</v>
       </c>
       <c r="F160" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G160" t="s">
         <v>497</v>
       </c>
       <c r="J160" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K160" t="s">
-        <v>498</v>
+        <v>357</v>
       </c>
       <c r="L160" t="s">
-        <v>469</v>
+        <v>345</v>
       </c>
       <c r="P160" s="1">
-        <v>39.894362530999999</v>
+        <v>39.892804230800003</v>
       </c>
       <c r="Q160" s="1">
-        <v>116.388059332</v>
+        <v>116.38455116900001</v>
       </c>
       <c r="R160" s="2">
-        <v>39.902099</v>
+        <v>39.900514999999999</v>
       </c>
       <c r="S160" s="2">
-        <v>116.40069</v>
+        <v>116.39718999999999</v>
       </c>
       <c r="U160">
         <v>1</v>
@@ -9493,34 +9490,34 @@
         <v>159</v>
       </c>
       <c r="D161" s="1">
-        <v>5476771</v>
+        <v>3623797</v>
       </c>
       <c r="F161" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G161" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J161" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="K161" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L161" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P161" s="1">
-        <v>39.892804230800003</v>
+        <v>39.8937491493</v>
       </c>
       <c r="Q161" s="1">
-        <v>116.38455116900001</v>
+        <v>116.38655925800001</v>
       </c>
       <c r="R161" s="2">
-        <v>39.900514999999999</v>
+        <v>39.901476000000002</v>
       </c>
       <c r="S161" s="2">
-        <v>116.39718999999999</v>
+        <v>116.399193</v>
       </c>
       <c r="U161">
         <v>1</v>
@@ -9535,41 +9532,41 @@
         <v>160</v>
       </c>
       <c r="D162" s="1">
-        <v>3623797</v>
+        <v>6039904</v>
       </c>
       <c r="F162" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J162" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="K162" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="L162" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P162" s="1">
-        <v>39.8937491493</v>
+        <v>39.8943083415</v>
       </c>
       <c r="Q162" s="1">
-        <v>116.38655925800001</v>
+        <v>116.387919072</v>
       </c>
       <c r="R162" s="2">
-        <v>39.901476000000002</v>
+        <v>39.902043999999997</v>
       </c>
       <c r="S162" s="2">
-        <v>116.399193</v>
+        <v>116.40055</v>
       </c>
       <c r="U162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V162" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:22">
@@ -9577,41 +9574,41 @@
         <v>161</v>
       </c>
       <c r="D163" s="1">
-        <v>6039904</v>
+        <v>21945416</v>
       </c>
       <c r="F163" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G163" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J163" t="s">
         <v>504</v>
       </c>
       <c r="K163" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="L163" t="s">
-        <v>348</v>
+        <v>503</v>
       </c>
       <c r="P163" s="1">
-        <v>39.8943083415</v>
+        <v>39.893083086300003</v>
       </c>
       <c r="Q163" s="1">
-        <v>116.387919072</v>
+        <v>116.385029514</v>
       </c>
       <c r="R163" s="2">
-        <v>39.902043999999997</v>
+        <v>39.900798000000002</v>
       </c>
       <c r="S163" s="2">
-        <v>116.40055</v>
+        <v>116.397667</v>
       </c>
       <c r="U163">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="V163" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164" spans="1:22">
@@ -9619,10 +9616,10 @@
         <v>162</v>
       </c>
       <c r="D164" s="1">
-        <v>21945416</v>
+        <v>9041551</v>
       </c>
       <c r="F164" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G164" t="s">
         <v>505</v>
@@ -9631,29 +9628,29 @@
         <v>507</v>
       </c>
       <c r="K164" t="s">
-        <v>391</v>
+        <v>506</v>
       </c>
       <c r="L164" t="s">
-        <v>506</v>
+        <v>345</v>
       </c>
       <c r="P164" s="1">
-        <v>39.893083086300003</v>
+        <v>39.893328499100001</v>
       </c>
       <c r="Q164" s="1">
-        <v>116.385029514</v>
+        <v>116.385463681</v>
       </c>
       <c r="R164" s="2">
-        <v>39.900798000000002</v>
+        <v>39.901046999999998</v>
       </c>
       <c r="S164" s="2">
-        <v>116.397667</v>
+        <v>116.3981</v>
       </c>
       <c r="U164">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="V164" s="1">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:22">
@@ -9661,7 +9658,7 @@
         <v>163</v>
       </c>
       <c r="D165" s="1">
-        <v>9041551</v>
+        <v>6612375</v>
       </c>
       <c r="F165" s="1">
         <v>4</v>
@@ -9670,32 +9667,32 @@
         <v>508</v>
       </c>
       <c r="J165" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K165" t="s">
-        <v>509</v>
+        <v>365</v>
       </c>
       <c r="L165" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P165" s="1">
-        <v>39.893328499100001</v>
+        <v>39.892339518299998</v>
       </c>
       <c r="Q165" s="1">
-        <v>116.385463681</v>
+        <v>116.387319461</v>
       </c>
       <c r="R165" s="2">
-        <v>39.901046999999998</v>
+        <v>39.900072000000002</v>
       </c>
       <c r="S165" s="2">
-        <v>116.3981</v>
+        <v>116.399953</v>
       </c>
       <c r="U165">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="V165" s="1">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:22">
@@ -9703,41 +9700,41 @@
         <v>164</v>
       </c>
       <c r="D166" s="1">
-        <v>6612375</v>
+        <v>6039864</v>
       </c>
       <c r="F166" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G166" t="s">
+        <v>510</v>
+      </c>
+      <c r="J166" t="s">
         <v>511</v>
       </c>
-      <c r="J166" t="s">
-        <v>512</v>
-      </c>
       <c r="K166" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L166" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P166" s="1">
-        <v>39.892339518299998</v>
+        <v>39.894077144100002</v>
       </c>
       <c r="Q166" s="1">
-        <v>116.387319461</v>
+        <v>116.387299869</v>
       </c>
       <c r="R166" s="2">
-        <v>39.900072000000002</v>
+        <v>39.901809</v>
       </c>
       <c r="S166" s="2">
-        <v>116.399953</v>
+        <v>116.39993200000001</v>
       </c>
       <c r="U166">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V166" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:22">
@@ -9745,41 +9742,41 @@
         <v>165</v>
       </c>
       <c r="D167" s="1">
-        <v>6039864</v>
+        <v>17134142</v>
       </c>
       <c r="F167" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G167" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J167" t="s">
         <v>514</v>
       </c>
       <c r="K167" t="s">
-        <v>365</v>
+        <v>513</v>
       </c>
       <c r="L167" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="P167" s="1">
-        <v>39.894077144100002</v>
+        <v>39.893235112900001</v>
       </c>
       <c r="Q167" s="1">
-        <v>116.387299869</v>
+        <v>116.386009751</v>
       </c>
       <c r="R167" s="2">
-        <v>39.901809</v>
+        <v>39.900958000000003</v>
       </c>
       <c r="S167" s="2">
-        <v>116.39993200000001</v>
+        <v>116.398645</v>
       </c>
       <c r="U167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V167" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:22">
@@ -9787,34 +9784,34 @@
         <v>166</v>
       </c>
       <c r="D168" s="1">
-        <v>17134142</v>
+        <v>24630342</v>
       </c>
       <c r="F168" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G168" t="s">
         <v>515</v>
       </c>
       <c r="J168" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K168" t="s">
-        <v>516</v>
+        <v>357</v>
       </c>
       <c r="L168" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="P168" s="1">
-        <v>39.893235112900001</v>
+        <v>39.894056599199999</v>
       </c>
       <c r="Q168" s="1">
-        <v>116.386009751</v>
+        <v>116.38722973100001</v>
       </c>
       <c r="R168" s="2">
-        <v>39.900958000000003</v>
+        <v>39.901788000000003</v>
       </c>
       <c r="S168" s="2">
-        <v>116.398645</v>
+        <v>116.399862</v>
       </c>
       <c r="U168">
         <v>2</v>
@@ -9829,41 +9826,41 @@
         <v>167</v>
       </c>
       <c r="D169" s="1">
-        <v>24630342</v>
+        <v>21159211</v>
       </c>
       <c r="F169" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J169" t="s">
         <v>519</v>
       </c>
       <c r="K169" t="s">
-        <v>360</v>
+        <v>518</v>
       </c>
       <c r="L169" t="s">
-        <v>348</v>
+        <v>466</v>
       </c>
       <c r="P169" s="1">
-        <v>39.894056599199999</v>
+        <v>39.894501620699998</v>
       </c>
       <c r="Q169" s="1">
-        <v>116.38722973100001</v>
+        <v>116.38724613399999</v>
       </c>
       <c r="R169" s="2">
-        <v>39.901788000000003</v>
+        <v>39.902233000000003</v>
       </c>
       <c r="S169" s="2">
-        <v>116.399862</v>
+        <v>116.399878</v>
       </c>
       <c r="U169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V169" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:22">
@@ -9871,41 +9868,41 @@
         <v>168</v>
       </c>
       <c r="D170" s="1">
-        <v>21159211</v>
+        <v>3623803</v>
       </c>
       <c r="F170" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G170" t="s">
         <v>520</v>
       </c>
       <c r="J170" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K170" t="s">
-        <v>521</v>
+        <v>365</v>
       </c>
       <c r="L170" t="s">
-        <v>469</v>
+        <v>345</v>
       </c>
       <c r="P170" s="1">
-        <v>39.894501620699998</v>
+        <v>39.894003314099997</v>
       </c>
       <c r="Q170" s="1">
-        <v>116.38724613399999</v>
+        <v>116.387908799</v>
       </c>
       <c r="R170" s="2">
-        <v>39.902233000000003</v>
+        <v>39.901738999999999</v>
       </c>
       <c r="S170" s="2">
-        <v>116.399878</v>
+        <v>116.40054000000001</v>
       </c>
       <c r="U170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V170" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:22">
@@ -9913,41 +9910,41 @@
         <v>169</v>
       </c>
       <c r="D171" s="1">
-        <v>3623803</v>
+        <v>19630202</v>
       </c>
       <c r="F171" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G171" t="s">
+        <v>522</v>
+      </c>
+      <c r="J171" t="s">
         <v>523</v>
       </c>
-      <c r="J171" t="s">
-        <v>524</v>
-      </c>
       <c r="K171" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L171" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P171" s="1">
-        <v>39.894003314099997</v>
+        <v>39.8930928905</v>
       </c>
       <c r="Q171" s="1">
-        <v>116.387908799</v>
+        <v>116.385529628</v>
       </c>
       <c r="R171" s="2">
-        <v>39.901738999999999</v>
+        <v>39.900812000000002</v>
       </c>
       <c r="S171" s="2">
-        <v>116.40054000000001</v>
+        <v>116.398166</v>
       </c>
       <c r="U171">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="V171" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>155</v>
       </c>
     </row>
     <row r="172" spans="1:22">
@@ -9955,41 +9952,41 @@
         <v>170</v>
       </c>
       <c r="D172" s="1">
-        <v>19630202</v>
+        <v>18575829</v>
       </c>
       <c r="F172" s="1">
         <v>2</v>
       </c>
       <c r="G172" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J172" t="s">
-        <v>526</v>
+        <v>413</v>
       </c>
       <c r="K172" t="s">
-        <v>372</v>
+        <v>458</v>
       </c>
       <c r="L172" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P172" s="1">
-        <v>39.8930928905</v>
+        <v>39.893032070300002</v>
       </c>
       <c r="Q172" s="1">
-        <v>116.385529628</v>
+        <v>116.38538426300001</v>
       </c>
       <c r="R172" s="2">
-        <v>39.900812000000002</v>
+        <v>39.900750000000002</v>
       </c>
       <c r="S172" s="2">
-        <v>116.398166</v>
+        <v>116.398021</v>
       </c>
       <c r="U172">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="V172" s="1">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>83</v>
       </c>
     </row>
     <row r="173" spans="1:22">
@@ -9997,41 +9994,41 @@
         <v>171</v>
       </c>
       <c r="D173" s="1">
-        <v>18575829</v>
+        <v>4682426</v>
       </c>
       <c r="F173" s="1">
         <v>2</v>
       </c>
       <c r="G173" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J173" t="s">
-        <v>416</v>
+        <v>526</v>
       </c>
       <c r="K173" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L173" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P173" s="1">
-        <v>39.893032070300002</v>
+        <v>39.893912351899999</v>
       </c>
       <c r="Q173" s="1">
-        <v>116.38538426300001</v>
+        <v>116.38696314000001</v>
       </c>
       <c r="R173" s="2">
-        <v>39.900750000000002</v>
+        <v>39.901642000000002</v>
       </c>
       <c r="S173" s="2">
-        <v>116.398021</v>
+        <v>116.399596</v>
       </c>
       <c r="U173">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="V173" s="1">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:22">
@@ -10039,41 +10036,41 @@
         <v>172</v>
       </c>
       <c r="D174" s="1">
-        <v>4682426</v>
+        <v>24324925</v>
       </c>
       <c r="F174" s="1">
         <v>2</v>
       </c>
       <c r="G174" t="s">
+        <v>527</v>
+      </c>
+      <c r="J174" t="s">
         <v>528</v>
       </c>
-      <c r="J174" t="s">
-        <v>529</v>
-      </c>
       <c r="K174" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="L174" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P174" s="1">
-        <v>39.893912351899999</v>
+        <v>39.8943831944</v>
       </c>
       <c r="Q174" s="1">
-        <v>116.38696314000001</v>
+        <v>116.388118439</v>
       </c>
       <c r="R174" s="2">
-        <v>39.901642000000002</v>
+        <v>39.902119999999996</v>
       </c>
       <c r="S174" s="2">
-        <v>116.399596</v>
+        <v>116.400749</v>
       </c>
       <c r="U174">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="V174" s="1">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:22">
@@ -10081,41 +10078,41 @@
         <v>173</v>
       </c>
       <c r="D175" s="1">
-        <v>24324925</v>
+        <v>24016570</v>
       </c>
       <c r="F175" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G175" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J175" t="s">
         <v>531</v>
       </c>
       <c r="K175" t="s">
-        <v>452</v>
+        <v>530</v>
       </c>
       <c r="L175" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="P175" s="1">
-        <v>39.8943831944</v>
+        <v>39.890979048799998</v>
       </c>
       <c r="Q175" s="1">
-        <v>116.388118439</v>
+        <v>116.380198175</v>
       </c>
       <c r="R175" s="2">
-        <v>39.902119999999996</v>
+        <v>39.898643</v>
       </c>
       <c r="S175" s="2">
-        <v>116.400749</v>
+        <v>116.39285099999999</v>
       </c>
       <c r="U175">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="V175" s="1">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:22">
@@ -10123,7 +10120,7 @@
         <v>174</v>
       </c>
       <c r="D176" s="1">
-        <v>24016570</v>
+        <v>3611311</v>
       </c>
       <c r="F176" s="1">
         <v>4</v>
@@ -10132,111 +10129,69 @@
         <v>532</v>
       </c>
       <c r="J176" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K176" t="s">
-        <v>533</v>
+        <v>468</v>
       </c>
       <c r="L176" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="P176" s="1">
-        <v>39.890979048799998</v>
+        <v>39.896607996199997</v>
       </c>
       <c r="Q176" s="1">
-        <v>116.380198175</v>
+        <v>116.386558687</v>
       </c>
       <c r="R176" s="2">
-        <v>39.898643</v>
+        <v>39.904333999999999</v>
       </c>
       <c r="S176" s="2">
-        <v>116.39285099999999</v>
+        <v>116.39919</v>
       </c>
       <c r="U176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V176" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:22">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="D177" s="1">
-        <v>3611311</v>
-      </c>
-      <c r="F177" s="1">
-        <v>4</v>
-      </c>
-      <c r="G177" t="s">
-        <v>535</v>
-      </c>
-      <c r="J177" t="s">
-        <v>536</v>
-      </c>
-      <c r="K177" t="s">
-        <v>471</v>
-      </c>
-      <c r="L177" t="s">
-        <v>348</v>
-      </c>
-      <c r="P177" s="1">
-        <v>39.896607996199997</v>
-      </c>
-      <c r="Q177" s="1">
-        <v>116.386558687</v>
-      </c>
-      <c r="R177" s="2">
-        <v>39.904333999999999</v>
-      </c>
-      <c r="S177" s="2">
-        <v>116.39919</v>
-      </c>
-      <c r="U177">
         <v>3</v>
       </c>
-      <c r="V177" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:22">
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="2"/>
+    </row>
+    <row r="182" spans="1:1">
       <c r="A182" s="2"/>
     </row>
-    <row r="183" spans="1:22">
+    <row r="183" spans="1:1">
       <c r="A183" s="2"/>
     </row>
-    <row r="184" spans="1:22">
+    <row r="184" spans="1:1">
       <c r="A184" s="2"/>
     </row>
-    <row r="185" spans="1:22">
+    <row r="185" spans="1:1">
       <c r="A185" s="2"/>
     </row>
-    <row r="186" spans="1:22">
+    <row r="186" spans="1:1">
       <c r="A186" s="2"/>
     </row>
-    <row r="187" spans="1:22">
+    <row r="187" spans="1:1">
       <c r="A187" s="2"/>
     </row>
-    <row r="188" spans="1:22">
+    <row r="188" spans="1:1">
       <c r="A188" s="2"/>
     </row>
-    <row r="189" spans="1:22">
+    <row r="189" spans="1:1">
       <c r="A189" s="2"/>
     </row>
-    <row r="190" spans="1:22">
+    <row r="190" spans="1:1">
       <c r="A190" s="2"/>
     </row>
-    <row r="191" spans="1:22">
+    <row r="191" spans="1:1">
       <c r="A191" s="2"/>
     </row>
-    <row r="192" spans="1:22">
+    <row r="192" spans="1:1">
       <c r="A192" s="2"/>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/analysis/dashilar.xlsx
+++ b/analysis/dashilar.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="weibo_dashilar_withCounts" localSheetId="0">Sheet1!$B$1:$T$104</definedName>
+    <definedName name="weibo_dashilar_withCounts" localSheetId="0">Sheet1!$B$1:$T$108</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="566">
   <si>
     <t>address</t>
   </si>
@@ -1811,6 +1811,60 @@
   </si>
   <si>
     <t>alternate address</t>
+  </si>
+  <si>
+    <t>B2094757D16BA2FE449B</t>
+  </si>
+  <si>
+    <t>西长安街88号</t>
+  </si>
+  <si>
+    <t>北京西长安街88号</t>
+  </si>
+  <si>
+    <t>B2094753D769ABF9429C</t>
+  </si>
+  <si>
+    <t>狗不理包子(前门店)</t>
+  </si>
+  <si>
+    <t>北京市西城区前门大栅栏29-31号</t>
+  </si>
+  <si>
+    <t>B2094757D464A2FA459B</t>
+  </si>
+  <si>
+    <t>门框锅贴店</t>
+  </si>
+  <si>
+    <t>西城区门框胡同中段(近大栅栏步行街)</t>
+  </si>
+  <si>
+    <t>B2094654D16FABFA4092</t>
+  </si>
+  <si>
+    <t>傅薪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣武区珠市口西大街115</t>
+  </si>
+  <si>
+    <t>内观堂旧书店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内观堂Bookstore</t>
+  </si>
+  <si>
+    <t>铁树斜街44号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁树斜街胡同</t>
+  </si>
+  <si>
+    <t>书店</t>
   </si>
 </sst>
 </file>
@@ -2654,17 +2708,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V192"/>
+  <dimension ref="A1:V197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+    <sheetView tabSelected="1" topLeftCell="H94" workbookViewId="0">
+      <selection activeCell="M114" sqref="M114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="4" width="23.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.140625" style="1" customWidth="1"/>
@@ -2826,7 +2880,7 @@
         <v>69</v>
       </c>
       <c r="V3" s="1">
-        <f t="shared" ref="V3:V57" si="0">T3+U3</f>
+        <f t="shared" ref="V3:V58" si="0">T3+U3</f>
         <v>106</v>
       </c>
     </row>
@@ -3645,32 +3699,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="1">
-        <v>5</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>54</v>
+        <v>549</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>550</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="N25" s="1">
-        <v>39.896059999999899</v>
+        <v>39.896687</v>
       </c>
       <c r="O25" s="1">
-        <v>116.38571</v>
+        <v>116.385251</v>
       </c>
       <c r="P25" s="1">
-        <v>39.894662539199899</v>
+        <v>39.895289836700002</v>
       </c>
       <c r="Q25" s="1">
-        <v>116.379473989999</v>
+        <v>116.379015284</v>
       </c>
       <c r="T25" s="1">
-        <v>5</v>
-      </c>
-      <c r="V25" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -3678,32 +3731,32 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F26" s="1">
         <v>5</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N26" s="1">
-        <v>39.896479999999897</v>
+        <v>39.896059999999899</v>
       </c>
       <c r="O26" s="1">
-        <v>116.3852</v>
+        <v>116.38571</v>
       </c>
       <c r="P26" s="1">
-        <v>39.895082882899899</v>
+        <v>39.894662539199899</v>
       </c>
       <c r="Q26" s="1">
-        <v>116.378964353</v>
+        <v>116.379473989999</v>
       </c>
       <c r="T26" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V26" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -3711,35 +3764,32 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F27" s="1">
         <v>5</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N27" s="1">
-        <v>39.89584</v>
+        <v>39.896479999999897</v>
       </c>
       <c r="O27" s="1">
-        <v>116.39063</v>
+        <v>116.3852</v>
       </c>
       <c r="P27" s="1">
-        <v>39.894439574099898</v>
+        <v>39.895082882899899</v>
       </c>
       <c r="Q27" s="1">
-        <v>116.384390666</v>
+        <v>116.378964353</v>
       </c>
       <c r="T27" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V27" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -3747,35 +3797,35 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F28" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N28" s="1">
-        <v>39.895359999999897</v>
+        <v>39.89584</v>
       </c>
       <c r="O28" s="1">
-        <v>116.38824</v>
+        <v>116.39063</v>
       </c>
       <c r="P28" s="1">
-        <v>39.893960921199898</v>
+        <v>39.894439574099898</v>
       </c>
       <c r="Q28" s="1">
-        <v>116.38200220500001</v>
+        <v>116.384390666</v>
       </c>
       <c r="T28" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="V28" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -3783,41 +3833,35 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="1">
-        <v>21812221</v>
+        <v>60</v>
       </c>
       <c r="F29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>269</v>
+        <v>61</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N29" s="1">
-        <v>39.896630000000002</v>
+        <v>39.895359999999897</v>
       </c>
       <c r="O29" s="1">
-        <v>116.39416</v>
+        <v>116.38824</v>
       </c>
       <c r="P29" s="1">
-        <v>39.8952280066</v>
+        <v>39.893960921199898</v>
       </c>
       <c r="Q29" s="1">
-        <v>116.38791892</v>
+        <v>116.38200220500001</v>
       </c>
       <c r="T29" s="1">
-        <v>402</v>
-      </c>
-      <c r="U29">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="V29" s="1">
         <f t="shared" si="0"/>
-        <v>443</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -3825,41 +3869,41 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D30" s="1">
-        <v>2288158</v>
+        <v>21812221</v>
       </c>
       <c r="F30" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N30" s="1">
-        <v>39.8989499999999</v>
+        <v>39.896630000000002</v>
       </c>
       <c r="O30" s="1">
-        <v>116.393379999999</v>
+        <v>116.39416</v>
       </c>
       <c r="P30" s="1">
-        <v>39.897548195399899</v>
+        <v>39.8952280066</v>
       </c>
       <c r="Q30" s="1">
-        <v>116.387138932</v>
+        <v>116.38791892</v>
       </c>
       <c r="T30" s="1">
-        <v>42</v>
+        <v>402</v>
       </c>
       <c r="U30">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="V30" s="1">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -3867,41 +3911,41 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D31" s="1">
-        <v>512388</v>
+        <v>2288158</v>
       </c>
       <c r="F31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N31" s="1">
-        <v>39.899740000000001</v>
+        <v>39.8989499999999</v>
       </c>
       <c r="O31" s="1">
-        <v>116.39579000000001</v>
+        <v>116.393379999999</v>
       </c>
       <c r="P31" s="1">
-        <v>39.898337333599898</v>
+        <v>39.897548195399899</v>
       </c>
       <c r="Q31" s="1">
-        <v>116.389547984</v>
+        <v>116.387138932</v>
       </c>
       <c r="T31" s="1">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="U31">
-        <v>357</v>
+        <v>99</v>
       </c>
       <c r="V31" s="1">
         <f t="shared" si="0"/>
-        <v>391</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -3909,38 +3953,41 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="D32" s="1">
+        <v>512388</v>
       </c>
       <c r="F32" s="1">
         <v>2</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N32" s="1">
-        <v>39.899410000000003</v>
+        <v>39.899740000000001</v>
       </c>
       <c r="O32" s="1">
-        <v>116.39521000000001</v>
+        <v>116.39579000000001</v>
       </c>
       <c r="P32" s="1">
-        <v>39.898007524999898</v>
+        <v>39.898337333599898</v>
       </c>
       <c r="Q32" s="1">
-        <v>116.388968202</v>
+        <v>116.389547984</v>
       </c>
       <c r="T32" s="1">
-        <v>3</v>
-      </c>
-      <c r="U32" s="1">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="U32">
+        <v>357</v>
       </c>
       <c r="V32" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -3948,56 +3995,38 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="1">
-        <v>14703864</v>
+        <v>69</v>
       </c>
       <c r="F33" s="1">
         <v>2</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" t="s">
-        <v>348</v>
+        <v>272</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="J33" t="s">
-        <v>350</v>
-      </c>
-      <c r="K33" t="s">
-        <v>349</v>
-      </c>
-      <c r="L33" t="s">
-        <v>345</v>
+        <v>70</v>
       </c>
       <c r="N33" s="1">
-        <v>39.895980000000002</v>
+        <v>39.899410000000003</v>
       </c>
       <c r="O33" s="1">
-        <v>116.392760999999</v>
+        <v>116.39521000000001</v>
       </c>
       <c r="P33" s="1">
-        <v>39.894578581700003</v>
+        <v>39.898007524999898</v>
       </c>
       <c r="Q33" s="1">
-        <v>116.386520577</v>
+        <v>116.388968202</v>
       </c>
       <c r="T33" s="1">
-        <v>141</v>
-      </c>
-      <c r="U33">
-        <v>486</v>
+        <v>3</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
       </c>
       <c r="V33" s="1">
         <f t="shared" si="0"/>
-        <v>627</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -4005,41 +4034,56 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="D34" s="1">
-        <v>2997307</v>
+        <v>14703864</v>
       </c>
       <c r="F34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>273</v>
+        <v>72</v>
+      </c>
+      <c r="H34" t="s">
+        <v>348</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>74</v>
+        <v>542</v>
+      </c>
+      <c r="J34" t="s">
+        <v>350</v>
+      </c>
+      <c r="K34" t="s">
+        <v>349</v>
+      </c>
+      <c r="L34" t="s">
+        <v>345</v>
       </c>
       <c r="N34" s="1">
-        <v>39.895769999999899</v>
+        <v>39.895980000000002</v>
       </c>
       <c r="O34" s="1">
-        <v>116.39445000000001</v>
+        <v>116.392760999999</v>
       </c>
       <c r="P34" s="1">
-        <v>39.894367942999899</v>
+        <v>39.894578581700003</v>
       </c>
       <c r="Q34" s="1">
-        <v>116.388208922999</v>
+        <v>116.386520577</v>
       </c>
       <c r="T34" s="1">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="U34">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="V34" s="1">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>627</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -4047,53 +4091,41 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D35" s="1">
-        <v>5171450</v>
+        <v>2997307</v>
       </c>
       <c r="F35" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="H35" t="s">
-        <v>403</v>
+        <v>273</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J35" t="s">
-        <v>76</v>
-      </c>
-      <c r="K35" t="s">
-        <v>399</v>
-      </c>
-      <c r="L35" t="s">
-        <v>345</v>
+        <v>74</v>
       </c>
       <c r="N35" s="1">
-        <v>39.89528</v>
+        <v>39.895769999999899</v>
       </c>
       <c r="O35" s="1">
-        <v>116.39343</v>
+        <v>116.39445000000001</v>
       </c>
       <c r="P35" s="1">
-        <v>39.893878342800001</v>
+        <v>39.894367942999899</v>
       </c>
       <c r="Q35" s="1">
-        <v>116.38718937900001</v>
+        <v>116.388208922999</v>
       </c>
       <c r="T35" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="U35">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="V35" s="1">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -4101,41 +4133,53 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D36" s="1">
-        <v>3193375</v>
+        <v>5171450</v>
       </c>
       <c r="F36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+      <c r="H36" t="s">
+        <v>403</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="J36" t="s">
+        <v>76</v>
+      </c>
+      <c r="K36" t="s">
+        <v>399</v>
+      </c>
+      <c r="L36" t="s">
+        <v>345</v>
       </c>
       <c r="N36" s="1">
-        <v>39.896059999999899</v>
+        <v>39.89528</v>
       </c>
       <c r="O36" s="1">
-        <v>116.39435</v>
+        <v>116.39343</v>
       </c>
       <c r="P36" s="1">
-        <v>39.894657964799897</v>
+        <v>39.893878342800001</v>
       </c>
       <c r="Q36" s="1">
-        <v>116.388108922</v>
+        <v>116.38718937900001</v>
       </c>
       <c r="T36" s="1">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="U36">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="V36" s="1">
         <f t="shared" si="0"/>
-        <v>127</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -4143,53 +4187,41 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D37" s="1">
-        <v>4178762</v>
+        <v>3193375</v>
       </c>
       <c r="F37" s="1">
         <v>4</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H37" t="s">
-        <v>387</v>
+        <v>275</v>
       </c>
       <c r="I37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N37" s="1">
+        <v>39.896059999999899</v>
+      </c>
+      <c r="O37" s="1">
+        <v>116.39435</v>
+      </c>
+      <c r="P37" s="1">
+        <v>39.894657964799897</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>116.388108922</v>
+      </c>
+      <c r="T37" s="1">
+        <v>46</v>
+      </c>
+      <c r="U37">
         <v>81</v>
-      </c>
-      <c r="J37" t="s">
-        <v>389</v>
-      </c>
-      <c r="K37" t="s">
-        <v>388</v>
-      </c>
-      <c r="L37" t="s">
-        <v>345</v>
-      </c>
-      <c r="N37" s="1">
-        <v>39.895589999999899</v>
-      </c>
-      <c r="O37" s="1">
-        <v>116.39388</v>
-      </c>
-      <c r="P37" s="1">
-        <v>39.894188156799899</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>116.387639159</v>
-      </c>
-      <c r="T37" s="1">
-        <v>12</v>
-      </c>
-      <c r="U37">
-        <v>6</v>
       </c>
       <c r="V37" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -4197,41 +4229,53 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>44848665</v>
-      </c>
-      <c r="F38" s="2">
+        <v>4178762</v>
+      </c>
+      <c r="F38" s="1">
         <v>4</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>83</v>
+      <c r="G38" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H38" t="s">
+        <v>387</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J38" t="s">
+        <v>389</v>
+      </c>
+      <c r="K38" t="s">
+        <v>388</v>
+      </c>
+      <c r="L38" t="s">
+        <v>345</v>
       </c>
       <c r="N38" s="1">
-        <v>39.894030000000001</v>
+        <v>39.895589999999899</v>
       </c>
       <c r="O38" s="1">
-        <v>116.38597</v>
+        <v>116.39388</v>
       </c>
       <c r="P38" s="1">
-        <v>39.892632451300003</v>
+        <v>39.894188156799899</v>
       </c>
       <c r="Q38" s="1">
-        <v>116.37973404100001</v>
+        <v>116.387639159</v>
       </c>
       <c r="T38" s="1">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V38" s="1">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -4239,35 +4283,41 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" s="1">
+        <v>82</v>
+      </c>
+      <c r="D39" s="1">
+        <v>44848665</v>
+      </c>
+      <c r="F39" s="2">
+        <v>4</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N39" s="1">
+        <v>39.894030000000001</v>
+      </c>
+      <c r="O39" s="1">
+        <v>116.38597</v>
+      </c>
+      <c r="P39" s="1">
+        <v>39.892632451300003</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>116.37973404100001</v>
+      </c>
+      <c r="T39" s="1">
+        <v>104</v>
+      </c>
+      <c r="U39">
         <v>1</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N39" s="1">
-        <v>39.895130000000002</v>
-      </c>
-      <c r="O39" s="1">
-        <v>116.38508</v>
-      </c>
-      <c r="P39" s="1">
-        <v>39.893733031499899</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>116.378844624</v>
-      </c>
-      <c r="T39" s="1">
-        <v>40</v>
       </c>
       <c r="V39" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -4275,41 +4325,35 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="1">
-        <v>2001760</v>
+        <v>84</v>
       </c>
       <c r="F40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>278</v>
+        <v>85</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N40" s="1">
-        <v>39.893500000000003</v>
+        <v>39.895130000000002</v>
       </c>
       <c r="O40" s="1">
-        <v>116.38507</v>
+        <v>116.38508</v>
       </c>
       <c r="P40" s="1">
-        <v>39.8921031138999</v>
+        <v>39.893733031499899</v>
       </c>
       <c r="Q40" s="1">
-        <v>116.37883484</v>
+        <v>116.378844624</v>
       </c>
       <c r="T40" s="1">
-        <v>14</v>
-      </c>
-      <c r="U40">
-        <v>583</v>
+        <v>40</v>
       </c>
       <c r="V40" s="1">
         <f t="shared" si="0"/>
-        <v>597</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -4317,41 +4361,41 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D41" s="1">
-        <v>512641</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1</v>
+        <v>2001760</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>90</v>
+        <v>278</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N41" s="1">
-        <v>39.894261139999898</v>
+        <v>39.893500000000003</v>
       </c>
       <c r="O41" s="1">
-        <v>116.38510648</v>
+        <v>116.38507</v>
       </c>
       <c r="P41" s="1">
-        <v>39.892864192300003</v>
+        <v>39.8921031138999</v>
       </c>
       <c r="Q41" s="1">
-        <v>116.378871192999</v>
+        <v>116.37883484</v>
       </c>
       <c r="T41" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="U41">
-        <v>976</v>
+        <v>583</v>
       </c>
       <c r="V41" s="1">
         <f t="shared" si="0"/>
-        <v>997</v>
+        <v>597</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -4359,41 +4403,41 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D42" s="1">
-        <v>4201901</v>
-      </c>
-      <c r="F42" s="1">
+        <v>512641</v>
+      </c>
+      <c r="F42" s="2">
         <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1">
-        <v>39.895180000000003</v>
+        <v>39.894261139999898</v>
       </c>
       <c r="O42" s="1">
-        <v>116.3856</v>
+        <v>116.38510648</v>
       </c>
       <c r="P42" s="1">
-        <v>39.893782656900001</v>
+        <v>39.892864192300003</v>
       </c>
       <c r="Q42" s="1">
-        <v>116.379364190999</v>
+        <v>116.378871192999</v>
       </c>
       <c r="T42" s="1">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="U42">
-        <v>1</v>
+        <v>976</v>
       </c>
       <c r="V42" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>997</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -4401,35 +4445,41 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4201901</v>
       </c>
       <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N43" s="1">
+        <v>39.895180000000003</v>
+      </c>
+      <c r="O43" s="1">
+        <v>116.3856</v>
+      </c>
+      <c r="P43" s="1">
+        <v>39.893782656900001</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>116.379364190999</v>
+      </c>
+      <c r="T43" s="1">
         <v>4</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="N43" s="1">
-        <v>39.894289999999899</v>
-      </c>
-      <c r="O43" s="1">
-        <v>116.38498</v>
-      </c>
-      <c r="P43" s="1">
-        <v>39.8928931429</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>116.378744815</v>
-      </c>
-      <c r="T43" s="1">
-        <v>7</v>
+      <c r="U43">
+        <v>1</v>
       </c>
       <c r="V43" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -4437,35 +4487,35 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F44" s="1">
         <v>4</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N44" s="1">
-        <v>39.894300000000001</v>
+        <v>39.894289999999899</v>
       </c>
       <c r="O44" s="1">
-        <v>116.38499</v>
+        <v>116.38498</v>
       </c>
       <c r="P44" s="1">
-        <v>39.892903135200001</v>
+        <v>39.8928931429</v>
       </c>
       <c r="Q44" s="1">
-        <v>116.378754805</v>
+        <v>116.378744815</v>
       </c>
       <c r="T44" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V44" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -4473,41 +4523,35 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" s="1">
-        <v>4275899</v>
+        <v>98</v>
       </c>
       <c r="F45" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>279</v>
+        <v>99</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N45" s="1">
-        <v>39.895310000000002</v>
+        <v>39.894300000000001</v>
       </c>
       <c r="O45" s="1">
-        <v>116.3865</v>
+        <v>116.38499</v>
       </c>
       <c r="P45" s="1">
-        <v>39.8939120313999</v>
+        <v>39.892903135200001</v>
       </c>
       <c r="Q45" s="1">
-        <v>116.380263466</v>
+        <v>116.378754805</v>
       </c>
       <c r="T45" s="1">
-        <v>6</v>
-      </c>
-      <c r="U45">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="V45" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -4515,35 +4559,41 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4275899</v>
       </c>
       <c r="F46" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N46" s="1">
-        <v>39.894269999999899</v>
+        <v>39.895310000000002</v>
       </c>
       <c r="O46" s="1">
-        <v>116.38544</v>
+        <v>116.3865</v>
       </c>
       <c r="P46" s="1">
-        <v>39.892872812199897</v>
+        <v>39.8939120313999</v>
       </c>
       <c r="Q46" s="1">
-        <v>116.379204437</v>
+        <v>116.380263466</v>
       </c>
       <c r="T46" s="1">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="U46">
+        <v>14</v>
       </c>
       <c r="V46" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -4551,35 +4601,35 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F47" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>106</v>
+        <v>280</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N47" s="1">
-        <v>39.892690000000002</v>
+        <v>39.894269999999899</v>
       </c>
       <c r="O47" s="1">
-        <v>116.390429999999</v>
+        <v>116.38544</v>
       </c>
       <c r="P47" s="1">
-        <v>39.8912898212999</v>
+        <v>39.892872812199897</v>
       </c>
       <c r="Q47" s="1">
-        <v>116.38419118</v>
+        <v>116.379204437</v>
       </c>
       <c r="T47" s="1">
-        <v>2062</v>
+        <v>8</v>
       </c>
       <c r="V47" s="1">
         <f t="shared" si="0"/>
-        <v>2062</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -4587,35 +4637,35 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F48" s="1">
         <v>6</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N48" s="1">
-        <v>39.895186746699899</v>
+        <v>39.892690000000002</v>
       </c>
       <c r="O48" s="1">
-        <v>116.388545718</v>
+        <v>116.390429999999</v>
       </c>
       <c r="P48" s="1">
-        <v>39.893787493600001</v>
+        <v>39.8912898212999</v>
       </c>
       <c r="Q48" s="1">
-        <v>116.38230774</v>
+        <v>116.38419118</v>
       </c>
       <c r="T48" s="1">
-        <v>767</v>
+        <v>2062</v>
       </c>
       <c r="V48" s="1">
         <f t="shared" si="0"/>
-        <v>767</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -4623,53 +4673,35 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D49" s="1">
-        <v>516180</v>
+        <v>108</v>
       </c>
       <c r="F49" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="H49" t="s">
-        <v>390</v>
+        <v>109</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J49" t="s">
-        <v>393</v>
-      </c>
-      <c r="K49" t="s">
-        <v>391</v>
-      </c>
-      <c r="L49" t="s">
-        <v>392</v>
+        <v>110</v>
       </c>
       <c r="N49" s="1">
-        <v>39.894779999999898</v>
+        <v>39.895186746699899</v>
       </c>
       <c r="O49" s="1">
-        <v>116.39221000000001</v>
+        <v>116.388545718</v>
       </c>
       <c r="P49" s="1">
-        <v>39.893378873700001</v>
+        <v>39.893787493600001</v>
       </c>
       <c r="Q49" s="1">
-        <v>116.385969985</v>
+        <v>116.38230774</v>
       </c>
       <c r="T49" s="1">
-        <v>141</v>
-      </c>
-      <c r="U49">
-        <v>517</v>
+        <v>767</v>
       </c>
       <c r="V49" s="1">
         <f t="shared" si="0"/>
-        <v>658</v>
+        <v>767</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -4677,41 +4709,53 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D50" s="1">
-        <v>3990118</v>
+        <v>516180</v>
       </c>
       <c r="F50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
+      </c>
+      <c r="H50" t="s">
+        <v>390</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="J50" t="s">
+        <v>393</v>
+      </c>
+      <c r="K50" t="s">
+        <v>391</v>
+      </c>
+      <c r="L50" t="s">
+        <v>392</v>
       </c>
       <c r="N50" s="1">
-        <v>39.8951899999999</v>
+        <v>39.894779999999898</v>
       </c>
       <c r="O50" s="1">
-        <v>116.38906</v>
+        <v>116.39221000000001</v>
       </c>
       <c r="P50" s="1">
-        <v>39.8937904484999</v>
+        <v>39.893378873700001</v>
       </c>
       <c r="Q50" s="1">
-        <v>116.382821687</v>
+        <v>116.385969985</v>
       </c>
       <c r="T50" s="1">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="U50">
-        <v>16</v>
+        <v>517</v>
       </c>
       <c r="V50" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>658</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -4719,41 +4763,41 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D51" s="1">
-        <v>11253538</v>
+        <v>3990118</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>116</v>
+        <v>282</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N51" s="1">
-        <v>39.895220000000002</v>
+        <v>39.8951899999999</v>
       </c>
       <c r="O51" s="1">
-        <v>116.38907</v>
+        <v>116.38906</v>
       </c>
       <c r="P51" s="1">
-        <v>39.893820441400003</v>
+        <v>39.8937904484999</v>
       </c>
       <c r="Q51" s="1">
-        <v>116.382831677</v>
+        <v>116.382821687</v>
       </c>
       <c r="T51" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="U51">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="V51" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -4761,41 +4805,41 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D52" s="1">
-        <v>2898766</v>
+        <v>11253538</v>
       </c>
       <c r="F52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>283</v>
+        <v>116</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N52" s="1">
-        <v>39.894359999999899</v>
+        <v>39.895220000000002</v>
       </c>
       <c r="O52" s="1">
-        <v>116.39134</v>
+        <v>116.38907</v>
       </c>
       <c r="P52" s="1">
-        <v>39.892959292800001</v>
+        <v>39.893820441400003</v>
       </c>
       <c r="Q52" s="1">
-        <v>116.385100472</v>
+        <v>116.382831677</v>
       </c>
       <c r="T52" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="U52">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="V52" s="1">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4803,53 +4847,41 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D53" s="1">
-        <v>2288272</v>
+        <v>2898766</v>
       </c>
       <c r="F53" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H53" t="s">
-        <v>396</v>
+        <v>283</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J53" t="s">
-        <v>397</v>
-      </c>
-      <c r="K53" t="s">
-        <v>365</v>
-      </c>
-      <c r="L53" t="s">
-        <v>366</v>
+        <v>119</v>
       </c>
       <c r="N53" s="1">
-        <v>39.893300000000004</v>
+        <v>39.894359999999899</v>
       </c>
       <c r="O53" s="1">
-        <v>116.38771</v>
+        <v>116.39134</v>
       </c>
       <c r="P53" s="1">
-        <v>39.891901341000001</v>
+        <v>39.892959292800001</v>
       </c>
       <c r="Q53" s="1">
-        <v>116.381472833</v>
+        <v>116.385100472</v>
       </c>
       <c r="T53" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="U53">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="V53" s="1">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -4857,35 +4889,53 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2288272</v>
       </c>
       <c r="F54" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
+      </c>
+      <c r="H54" t="s">
+        <v>396</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="J54" t="s">
+        <v>397</v>
+      </c>
+      <c r="K54" t="s">
+        <v>365</v>
+      </c>
+      <c r="L54" t="s">
+        <v>366</v>
       </c>
       <c r="N54" s="1">
-        <v>39.895240000000001</v>
+        <v>39.893300000000004</v>
       </c>
       <c r="O54" s="1">
-        <v>116.38856</v>
+        <v>116.38771</v>
       </c>
       <c r="P54" s="1">
-        <v>39.893840736000001</v>
+        <v>39.891901341000001</v>
       </c>
       <c r="Q54" s="1">
-        <v>116.38232200500001</v>
+        <v>116.381472833</v>
       </c>
       <c r="T54" s="1">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="U54">
+        <v>57</v>
       </c>
       <c r="V54" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -4893,53 +4943,35 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D55" s="1">
-        <v>2968930</v>
+        <v>122</v>
       </c>
       <c r="F55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H55" t="s">
-        <v>368</v>
+        <v>285</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J55" t="s">
-        <v>367</v>
-      </c>
-      <c r="K55" t="s">
-        <v>369</v>
-      </c>
-      <c r="L55" t="s">
-        <v>345</v>
+        <v>123</v>
       </c>
       <c r="N55" s="1">
-        <v>39.894880000000001</v>
+        <v>39.895240000000001</v>
       </c>
       <c r="O55" s="1">
-        <v>116.392349999999</v>
+        <v>116.38856</v>
       </c>
       <c r="P55" s="1">
-        <v>39.8934788076999</v>
+        <v>39.893840736000001</v>
       </c>
       <c r="Q55" s="1">
-        <v>116.386109906</v>
+        <v>116.38232200500001</v>
       </c>
       <c r="T55" s="1">
-        <v>49</v>
-      </c>
-      <c r="U55">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V55" s="1">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -4947,35 +4979,53 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2968930</v>
       </c>
       <c r="F56" s="1">
         <v>2</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="H56" t="s">
+        <v>368</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="J56" t="s">
+        <v>367</v>
+      </c>
+      <c r="K56" t="s">
+        <v>369</v>
+      </c>
+      <c r="L56" t="s">
+        <v>345</v>
       </c>
       <c r="N56" s="1">
-        <v>39.893839999999898</v>
+        <v>39.894880000000001</v>
       </c>
       <c r="O56" s="1">
-        <v>116.3904</v>
+        <v>116.392349999999</v>
       </c>
       <c r="P56" s="1">
-        <v>39.892439783500002</v>
+        <v>39.8934788076999</v>
       </c>
       <c r="Q56" s="1">
-        <v>116.38416105</v>
+        <v>116.386109906</v>
       </c>
       <c r="T56" s="1">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="U56">
+        <v>7</v>
       </c>
       <c r="V56" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -4983,32 +5033,35 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F57" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="N57" s="1">
-        <v>39.893889999999899</v>
+        <v>39.893839999999898</v>
       </c>
       <c r="O57" s="1">
-        <v>116.387919999999</v>
+        <v>116.3904</v>
       </c>
       <c r="P57" s="1">
-        <v>39.892491183700002</v>
+        <v>39.892439783500002</v>
       </c>
       <c r="Q57" s="1">
-        <v>116.381682611</v>
+        <v>116.38416105</v>
       </c>
       <c r="T57" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V57" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -5016,44 +5069,32 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D58" s="1">
-        <v>11556074</v>
+        <v>128</v>
       </c>
       <c r="F58" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>130</v>
+        <v>288</v>
       </c>
       <c r="N58" s="1">
-        <v>39.893974</v>
+        <v>39.893889999999899</v>
       </c>
       <c r="O58" s="1">
-        <v>116.388977</v>
+        <v>116.387919999999</v>
       </c>
       <c r="P58" s="1">
-        <v>39.892574551899898</v>
+        <v>39.892491183700002</v>
       </c>
       <c r="Q58" s="1">
-        <v>116.382738895</v>
+        <v>116.381682611</v>
       </c>
       <c r="T58" s="1">
-        <v>18</v>
-      </c>
-      <c r="U58">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="V58" s="1">
-        <f t="shared" ref="V58:V114" si="1">T58+U58</f>
-        <v>76</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -5061,53 +5102,44 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="D59" s="1">
-        <v>2287774</v>
+        <v>11556074</v>
       </c>
       <c r="F59" s="1">
         <v>4</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="H59" t="s">
-        <v>364</v>
+        <v>289</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J59" t="s">
-        <v>367</v>
-      </c>
-      <c r="K59" t="s">
-        <v>365</v>
-      </c>
-      <c r="L59" t="s">
-        <v>366</v>
+        <v>130</v>
       </c>
       <c r="N59" s="1">
-        <v>39.894880000000001</v>
+        <v>39.893974</v>
       </c>
       <c r="O59" s="1">
-        <v>116.392349999999</v>
+        <v>116.388977</v>
       </c>
       <c r="P59" s="1">
-        <v>39.8934788076999</v>
+        <v>39.892574551899898</v>
       </c>
       <c r="Q59" s="1">
-        <v>116.386109906</v>
+        <v>116.382738895</v>
       </c>
       <c r="T59" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="U59">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="V59" s="1">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" ref="V59:V118" si="1">T59+U59</f>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -5115,41 +5147,53 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D60" s="1">
-        <v>4096526</v>
+        <v>2287774</v>
       </c>
       <c r="F60" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
+      </c>
+      <c r="H60" t="s">
+        <v>364</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+      <c r="J60" t="s">
+        <v>367</v>
+      </c>
+      <c r="K60" t="s">
+        <v>365</v>
+      </c>
+      <c r="L60" t="s">
+        <v>366</v>
       </c>
       <c r="N60" s="1">
-        <v>39.893155649999898</v>
+        <v>39.894880000000001</v>
       </c>
       <c r="O60" s="1">
-        <v>116.38869765</v>
+        <v>116.392349999999</v>
       </c>
       <c r="P60" s="1">
-        <v>39.8917564013</v>
+        <v>39.8934788076999</v>
       </c>
       <c r="Q60" s="1">
-        <v>116.38245983</v>
+        <v>116.386109906</v>
       </c>
       <c r="T60" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V60" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -5157,41 +5201,43 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D61" s="1">
-        <v>2725756</v>
+        <v>4096526</v>
       </c>
       <c r="F61" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N61" s="1">
-        <v>39.894269999999899</v>
+        <v>39.893155649999898</v>
       </c>
       <c r="O61" s="1">
-        <v>116.39096000000001</v>
+        <v>116.38869765</v>
       </c>
       <c r="P61" s="1">
-        <v>39.892869481300004</v>
-      </c>
-      <c r="Q61" s="1">
-        <v>116.384720685</v>
-      </c>
-      <c r="T61" s="1">
-        <v>8</v>
+        <v>39.8917564013</v>
+      </c>
+      <c r="Q61">
+        <v>116.38245983</v>
+      </c>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61">
+        <v>6</v>
       </c>
       <c r="U61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V61" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -5199,35 +5245,43 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2725756</v>
       </c>
       <c r="F62" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N62" s="1">
-        <v>39.8934479999999</v>
+        <v>39.894269999999899</v>
       </c>
       <c r="O62" s="1">
-        <v>116.38908000000001</v>
+        <v>116.39096000000001</v>
       </c>
       <c r="P62" s="1">
-        <v>39.8920485173999</v>
-      </c>
-      <c r="Q62" s="1">
-        <v>116.382841896</v>
-      </c>
-      <c r="T62" s="1">
-        <v>5</v>
+        <v>39.892869481300004</v>
+      </c>
+      <c r="Q62">
+        <v>116.384720685</v>
+      </c>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62">
+        <v>8</v>
+      </c>
+      <c r="U62">
+        <v>4</v>
       </c>
       <c r="V62" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -5235,53 +5289,37 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D63" s="1">
-        <v>5211031</v>
+        <v>138</v>
       </c>
       <c r="F63" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H63" t="s">
-        <v>356</v>
+        <v>293</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J63" t="s">
-        <v>358</v>
-      </c>
-      <c r="K63" t="s">
-        <v>357</v>
-      </c>
-      <c r="L63" t="s">
-        <v>345</v>
+        <v>139</v>
       </c>
       <c r="N63" s="1">
-        <v>39.894877352999899</v>
+        <v>39.8934479999999</v>
       </c>
       <c r="O63" s="1">
-        <v>116.394005818</v>
+        <v>116.38908000000001</v>
       </c>
       <c r="P63" s="1">
-        <v>39.893475495899899</v>
-      </c>
-      <c r="Q63" s="1">
-        <v>116.387765019</v>
-      </c>
-      <c r="T63" s="1">
-        <v>43</v>
-      </c>
-      <c r="U63">
-        <v>117</v>
+        <v>39.8920485173999</v>
+      </c>
+      <c r="Q63">
+        <v>116.382841896</v>
+      </c>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63">
+        <v>5</v>
       </c>
       <c r="V63" s="1">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -5289,53 +5327,37 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D64" s="1">
-        <v>2199664</v>
-      </c>
-      <c r="F64" s="1">
+        <v>552</v>
+      </c>
+      <c r="F64">
         <v>2</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H64" t="s">
-        <v>384</v>
+      <c r="G64" t="s">
+        <v>553</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J64" t="s">
-        <v>386</v>
-      </c>
-      <c r="K64" t="s">
-        <v>385</v>
-      </c>
-      <c r="L64" t="s">
-        <v>345</v>
+        <v>554</v>
       </c>
       <c r="N64" s="1">
-        <v>39.895150000000001</v>
+        <v>39.8948719999999</v>
       </c>
       <c r="O64" s="1">
-        <v>116.39291</v>
+        <v>116.392741</v>
       </c>
       <c r="P64" s="1">
-        <v>39.8937485577</v>
-      </c>
-      <c r="Q64" s="1">
-        <v>116.386669617</v>
-      </c>
-      <c r="T64" s="1">
-        <v>5</v>
-      </c>
-      <c r="U64">
-        <v>64</v>
-      </c>
-      <c r="V64" s="1">
-        <f t="shared" si="1"/>
-        <v>69</v>
+        <v>39.893470640799897</v>
+      </c>
+      <c r="Q64">
+        <v>116.386500727</v>
+      </c>
+      <c r="R64">
+        <v>39.902285999999997</v>
+      </c>
+      <c r="S64">
+        <v>116.40188000000001</v>
+      </c>
+      <c r="T64">
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -5343,53 +5365,55 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D65" s="1">
-        <v>4016185</v>
+        <v>5211031</v>
       </c>
       <c r="F65" s="1">
         <v>2</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H65" t="s">
-        <v>398</v>
+        <v>356</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J65" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="K65" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
       <c r="L65" t="s">
         <v>345</v>
       </c>
       <c r="N65" s="1">
-        <v>39.894770000000001</v>
+        <v>39.894877352999899</v>
       </c>
       <c r="O65" s="1">
-        <v>116.39446</v>
+        <v>116.394005818</v>
       </c>
       <c r="P65" s="1">
-        <v>39.893367985399898</v>
-      </c>
-      <c r="Q65" s="1">
-        <v>116.38821904700001</v>
-      </c>
-      <c r="T65" s="1">
-        <v>51</v>
+        <v>39.893475495899899</v>
+      </c>
+      <c r="Q65">
+        <v>116.387765019</v>
+      </c>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65">
+        <v>43</v>
       </c>
       <c r="U65">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="V65" s="1">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -5397,44 +5421,55 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D66" s="1">
-        <v>2227558</v>
+        <v>2199664</v>
       </c>
       <c r="F66" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
+      </c>
+      <c r="H66" t="s">
+        <v>384</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+      <c r="J66" t="s">
+        <v>386</v>
+      </c>
+      <c r="K66" t="s">
+        <v>385</v>
+      </c>
+      <c r="L66" t="s">
+        <v>345</v>
       </c>
       <c r="N66" s="1">
-        <v>39.892389999999899</v>
+        <v>39.895150000000001</v>
       </c>
       <c r="O66" s="1">
-        <v>116.39214</v>
+        <v>116.39291</v>
       </c>
       <c r="P66" s="1">
-        <v>39.890989015300001</v>
-      </c>
-      <c r="Q66" s="1">
-        <v>116.385900322</v>
-      </c>
-      <c r="T66" s="1">
-        <v>105</v>
+        <v>39.8937485577</v>
+      </c>
+      <c r="Q66">
+        <v>116.386669617</v>
+      </c>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66">
+        <v>5</v>
       </c>
       <c r="U66">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="V66" s="1">
         <f t="shared" si="1"/>
-        <v>215</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -5442,52 +5477,36 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D67" s="1">
-        <v>5394067</v>
-      </c>
-      <c r="F67" s="1">
+        <v>555</v>
+      </c>
+      <c r="F67">
         <v>2</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H67" t="s">
-        <v>354</v>
+      <c r="G67" t="s">
+        <v>556</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J67" t="s">
-        <v>149</v>
-      </c>
-      <c r="K67" t="s">
-        <v>355</v>
-      </c>
-      <c r="L67" t="s">
-        <v>345</v>
+        <v>557</v>
       </c>
       <c r="N67" s="1">
-        <v>39.895400000000002</v>
+        <v>39.894979999999897</v>
       </c>
       <c r="O67" s="1">
-        <v>116.39400000000001</v>
+        <v>116.39328</v>
       </c>
       <c r="P67" s="1">
-        <v>39.893998121099898</v>
-      </c>
-      <c r="Q67" s="1">
-        <v>116.387759137</v>
-      </c>
-      <c r="T67" s="1">
-        <v>10</v>
-      </c>
-      <c r="U67">
-        <v>22</v>
-      </c>
-      <c r="V67" s="1">
-        <f t="shared" si="1"/>
+        <v>39.893578415699899</v>
+      </c>
+      <c r="Q67">
+        <v>116.387039478999</v>
+      </c>
+      <c r="R67">
+        <v>39.902963999999997</v>
+      </c>
+      <c r="S67">
+        <v>116.402338</v>
+      </c>
+      <c r="T67">
         <v>32</v>
       </c>
     </row>
@@ -5496,56 +5515,55 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D68" s="1">
-        <v>2672239</v>
+        <v>4016185</v>
       </c>
       <c r="F68" s="1">
         <v>2</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H68" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="J68" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="K68" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="L68" t="s">
         <v>345</v>
       </c>
-      <c r="M68" s="2">
-        <v>72</v>
-      </c>
       <c r="N68" s="1">
-        <v>39.895240000000001</v>
+        <v>39.894770000000001</v>
       </c>
       <c r="O68" s="1">
-        <v>116.39324000000001</v>
+        <v>116.39446</v>
       </c>
       <c r="P68" s="1">
-        <v>39.893838419700003</v>
-      </c>
-      <c r="Q68" s="1">
-        <v>116.386999463</v>
-      </c>
-      <c r="T68" s="1">
-        <v>5</v>
+        <v>39.893367985399898</v>
+      </c>
+      <c r="Q68">
+        <v>116.38821904700001</v>
+      </c>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68">
+        <v>51</v>
       </c>
       <c r="U68">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="V68" s="1">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -5553,53 +5571,46 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="D69" s="1">
-        <v>5146143</v>
+        <v>2227558</v>
       </c>
       <c r="F69" s="1">
         <v>4</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J69" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="K69" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="L69" s="8" t="s">
-        <v>345</v>
+        <v>147</v>
       </c>
       <c r="N69" s="1">
-        <v>39.894989000000002</v>
+        <v>39.892389999999899</v>
       </c>
       <c r="O69" s="1">
-        <v>116.393013</v>
+        <v>116.39214</v>
       </c>
       <c r="P69" s="1">
-        <v>39.893587522799898</v>
-      </c>
-      <c r="Q69" s="1">
-        <v>116.386772592</v>
-      </c>
-      <c r="T69" s="1">
-        <v>162</v>
-      </c>
-      <c r="U69" s="8">
-        <v>59</v>
+        <v>39.890989015300001</v>
+      </c>
+      <c r="Q69">
+        <v>116.385900322</v>
+      </c>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69">
+        <v>105</v>
+      </c>
+      <c r="U69">
+        <v>110</v>
       </c>
       <c r="V69" s="1">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:22">
@@ -5607,41 +5618,55 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D70" s="1">
-        <v>5342143</v>
+        <v>5394067</v>
       </c>
       <c r="F70" s="1">
         <v>2</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
+      </c>
+      <c r="H70" t="s">
+        <v>354</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
+      </c>
+      <c r="J70" t="s">
+        <v>149</v>
+      </c>
+      <c r="K70" t="s">
+        <v>355</v>
+      </c>
+      <c r="L70" t="s">
+        <v>345</v>
       </c>
       <c r="N70" s="1">
-        <v>39.894393112000003</v>
+        <v>39.895400000000002</v>
       </c>
       <c r="O70" s="1">
-        <v>116.39453236</v>
+        <v>116.39400000000001</v>
       </c>
       <c r="P70" s="1">
-        <v>39.892991089699898</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>116.38829142900001</v>
-      </c>
-      <c r="T70" s="1">
-        <v>63</v>
+        <v>39.893998121099898</v>
+      </c>
+      <c r="Q70">
+        <v>116.387759137</v>
+      </c>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70">
+        <v>10</v>
       </c>
       <c r="U70">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="V70" s="1">
         <f t="shared" si="1"/>
-        <v>122</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:22">
@@ -5649,32 +5674,56 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2672239</v>
       </c>
       <c r="F71" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>157</v>
+        <v>299</v>
+      </c>
+      <c r="H71" t="s">
+        <v>380</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J71" t="s">
+        <v>381</v>
+      </c>
+      <c r="K71" t="s">
+        <v>355</v>
+      </c>
+      <c r="L71" t="s">
+        <v>345</v>
+      </c>
+      <c r="M71" s="2">
+        <v>72</v>
       </c>
       <c r="N71" s="1">
-        <v>39.894219999999898</v>
+        <v>39.895240000000001</v>
       </c>
       <c r="O71" s="1">
-        <v>116.39454000000001</v>
+        <v>116.39324000000001</v>
       </c>
       <c r="P71" s="1">
-        <v>39.892817983100002</v>
+        <v>39.893838419700003</v>
       </c>
       <c r="Q71" s="1">
-        <v>116.388299088</v>
+        <v>116.386999463</v>
       </c>
       <c r="T71" s="1">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="U71">
+        <v>59</v>
       </c>
       <c r="V71" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -5682,41 +5731,53 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D72" s="1">
-        <v>3621970</v>
+        <v>5146143</v>
       </c>
       <c r="F72" s="1">
         <v>4</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>345</v>
       </c>
       <c r="N72" s="1">
-        <v>39.8929499999999</v>
+        <v>39.894989000000002</v>
       </c>
       <c r="O72" s="1">
-        <v>116.39363</v>
+        <v>116.393013</v>
       </c>
       <c r="P72" s="1">
-        <v>39.891548372800003</v>
+        <v>39.893587522799898</v>
       </c>
       <c r="Q72" s="1">
-        <v>116.387389594</v>
+        <v>116.386772592</v>
       </c>
       <c r="T72" s="1">
-        <v>3</v>
-      </c>
-      <c r="U72">
-        <v>4</v>
+        <v>162</v>
+      </c>
+      <c r="U72" s="8">
+        <v>59</v>
       </c>
       <c r="V72" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -5724,41 +5785,41 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D73" s="1">
-        <v>580316</v>
+        <v>5342143</v>
       </c>
       <c r="F73" s="1">
         <v>2</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="N73" s="1">
-        <v>39.890430000000002</v>
+        <v>39.894393112000003</v>
       </c>
       <c r="O73" s="1">
-        <v>116.38473</v>
+        <v>116.39453236</v>
       </c>
       <c r="P73" s="1">
-        <v>39.889033506099899</v>
+        <v>39.892991089699898</v>
       </c>
       <c r="Q73" s="1">
-        <v>116.378495517</v>
+        <v>116.38829142900001</v>
       </c>
       <c r="T73" s="1">
-        <v>225</v>
+        <v>63</v>
       </c>
       <c r="U73">
-        <v>924</v>
+        <v>59</v>
       </c>
       <c r="V73" s="1">
         <f t="shared" si="1"/>
-        <v>1149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -5766,41 +5827,32 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D74" s="1">
-        <v>9007979</v>
+        <v>156</v>
       </c>
       <c r="F74" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="N74" s="1">
-        <v>39.892069999999897</v>
+        <v>39.894219999999898</v>
       </c>
       <c r="O74" s="1">
-        <v>116.38706000000001</v>
+        <v>116.39454000000001</v>
       </c>
       <c r="P74" s="1">
-        <v>39.890671811600001</v>
+        <v>39.892817983100002</v>
       </c>
       <c r="Q74" s="1">
-        <v>116.380823459</v>
+        <v>116.388299088</v>
       </c>
       <c r="T74" s="1">
-        <v>411</v>
-      </c>
-      <c r="U74">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V74" s="1">
         <f t="shared" si="1"/>
-        <v>415</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -5808,41 +5860,41 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D75" s="1">
-        <v>3457540</v>
+        <v>3621970</v>
       </c>
       <c r="F75" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="N75" s="1">
-        <v>39.891739999999899</v>
+        <v>39.8929499999999</v>
       </c>
       <c r="O75" s="1">
-        <v>116.38561</v>
+        <v>116.39363</v>
       </c>
       <c r="P75" s="1">
-        <v>39.890342809000003</v>
+        <v>39.891548372800003</v>
       </c>
       <c r="Q75" s="1">
-        <v>116.379374621</v>
+        <v>116.387389594</v>
       </c>
       <c r="T75" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="V75" s="1">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -5850,35 +5902,41 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
+      </c>
+      <c r="D76" s="1">
+        <v>580316</v>
       </c>
       <c r="F76" s="1">
         <v>2</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="N76" s="1">
-        <v>39.891559600000001</v>
+        <v>39.890430000000002</v>
       </c>
       <c r="O76" s="1">
-        <v>116.38494110000001</v>
+        <v>116.38473</v>
       </c>
       <c r="P76" s="1">
-        <v>39.890162898</v>
+        <v>39.889033506099899</v>
       </c>
       <c r="Q76" s="1">
-        <v>116.378706295</v>
+        <v>116.378495517</v>
       </c>
       <c r="T76" s="1">
-        <v>13</v>
+        <v>225</v>
+      </c>
+      <c r="U76">
+        <v>924</v>
       </c>
       <c r="V76" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="77" spans="1:22">
@@ -5886,35 +5944,41 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
+      </c>
+      <c r="D77" s="1">
+        <v>9007979</v>
       </c>
       <c r="F77" s="1">
         <v>4</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>170</v>
+        <v>304</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="N77" s="1">
-        <v>39.8908233639999</v>
+        <v>39.892069999999897</v>
       </c>
       <c r="O77" s="1">
-        <v>116.38493346999999</v>
+        <v>116.38706000000001</v>
       </c>
       <c r="P77" s="1">
-        <v>39.889426702000002</v>
+        <v>39.890671811600001</v>
       </c>
       <c r="Q77" s="1">
-        <v>116.378698765</v>
+        <v>116.380823459</v>
       </c>
       <c r="T77" s="1">
-        <v>56</v>
+        <v>411</v>
+      </c>
+      <c r="U77">
+        <v>4</v>
       </c>
       <c r="V77" s="1">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>415</v>
       </c>
     </row>
     <row r="78" spans="1:22">
@@ -5922,41 +5986,41 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D78" s="1">
-        <v>4717729</v>
+        <v>3457540</v>
       </c>
       <c r="F78" s="1">
         <v>2</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="N78" s="1">
-        <v>39.891193000000001</v>
+        <v>39.891739999999899</v>
       </c>
       <c r="O78" s="1">
-        <v>116.386990999999</v>
+        <v>116.38561</v>
       </c>
       <c r="P78" s="1">
-        <v>39.889794897400002</v>
+        <v>39.890342809000003</v>
       </c>
       <c r="Q78" s="1">
-        <v>116.380754620999</v>
+        <v>116.379374621</v>
       </c>
       <c r="T78" s="1">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="U78">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="V78" s="1">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:22">
@@ -5964,41 +6028,35 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D79" s="1">
-        <v>2722456</v>
+        <v>167</v>
       </c>
       <c r="F79" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="N79" s="1">
-        <v>39.891219999999898</v>
+        <v>39.891559600000001</v>
       </c>
       <c r="O79" s="1">
-        <v>116.38641</v>
+        <v>116.38494110000001</v>
       </c>
       <c r="P79" s="1">
-        <v>39.889822281299899</v>
+        <v>39.890162898</v>
       </c>
       <c r="Q79" s="1">
-        <v>116.380174056</v>
+        <v>116.378706295</v>
       </c>
       <c r="T79" s="1">
-        <v>15</v>
-      </c>
-      <c r="U79">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="V79" s="1">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -6006,35 +6064,35 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F80" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="N80" s="1">
-        <v>39.890059999999899</v>
+        <v>39.8908233639999</v>
       </c>
       <c r="O80" s="1">
-        <v>116.38687</v>
+        <v>116.38493346999999</v>
       </c>
       <c r="P80" s="1">
-        <v>39.888662029599899</v>
+        <v>39.889426702000002</v>
       </c>
       <c r="Q80" s="1">
-        <v>116.380633855</v>
+        <v>116.378698765</v>
       </c>
       <c r="T80" s="1">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="V80" s="1">
         <f t="shared" si="1"/>
-        <v>146</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:22">
@@ -6042,41 +6100,41 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D81" s="1">
-        <v>2288095</v>
+        <v>4717729</v>
       </c>
       <c r="F81" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="N81" s="1">
-        <v>39.892150000000001</v>
+        <v>39.891193000000001</v>
       </c>
       <c r="O81" s="1">
-        <v>116.38697000000001</v>
+        <v>116.386990999999</v>
       </c>
       <c r="P81" s="1">
-        <v>39.890751866400002</v>
+        <v>39.889794897400002</v>
       </c>
       <c r="Q81" s="1">
-        <v>116.380733515</v>
+        <v>116.380754620999</v>
       </c>
       <c r="T81" s="1">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="U81">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="V81" s="1">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:22">
@@ -6084,38 +6142,41 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2722456</v>
       </c>
       <c r="F82" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="N82" s="1">
-        <v>39.889690000000002</v>
+        <v>39.891219999999898</v>
       </c>
       <c r="O82" s="1">
-        <v>116.38628</v>
+        <v>116.38641</v>
       </c>
       <c r="P82" s="1">
-        <v>39.888292441200001</v>
+        <v>39.889822281299899</v>
       </c>
       <c r="Q82" s="1">
-        <v>116.380044351</v>
+        <v>116.380174056</v>
       </c>
       <c r="T82" s="1">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="U82">
+        <v>89</v>
       </c>
       <c r="V82" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:22">
@@ -6123,41 +6184,35 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D83" s="1">
-        <v>508439</v>
+        <v>176</v>
       </c>
       <c r="F83" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>310</v>
+        <v>177</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="N83" s="1">
-        <v>39.8896599999999</v>
+        <v>39.890059999999899</v>
       </c>
       <c r="O83" s="1">
-        <v>116.3875</v>
+        <v>116.38687</v>
       </c>
       <c r="P83" s="1">
-        <v>39.888261642700002</v>
+        <v>39.888662029599899</v>
       </c>
       <c r="Q83" s="1">
-        <v>116.38126344600001</v>
+        <v>116.380633855</v>
       </c>
       <c r="T83" s="1">
-        <v>458</v>
-      </c>
-      <c r="U83">
-        <v>2322</v>
+        <v>146</v>
       </c>
       <c r="V83" s="1">
         <f t="shared" si="1"/>
-        <v>2780</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:22">
@@ -6165,41 +6220,41 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D84" s="1">
-        <v>1769026</v>
+        <v>2288095</v>
       </c>
       <c r="F84" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="N84" s="1">
-        <v>39.889879999999899</v>
+        <v>39.892150000000001</v>
       </c>
       <c r="O84" s="1">
-        <v>116.387649999999</v>
+        <v>116.38697000000001</v>
       </c>
       <c r="P84" s="1">
-        <v>39.888481538100002</v>
+        <v>39.890751866400002</v>
       </c>
       <c r="Q84" s="1">
-        <v>116.381413311</v>
+        <v>116.380733515</v>
       </c>
       <c r="T84" s="1">
-        <v>533</v>
+        <v>39</v>
       </c>
       <c r="U84">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="V84" s="1">
         <f t="shared" si="1"/>
-        <v>717</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:22">
@@ -6207,35 +6262,38 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="F85" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>189</v>
+        <v>311</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="N85" s="1">
-        <v>39.891441423000003</v>
+        <v>39.889690000000002</v>
       </c>
       <c r="O85" s="1">
-        <v>116.38988981</v>
+        <v>116.38628</v>
       </c>
       <c r="P85" s="1">
-        <v>39.890041586199899</v>
+        <v>39.888292441200001</v>
       </c>
       <c r="Q85" s="1">
-        <v>116.38365146300001</v>
+        <v>116.380044351</v>
       </c>
       <c r="T85" s="1">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="V85" s="1">
         <f t="shared" si="1"/>
-        <v>246</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:22">
@@ -6243,35 +6301,41 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
+      </c>
+      <c r="D86" s="1">
+        <v>508439</v>
       </c>
       <c r="F86" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>192</v>
+        <v>310</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="N86" s="1">
-        <v>39.891080000000002</v>
+        <v>39.8896599999999</v>
       </c>
       <c r="O86" s="1">
-        <v>116.38907</v>
+        <v>116.3875</v>
       </c>
       <c r="P86" s="1">
-        <v>39.889680633300003</v>
+        <v>39.888261642700002</v>
       </c>
       <c r="Q86" s="1">
-        <v>116.382832204</v>
+        <v>116.38126344600001</v>
       </c>
       <c r="T86" s="1">
-        <v>5</v>
+        <v>458</v>
+      </c>
+      <c r="U86">
+        <v>2322</v>
       </c>
       <c r="V86" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="87" spans="1:22">
@@ -6279,41 +6343,41 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D87" s="1">
-        <v>6421791</v>
+        <v>1769026</v>
       </c>
       <c r="F87" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="N87" s="1">
-        <v>39.890098000000002</v>
+        <v>39.889879999999899</v>
       </c>
       <c r="O87" s="1">
-        <v>116.387930999999</v>
+        <v>116.387649999999</v>
       </c>
       <c r="P87" s="1">
-        <v>39.888699353500002</v>
+        <v>39.888481538100002</v>
       </c>
       <c r="Q87" s="1">
-        <v>116.381694087</v>
+        <v>116.381413311</v>
       </c>
       <c r="T87" s="1">
-        <v>20</v>
+        <v>533</v>
       </c>
       <c r="U87">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="V87" s="1">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>717</v>
       </c>
     </row>
     <row r="88" spans="1:22">
@@ -6321,41 +6385,35 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D88" s="1">
-        <v>3619450</v>
+        <v>188</v>
       </c>
       <c r="F88" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>314</v>
+        <v>189</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N88" s="1">
-        <v>39.892299999999899</v>
+        <v>39.891441423000003</v>
       </c>
       <c r="O88" s="1">
-        <v>116.39093</v>
+        <v>116.38988981</v>
       </c>
       <c r="P88" s="1">
-        <v>39.890899587299899</v>
+        <v>39.890041586199899</v>
       </c>
       <c r="Q88" s="1">
-        <v>116.384690952</v>
+        <v>116.38365146300001</v>
       </c>
       <c r="T88" s="1">
-        <v>3</v>
-      </c>
-      <c r="U88">
-        <v>11</v>
+        <v>246</v>
       </c>
       <c r="V88" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:22">
@@ -6363,44 +6421,35 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D89" s="1">
-        <v>508632</v>
+        <v>191</v>
       </c>
       <c r="F89" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>315</v>
+        <v>192</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="N89" s="1">
-        <v>39.89067</v>
+        <v>39.891080000000002</v>
       </c>
       <c r="O89" s="1">
-        <v>116.39478</v>
+        <v>116.38907</v>
       </c>
       <c r="P89" s="1">
-        <v>39.889268066600003</v>
+        <v>39.889680633300003</v>
       </c>
       <c r="Q89" s="1">
-        <v>116.388539456999</v>
+        <v>116.382832204</v>
       </c>
       <c r="T89" s="1">
-        <v>931</v>
-      </c>
-      <c r="U89">
-        <v>2095</v>
+        <v>5</v>
       </c>
       <c r="V89" s="1">
         <f t="shared" si="1"/>
-        <v>3026</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:22">
@@ -6408,41 +6457,41 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D90" s="1">
-        <v>3158185</v>
+        <v>6421791</v>
       </c>
       <c r="F90" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="N90" s="1">
-        <v>39.890270000000001</v>
+        <v>39.890098000000002</v>
       </c>
       <c r="O90" s="1">
-        <v>116.39221000000001</v>
+        <v>116.387930999999</v>
       </c>
       <c r="P90" s="1">
-        <v>39.888869083300001</v>
+        <v>39.888699353500002</v>
       </c>
       <c r="Q90" s="1">
-        <v>116.385970559</v>
+        <v>116.381694087</v>
       </c>
       <c r="T90" s="1">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="U90">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="V90" s="1">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:22">
@@ -6450,41 +6499,41 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D91" s="1">
-        <v>5428331</v>
+        <v>3619450</v>
       </c>
       <c r="F91" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="N91" s="1">
-        <v>39.890540000000001</v>
+        <v>39.892299999999899</v>
       </c>
       <c r="O91" s="1">
-        <v>116.3934</v>
+        <v>116.39093</v>
       </c>
       <c r="P91" s="1">
-        <v>39.8891385744</v>
+        <v>39.890899587299899</v>
       </c>
       <c r="Q91" s="1">
-        <v>116.387159995</v>
+        <v>116.384690952</v>
       </c>
       <c r="T91" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U91">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="V91" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:22">
@@ -6492,32 +6541,44 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D92" s="1">
+        <v>508632</v>
       </c>
       <c r="F92" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>206</v>
+        <v>315</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="N92" s="1">
-        <v>39.891199999999898</v>
+        <v>39.89067</v>
       </c>
       <c r="O92" s="1">
-        <v>116.39503000000001</v>
+        <v>116.39478</v>
       </c>
       <c r="P92" s="1">
-        <v>39.8897979593999</v>
+        <v>39.889268066600003</v>
       </c>
       <c r="Q92" s="1">
-        <v>116.38878930600001</v>
+        <v>116.388539456999</v>
       </c>
       <c r="T92" s="1">
-        <v>60</v>
+        <v>931</v>
+      </c>
+      <c r="U92">
+        <v>2095</v>
       </c>
       <c r="V92" s="1">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="93" spans="1:22">
@@ -6525,41 +6586,41 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D93" s="1">
-        <v>4128215</v>
+        <v>3158185</v>
       </c>
       <c r="F93" s="1">
         <v>4</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="N93" s="1">
-        <v>39.890349999999899</v>
+        <v>39.890270000000001</v>
       </c>
       <c r="O93" s="1">
-        <v>116.39261</v>
+        <v>116.39221000000001</v>
       </c>
       <c r="P93" s="1">
-        <v>39.8889489062</v>
+        <v>39.888869083300001</v>
       </c>
       <c r="Q93" s="1">
-        <v>116.386370363</v>
+        <v>116.385970559</v>
       </c>
       <c r="T93" s="1">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="U93">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="V93" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" spans="1:22">
@@ -6567,41 +6628,41 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D94" s="1">
-        <v>5643123</v>
+        <v>5428331</v>
       </c>
       <c r="F94" s="1">
         <v>2</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>543</v>
+        <v>204</v>
       </c>
       <c r="N94" s="1">
-        <v>39.899794132731003</v>
+        <v>39.890540000000001</v>
       </c>
       <c r="O94" s="1">
-        <v>116.390361785889</v>
+        <v>116.3934</v>
       </c>
       <c r="P94" s="1">
-        <v>39.898393664700002</v>
+        <v>39.8891385744</v>
       </c>
       <c r="Q94" s="1">
-        <v>116.3841221</v>
+        <v>116.387159995</v>
       </c>
       <c r="T94" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U94">
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="V94" s="1">
         <f t="shared" si="1"/>
-        <v>188</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:22">
@@ -6609,53 +6670,32 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D95" s="1">
-        <v>3546289</v>
+        <v>205</v>
       </c>
       <c r="F95" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H95" t="s">
-        <v>323</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J95" t="s">
-        <v>402</v>
-      </c>
-      <c r="K95" t="s">
-        <v>401</v>
-      </c>
-      <c r="L95" t="s">
-        <v>345</v>
+        <v>206</v>
       </c>
       <c r="N95" s="1">
-        <v>39.899464000000002</v>
+        <v>39.891199999999898</v>
       </c>
       <c r="O95" s="1">
-        <v>116.390339</v>
+        <v>116.39503000000001</v>
       </c>
       <c r="P95" s="1">
-        <v>39.898063558600001</v>
+        <v>39.8897979593999</v>
       </c>
       <c r="Q95" s="1">
-        <v>116.384099369</v>
+        <v>116.38878930600001</v>
       </c>
       <c r="T95" s="1">
-        <v>16</v>
-      </c>
-      <c r="U95">
-        <v>4936</v>
+        <v>60</v>
       </c>
       <c r="V95" s="1">
         <f t="shared" si="1"/>
-        <v>4952</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:22">
@@ -6663,41 +6703,41 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D96" s="1">
-        <v>2604658</v>
+        <v>4128215</v>
       </c>
       <c r="F96" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="N96" s="1">
-        <v>39.899696800000001</v>
+        <v>39.890349999999899</v>
       </c>
       <c r="O96" s="1">
-        <v>116.3947656</v>
+        <v>116.39261</v>
       </c>
       <c r="P96" s="1">
-        <v>39.898294456999899</v>
+        <v>39.8889489062</v>
       </c>
       <c r="Q96" s="1">
-        <v>116.388523912</v>
+        <v>116.386370363</v>
       </c>
       <c r="T96" s="1">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="U96">
-        <v>217</v>
+        <v>3</v>
       </c>
       <c r="V96" s="1">
         <f t="shared" si="1"/>
-        <v>243</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:22">
@@ -6705,53 +6745,31 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D97" s="1">
-        <v>14753184</v>
-      </c>
-      <c r="F97" s="1">
-        <v>2</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H97" t="s">
-        <v>351</v>
+        <v>558</v>
+      </c>
+      <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="G97" t="s">
+        <v>559</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J97" t="s">
-        <v>353</v>
-      </c>
-      <c r="K97" t="s">
-        <v>352</v>
-      </c>
-      <c r="L97" t="s">
-        <v>345</v>
+        <v>560</v>
       </c>
       <c r="N97" s="1">
-        <v>39.895879999999899</v>
+        <v>39.890479999999897</v>
       </c>
       <c r="O97" s="1">
-        <v>116.39339</v>
+        <v>116.39312</v>
       </c>
       <c r="P97" s="1">
-        <v>39.894478331000002</v>
+        <v>39.889078688700003</v>
       </c>
       <c r="Q97" s="1">
-        <v>116.387149319</v>
+        <v>116.386880121</v>
       </c>
       <c r="T97" s="1">
-        <v>58</v>
-      </c>
-      <c r="U97">
-        <v>1269</v>
-      </c>
-      <c r="V97" s="1">
-        <f t="shared" si="1"/>
-        <v>1327</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:22">
@@ -6759,41 +6777,41 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D98" s="1">
-        <v>21944666</v>
+        <v>5643123</v>
       </c>
       <c r="F98" s="1">
         <v>2</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>411</v>
+        <v>319</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>218</v>
+        <v>543</v>
       </c>
       <c r="N98" s="1">
-        <v>39.894910000000003</v>
+        <v>39.899794132731003</v>
       </c>
       <c r="O98" s="1">
-        <v>116.38949</v>
+        <v>116.390361785889</v>
       </c>
       <c r="P98" s="1">
-        <v>39.8935102202</v>
+        <v>39.898393664700002</v>
       </c>
       <c r="Q98" s="1">
-        <v>116.383251453</v>
+        <v>116.3841221</v>
       </c>
       <c r="T98" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="U98">
-        <v>338</v>
+        <v>183</v>
       </c>
       <c r="V98" s="1">
         <f t="shared" si="1"/>
-        <v>388</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:22">
@@ -6801,7 +6819,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D99" s="1">
         <v>3546289</v>
@@ -6810,13 +6828,13 @@
         <v>2</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H99" t="s">
         <v>323</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="J99" t="s">
         <v>402</v>
@@ -6828,26 +6846,26 @@
         <v>345</v>
       </c>
       <c r="N99" s="1">
-        <v>39.893602000000001</v>
+        <v>39.899464000000002</v>
       </c>
       <c r="O99" s="1">
-        <v>116.390615</v>
+        <v>116.390339</v>
       </c>
       <c r="P99" s="1">
-        <v>39.892201684600003</v>
+        <v>39.898063558600001</v>
       </c>
       <c r="Q99" s="1">
-        <v>116.38437596</v>
+        <v>116.384099369</v>
       </c>
       <c r="T99" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="U99">
         <v>4936</v>
       </c>
       <c r="V99" s="1">
         <f t="shared" si="1"/>
-        <v>4947</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="100" spans="1:22">
@@ -6855,56 +6873,41 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D100" s="1">
-        <v>17676938</v>
+        <v>2604658</v>
       </c>
       <c r="F100" s="1">
         <v>2</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H100" t="s">
-        <v>376</v>
+        <v>321</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="J100" t="s">
-        <v>377</v>
-      </c>
-      <c r="K100" t="s">
-        <v>349</v>
-      </c>
-      <c r="L100" t="s">
-        <v>366</v>
-      </c>
-      <c r="M100" s="2">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c r="N100" s="1">
-        <v>39.8934</v>
+        <v>39.899696800000001</v>
       </c>
       <c r="O100" s="1">
-        <v>116.38909</v>
+        <v>116.3947656</v>
       </c>
       <c r="P100" s="1">
-        <v>39.892000513900001</v>
+        <v>39.898294456999899</v>
       </c>
       <c r="Q100" s="1">
-        <v>116.38285189600001</v>
+        <v>116.388523912</v>
       </c>
       <c r="T100" s="1">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="U100">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="V100" s="1">
         <f t="shared" si="1"/>
-        <v>315</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:22">
@@ -6912,53 +6915,53 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D101" s="1">
-        <v>5616524</v>
+        <v>14753184</v>
       </c>
       <c r="F101" s="1">
         <v>2</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H101" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="J101" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="K101" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="L101" t="s">
         <v>345</v>
       </c>
       <c r="N101" s="1">
-        <v>39.893000000000001</v>
+        <v>39.895879999999899</v>
       </c>
       <c r="O101" s="1">
-        <v>116.38800000000001</v>
+        <v>116.39339</v>
       </c>
       <c r="P101" s="1">
-        <v>39.891601175799899</v>
+        <v>39.894478331000002</v>
       </c>
       <c r="Q101" s="1">
-        <v>116.381762669</v>
+        <v>116.387149319</v>
       </c>
       <c r="T101" s="1">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="U101">
-        <v>41</v>
+        <v>1269</v>
       </c>
       <c r="V101" s="1">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="102" spans="1:22">
@@ -6966,35 +6969,41 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
+      </c>
+      <c r="D102" s="1">
+        <v>21944666</v>
       </c>
       <c r="F102" s="1">
         <v>2</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>326</v>
+        <v>411</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="N102" s="1">
-        <v>39.892806999999898</v>
+        <v>39.894910000000003</v>
       </c>
       <c r="O102" s="1">
-        <v>116.390007</v>
+        <v>116.38949</v>
       </c>
       <c r="P102" s="1">
-        <v>39.891407037100002</v>
+        <v>39.8935102202</v>
       </c>
       <c r="Q102" s="1">
-        <v>116.38376841</v>
+        <v>116.383251453</v>
       </c>
       <c r="T102" s="1">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="U102">
+        <v>338</v>
       </c>
       <c r="V102" s="1">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>388</v>
       </c>
     </row>
     <row r="103" spans="1:22">
@@ -7002,53 +7011,53 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D103" s="1">
-        <v>3621343</v>
+        <v>3546289</v>
       </c>
       <c r="F103" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H103" t="s">
-        <v>409</v>
+        <v>323</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="J103" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="K103" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="L103" t="s">
         <v>345</v>
       </c>
       <c r="N103" s="1">
-        <v>39.895235999999898</v>
+        <v>39.893602000000001</v>
       </c>
       <c r="O103" s="1">
-        <v>116.393455</v>
+        <v>116.390615</v>
       </c>
       <c r="P103" s="1">
-        <v>39.893834335000001</v>
+        <v>39.892201684600003</v>
       </c>
       <c r="Q103" s="1">
-        <v>116.387214374</v>
+        <v>116.38437596</v>
       </c>
       <c r="T103" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="U103">
-        <v>99</v>
+        <v>4936</v>
       </c>
       <c r="V103" s="1">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="104" spans="1:22">
@@ -7056,221 +7065,254 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D104" s="1">
-        <v>4284669</v>
+        <v>17676938</v>
       </c>
       <c r="F104" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H104" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="J104" t="s">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="K104" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="L104" t="s">
-        <v>345</v>
+        <v>366</v>
+      </c>
+      <c r="M104" s="2">
+        <v>58</v>
       </c>
       <c r="N104" s="1">
-        <v>39.894849999999899</v>
+        <v>39.8934</v>
       </c>
       <c r="O104" s="1">
-        <v>116.3927</v>
+        <v>116.38909</v>
       </c>
       <c r="P104" s="1">
-        <v>39.893448659100002</v>
+        <v>39.892000513900001</v>
       </c>
       <c r="Q104" s="1">
-        <v>116.386459749</v>
+        <v>116.38285189600001</v>
       </c>
       <c r="T104" s="1">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="U104">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="V104" s="1">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>315</v>
       </c>
     </row>
     <row r="105" spans="1:22">
       <c r="A105" s="1">
         <v>103</v>
       </c>
+      <c r="B105" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="D105" s="1">
-        <v>8023148</v>
+        <v>5616524</v>
       </c>
       <c r="F105" s="1">
-        <v>1</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="I105" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="M105" s="4">
-        <v>68</v>
+        <v>2</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H105" t="s">
+        <v>404</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J105" t="s">
+        <v>406</v>
+      </c>
+      <c r="K105" t="s">
+        <v>405</v>
+      </c>
+      <c r="L105" t="s">
+        <v>345</v>
+      </c>
+      <c r="N105" s="1">
+        <v>39.893000000000001</v>
+      </c>
+      <c r="O105" s="1">
+        <v>116.38800000000001</v>
       </c>
       <c r="P105" s="1">
-        <v>39.893930200600003</v>
+        <v>39.891601175799899</v>
       </c>
       <c r="Q105" s="1">
-        <v>116.38140746800001</v>
-      </c>
-      <c r="R105" s="2">
-        <v>39.901608000000003</v>
-      </c>
-      <c r="S105" s="2">
-        <v>116.394054</v>
+        <v>116.381762669</v>
+      </c>
+      <c r="T105" s="1">
+        <v>7</v>
       </c>
       <c r="U105">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="V105" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:22">
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="D106" s="1">
-        <v>23043789</v>
+      <c r="B106" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="F106" s="1">
-        <v>1</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="M106" s="5">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="N106" s="1">
+        <v>39.892806999999898</v>
+      </c>
+      <c r="O106" s="1">
+        <v>116.390007</v>
       </c>
       <c r="P106" s="1">
-        <v>39.894773058200002</v>
+        <v>39.891407037100002</v>
       </c>
       <c r="Q106" s="1">
-        <v>116.38765905299999</v>
-      </c>
-      <c r="R106" s="2">
-        <v>39.902507</v>
-      </c>
-      <c r="S106" s="2">
-        <v>116.40029</v>
-      </c>
-      <c r="U106">
-        <v>1</v>
+        <v>116.38376841</v>
+      </c>
+      <c r="T106" s="1">
+        <v>77</v>
       </c>
       <c r="V106" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:22">
       <c r="A107" s="1">
         <v>105</v>
       </c>
+      <c r="B107" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="D107" s="1">
-        <v>18363790</v>
+        <v>3621343</v>
       </c>
       <c r="F107" s="1">
-        <v>1</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="I107" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="M107" s="5">
-        <v>69</v>
+        <v>4</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H107" t="s">
+        <v>409</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J107" t="s">
+        <v>410</v>
+      </c>
+      <c r="K107" t="s">
+        <v>365</v>
+      </c>
+      <c r="L107" t="s">
+        <v>345</v>
+      </c>
+      <c r="N107" s="1">
+        <v>39.895235999999898</v>
+      </c>
+      <c r="O107" s="1">
+        <v>116.393455</v>
       </c>
       <c r="P107" s="1">
-        <v>39.894715039300003</v>
+        <v>39.893834335000001</v>
       </c>
       <c r="Q107" s="1">
-        <v>116.38734448300001</v>
-      </c>
-      <c r="R107" s="2">
-        <v>39.902447000000002</v>
-      </c>
-      <c r="S107" s="2">
-        <v>116.399976</v>
+        <v>116.387214374</v>
+      </c>
+      <c r="T107" s="1">
+        <v>7</v>
       </c>
       <c r="U107">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="V107" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="1">
         <v>106</v>
       </c>
+      <c r="B108" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="D108" s="1">
-        <v>23965480</v>
+        <v>4284669</v>
       </c>
       <c r="F108" s="1">
-        <v>1</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>332</v>
+        <v>4</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="H108" t="s">
-        <v>361</v>
-      </c>
-      <c r="I108" s="5" t="s">
-        <v>236</v>
+        <v>407</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="J108" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="K108" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L108" t="s">
         <v>345</v>
       </c>
-      <c r="M108" s="5">
-        <v>31</v>
+      <c r="N108" s="1">
+        <v>39.894849999999899</v>
+      </c>
+      <c r="O108" s="1">
+        <v>116.3927</v>
       </c>
       <c r="P108" s="1">
-        <v>39.894715039300003</v>
+        <v>39.893448659100002</v>
       </c>
       <c r="Q108" s="1">
-        <v>116.38734448300001</v>
-      </c>
-      <c r="R108" s="2">
-        <v>39.902447000000002</v>
-      </c>
-      <c r="S108" s="2">
-        <v>116.399976</v>
+        <v>116.386459749</v>
+      </c>
+      <c r="T108" s="1">
+        <v>4</v>
       </c>
       <c r="U108">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="V108" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" spans="1:22">
@@ -7278,38 +7320,38 @@
         <v>107</v>
       </c>
       <c r="D109" s="1">
-        <v>21967048</v>
+        <v>8023148</v>
       </c>
       <c r="F109" s="1">
         <v>1</v>
       </c>
-      <c r="G109" s="6" t="s">
-        <v>333</v>
+      <c r="G109" s="7" t="s">
+        <v>329</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="M109" s="5">
-        <v>33</v>
+        <v>241</v>
+      </c>
+      <c r="M109" s="4">
+        <v>68</v>
       </c>
       <c r="P109" s="1">
-        <v>39.894460486100002</v>
+        <v>39.893930200600003</v>
       </c>
       <c r="Q109" s="1">
-        <v>116.386822346</v>
+        <v>116.38140746800001</v>
       </c>
       <c r="R109" s="2">
-        <v>39.902189</v>
+        <v>39.901608000000003</v>
       </c>
       <c r="S109" s="2">
-        <v>116.399455</v>
+        <v>116.394054</v>
       </c>
       <c r="U109">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="V109" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:22">
@@ -7317,35 +7359,38 @@
         <v>108</v>
       </c>
       <c r="D110" s="1">
-        <v>20647425</v>
+        <v>23043789</v>
       </c>
       <c r="F110" s="1">
         <v>1</v>
       </c>
-      <c r="G110" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="I110" s="5" t="s">
-        <v>250</v>
+      <c r="G110" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="M110" s="5">
+        <v>29</v>
       </c>
       <c r="P110" s="1">
-        <v>39.8946726896</v>
+        <v>39.894773058200002</v>
       </c>
       <c r="Q110" s="1">
-        <v>116.387243274</v>
+        <v>116.38765905299999</v>
       </c>
       <c r="R110" s="2">
-        <v>39.902403999999997</v>
+        <v>39.902507</v>
       </c>
       <c r="S110" s="2">
-        <v>116.39987499999999</v>
+        <v>116.40029</v>
       </c>
       <c r="U110">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="V110" s="1">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:22">
@@ -7353,50 +7398,38 @@
         <v>109</v>
       </c>
       <c r="D111" s="1">
-        <v>8869873</v>
+        <v>18363790</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="H111" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="J111" t="s">
-        <v>375</v>
-      </c>
-      <c r="K111" t="s">
-        <v>374</v>
-      </c>
-      <c r="L111" t="s">
-        <v>345</v>
-      </c>
-      <c r="M111" s="3">
-        <v>70</v>
+        <v>242</v>
+      </c>
+      <c r="M111" s="5">
+        <v>69</v>
       </c>
       <c r="P111" s="1">
-        <v>39.894591780100001</v>
+        <v>39.894715039300003</v>
       </c>
       <c r="Q111" s="1">
-        <v>116.38692965200001</v>
+        <v>116.38734448300001</v>
       </c>
       <c r="R111" s="2">
-        <v>39.902321000000001</v>
+        <v>39.902447000000002</v>
       </c>
       <c r="S111" s="2">
-        <v>116.399562</v>
+        <v>116.399976</v>
       </c>
       <c r="U111">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V111" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:22">
@@ -7404,50 +7437,50 @@
         <v>110</v>
       </c>
       <c r="D112" s="1">
-        <v>17763346</v>
+        <v>23965480</v>
       </c>
       <c r="F112" s="1">
         <v>1</v>
       </c>
-      <c r="G112" s="3" t="s">
-        <v>232</v>
+      <c r="G112" s="6" t="s">
+        <v>332</v>
       </c>
       <c r="H112" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J112" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="K112" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="L112" t="s">
         <v>345</v>
       </c>
       <c r="M112" s="5">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P112" s="1">
-        <v>39.8942352372</v>
+        <v>39.894715039300003</v>
       </c>
       <c r="Q112" s="1">
-        <v>116.38642941800001</v>
+        <v>116.38734448300001</v>
       </c>
       <c r="R112" s="2">
-        <v>39.901961</v>
+        <v>39.902447000000002</v>
       </c>
       <c r="S112" s="2">
-        <v>116.399063</v>
+        <v>116.399976</v>
       </c>
       <c r="U112">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V112" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:22">
@@ -7455,38 +7488,38 @@
         <v>111</v>
       </c>
       <c r="D113" s="1">
-        <v>6433272</v>
+        <v>21967048</v>
       </c>
       <c r="F113" s="1">
         <v>1</v>
       </c>
-      <c r="G113" s="3" t="s">
-        <v>336</v>
+      <c r="G113" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M113" s="5">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P113" s="1">
-        <v>39.894243723599999</v>
+        <v>39.894460486100002</v>
       </c>
       <c r="Q113" s="1">
-        <v>116.386230035</v>
+        <v>116.386822346</v>
       </c>
       <c r="R113" s="2">
-        <v>39.901967999999997</v>
+        <v>39.902189</v>
       </c>
       <c r="S113" s="2">
-        <v>116.398864</v>
+        <v>116.399455</v>
       </c>
       <c r="U113">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V113" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:22">
@@ -7494,47 +7527,35 @@
         <v>112</v>
       </c>
       <c r="D114" s="1">
-        <v>11253076</v>
+        <v>20647425</v>
       </c>
       <c r="F114" s="1">
         <v>1</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="H114" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="J114" t="s">
-        <v>379</v>
-      </c>
-      <c r="K114" t="s">
-        <v>349</v>
-      </c>
-      <c r="L114" t="s">
-        <v>345</v>
+        <v>250</v>
       </c>
       <c r="P114" s="1">
-        <v>39.894195431100002</v>
+        <v>39.8946726896</v>
       </c>
       <c r="Q114" s="1">
-        <v>116.386134805</v>
+        <v>116.387243274</v>
       </c>
       <c r="R114" s="2">
-        <v>39.901918999999999</v>
+        <v>39.902403999999997</v>
       </c>
       <c r="S114" s="2">
-        <v>116.398769</v>
+        <v>116.39987499999999</v>
       </c>
       <c r="U114">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="V114" s="1">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115" spans="1:22">
@@ -7542,35 +7563,50 @@
         <v>113</v>
       </c>
       <c r="D115" s="1">
-        <v>18691370</v>
+        <v>8869873</v>
       </c>
       <c r="F115" s="1">
         <v>1</v>
       </c>
-      <c r="G115" s="7" t="s">
-        <v>338</v>
+      <c r="G115" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="H115" t="s">
+        <v>373</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>248</v>
+        <v>243</v>
+      </c>
+      <c r="J115" t="s">
+        <v>375</v>
+      </c>
+      <c r="K115" t="s">
+        <v>374</v>
+      </c>
+      <c r="L115" t="s">
+        <v>345</v>
+      </c>
+      <c r="M115" s="3">
+        <v>70</v>
       </c>
       <c r="P115" s="1">
-        <v>39.8941620298</v>
+        <v>39.894591780100001</v>
       </c>
       <c r="Q115" s="1">
-        <v>116.38592635400001</v>
+        <v>116.38692965200001</v>
       </c>
       <c r="R115" s="2">
-        <v>39.901884000000003</v>
+        <v>39.902321000000001</v>
       </c>
       <c r="S115" s="2">
-        <v>116.398561</v>
+        <v>116.399562</v>
       </c>
       <c r="U115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V115" s="1">
-        <f t="shared" ref="V115:V176" si="2">T115+U115</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:22">
@@ -7578,50 +7614,50 @@
         <v>114</v>
       </c>
       <c r="D116" s="1">
-        <v>21665778</v>
+        <v>17763346</v>
       </c>
       <c r="F116" s="1">
-        <v>2</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>339</v>
+        <v>1</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="H116" t="s">
-        <v>359</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>240</v>
+        <v>343</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="J116" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="K116" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L116" t="s">
         <v>345</v>
       </c>
       <c r="M116" s="5">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="P116" s="1">
-        <v>39.894115169000003</v>
+        <v>39.8942352372</v>
       </c>
       <c r="Q116" s="1">
-        <v>116.385780012</v>
+        <v>116.38642941800001</v>
       </c>
       <c r="R116" s="2">
-        <v>39.901836000000003</v>
+        <v>39.901961</v>
       </c>
       <c r="S116" s="2">
-        <v>116.398415</v>
+        <v>116.399063</v>
       </c>
       <c r="U116">
-        <v>217</v>
+        <v>7</v>
       </c>
       <c r="V116" s="1">
-        <f t="shared" si="2"/>
-        <v>217</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:22">
@@ -7629,50 +7665,38 @@
         <v>115</v>
       </c>
       <c r="D117" s="1">
-        <v>27231893</v>
+        <v>6433272</v>
       </c>
       <c r="F117" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="H117" t="s">
-        <v>394</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="J117" t="s">
-        <v>395</v>
-      </c>
-      <c r="K117" t="s">
-        <v>349</v>
-      </c>
-      <c r="L117" t="s">
-        <v>345</v>
-      </c>
-      <c r="M117" s="3">
-        <v>71</v>
+        <v>336</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="M117" s="5">
+        <v>38</v>
       </c>
       <c r="P117" s="1">
-        <v>39.894202873799998</v>
+        <v>39.894243723599999</v>
       </c>
       <c r="Q117" s="1">
-        <v>116.383677156</v>
+        <v>116.386230035</v>
       </c>
       <c r="R117" s="2">
-        <v>39.901904999999999</v>
+        <v>39.901967999999997</v>
       </c>
       <c r="S117" s="2">
-        <v>116.396317</v>
+        <v>116.398864</v>
       </c>
       <c r="U117">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="V117" s="1">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:22">
@@ -7680,38 +7704,47 @@
         <v>116</v>
       </c>
       <c r="D118" s="1">
-        <v>9314910</v>
+        <v>11253076</v>
       </c>
       <c r="F118" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="I118" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="M118" s="5">
-        <v>74</v>
+        <v>337</v>
+      </c>
+      <c r="H118" t="s">
+        <v>378</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="J118" t="s">
+        <v>379</v>
+      </c>
+      <c r="K118" t="s">
+        <v>349</v>
+      </c>
+      <c r="L118" t="s">
+        <v>345</v>
       </c>
       <c r="P118" s="1">
-        <v>39.896682614600003</v>
+        <v>39.894195431100002</v>
       </c>
       <c r="Q118" s="1">
-        <v>116.382792884</v>
+        <v>116.386134805</v>
       </c>
       <c r="R118" s="2">
-        <v>39.904375000000002</v>
+        <v>39.901918999999999</v>
       </c>
       <c r="S118" s="2">
-        <v>116.395433</v>
+        <v>116.398769</v>
       </c>
       <c r="U118">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="V118" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:22">
@@ -7719,38 +7752,35 @@
         <v>117</v>
       </c>
       <c r="D119" s="1">
-        <v>20731576</v>
+        <v>18691370</v>
       </c>
       <c r="F119" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="I119" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="M119" s="4">
-        <v>75</v>
+        <v>338</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="P119" s="1">
-        <v>39.897740364299999</v>
+        <v>39.8941620298</v>
       </c>
       <c r="Q119" s="1">
-        <v>116.383633062</v>
+        <v>116.38592635400001</v>
       </c>
       <c r="R119" s="2">
-        <v>39.905441000000003</v>
+        <v>39.901884000000003</v>
       </c>
       <c r="S119" s="2">
-        <v>116.39627</v>
+        <v>116.398561</v>
       </c>
       <c r="U119">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V119" s="1">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" ref="V119:V181" si="2">T119+U119</f>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:22">
@@ -7758,22 +7788,22 @@
         <v>118</v>
       </c>
       <c r="D120" s="1">
-        <v>56777920</v>
+        <v>21665778</v>
       </c>
       <c r="F120" s="1">
         <v>2</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H120" t="s">
-        <v>370</v>
-      </c>
-      <c r="I120" s="7" t="s">
-        <v>235</v>
+        <v>359</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="J120" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="K120" t="s">
         <v>349</v>
@@ -7781,27 +7811,27 @@
       <c r="L120" t="s">
         <v>345</v>
       </c>
-      <c r="M120" s="7">
-        <v>78</v>
+      <c r="M120" s="5">
+        <v>57</v>
       </c>
       <c r="P120" s="1">
-        <v>39.896093453799999</v>
+        <v>39.894115169000003</v>
       </c>
       <c r="Q120" s="1">
-        <v>116.387988698</v>
+        <v>116.385780012</v>
       </c>
       <c r="R120" s="2">
-        <v>39.903829000000002</v>
+        <v>39.901836000000003</v>
       </c>
       <c r="S120" s="2">
-        <v>116.40061799999999</v>
+        <v>116.398415</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>217</v>
       </c>
       <c r="V120" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>217</v>
       </c>
     </row>
     <row r="121" spans="1:22">
@@ -7809,41 +7839,50 @@
         <v>119</v>
       </c>
       <c r="D121" s="1">
-        <v>32674382</v>
+        <v>27231893</v>
       </c>
       <c r="F121" s="1">
         <v>2</v>
       </c>
-      <c r="G121" t="s">
-        <v>412</v>
+      <c r="G121" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H121" t="s">
+        <v>394</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="J121" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="K121" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="L121" t="s">
         <v>345</v>
       </c>
+      <c r="M121" s="3">
+        <v>71</v>
+      </c>
       <c r="P121" s="1">
-        <v>39.893032070300002</v>
+        <v>39.894202873799998</v>
       </c>
       <c r="Q121" s="1">
-        <v>116.38538426300001</v>
+        <v>116.383677156</v>
       </c>
       <c r="R121" s="2">
-        <v>39.900750000000002</v>
+        <v>39.901904999999999</v>
       </c>
       <c r="S121" s="2">
-        <v>116.398021</v>
+        <v>116.396317</v>
       </c>
       <c r="U121">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="V121" s="1">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:22">
@@ -7851,41 +7890,38 @@
         <v>120</v>
       </c>
       <c r="D122" s="1">
-        <v>14920981</v>
+        <v>9314910</v>
       </c>
       <c r="F122" s="1">
-        <v>1</v>
-      </c>
-      <c r="G122" t="s">
-        <v>414</v>
-      </c>
-      <c r="J122" t="s">
-        <v>416</v>
-      </c>
-      <c r="K122" t="s">
-        <v>415</v>
-      </c>
-      <c r="L122" t="s">
-        <v>345</v>
+        <v>3</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="M122" s="5">
+        <v>74</v>
       </c>
       <c r="P122" s="1">
-        <v>39.894226721800003</v>
+        <v>39.896682614600003</v>
       </c>
       <c r="Q122" s="1">
-        <v>116.387687638</v>
+        <v>116.382792884</v>
       </c>
       <c r="R122" s="2">
-        <v>39.901961</v>
+        <v>39.904375000000002</v>
       </c>
       <c r="S122" s="2">
-        <v>116.400319</v>
+        <v>116.395433</v>
       </c>
       <c r="U122">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V122" s="1">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:22">
@@ -7893,41 +7929,38 @@
         <v>121</v>
       </c>
       <c r="D123" s="1">
-        <v>21286168</v>
+        <v>20731576</v>
       </c>
       <c r="F123" s="1">
-        <v>2</v>
-      </c>
-      <c r="G123" t="s">
-        <v>417</v>
-      </c>
-      <c r="J123" t="s">
-        <v>418</v>
-      </c>
-      <c r="K123" t="s">
-        <v>401</v>
-      </c>
-      <c r="L123" t="s">
-        <v>345</v>
+        <v>3</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M123" s="4">
+        <v>75</v>
       </c>
       <c r="P123" s="1">
-        <v>39.893464437299997</v>
+        <v>39.897740364299999</v>
       </c>
       <c r="Q123" s="1">
-        <v>116.38584861</v>
+        <v>116.383633062</v>
       </c>
       <c r="R123" s="2">
-        <v>39.901186000000003</v>
+        <v>39.905441000000003</v>
       </c>
       <c r="S123" s="2">
-        <v>116.398484</v>
+        <v>116.39627</v>
       </c>
       <c r="U123">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="V123" s="1">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:22">
@@ -7935,41 +7968,50 @@
         <v>122</v>
       </c>
       <c r="D124" s="1">
-        <v>22510934</v>
+        <v>56777920</v>
       </c>
       <c r="F124" s="1">
-        <v>1</v>
-      </c>
-      <c r="G124" t="s">
-        <v>534</v>
+        <v>2</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H124" t="s">
+        <v>370</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="J124" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="K124" t="s">
-        <v>419</v>
+        <v>349</v>
       </c>
       <c r="L124" t="s">
         <v>345</v>
       </c>
+      <c r="M124" s="7">
+        <v>78</v>
+      </c>
       <c r="P124" s="1">
-        <v>39.8935794012</v>
+        <v>39.896093453799999</v>
       </c>
       <c r="Q124" s="1">
-        <v>116.38391324</v>
+        <v>116.387988698</v>
       </c>
       <c r="R124" s="2">
-        <v>39.901283999999997</v>
+        <v>39.903829000000002</v>
       </c>
       <c r="S124" s="2">
-        <v>116.396553</v>
+        <v>116.40061799999999</v>
       </c>
       <c r="U124">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="V124" s="1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:22">
@@ -7977,41 +8019,43 @@
         <v>123</v>
       </c>
       <c r="D125" s="1">
-        <v>2888878</v>
+        <v>5248677</v>
       </c>
       <c r="F125" s="1">
-        <v>2</v>
-      </c>
-      <c r="G125" t="s">
-        <v>421</v>
+        <v>1</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="H125" t="s">
+        <v>562</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>563</v>
       </c>
       <c r="J125" t="s">
-        <v>422</v>
+        <v>564</v>
       </c>
       <c r="K125" t="s">
-        <v>357</v>
+        <v>565</v>
       </c>
       <c r="L125" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="P125" s="1">
-        <v>39.893294845100002</v>
+        <v>39.892000001900001</v>
       </c>
       <c r="Q125" s="1">
-        <v>116.385420559</v>
-      </c>
-      <c r="R125" s="2">
-        <v>39.901012999999999</v>
-      </c>
-      <c r="S125" s="2">
-        <v>116.39805699999999</v>
+        <v>116.383201077</v>
+      </c>
+      <c r="R125">
+        <v>39.899698000000001</v>
+      </c>
+      <c r="S125">
+        <v>116.395844</v>
       </c>
       <c r="U125">
-        <v>168</v>
-      </c>
-      <c r="V125" s="1">
-        <f t="shared" si="2"/>
-        <v>168</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:22">
@@ -8019,41 +8063,41 @@
         <v>124</v>
       </c>
       <c r="D126" s="1">
-        <v>14879472</v>
+        <v>32674382</v>
       </c>
       <c r="F126" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G126" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="J126" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="K126" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
       <c r="L126" t="s">
         <v>345</v>
       </c>
       <c r="P126" s="1">
-        <v>39.893578383600001</v>
+        <v>39.893032070300002</v>
       </c>
       <c r="Q126" s="1">
-        <v>116.38624951600001</v>
+        <v>116.38538426300001</v>
       </c>
       <c r="R126" s="2">
-        <v>39.901302999999999</v>
+        <v>39.900750000000002</v>
       </c>
       <c r="S126" s="2">
-        <v>116.398884</v>
+        <v>116.398021</v>
       </c>
       <c r="U126">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="V126" s="1">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" spans="1:22">
@@ -8061,41 +8105,41 @@
         <v>125</v>
       </c>
       <c r="D127" s="1">
-        <v>17837011</v>
+        <v>14920981</v>
       </c>
       <c r="F127" s="1">
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="J127" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="K127" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="L127" t="s">
         <v>345</v>
       </c>
       <c r="P127" s="1">
-        <v>39.8935811168</v>
+        <v>39.894226721800003</v>
       </c>
       <c r="Q127" s="1">
-        <v>116.386838638</v>
+        <v>116.387687638</v>
       </c>
       <c r="R127" s="2">
-        <v>39.901310000000002</v>
+        <v>39.901961</v>
       </c>
       <c r="S127" s="2">
-        <v>116.399472</v>
+        <v>116.400319</v>
       </c>
       <c r="U127">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V127" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:22">
@@ -8103,41 +8147,41 @@
         <v>126</v>
       </c>
       <c r="D128" s="1">
-        <v>18555325</v>
+        <v>21286168</v>
       </c>
       <c r="F128" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G128" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="J128" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="K128" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="L128" t="s">
         <v>345</v>
       </c>
       <c r="P128" s="1">
-        <v>39.893112525200003</v>
+        <v>39.893464437299997</v>
       </c>
       <c r="Q128" s="1">
-        <v>116.38569900500001</v>
+        <v>116.38584861</v>
       </c>
       <c r="R128" s="2">
-        <v>39.900832999999999</v>
+        <v>39.901186000000003</v>
       </c>
       <c r="S128" s="2">
-        <v>116.398335</v>
+        <v>116.398484</v>
       </c>
       <c r="U128">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="V128" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="129" spans="1:22">
@@ -8145,41 +8189,41 @@
         <v>127</v>
       </c>
       <c r="D129" s="1">
-        <v>5206443</v>
+        <v>22510934</v>
       </c>
       <c r="F129" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>430</v>
+        <v>534</v>
       </c>
       <c r="J129" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="K129" t="s">
-        <v>357</v>
+        <v>419</v>
       </c>
       <c r="L129" t="s">
         <v>345</v>
       </c>
       <c r="P129" s="1">
-        <v>39.8931789978</v>
+        <v>39.8935794012</v>
       </c>
       <c r="Q129" s="1">
-        <v>116.385159887</v>
+        <v>116.38391324</v>
       </c>
       <c r="R129" s="2">
-        <v>39.900894999999998</v>
+        <v>39.901283999999997</v>
       </c>
       <c r="S129" s="2">
-        <v>116.397797</v>
+        <v>116.396553</v>
       </c>
       <c r="U129">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="V129" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:22">
@@ -8187,16 +8231,16 @@
         <v>128</v>
       </c>
       <c r="D130" s="1">
-        <v>21785061</v>
+        <v>2888878</v>
       </c>
       <c r="F130" s="1">
         <v>2</v>
       </c>
       <c r="G130" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="J130" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="K130" t="s">
         <v>357</v>
@@ -8205,23 +8249,23 @@
         <v>345</v>
       </c>
       <c r="P130" s="1">
-        <v>39.894112652300002</v>
+        <v>39.893294845100002</v>
       </c>
       <c r="Q130" s="1">
-        <v>116.388199331</v>
+        <v>116.385420559</v>
       </c>
       <c r="R130" s="2">
-        <v>39.901850000000003</v>
+        <v>39.901012999999999</v>
       </c>
       <c r="S130" s="2">
-        <v>116.40083</v>
+        <v>116.39805699999999</v>
       </c>
       <c r="U130">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="V130" s="1">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>168</v>
       </c>
     </row>
     <row r="131" spans="1:22">
@@ -8229,41 +8273,41 @@
         <v>129</v>
       </c>
       <c r="D131" s="1">
-        <v>4284608</v>
+        <v>14879472</v>
       </c>
       <c r="F131" s="1">
         <v>4</v>
       </c>
       <c r="G131" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="J131" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="K131" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="L131" t="s">
         <v>345</v>
       </c>
       <c r="P131" s="1">
-        <v>39.894253292599998</v>
+        <v>39.893578383600001</v>
       </c>
       <c r="Q131" s="1">
-        <v>116.38775877400001</v>
+        <v>116.38624951600001</v>
       </c>
       <c r="R131" s="2">
-        <v>39.901988000000003</v>
+        <v>39.901302999999999</v>
       </c>
       <c r="S131" s="2">
-        <v>116.40039</v>
+        <v>116.398884</v>
       </c>
       <c r="U131">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="V131" s="1">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132" spans="1:22">
@@ -8271,41 +8315,41 @@
         <v>130</v>
       </c>
       <c r="D132" s="1">
-        <v>32862989</v>
+        <v>17837011</v>
       </c>
       <c r="F132" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="J132" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="K132" t="s">
-        <v>357</v>
+        <v>426</v>
       </c>
       <c r="L132" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="P132" s="1">
-        <v>39.891242753900002</v>
+        <v>39.8935811168</v>
       </c>
       <c r="Q132" s="1">
-        <v>116.383502272</v>
+        <v>116.386838638</v>
       </c>
       <c r="R132" s="2">
-        <v>39.898944</v>
+        <v>39.901310000000002</v>
       </c>
       <c r="S132" s="2">
-        <v>116.396145</v>
+        <v>116.399472</v>
       </c>
       <c r="U132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V132" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:22">
@@ -8313,41 +8357,41 @@
         <v>131</v>
       </c>
       <c r="D133" s="1">
-        <v>19575067</v>
+        <v>18555325</v>
       </c>
       <c r="F133" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G133" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="J133" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K133" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L133" t="s">
         <v>345</v>
       </c>
       <c r="P133" s="1">
-        <v>39.8935809285</v>
+        <v>39.893112525200003</v>
       </c>
       <c r="Q133" s="1">
-        <v>116.386865687</v>
+        <v>116.38569900500001</v>
       </c>
       <c r="R133" s="2">
-        <v>39.901310000000002</v>
+        <v>39.900832999999999</v>
       </c>
       <c r="S133" s="2">
-        <v>116.39949900000001</v>
+        <v>116.398335</v>
       </c>
       <c r="U133">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V133" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:22">
@@ -8355,41 +8399,41 @@
         <v>132</v>
       </c>
       <c r="D134" s="1">
-        <v>17659665</v>
+        <v>5206443</v>
       </c>
       <c r="F134" s="1">
         <v>2</v>
       </c>
       <c r="G134" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="J134" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="K134" t="s">
-        <v>426</v>
+        <v>357</v>
       </c>
       <c r="L134" t="s">
         <v>345</v>
       </c>
       <c r="P134" s="1">
-        <v>39.893221264200001</v>
+        <v>39.8931789978</v>
       </c>
       <c r="Q134" s="1">
-        <v>116.385989698</v>
+        <v>116.385159887</v>
       </c>
       <c r="R134" s="2">
-        <v>39.900944000000003</v>
+        <v>39.900894999999998</v>
       </c>
       <c r="S134" s="2">
-        <v>116.398625</v>
+        <v>116.397797</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="V134" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:22">
@@ -8397,41 +8441,41 @@
         <v>133</v>
       </c>
       <c r="D135" s="1">
-        <v>32572946</v>
+        <v>21785061</v>
       </c>
       <c r="F135" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G135" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="J135" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="K135" t="s">
-        <v>415</v>
+        <v>357</v>
       </c>
       <c r="L135" t="s">
         <v>345</v>
       </c>
       <c r="P135" s="1">
-        <v>39.893292825400003</v>
+        <v>39.894112652300002</v>
       </c>
       <c r="Q135" s="1">
-        <v>116.38566808900001</v>
+        <v>116.388199331</v>
       </c>
       <c r="R135" s="2">
-        <v>39.901012999999999</v>
+        <v>39.901850000000003</v>
       </c>
       <c r="S135" s="2">
-        <v>116.398304</v>
+        <v>116.40083</v>
       </c>
       <c r="U135">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="V135" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="136" spans="1:22">
@@ -8439,16 +8483,16 @@
         <v>134</v>
       </c>
       <c r="D136" s="1">
-        <v>3619885</v>
+        <v>4284608</v>
       </c>
       <c r="F136" s="1">
         <v>4</v>
       </c>
       <c r="G136" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="J136" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="K136" t="s">
         <v>365</v>
@@ -8457,23 +8501,23 @@
         <v>345</v>
       </c>
       <c r="P136" s="1">
-        <v>39.893863613800001</v>
+        <v>39.894253292599998</v>
       </c>
       <c r="Q136" s="1">
-        <v>116.385228611</v>
+        <v>116.38775877400001</v>
       </c>
       <c r="R136" s="2">
-        <v>39.901580000000003</v>
+        <v>39.901988000000003</v>
       </c>
       <c r="S136" s="2">
-        <v>116.397865</v>
+        <v>116.40039</v>
       </c>
       <c r="U136">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="V136" s="1">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:22">
@@ -8481,41 +8525,41 @@
         <v>135</v>
       </c>
       <c r="D137" s="1">
-        <v>16825884</v>
+        <v>32862989</v>
       </c>
       <c r="F137" s="1">
         <v>2</v>
       </c>
       <c r="G137" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="J137" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="K137" t="s">
-        <v>446</v>
+        <v>357</v>
       </c>
       <c r="L137" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="P137" s="1">
-        <v>39.892277239599998</v>
+        <v>39.891242753900002</v>
       </c>
       <c r="Q137" s="1">
-        <v>116.383891111</v>
+        <v>116.383502272</v>
       </c>
       <c r="R137" s="2">
-        <v>39.899982000000001</v>
+        <v>39.898944</v>
       </c>
       <c r="S137" s="2">
-        <v>116.39653199999999</v>
+        <v>116.396145</v>
       </c>
       <c r="U137">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="V137" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:22">
@@ -8523,41 +8567,41 @@
         <v>136</v>
       </c>
       <c r="D138" s="1">
-        <v>21159377</v>
+        <v>19575067</v>
       </c>
       <c r="F138" s="1">
         <v>2</v>
       </c>
       <c r="G138" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="J138" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="K138" t="s">
-        <v>449</v>
+        <v>369</v>
       </c>
       <c r="L138" t="s">
         <v>345</v>
       </c>
       <c r="P138" s="1">
-        <v>39.894313863199997</v>
+        <v>39.8935809285</v>
       </c>
       <c r="Q138" s="1">
-        <v>116.3860828</v>
+        <v>116.386865687</v>
       </c>
       <c r="R138" s="2">
-        <v>39.902037</v>
+        <v>39.901310000000002</v>
       </c>
       <c r="S138" s="2">
-        <v>116.398717</v>
+        <v>116.39949900000001</v>
       </c>
       <c r="U138">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V138" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:22">
@@ -8565,41 +8609,41 @@
         <v>137</v>
       </c>
       <c r="D139" s="1">
-        <v>13771513</v>
+        <v>17659665</v>
       </c>
       <c r="F139" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G139" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="J139" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="K139" t="s">
-        <v>365</v>
+        <v>426</v>
       </c>
       <c r="L139" t="s">
         <v>345</v>
       </c>
       <c r="P139" s="1">
-        <v>39.889885337999999</v>
+        <v>39.893221264200001</v>
       </c>
       <c r="Q139" s="1">
-        <v>116.384341335</v>
+        <v>116.385989698</v>
       </c>
       <c r="R139" s="2">
-        <v>39.897595000000003</v>
+        <v>39.900944000000003</v>
       </c>
       <c r="S139" s="2">
-        <v>116.39698300000001</v>
+        <v>116.398625</v>
       </c>
       <c r="U139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V139" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:22">
@@ -8607,86 +8651,83 @@
         <v>138</v>
       </c>
       <c r="D140" s="1">
-        <v>3623794</v>
+        <v>32572946</v>
       </c>
       <c r="F140" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="J140" t="s">
         <v>442</v>
       </c>
       <c r="K140" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="L140" t="s">
         <v>345</v>
       </c>
       <c r="P140" s="1">
-        <v>39.892982096600001</v>
+        <v>39.893292825400003</v>
       </c>
       <c r="Q140" s="1">
-        <v>116.386399314</v>
+        <v>116.38566808900001</v>
       </c>
       <c r="R140" s="2">
-        <v>39.900708000000002</v>
+        <v>39.901012999999999</v>
       </c>
       <c r="S140" s="2">
-        <v>116.399034</v>
+        <v>116.398304</v>
       </c>
       <c r="U140">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V140" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:22" s="2" customFormat="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22">
       <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="D141" s="2">
-        <v>24901752</v>
-      </c>
-      <c r="E141">
-        <v>24399519</v>
-      </c>
-      <c r="F141" s="2">
-        <v>2</v>
-      </c>
-      <c r="G141" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="J141" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="K141" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="L141" s="8" t="s">
-        <v>455</v>
+      <c r="D141" s="1">
+        <v>3619885</v>
+      </c>
+      <c r="F141" s="1">
+        <v>4</v>
+      </c>
+      <c r="G141" t="s">
+        <v>443</v>
+      </c>
+      <c r="J141" t="s">
+        <v>444</v>
+      </c>
+      <c r="K141" t="s">
+        <v>365</v>
+      </c>
+      <c r="L141" t="s">
+        <v>345</v>
       </c>
       <c r="P141" s="1">
-        <v>39.896889379800001</v>
+        <v>39.893863613800001</v>
       </c>
       <c r="Q141" s="1">
-        <v>116.382916405</v>
+        <v>116.385228611</v>
       </c>
       <c r="R141" s="2">
-        <v>39.904583000000002</v>
+        <v>39.901580000000003</v>
       </c>
       <c r="S141" s="2">
-        <v>116.395556</v>
-      </c>
-      <c r="U141" s="8">
-        <v>2</v>
+        <v>116.397865</v>
+      </c>
+      <c r="U141">
+        <v>25</v>
       </c>
       <c r="V141" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142" spans="1:22">
@@ -8694,41 +8735,41 @@
         <v>140</v>
       </c>
       <c r="D142" s="1">
-        <v>19492960</v>
+        <v>16825884</v>
       </c>
       <c r="F142" s="1">
         <v>2</v>
       </c>
       <c r="G142" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="J142" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="K142" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="L142" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="P142" s="1">
-        <v>39.8943831944</v>
+        <v>39.892277239599998</v>
       </c>
       <c r="Q142" s="1">
-        <v>116.388118439</v>
+        <v>116.383891111</v>
       </c>
       <c r="R142" s="2">
-        <v>39.902119999999996</v>
+        <v>39.899982000000001</v>
       </c>
       <c r="S142" s="2">
-        <v>116.400749</v>
+        <v>116.39653199999999</v>
       </c>
       <c r="U142">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="V142" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:22">
@@ -8736,41 +8777,41 @@
         <v>141</v>
       </c>
       <c r="D143" s="1">
-        <v>2898766</v>
+        <v>21159377</v>
       </c>
       <c r="F143" s="1">
         <v>2</v>
       </c>
       <c r="G143" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="J143" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="K143" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="L143" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="P143" s="1">
-        <v>39.892969729000001</v>
+        <v>39.894313863199997</v>
       </c>
       <c r="Q143" s="1">
-        <v>116.385423296</v>
+        <v>116.3860828</v>
       </c>
       <c r="R143" s="2">
-        <v>39.900688000000002</v>
+        <v>39.902037</v>
       </c>
       <c r="S143" s="2">
-        <v>116.39806</v>
+        <v>116.398717</v>
       </c>
       <c r="U143">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="V143" s="1">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:22">
@@ -8778,41 +8819,41 @@
         <v>142</v>
       </c>
       <c r="D144" s="1">
-        <v>5401552</v>
+        <v>13771513</v>
       </c>
       <c r="F144" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G144" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="J144" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="K144" t="s">
-        <v>446</v>
+        <v>365</v>
       </c>
       <c r="L144" t="s">
         <v>345</v>
       </c>
       <c r="P144" s="1">
-        <v>39.893156874500001</v>
+        <v>39.889885337999999</v>
       </c>
       <c r="Q144" s="1">
-        <v>116.385292163</v>
+        <v>116.384341335</v>
       </c>
       <c r="R144" s="2">
-        <v>39.900874000000002</v>
+        <v>39.897595000000003</v>
       </c>
       <c r="S144" s="2">
-        <v>116.397929</v>
+        <v>116.39698300000001</v>
       </c>
       <c r="U144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V144" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:22">
@@ -8820,83 +8861,86 @@
         <v>143</v>
       </c>
       <c r="D145" s="1">
-        <v>20896153</v>
+        <v>3623794</v>
       </c>
       <c r="F145" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G145" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="J145" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="K145" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="L145" t="s">
         <v>345</v>
       </c>
       <c r="P145" s="1">
-        <v>39.890443335400001</v>
+        <v>39.892982096600001</v>
       </c>
       <c r="Q145" s="1">
-        <v>116.38457733600001</v>
+        <v>116.386399314</v>
       </c>
       <c r="R145" s="2">
-        <v>39.898155000000003</v>
+        <v>39.900708000000002</v>
       </c>
       <c r="S145" s="2">
-        <v>116.397218</v>
+        <v>116.399034</v>
       </c>
       <c r="U145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V145" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" s="2" customFormat="1">
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="D146" s="1">
-        <v>11255768</v>
-      </c>
-      <c r="F146" s="1">
-        <v>4</v>
-      </c>
-      <c r="G146" t="s">
-        <v>467</v>
-      </c>
-      <c r="J146" t="s">
-        <v>408</v>
-      </c>
-      <c r="K146" t="s">
-        <v>468</v>
-      </c>
-      <c r="L146" t="s">
-        <v>345</v>
+      <c r="D146" s="2">
+        <v>24901752</v>
+      </c>
+      <c r="E146">
+        <v>24399519</v>
+      </c>
+      <c r="F146" s="2">
+        <v>2</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="J146" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="K146" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="L146" s="8" t="s">
+        <v>455</v>
       </c>
       <c r="P146" s="1">
-        <v>39.893343009200002</v>
+        <v>39.896889379800001</v>
       </c>
       <c r="Q146" s="1">
-        <v>116.386290401</v>
+        <v>116.382916405</v>
       </c>
       <c r="R146" s="2">
-        <v>39.901068000000002</v>
+        <v>39.904583000000002</v>
       </c>
       <c r="S146" s="2">
-        <v>116.39892500000001</v>
-      </c>
-      <c r="U146">
-        <v>1</v>
+        <v>116.395556</v>
+      </c>
+      <c r="U146" s="8">
+        <v>2</v>
       </c>
       <c r="V146" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:22">
@@ -8904,34 +8948,34 @@
         <v>145</v>
       </c>
       <c r="D147" s="1">
-        <v>21070080</v>
+        <v>19492960</v>
       </c>
       <c r="F147" s="1">
         <v>2</v>
       </c>
       <c r="G147" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="J147" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="K147" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="L147" t="s">
         <v>345</v>
       </c>
       <c r="P147" s="1">
-        <v>39.892350886099997</v>
+        <v>39.8943831944</v>
       </c>
       <c r="Q147" s="1">
-        <v>116.384140798</v>
+        <v>116.388118439</v>
       </c>
       <c r="R147" s="2">
-        <v>39.900058000000001</v>
+        <v>39.902119999999996</v>
       </c>
       <c r="S147" s="2">
-        <v>116.396781</v>
+        <v>116.400749</v>
       </c>
       <c r="U147">
         <v>1</v>
@@ -8946,41 +8990,41 @@
         <v>146</v>
       </c>
       <c r="D148" s="1">
-        <v>21341798</v>
+        <v>2898766</v>
       </c>
       <c r="F148" s="1">
         <v>2</v>
       </c>
       <c r="G148" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="J148" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K148" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="L148" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="P148" s="1">
-        <v>39.893156874500001</v>
+        <v>39.892969729000001</v>
       </c>
       <c r="Q148" s="1">
-        <v>116.385292163</v>
+        <v>116.385423296</v>
       </c>
       <c r="R148" s="2">
-        <v>39.900874000000002</v>
+        <v>39.900688000000002</v>
       </c>
       <c r="S148" s="2">
-        <v>116.397929</v>
+        <v>116.39806</v>
       </c>
       <c r="U148">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="V148" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149" spans="1:22">
@@ -8988,41 +9032,41 @@
         <v>147</v>
       </c>
       <c r="D149" s="1">
-        <v>9077520</v>
+        <v>5401552</v>
       </c>
       <c r="F149" s="1">
         <v>2</v>
       </c>
       <c r="G149" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="J149" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="K149" t="s">
-        <v>357</v>
+        <v>446</v>
       </c>
       <c r="L149" t="s">
         <v>345</v>
       </c>
       <c r="P149" s="1">
-        <v>39.894997846300001</v>
+        <v>39.893156874500001</v>
       </c>
       <c r="Q149" s="1">
-        <v>116.388389356</v>
+        <v>116.385292163</v>
       </c>
       <c r="R149" s="2">
-        <v>39.902735999999997</v>
+        <v>39.900874000000002</v>
       </c>
       <c r="S149" s="2">
-        <v>116.40101900000001</v>
+        <v>116.397929</v>
       </c>
       <c r="U149">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="V149" s="1">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:22">
@@ -9030,41 +9074,41 @@
         <v>148</v>
       </c>
       <c r="D150" s="1">
-        <v>24090758</v>
+        <v>20896153</v>
       </c>
       <c r="F150" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G150" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="J150" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="K150" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
       <c r="L150" t="s">
         <v>345</v>
       </c>
       <c r="P150" s="1">
-        <v>39.893743147599999</v>
+        <v>39.890443335400001</v>
       </c>
       <c r="Q150" s="1">
-        <v>116.386559253</v>
+        <v>116.38457733600001</v>
       </c>
       <c r="R150" s="2">
-        <v>39.901470000000003</v>
+        <v>39.898155000000003</v>
       </c>
       <c r="S150" s="2">
-        <v>116.399193</v>
+        <v>116.397218</v>
       </c>
       <c r="U150">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="V150" s="1">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:22">
@@ -9072,41 +9116,41 @@
         <v>149</v>
       </c>
       <c r="D151" s="1">
-        <v>8026976</v>
+        <v>11255768</v>
       </c>
       <c r="F151" s="1">
         <v>4</v>
       </c>
       <c r="G151" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="J151" t="s">
-        <v>478</v>
+        <v>408</v>
       </c>
       <c r="K151" t="s">
-        <v>365</v>
+        <v>468</v>
       </c>
       <c r="L151" t="s">
         <v>345</v>
       </c>
       <c r="P151" s="1">
-        <v>39.8927354327</v>
+        <v>39.893343009200002</v>
       </c>
       <c r="Q151" s="1">
-        <v>116.386079479</v>
+        <v>116.386290401</v>
       </c>
       <c r="R151" s="2">
-        <v>39.900458999999998</v>
+        <v>39.901068000000002</v>
       </c>
       <c r="S151" s="2">
-        <v>116.398715</v>
+        <v>116.39892500000001</v>
       </c>
       <c r="U151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V151" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:22">
@@ -9114,34 +9158,34 @@
         <v>150</v>
       </c>
       <c r="D152" s="1">
-        <v>6039890</v>
+        <v>21070080</v>
       </c>
       <c r="F152" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G152" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="J152" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="K152" t="s">
-        <v>362</v>
+        <v>470</v>
       </c>
       <c r="L152" t="s">
         <v>345</v>
       </c>
       <c r="P152" s="1">
-        <v>39.894308641099997</v>
+        <v>39.892350886099997</v>
       </c>
       <c r="Q152" s="1">
-        <v>116.387868994</v>
+        <v>116.384140798</v>
       </c>
       <c r="R152" s="2">
-        <v>39.902043999999997</v>
+        <v>39.900058000000001</v>
       </c>
       <c r="S152" s="2">
-        <v>116.40049999999999</v>
+        <v>116.396781</v>
       </c>
       <c r="U152">
         <v>1</v>
@@ -9156,41 +9200,41 @@
         <v>151</v>
       </c>
       <c r="D153" s="1">
-        <v>23644588</v>
+        <v>21341798</v>
       </c>
       <c r="F153" s="1">
         <v>2</v>
       </c>
       <c r="G153" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="J153" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="K153" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="L153" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="P153" s="1">
-        <v>39.888831453000002</v>
+        <v>39.893156874500001</v>
       </c>
       <c r="Q153" s="1">
-        <v>116.38377211300001</v>
+        <v>116.385292163</v>
       </c>
       <c r="R153" s="2">
-        <v>39.896535999999998</v>
+        <v>39.900874000000002</v>
       </c>
       <c r="S153" s="2">
-        <v>116.396416</v>
+        <v>116.397929</v>
       </c>
       <c r="U153">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="V153" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:22">
@@ -9198,39 +9242,41 @@
         <v>152</v>
       </c>
       <c r="D154" s="1">
-        <v>19423695</v>
+        <v>9077520</v>
       </c>
       <c r="F154" s="1">
         <v>2</v>
       </c>
       <c r="G154" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="J154" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="K154" t="s">
-        <v>484</v>
-      </c>
-      <c r="L154"/>
+        <v>357</v>
+      </c>
+      <c r="L154" t="s">
+        <v>345</v>
+      </c>
       <c r="P154" s="1">
-        <v>39.8940632714</v>
+        <v>39.894997846300001</v>
       </c>
       <c r="Q154" s="1">
-        <v>116.387279823</v>
+        <v>116.388389356</v>
       </c>
       <c r="R154" s="2">
-        <v>39.901795</v>
+        <v>39.902735999999997</v>
       </c>
       <c r="S154" s="2">
-        <v>116.399912</v>
+        <v>116.40101900000001</v>
       </c>
       <c r="U154">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="V154" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>110</v>
       </c>
     </row>
     <row r="155" spans="1:22">
@@ -9238,41 +9284,41 @@
         <v>153</v>
       </c>
       <c r="D155" s="1">
-        <v>5476763</v>
+        <v>24090758</v>
       </c>
       <c r="F155" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G155" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="J155" t="s">
-        <v>149</v>
+        <v>476</v>
       </c>
       <c r="K155" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="L155" t="s">
         <v>345</v>
       </c>
       <c r="P155" s="1">
-        <v>39.892929834299999</v>
+        <v>39.893743147599999</v>
       </c>
       <c r="Q155" s="1">
-        <v>116.385170706</v>
+        <v>116.386559253</v>
       </c>
       <c r="R155" s="2">
-        <v>39.900646000000002</v>
+        <v>39.901470000000003</v>
       </c>
       <c r="S155" s="2">
-        <v>116.397808</v>
+        <v>116.399193</v>
       </c>
       <c r="U155">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="V155" s="1">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="156" spans="1:22">
@@ -9280,16 +9326,16 @@
         <v>154</v>
       </c>
       <c r="D156" s="1">
-        <v>6612404</v>
+        <v>8026976</v>
       </c>
       <c r="F156" s="1">
         <v>4</v>
       </c>
       <c r="G156" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="J156" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="K156" t="s">
         <v>365</v>
@@ -9298,23 +9344,23 @@
         <v>345</v>
       </c>
       <c r="P156" s="1">
-        <v>39.892428750599997</v>
+        <v>39.8927354327</v>
       </c>
       <c r="Q156" s="1">
-        <v>116.386424909</v>
+        <v>116.386079479</v>
       </c>
       <c r="R156" s="2">
-        <v>39.900154999999998</v>
+        <v>39.900458999999998</v>
       </c>
       <c r="S156" s="2">
-        <v>116.39906000000001</v>
+        <v>116.398715</v>
       </c>
       <c r="U156">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V156" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:22">
@@ -9322,34 +9368,34 @@
         <v>155</v>
       </c>
       <c r="D157" s="1">
-        <v>6039873</v>
+        <v>6039890</v>
       </c>
       <c r="F157" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="J157" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="K157" t="s">
-        <v>490</v>
+        <v>362</v>
       </c>
       <c r="L157" t="s">
         <v>345</v>
       </c>
       <c r="P157" s="1">
-        <v>39.893976842199997</v>
+        <v>39.894308641099997</v>
       </c>
       <c r="Q157" s="1">
-        <v>116.387819638</v>
+        <v>116.387868994</v>
       </c>
       <c r="R157" s="2">
-        <v>39.901712000000003</v>
+        <v>39.902043999999997</v>
       </c>
       <c r="S157" s="2">
-        <v>116.400451</v>
+        <v>116.40049999999999</v>
       </c>
       <c r="U157">
         <v>1</v>
@@ -9364,41 +9410,41 @@
         <v>156</v>
       </c>
       <c r="D158" s="1">
-        <v>24107065</v>
+        <v>23644588</v>
       </c>
       <c r="F158" s="1">
+        <v>2</v>
+      </c>
+      <c r="G158" t="s">
+        <v>481</v>
+      </c>
+      <c r="J158" t="s">
+        <v>482</v>
+      </c>
+      <c r="K158" t="s">
+        <v>385</v>
+      </c>
+      <c r="L158" t="s">
+        <v>372</v>
+      </c>
+      <c r="P158" s="1">
+        <v>39.888831453000002</v>
+      </c>
+      <c r="Q158" s="1">
+        <v>116.38377211300001</v>
+      </c>
+      <c r="R158" s="2">
+        <v>39.896535999999998</v>
+      </c>
+      <c r="S158" s="2">
+        <v>116.396416</v>
+      </c>
+      <c r="U158">
         <v>4</v>
-      </c>
-      <c r="G158" t="s">
-        <v>492</v>
-      </c>
-      <c r="J158" t="s">
-        <v>493</v>
-      </c>
-      <c r="K158" t="s">
-        <v>365</v>
-      </c>
-      <c r="L158" t="s">
-        <v>345</v>
-      </c>
-      <c r="P158" s="1">
-        <v>39.892925015199999</v>
-      </c>
-      <c r="Q158" s="1">
-        <v>116.384917126</v>
-      </c>
-      <c r="R158" s="2">
-        <v>39.900638999999998</v>
-      </c>
-      <c r="S158" s="2">
-        <v>116.397555</v>
-      </c>
-      <c r="U158">
-        <v>3</v>
       </c>
       <c r="V158" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:22">
@@ -9406,41 +9452,39 @@
         <v>157</v>
       </c>
       <c r="D159" s="1">
-        <v>48189058</v>
+        <v>19423695</v>
       </c>
       <c r="F159" s="1">
+        <v>2</v>
+      </c>
+      <c r="G159" t="s">
+        <v>483</v>
+      </c>
+      <c r="J159" t="s">
+        <v>485</v>
+      </c>
+      <c r="K159" t="s">
+        <v>484</v>
+      </c>
+      <c r="L159"/>
+      <c r="P159" s="1">
+        <v>39.8940632714</v>
+      </c>
+      <c r="Q159" s="1">
+        <v>116.387279823</v>
+      </c>
+      <c r="R159" s="2">
+        <v>39.901795</v>
+      </c>
+      <c r="S159" s="2">
+        <v>116.399912</v>
+      </c>
+      <c r="U159">
         <v>4</v>
-      </c>
-      <c r="G159" t="s">
-        <v>494</v>
-      </c>
-      <c r="J159" t="s">
-        <v>496</v>
-      </c>
-      <c r="K159" t="s">
-        <v>495</v>
-      </c>
-      <c r="L159" t="s">
-        <v>466</v>
-      </c>
-      <c r="P159" s="1">
-        <v>39.894362530999999</v>
-      </c>
-      <c r="Q159" s="1">
-        <v>116.388059332</v>
-      </c>
-      <c r="R159" s="2">
-        <v>39.902099</v>
-      </c>
-      <c r="S159" s="2">
-        <v>116.40069</v>
-      </c>
-      <c r="U159">
-        <v>1</v>
       </c>
       <c r="V159" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:22">
@@ -9448,16 +9492,16 @@
         <v>158</v>
       </c>
       <c r="D160" s="1">
-        <v>5476771</v>
+        <v>5476763</v>
       </c>
       <c r="F160" s="1">
         <v>2</v>
       </c>
       <c r="G160" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="J160" t="s">
-        <v>498</v>
+        <v>149</v>
       </c>
       <c r="K160" t="s">
         <v>357</v>
@@ -9466,23 +9510,23 @@
         <v>345</v>
       </c>
       <c r="P160" s="1">
-        <v>39.892804230800003</v>
+        <v>39.892929834299999</v>
       </c>
       <c r="Q160" s="1">
-        <v>116.38455116900001</v>
+        <v>116.385170706</v>
       </c>
       <c r="R160" s="2">
-        <v>39.900514999999999</v>
+        <v>39.900646000000002</v>
       </c>
       <c r="S160" s="2">
-        <v>116.39718999999999</v>
+        <v>116.397808</v>
       </c>
       <c r="U160">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V160" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:22">
@@ -9490,16 +9534,16 @@
         <v>159</v>
       </c>
       <c r="D161" s="1">
-        <v>3623797</v>
+        <v>6612404</v>
       </c>
       <c r="F161" s="1">
         <v>4</v>
       </c>
       <c r="G161" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="J161" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="K161" t="s">
         <v>365</v>
@@ -9508,23 +9552,23 @@
         <v>345</v>
       </c>
       <c r="P161" s="1">
-        <v>39.8937491493</v>
+        <v>39.892428750599997</v>
       </c>
       <c r="Q161" s="1">
-        <v>116.38655925800001</v>
+        <v>116.386424909</v>
       </c>
       <c r="R161" s="2">
-        <v>39.901476000000002</v>
+        <v>39.900154999999998</v>
       </c>
       <c r="S161" s="2">
-        <v>116.399193</v>
+        <v>116.39906000000001</v>
       </c>
       <c r="U161">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V161" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:22">
@@ -9532,41 +9576,41 @@
         <v>160</v>
       </c>
       <c r="D162" s="1">
-        <v>6039904</v>
+        <v>6039873</v>
       </c>
       <c r="F162" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G162" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="J162" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="K162" t="s">
-        <v>415</v>
+        <v>490</v>
       </c>
       <c r="L162" t="s">
         <v>345</v>
       </c>
       <c r="P162" s="1">
-        <v>39.8943083415</v>
+        <v>39.893976842199997</v>
       </c>
       <c r="Q162" s="1">
-        <v>116.387919072</v>
+        <v>116.387819638</v>
       </c>
       <c r="R162" s="2">
-        <v>39.902043999999997</v>
+        <v>39.901712000000003</v>
       </c>
       <c r="S162" s="2">
-        <v>116.40055</v>
+        <v>116.400451</v>
       </c>
       <c r="U162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V162" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:22">
@@ -9574,41 +9618,41 @@
         <v>161</v>
       </c>
       <c r="D163" s="1">
-        <v>21945416</v>
+        <v>24107065</v>
       </c>
       <c r="F163" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G163" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="J163" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="K163" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="L163" t="s">
-        <v>503</v>
+        <v>345</v>
       </c>
       <c r="P163" s="1">
-        <v>39.893083086300003</v>
+        <v>39.892925015199999</v>
       </c>
       <c r="Q163" s="1">
-        <v>116.385029514</v>
+        <v>116.384917126</v>
       </c>
       <c r="R163" s="2">
-        <v>39.900798000000002</v>
+        <v>39.900638999999998</v>
       </c>
       <c r="S163" s="2">
-        <v>116.397667</v>
+        <v>116.397555</v>
       </c>
       <c r="U163">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="V163" s="1">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:22">
@@ -9616,41 +9660,41 @@
         <v>162</v>
       </c>
       <c r="D164" s="1">
-        <v>9041551</v>
+        <v>48189058</v>
       </c>
       <c r="F164" s="1">
         <v>4</v>
       </c>
       <c r="G164" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="J164" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="K164" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="L164" t="s">
-        <v>345</v>
+        <v>466</v>
       </c>
       <c r="P164" s="1">
-        <v>39.893328499100001</v>
+        <v>39.894362530999999</v>
       </c>
       <c r="Q164" s="1">
-        <v>116.385463681</v>
+        <v>116.388059332</v>
       </c>
       <c r="R164" s="2">
-        <v>39.901046999999998</v>
+        <v>39.902099</v>
       </c>
       <c r="S164" s="2">
-        <v>116.3981</v>
+        <v>116.40069</v>
       </c>
       <c r="U164">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="V164" s="1">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:22">
@@ -9658,41 +9702,41 @@
         <v>163</v>
       </c>
       <c r="D165" s="1">
-        <v>6612375</v>
+        <v>5476771</v>
       </c>
       <c r="F165" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G165" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="J165" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="K165" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L165" t="s">
         <v>345</v>
       </c>
       <c r="P165" s="1">
-        <v>39.892339518299998</v>
+        <v>39.892804230800003</v>
       </c>
       <c r="Q165" s="1">
-        <v>116.387319461</v>
+        <v>116.38455116900001</v>
       </c>
       <c r="R165" s="2">
-        <v>39.900072000000002</v>
+        <v>39.900514999999999</v>
       </c>
       <c r="S165" s="2">
-        <v>116.399953</v>
+        <v>116.39718999999999</v>
       </c>
       <c r="U165">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V165" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:22">
@@ -9700,34 +9744,34 @@
         <v>164</v>
       </c>
       <c r="D166" s="1">
-        <v>6039864</v>
+        <v>3623797</v>
       </c>
       <c r="F166" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G166" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="J166" t="s">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="K166" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L166" t="s">
         <v>345</v>
       </c>
       <c r="P166" s="1">
-        <v>39.894077144100002</v>
+        <v>39.8937491493</v>
       </c>
       <c r="Q166" s="1">
-        <v>116.387299869</v>
+        <v>116.38655925800001</v>
       </c>
       <c r="R166" s="2">
-        <v>39.901809</v>
+        <v>39.901476000000002</v>
       </c>
       <c r="S166" s="2">
-        <v>116.39993200000001</v>
+        <v>116.399193</v>
       </c>
       <c r="U166">
         <v>1</v>
@@ -9742,34 +9786,34 @@
         <v>165</v>
       </c>
       <c r="D167" s="1">
-        <v>17134142</v>
+        <v>6039904</v>
       </c>
       <c r="F167" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="J167" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="K167" t="s">
-        <v>513</v>
+        <v>415</v>
       </c>
       <c r="L167" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="P167" s="1">
-        <v>39.893235112900001</v>
+        <v>39.8943083415</v>
       </c>
       <c r="Q167" s="1">
-        <v>116.386009751</v>
+        <v>116.387919072</v>
       </c>
       <c r="R167" s="2">
-        <v>39.900958000000003</v>
+        <v>39.902043999999997</v>
       </c>
       <c r="S167" s="2">
-        <v>116.398645</v>
+        <v>116.40055</v>
       </c>
       <c r="U167">
         <v>2</v>
@@ -9784,41 +9828,41 @@
         <v>166</v>
       </c>
       <c r="D168" s="1">
-        <v>24630342</v>
+        <v>21945416</v>
       </c>
       <c r="F168" s="1">
         <v>2</v>
       </c>
       <c r="G168" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="J168" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="K168" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="L168" t="s">
-        <v>345</v>
+        <v>503</v>
       </c>
       <c r="P168" s="1">
-        <v>39.894056599199999</v>
+        <v>39.893083086300003</v>
       </c>
       <c r="Q168" s="1">
-        <v>116.38722973100001</v>
+        <v>116.385029514</v>
       </c>
       <c r="R168" s="2">
-        <v>39.901788000000003</v>
+        <v>39.900798000000002</v>
       </c>
       <c r="S168" s="2">
-        <v>116.399862</v>
+        <v>116.397667</v>
       </c>
       <c r="U168">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="V168" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169" spans="1:22">
@@ -9826,41 +9870,41 @@
         <v>167</v>
       </c>
       <c r="D169" s="1">
-        <v>21159211</v>
+        <v>9041551</v>
       </c>
       <c r="F169" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G169" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="J169" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="K169" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="L169" t="s">
-        <v>466</v>
+        <v>345</v>
       </c>
       <c r="P169" s="1">
-        <v>39.894501620699998</v>
+        <v>39.893328499100001</v>
       </c>
       <c r="Q169" s="1">
-        <v>116.38724613399999</v>
+        <v>116.385463681</v>
       </c>
       <c r="R169" s="2">
-        <v>39.902233000000003</v>
+        <v>39.901046999999998</v>
       </c>
       <c r="S169" s="2">
-        <v>116.399878</v>
+        <v>116.3981</v>
       </c>
       <c r="U169">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="V169" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="170" spans="1:22">
@@ -9868,16 +9912,16 @@
         <v>168</v>
       </c>
       <c r="D170" s="1">
-        <v>3623803</v>
+        <v>6612375</v>
       </c>
       <c r="F170" s="1">
         <v>4</v>
       </c>
       <c r="G170" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="J170" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="K170" t="s">
         <v>365</v>
@@ -9886,23 +9930,23 @@
         <v>345</v>
       </c>
       <c r="P170" s="1">
-        <v>39.894003314099997</v>
+        <v>39.892339518299998</v>
       </c>
       <c r="Q170" s="1">
-        <v>116.387908799</v>
+        <v>116.387319461</v>
       </c>
       <c r="R170" s="2">
-        <v>39.901738999999999</v>
+        <v>39.900072000000002</v>
       </c>
       <c r="S170" s="2">
-        <v>116.40054000000001</v>
+        <v>116.399953</v>
       </c>
       <c r="U170">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V170" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:22">
@@ -9910,41 +9954,41 @@
         <v>169</v>
       </c>
       <c r="D171" s="1">
-        <v>19630202</v>
+        <v>6039864</v>
       </c>
       <c r="F171" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="J171" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="K171" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="L171" t="s">
         <v>345</v>
       </c>
       <c r="P171" s="1">
-        <v>39.8930928905</v>
+        <v>39.894077144100002</v>
       </c>
       <c r="Q171" s="1">
-        <v>116.385529628</v>
+        <v>116.387299869</v>
       </c>
       <c r="R171" s="2">
-        <v>39.900812000000002</v>
+        <v>39.901809</v>
       </c>
       <c r="S171" s="2">
-        <v>116.398166</v>
+        <v>116.39993200000001</v>
       </c>
       <c r="U171">
-        <v>155</v>
+        <v>1</v>
       </c>
       <c r="V171" s="1">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:22">
@@ -9952,41 +9996,41 @@
         <v>170</v>
       </c>
       <c r="D172" s="1">
-        <v>18575829</v>
+        <v>17134142</v>
       </c>
       <c r="F172" s="1">
+        <v>4</v>
+      </c>
+      <c r="G172" t="s">
+        <v>512</v>
+      </c>
+      <c r="J172" t="s">
+        <v>514</v>
+      </c>
+      <c r="K172" t="s">
+        <v>513</v>
+      </c>
+      <c r="L172" t="s">
+        <v>392</v>
+      </c>
+      <c r="P172" s="1">
+        <v>39.893235112900001</v>
+      </c>
+      <c r="Q172" s="1">
+        <v>116.386009751</v>
+      </c>
+      <c r="R172" s="2">
+        <v>39.900958000000003</v>
+      </c>
+      <c r="S172" s="2">
+        <v>116.398645</v>
+      </c>
+      <c r="U172">
         <v>2</v>
-      </c>
-      <c r="G172" t="s">
-        <v>524</v>
-      </c>
-      <c r="J172" t="s">
-        <v>413</v>
-      </c>
-      <c r="K172" t="s">
-        <v>458</v>
-      </c>
-      <c r="L172" t="s">
-        <v>345</v>
-      </c>
-      <c r="P172" s="1">
-        <v>39.893032070300002</v>
-      </c>
-      <c r="Q172" s="1">
-        <v>116.38538426300001</v>
-      </c>
-      <c r="R172" s="2">
-        <v>39.900750000000002</v>
-      </c>
-      <c r="S172" s="2">
-        <v>116.398021</v>
-      </c>
-      <c r="U172">
-        <v>83</v>
       </c>
       <c r="V172" s="1">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:22">
@@ -9994,41 +10038,41 @@
         <v>171</v>
       </c>
       <c r="D173" s="1">
-        <v>4682426</v>
+        <v>24630342</v>
       </c>
       <c r="F173" s="1">
         <v>2</v>
       </c>
       <c r="G173" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="J173" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="K173" t="s">
-        <v>458</v>
+        <v>357</v>
       </c>
       <c r="L173" t="s">
         <v>345</v>
       </c>
       <c r="P173" s="1">
-        <v>39.893912351899999</v>
+        <v>39.894056599199999</v>
       </c>
       <c r="Q173" s="1">
-        <v>116.38696314000001</v>
+        <v>116.38722973100001</v>
       </c>
       <c r="R173" s="2">
-        <v>39.901642000000002</v>
+        <v>39.901788000000003</v>
       </c>
       <c r="S173" s="2">
-        <v>116.399596</v>
+        <v>116.399862</v>
       </c>
       <c r="U173">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V173" s="1">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:22">
@@ -10036,41 +10080,41 @@
         <v>172</v>
       </c>
       <c r="D174" s="1">
-        <v>24324925</v>
+        <v>21159211</v>
       </c>
       <c r="F174" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G174" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="J174" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="K174" t="s">
-        <v>449</v>
+        <v>518</v>
       </c>
       <c r="L174" t="s">
-        <v>345</v>
+        <v>466</v>
       </c>
       <c r="P174" s="1">
-        <v>39.8943831944</v>
+        <v>39.894501620699998</v>
       </c>
       <c r="Q174" s="1">
-        <v>116.388118439</v>
+        <v>116.38724613399999</v>
       </c>
       <c r="R174" s="2">
-        <v>39.902119999999996</v>
+        <v>39.902233000000003</v>
       </c>
       <c r="S174" s="2">
-        <v>116.400749</v>
+        <v>116.399878</v>
       </c>
       <c r="U174">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="V174" s="1">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:22">
@@ -10078,41 +10122,41 @@
         <v>173</v>
       </c>
       <c r="D175" s="1">
-        <v>24016570</v>
+        <v>3623803</v>
       </c>
       <c r="F175" s="1">
         <v>4</v>
       </c>
       <c r="G175" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="J175" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="K175" t="s">
-        <v>530</v>
+        <v>365</v>
       </c>
       <c r="L175" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="P175" s="1">
-        <v>39.890979048799998</v>
+        <v>39.894003314099997</v>
       </c>
       <c r="Q175" s="1">
-        <v>116.380198175</v>
+        <v>116.387908799</v>
       </c>
       <c r="R175" s="2">
-        <v>39.898643</v>
+        <v>39.901738999999999</v>
       </c>
       <c r="S175" s="2">
-        <v>116.39285099999999</v>
+        <v>116.40054000000001</v>
       </c>
       <c r="U175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V175" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:22">
@@ -10120,78 +10164,288 @@
         <v>174</v>
       </c>
       <c r="D176" s="1">
-        <v>3611311</v>
+        <v>19630202</v>
       </c>
       <c r="F176" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G176" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="J176" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="K176" t="s">
-        <v>468</v>
+        <v>369</v>
       </c>
       <c r="L176" t="s">
         <v>345</v>
       </c>
       <c r="P176" s="1">
-        <v>39.896607996199997</v>
+        <v>39.8930928905</v>
       </c>
       <c r="Q176" s="1">
-        <v>116.386558687</v>
+        <v>116.385529628</v>
       </c>
       <c r="R176" s="2">
-        <v>39.904333999999999</v>
+        <v>39.900812000000002</v>
       </c>
       <c r="S176" s="2">
-        <v>116.39919</v>
+        <v>116.398166</v>
       </c>
       <c r="U176">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="V176" s="1">
         <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="D177" s="1">
+        <v>18575829</v>
+      </c>
+      <c r="F177" s="1">
+        <v>2</v>
+      </c>
+      <c r="G177" t="s">
+        <v>524</v>
+      </c>
+      <c r="J177" t="s">
+        <v>413</v>
+      </c>
+      <c r="K177" t="s">
+        <v>458</v>
+      </c>
+      <c r="L177" t="s">
+        <v>345</v>
+      </c>
+      <c r="P177" s="1">
+        <v>39.893032070300002</v>
+      </c>
+      <c r="Q177" s="1">
+        <v>116.38538426300001</v>
+      </c>
+      <c r="R177" s="2">
+        <v>39.900750000000002</v>
+      </c>
+      <c r="S177" s="2">
+        <v>116.398021</v>
+      </c>
+      <c r="U177">
+        <v>83</v>
+      </c>
+      <c r="V177" s="1">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="D178" s="1">
+        <v>4682426</v>
+      </c>
+      <c r="F178" s="1">
+        <v>2</v>
+      </c>
+      <c r="G178" t="s">
+        <v>525</v>
+      </c>
+      <c r="J178" t="s">
+        <v>526</v>
+      </c>
+      <c r="K178" t="s">
+        <v>458</v>
+      </c>
+      <c r="L178" t="s">
+        <v>345</v>
+      </c>
+      <c r="P178" s="1">
+        <v>39.893912351899999</v>
+      </c>
+      <c r="Q178" s="1">
+        <v>116.38696314000001</v>
+      </c>
+      <c r="R178" s="2">
+        <v>39.901642000000002</v>
+      </c>
+      <c r="S178" s="2">
+        <v>116.399596</v>
+      </c>
+      <c r="U178">
+        <v>8</v>
+      </c>
+      <c r="V178" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="D179" s="1">
+        <v>24324925</v>
+      </c>
+      <c r="F179" s="1">
+        <v>2</v>
+      </c>
+      <c r="G179" t="s">
+        <v>527</v>
+      </c>
+      <c r="J179" t="s">
+        <v>528</v>
+      </c>
+      <c r="K179" t="s">
+        <v>449</v>
+      </c>
+      <c r="L179" t="s">
+        <v>345</v>
+      </c>
+      <c r="P179" s="1">
+        <v>39.8943831944</v>
+      </c>
+      <c r="Q179" s="1">
+        <v>116.388118439</v>
+      </c>
+      <c r="R179" s="2">
+        <v>39.902119999999996</v>
+      </c>
+      <c r="S179" s="2">
+        <v>116.400749</v>
+      </c>
+      <c r="U179">
+        <v>20</v>
+      </c>
+      <c r="V179" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="D180" s="1">
+        <v>24016570</v>
+      </c>
+      <c r="F180" s="1">
+        <v>4</v>
+      </c>
+      <c r="G180" t="s">
+        <v>529</v>
+      </c>
+      <c r="J180" t="s">
+        <v>531</v>
+      </c>
+      <c r="K180" t="s">
+        <v>530</v>
+      </c>
+      <c r="L180" t="s">
+        <v>372</v>
+      </c>
+      <c r="P180" s="1">
+        <v>39.890979048799998</v>
+      </c>
+      <c r="Q180" s="1">
+        <v>116.380198175</v>
+      </c>
+      <c r="R180" s="2">
+        <v>39.898643</v>
+      </c>
+      <c r="S180" s="2">
+        <v>116.39285099999999</v>
+      </c>
+      <c r="U180">
+        <v>1</v>
+      </c>
+      <c r="V180" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="D181" s="1">
+        <v>3611311</v>
+      </c>
+      <c r="F181" s="1">
+        <v>4</v>
+      </c>
+      <c r="G181" t="s">
+        <v>532</v>
+      </c>
+      <c r="J181" t="s">
+        <v>533</v>
+      </c>
+      <c r="K181" t="s">
+        <v>468</v>
+      </c>
+      <c r="L181" t="s">
+        <v>345</v>
+      </c>
+      <c r="P181" s="1">
+        <v>39.896607996199997</v>
+      </c>
+      <c r="Q181" s="1">
+        <v>116.386558687</v>
+      </c>
+      <c r="R181" s="2">
+        <v>39.904333999999999</v>
+      </c>
+      <c r="S181" s="2">
+        <v>116.39919</v>
+      </c>
+      <c r="U181">
         <v>3</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="2"/>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="2"/>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="2"/>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="2"/>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" s="2"/>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="V181" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22">
       <c r="A186" s="2"/>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:22">
       <c r="A187" s="2"/>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:22">
       <c r="A188" s="2"/>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:22">
       <c r="A189" s="2"/>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:22">
       <c r="A190" s="2"/>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:22">
       <c r="A191" s="2"/>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:22">
       <c r="A192" s="2"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="2"/>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="2"/>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="2"/>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="2"/>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
